--- a/BackTest/2020-01-19 BackTest IOST.xlsx
+++ b/BackTest/2020-01-19 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>6.97</v>
       </c>
       <c r="F2" t="n">
-        <v>1564.7129</v>
+        <v>10935.0706</v>
       </c>
       <c r="G2" t="n">
-        <v>6.821783333333334</v>
+        <v>6.818466666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.941</v>
+        <v>6.97</v>
       </c>
       <c r="C3" t="n">
-        <v>6.95</v>
+        <v>6.97</v>
       </c>
       <c r="D3" t="n">
-        <v>6.95</v>
+        <v>6.97</v>
       </c>
       <c r="E3" t="n">
-        <v>6.941</v>
+        <v>6.97</v>
       </c>
       <c r="F3" t="n">
-        <v>10935.0706</v>
+        <v>1564.7129</v>
       </c>
       <c r="G3" t="n">
-        <v>6.824766666666667</v>
+        <v>6.821783333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.989</v>
+        <v>6.941</v>
       </c>
       <c r="C4" t="n">
-        <v>6.989</v>
+        <v>6.95</v>
       </c>
       <c r="D4" t="n">
-        <v>6.989</v>
+        <v>6.95</v>
       </c>
       <c r="E4" t="n">
-        <v>6.989</v>
+        <v>6.941</v>
       </c>
       <c r="F4" t="n">
-        <v>27293.0579</v>
+        <v>10935.0706</v>
       </c>
       <c r="G4" t="n">
-        <v>6.829516666666667</v>
+        <v>6.824766666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>6.989</v>
       </c>
       <c r="C5" t="n">
-        <v>6.99</v>
+        <v>6.989</v>
       </c>
       <c r="D5" t="n">
-        <v>6.99</v>
+        <v>6.989</v>
       </c>
       <c r="E5" t="n">
         <v>6.989</v>
       </c>
       <c r="F5" t="n">
-        <v>54293.8197</v>
+        <v>27293.0579</v>
       </c>
       <c r="G5" t="n">
-        <v>6.834966666666667</v>
+        <v>6.829516666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.996</v>
+        <v>6.989</v>
       </c>
       <c r="C6" t="n">
         <v>6.99</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>6.99</v>
       </c>
       <c r="E6" t="n">
-        <v>6.99</v>
+        <v>6.989</v>
       </c>
       <c r="F6" t="n">
-        <v>232660.6934</v>
+        <v>54293.8197</v>
       </c>
       <c r="G6" t="n">
-        <v>6.840416666666667</v>
+        <v>6.834966666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,28 +608,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.971</v>
+        <v>6.996</v>
       </c>
       <c r="C7" t="n">
-        <v>6.961</v>
+        <v>6.99</v>
       </c>
       <c r="D7" t="n">
-        <v>6.971</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>6.961</v>
+        <v>6.99</v>
       </c>
       <c r="F7" t="n">
-        <v>258169.3052</v>
+        <v>232660.6934</v>
       </c>
       <c r="G7" t="n">
-        <v>6.84575</v>
+        <v>6.840416666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,28 +643,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.95</v>
+        <v>6.971</v>
       </c>
       <c r="C8" t="n">
-        <v>6.95</v>
+        <v>6.961</v>
       </c>
       <c r="D8" t="n">
-        <v>6.95</v>
+        <v>6.971</v>
       </c>
       <c r="E8" t="n">
-        <v>6.95</v>
+        <v>6.961</v>
       </c>
       <c r="F8" t="n">
-        <v>33301.5917</v>
+        <v>258169.3052</v>
       </c>
       <c r="G8" t="n">
-        <v>6.850266666666667</v>
+        <v>6.84575</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,10 +690,10 @@
         <v>6.95</v>
       </c>
       <c r="F9" t="n">
-        <v>116296.6642</v>
+        <v>33301.5917</v>
       </c>
       <c r="G9" t="n">
-        <v>6.8536</v>
+        <v>6.850266666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>6.95</v>
       </c>
       <c r="F10" t="n">
-        <v>160625.1226</v>
+        <v>116296.6642</v>
       </c>
       <c r="G10" t="n">
-        <v>6.858316666666667</v>
+        <v>6.8536</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>6.95</v>
       </c>
       <c r="F11" t="n">
-        <v>9297.266100000001</v>
+        <v>160625.1226</v>
       </c>
       <c r="G11" t="n">
-        <v>6.86305</v>
+        <v>6.858316666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.957</v>
+        <v>6.95</v>
       </c>
       <c r="C12" t="n">
-        <v>6.957</v>
+        <v>6.95</v>
       </c>
       <c r="D12" t="n">
-        <v>6.957</v>
+        <v>6.95</v>
       </c>
       <c r="E12" t="n">
-        <v>6.957</v>
+        <v>6.95</v>
       </c>
       <c r="F12" t="n">
-        <v>7825.2378</v>
+        <v>9297.266100000001</v>
       </c>
       <c r="G12" t="n">
-        <v>6.867766666666667</v>
+        <v>6.86305</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.973</v>
+        <v>6.957</v>
       </c>
       <c r="C13" t="n">
-        <v>6.973</v>
+        <v>6.957</v>
       </c>
       <c r="D13" t="n">
-        <v>6.973</v>
+        <v>6.957</v>
       </c>
       <c r="E13" t="n">
-        <v>6.973</v>
+        <v>6.957</v>
       </c>
       <c r="F13" t="n">
-        <v>7432.5026</v>
+        <v>7825.2378</v>
       </c>
       <c r="G13" t="n">
-        <v>6.872750000000001</v>
+        <v>6.867766666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.99</v>
+        <v>6.973</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>6.973</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6.973</v>
       </c>
       <c r="E14" t="n">
-        <v>6.99</v>
+        <v>6.973</v>
       </c>
       <c r="F14" t="n">
-        <v>99000</v>
+        <v>7432.5026</v>
       </c>
       <c r="G14" t="n">
-        <v>6.878183333333335</v>
+        <v>6.872750000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C15" t="n">
         <v>7</v>
       </c>
-      <c r="C15" t="n">
-        <v>7.015</v>
-      </c>
       <c r="D15" t="n">
-        <v>7.015</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6.99</v>
       </c>
       <c r="F15" t="n">
-        <v>240000</v>
+        <v>99000</v>
       </c>
       <c r="G15" t="n">
-        <v>6.883866666666668</v>
+        <v>6.878183333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.015</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>7.015</v>
@@ -932,13 +932,13 @@
         <v>7.015</v>
       </c>
       <c r="E16" t="n">
-        <v>7.015</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>385330.6953</v>
+        <v>240000</v>
       </c>
       <c r="G16" t="n">
-        <v>6.889433333333335</v>
+        <v>6.883866666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.014</v>
+        <v>7.015</v>
       </c>
       <c r="C17" t="n">
-        <v>7.014</v>
+        <v>7.015</v>
       </c>
       <c r="D17" t="n">
-        <v>7.014</v>
+        <v>7.015</v>
       </c>
       <c r="E17" t="n">
-        <v>7.014</v>
+        <v>7.015</v>
       </c>
       <c r="F17" t="n">
-        <v>85581.0175</v>
+        <v>385330.6953</v>
       </c>
       <c r="G17" t="n">
-        <v>6.895283333333335</v>
+        <v>6.889433333333335</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>7.014</v>
       </c>
       <c r="F18" t="n">
-        <v>100521.3735</v>
+        <v>85581.0175</v>
       </c>
       <c r="G18" t="n">
-        <v>6.900183333333334</v>
+        <v>6.895283333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.02</v>
+        <v>7.014</v>
       </c>
       <c r="C19" t="n">
-        <v>7.02</v>
+        <v>7.014</v>
       </c>
       <c r="D19" t="n">
-        <v>7.02</v>
+        <v>7.014</v>
       </c>
       <c r="E19" t="n">
-        <v>7.02</v>
+        <v>7.014</v>
       </c>
       <c r="F19" t="n">
-        <v>2494.823</v>
+        <v>100521.3735</v>
       </c>
       <c r="G19" t="n">
-        <v>6.904700000000001</v>
+        <v>6.900183333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.014</v>
+        <v>7.02</v>
       </c>
       <c r="C20" t="n">
-        <v>7.014</v>
+        <v>7.02</v>
       </c>
       <c r="D20" t="n">
-        <v>7.014</v>
+        <v>7.02</v>
       </c>
       <c r="E20" t="n">
-        <v>7.014</v>
+        <v>7.02</v>
       </c>
       <c r="F20" t="n">
-        <v>7714.5487</v>
+        <v>2494.823</v>
       </c>
       <c r="G20" t="n">
-        <v>6.90875</v>
+        <v>6.904700000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.03</v>
+        <v>7.014</v>
       </c>
       <c r="C21" t="n">
-        <v>7.03</v>
+        <v>7.014</v>
       </c>
       <c r="D21" t="n">
-        <v>7.03</v>
+        <v>7.014</v>
       </c>
       <c r="E21" t="n">
-        <v>7.03</v>
+        <v>7.014</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>7714.5487</v>
       </c>
       <c r="G21" t="n">
-        <v>6.913066666666666</v>
+        <v>6.90875</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.014</v>
+        <v>7.03</v>
       </c>
       <c r="C22" t="n">
-        <v>7.014</v>
+        <v>7.03</v>
       </c>
       <c r="D22" t="n">
-        <v>7.014</v>
+        <v>7.03</v>
       </c>
       <c r="E22" t="n">
-        <v>7.014</v>
+        <v>7.03</v>
       </c>
       <c r="F22" t="n">
-        <v>402.0108</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>6.917050000000001</v>
+        <v>6.913066666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>7.014</v>
       </c>
       <c r="C23" t="n">
-        <v>6.995</v>
+        <v>7.014</v>
       </c>
       <c r="D23" t="n">
         <v>7.014</v>
       </c>
       <c r="E23" t="n">
-        <v>6.995</v>
+        <v>7.014</v>
       </c>
       <c r="F23" t="n">
-        <v>155763.6177</v>
+        <v>402.0108</v>
       </c>
       <c r="G23" t="n">
-        <v>6.920716666666667</v>
+        <v>6.917050000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.02</v>
+        <v>7.014</v>
       </c>
       <c r="C24" t="n">
-        <v>7.02</v>
+        <v>6.995</v>
       </c>
       <c r="D24" t="n">
-        <v>7.02</v>
+        <v>7.014</v>
       </c>
       <c r="E24" t="n">
-        <v>7.02</v>
+        <v>6.995</v>
       </c>
       <c r="F24" t="n">
-        <v>13786.2423</v>
+        <v>155763.6177</v>
       </c>
       <c r="G24" t="n">
-        <v>6.923666666666667</v>
+        <v>6.920716666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.996</v>
+        <v>7.02</v>
       </c>
       <c r="C25" t="n">
-        <v>6.995</v>
+        <v>7.02</v>
       </c>
       <c r="D25" t="n">
-        <v>6.996</v>
+        <v>7.02</v>
       </c>
       <c r="E25" t="n">
-        <v>6.995</v>
+        <v>7.02</v>
       </c>
       <c r="F25" t="n">
-        <v>202644.4312</v>
+        <v>13786.2423</v>
       </c>
       <c r="G25" t="n">
-        <v>6.926683333333333</v>
+        <v>6.923666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.989</v>
+        <v>6.996</v>
       </c>
       <c r="C26" t="n">
-        <v>6.989</v>
+        <v>6.995</v>
       </c>
       <c r="D26" t="n">
-        <v>6.989</v>
+        <v>6.996</v>
       </c>
       <c r="E26" t="n">
-        <v>6.989</v>
+        <v>6.995</v>
       </c>
       <c r="F26" t="n">
-        <v>177020.9374</v>
+        <v>202644.4312</v>
       </c>
       <c r="G26" t="n">
-        <v>6.929533333333334</v>
+        <v>6.926683333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.96</v>
+        <v>6.989</v>
       </c>
       <c r="C27" t="n">
-        <v>6.96</v>
+        <v>6.989</v>
       </c>
       <c r="D27" t="n">
-        <v>6.96</v>
+        <v>6.989</v>
       </c>
       <c r="E27" t="n">
-        <v>6.96</v>
+        <v>6.989</v>
       </c>
       <c r="F27" t="n">
-        <v>2670</v>
+        <v>177020.9374</v>
       </c>
       <c r="G27" t="n">
-        <v>6.932666666666666</v>
+        <v>6.929533333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.99</v>
+        <v>6.96</v>
       </c>
       <c r="C28" t="n">
-        <v>6.998</v>
+        <v>6.96</v>
       </c>
       <c r="D28" t="n">
-        <v>6.998</v>
+        <v>6.96</v>
       </c>
       <c r="E28" t="n">
-        <v>6.99</v>
+        <v>6.96</v>
       </c>
       <c r="F28" t="n">
-        <v>367140.8546</v>
+        <v>2670</v>
       </c>
       <c r="G28" t="n">
-        <v>6.936433333333333</v>
+        <v>6.932666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.003</v>
+        <v>6.99</v>
       </c>
       <c r="C29" t="n">
-        <v>7.003</v>
+        <v>6.998</v>
       </c>
       <c r="D29" t="n">
-        <v>7.003</v>
+        <v>6.998</v>
       </c>
       <c r="E29" t="n">
-        <v>7.003</v>
+        <v>6.99</v>
       </c>
       <c r="F29" t="n">
-        <v>356.7366</v>
+        <v>367140.8546</v>
       </c>
       <c r="G29" t="n">
-        <v>6.94065</v>
+        <v>6.936433333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.95</v>
+        <v>7.003</v>
       </c>
       <c r="C30" t="n">
-        <v>6.944</v>
+        <v>7.003</v>
       </c>
       <c r="D30" t="n">
-        <v>6.95</v>
+        <v>7.003</v>
       </c>
       <c r="E30" t="n">
-        <v>6.944</v>
+        <v>7.003</v>
       </c>
       <c r="F30" t="n">
-        <v>98000</v>
+        <v>356.7366</v>
       </c>
       <c r="G30" t="n">
-        <v>6.943216666666666</v>
+        <v>6.94065</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>6.95</v>
       </c>
       <c r="C31" t="n">
-        <v>6.95</v>
+        <v>6.944</v>
       </c>
       <c r="D31" t="n">
         <v>6.95</v>
       </c>
       <c r="E31" t="n">
-        <v>6.95</v>
+        <v>6.944</v>
       </c>
       <c r="F31" t="n">
-        <v>13640.3951</v>
+        <v>98000</v>
       </c>
       <c r="G31" t="n">
-        <v>6.944383333333333</v>
+        <v>6.943216666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.96</v>
+        <v>6.95</v>
       </c>
       <c r="C32" t="n">
-        <v>6.96</v>
+        <v>6.95</v>
       </c>
       <c r="D32" t="n">
-        <v>6.96</v>
+        <v>6.95</v>
       </c>
       <c r="E32" t="n">
-        <v>6.96</v>
+        <v>6.95</v>
       </c>
       <c r="F32" t="n">
-        <v>14625.8964</v>
+        <v>13640.3951</v>
       </c>
       <c r="G32" t="n">
-        <v>6.945833333333332</v>
+        <v>6.944383333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.938</v>
+        <v>6.96</v>
       </c>
       <c r="C33" t="n">
-        <v>6.938</v>
+        <v>6.96</v>
       </c>
       <c r="D33" t="n">
-        <v>6.938</v>
+        <v>6.96</v>
       </c>
       <c r="E33" t="n">
-        <v>6.938</v>
+        <v>6.96</v>
       </c>
       <c r="F33" t="n">
-        <v>31464.5277</v>
+        <v>14625.8964</v>
       </c>
       <c r="G33" t="n">
-        <v>6.946933333333332</v>
+        <v>6.945833333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.959</v>
+        <v>6.938</v>
       </c>
       <c r="C34" t="n">
-        <v>6.959</v>
+        <v>6.938</v>
       </c>
       <c r="D34" t="n">
-        <v>6.959</v>
+        <v>6.938</v>
       </c>
       <c r="E34" t="n">
-        <v>6.959</v>
+        <v>6.938</v>
       </c>
       <c r="F34" t="n">
-        <v>6150.6377</v>
+        <v>31464.5277</v>
       </c>
       <c r="G34" t="n">
-        <v>6.947933333333332</v>
+        <v>6.946933333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>6.959</v>
       </c>
       <c r="F35" t="n">
-        <v>3266.3171</v>
+        <v>6150.6377</v>
       </c>
       <c r="G35" t="n">
-        <v>6.948933333333332</v>
+        <v>6.947933333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.017</v>
+        <v>6.959</v>
       </c>
       <c r="C36" t="n">
-        <v>7.017</v>
+        <v>6.959</v>
       </c>
       <c r="D36" t="n">
-        <v>7.017</v>
+        <v>6.959</v>
       </c>
       <c r="E36" t="n">
-        <v>7.017</v>
+        <v>6.959</v>
       </c>
       <c r="F36" t="n">
-        <v>36816.5691</v>
+        <v>3266.3171</v>
       </c>
       <c r="G36" t="n">
-        <v>6.951983333333332</v>
+        <v>6.948933333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>7.017</v>
       </c>
       <c r="F37" t="n">
-        <v>3300.516</v>
+        <v>36816.5691</v>
       </c>
       <c r="G37" t="n">
-        <v>6.954599999999998</v>
+        <v>6.951983333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>7.017</v>
       </c>
       <c r="F38" t="n">
-        <v>11659.7394</v>
+        <v>3300.516</v>
       </c>
       <c r="G38" t="n">
-        <v>6.957449999999998</v>
+        <v>6.954599999999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>7.017</v>
       </c>
       <c r="C39" t="n">
-        <v>6.987</v>
+        <v>7.017</v>
       </c>
       <c r="D39" t="n">
         <v>7.017</v>
       </c>
       <c r="E39" t="n">
-        <v>6.987</v>
+        <v>7.017</v>
       </c>
       <c r="F39" t="n">
-        <v>35250.6563</v>
+        <v>11659.7394</v>
       </c>
       <c r="G39" t="n">
-        <v>6.959799999999999</v>
+        <v>6.957449999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.019</v>
+        <v>7.017</v>
       </c>
       <c r="C40" t="n">
-        <v>7.019</v>
+        <v>6.987</v>
       </c>
       <c r="D40" t="n">
-        <v>7.019</v>
+        <v>7.017</v>
       </c>
       <c r="E40" t="n">
-        <v>7.019</v>
+        <v>6.987</v>
       </c>
       <c r="F40" t="n">
-        <v>92.98309999999999</v>
+        <v>35250.6563</v>
       </c>
       <c r="G40" t="n">
-        <v>6.962749999999999</v>
+        <v>6.959799999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>7.019</v>
       </c>
       <c r="F41" t="n">
-        <v>94246.3502</v>
+        <v>92.98309999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>6.965699999999999</v>
+        <v>6.962749999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.99</v>
+        <v>7.019</v>
       </c>
       <c r="C42" t="n">
-        <v>6.99</v>
+        <v>7.019</v>
       </c>
       <c r="D42" t="n">
-        <v>6.99</v>
+        <v>7.019</v>
       </c>
       <c r="E42" t="n">
-        <v>6.99</v>
+        <v>7.019</v>
       </c>
       <c r="F42" t="n">
-        <v>77135.1685</v>
+        <v>94246.3502</v>
       </c>
       <c r="G42" t="n">
-        <v>6.967216666666666</v>
+        <v>6.965699999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.987</v>
+        <v>6.99</v>
       </c>
       <c r="C43" t="n">
-        <v>6.958</v>
+        <v>6.99</v>
       </c>
       <c r="D43" t="n">
-        <v>6.987</v>
+        <v>6.99</v>
       </c>
       <c r="E43" t="n">
-        <v>6.958</v>
+        <v>6.99</v>
       </c>
       <c r="F43" t="n">
-        <v>13047.7782</v>
+        <v>77135.1685</v>
       </c>
       <c r="G43" t="n">
-        <v>6.968583333333333</v>
+        <v>6.967216666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.92</v>
+        <v>6.987</v>
       </c>
       <c r="C44" t="n">
-        <v>6.92</v>
+        <v>6.958</v>
       </c>
       <c r="D44" t="n">
-        <v>6.92</v>
+        <v>6.987</v>
       </c>
       <c r="E44" t="n">
-        <v>6.92</v>
+        <v>6.958</v>
       </c>
       <c r="F44" t="n">
-        <v>362.5</v>
+        <v>13047.7782</v>
       </c>
       <c r="G44" t="n">
-        <v>6.968916666666668</v>
+        <v>6.968583333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.94</v>
+        <v>6.92</v>
       </c>
       <c r="C45" t="n">
-        <v>6.899</v>
+        <v>6.92</v>
       </c>
       <c r="D45" t="n">
-        <v>6.94</v>
+        <v>6.92</v>
       </c>
       <c r="E45" t="n">
-        <v>6.899</v>
+        <v>6.92</v>
       </c>
       <c r="F45" t="n">
-        <v>450</v>
+        <v>362.5</v>
       </c>
       <c r="G45" t="n">
-        <v>6.968900000000001</v>
+        <v>6.968916666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.89</v>
+        <v>6.94</v>
       </c>
       <c r="C46" t="n">
-        <v>6.869</v>
+        <v>6.899</v>
       </c>
       <c r="D46" t="n">
-        <v>6.89</v>
+        <v>6.94</v>
       </c>
       <c r="E46" t="n">
-        <v>6.859</v>
+        <v>6.899</v>
       </c>
       <c r="F46" t="n">
-        <v>68106.73239999999</v>
+        <v>450</v>
       </c>
       <c r="G46" t="n">
-        <v>6.968383333333334</v>
+        <v>6.968900000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.868</v>
+        <v>6.89</v>
       </c>
       <c r="C47" t="n">
-        <v>6.854</v>
+        <v>6.869</v>
       </c>
       <c r="D47" t="n">
-        <v>6.868</v>
+        <v>6.89</v>
       </c>
       <c r="E47" t="n">
-        <v>6.813</v>
+        <v>6.859</v>
       </c>
       <c r="F47" t="n">
-        <v>592837.8199999999</v>
+        <v>68106.73239999999</v>
       </c>
       <c r="G47" t="n">
-        <v>6.968083333333334</v>
+        <v>6.968383333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.77</v>
+        <v>6.868</v>
       </c>
       <c r="C48" t="n">
-        <v>6.751</v>
+        <v>6.854</v>
       </c>
       <c r="D48" t="n">
-        <v>6.77</v>
+        <v>6.868</v>
       </c>
       <c r="E48" t="n">
-        <v>6.751</v>
+        <v>6.813</v>
       </c>
       <c r="F48" t="n">
-        <v>60000</v>
+        <v>592837.8199999999</v>
       </c>
       <c r="G48" t="n">
-        <v>6.9656</v>
+        <v>6.968083333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>6.77</v>
       </c>
       <c r="C49" t="n">
-        <v>6.728</v>
+        <v>6.751</v>
       </c>
       <c r="D49" t="n">
         <v>6.77</v>
       </c>
       <c r="E49" t="n">
-        <v>6.728</v>
+        <v>6.751</v>
       </c>
       <c r="F49" t="n">
-        <v>117388.7026</v>
+        <v>60000</v>
       </c>
       <c r="G49" t="n">
-        <v>6.962733333333334</v>
+        <v>6.9656</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.709</v>
+        <v>6.77</v>
       </c>
       <c r="C50" t="n">
-        <v>6.686</v>
+        <v>6.728</v>
       </c>
       <c r="D50" t="n">
-        <v>6.709</v>
+        <v>6.77</v>
       </c>
       <c r="E50" t="n">
-        <v>6.686</v>
+        <v>6.728</v>
       </c>
       <c r="F50" t="n">
-        <v>40227.2452</v>
+        <v>117388.7026</v>
       </c>
       <c r="G50" t="n">
-        <v>6.959166666666667</v>
+        <v>6.962733333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.69</v>
+        <v>6.709</v>
       </c>
       <c r="C51" t="n">
-        <v>6.69</v>
+        <v>6.686</v>
       </c>
       <c r="D51" t="n">
-        <v>6.69</v>
+        <v>6.709</v>
       </c>
       <c r="E51" t="n">
-        <v>6.69</v>
+        <v>6.686</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>40227.2452</v>
       </c>
       <c r="G51" t="n">
-        <v>6.955666666666668</v>
+        <v>6.959166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="C52" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="D52" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="E52" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="F52" t="n">
-        <v>1306.4124</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>6.951733333333335</v>
+        <v>6.955666666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>6.7</v>
       </c>
       <c r="F53" t="n">
-        <v>66396.8426</v>
+        <v>1306.4124</v>
       </c>
       <c r="G53" t="n">
-        <v>6.947366666666668</v>
+        <v>6.951733333333335</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>6.7</v>
       </c>
       <c r="C54" t="n">
-        <v>6.664</v>
+        <v>6.7</v>
       </c>
       <c r="D54" t="n">
         <v>6.7</v>
       </c>
       <c r="E54" t="n">
-        <v>6.664</v>
+        <v>6.7</v>
       </c>
       <c r="F54" t="n">
-        <v>559780.1244</v>
+        <v>66396.8426</v>
       </c>
       <c r="G54" t="n">
-        <v>6.942400000000002</v>
+        <v>6.947366666666668</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.716</v>
+        <v>6.7</v>
       </c>
       <c r="C55" t="n">
-        <v>6.716</v>
+        <v>6.664</v>
       </c>
       <c r="D55" t="n">
-        <v>6.716</v>
+        <v>6.7</v>
       </c>
       <c r="E55" t="n">
-        <v>6.716</v>
+        <v>6.664</v>
       </c>
       <c r="F55" t="n">
-        <v>212000</v>
+        <v>559780.1244</v>
       </c>
       <c r="G55" t="n">
-        <v>6.938283333333334</v>
+        <v>6.942400000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.675</v>
+        <v>6.716</v>
       </c>
       <c r="C56" t="n">
-        <v>6.675</v>
+        <v>6.716</v>
       </c>
       <c r="D56" t="n">
-        <v>6.675</v>
+        <v>6.716</v>
       </c>
       <c r="E56" t="n">
-        <v>6.675</v>
+        <v>6.716</v>
       </c>
       <c r="F56" t="n">
-        <v>7986.4404</v>
+        <v>212000</v>
       </c>
       <c r="G56" t="n">
-        <v>6.933483333333334</v>
+        <v>6.938283333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>6.675</v>
       </c>
       <c r="F57" t="n">
-        <v>44084.2953</v>
+        <v>7986.4404</v>
       </c>
       <c r="G57" t="n">
-        <v>6.929150000000002</v>
+        <v>6.933483333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>6.675</v>
       </c>
       <c r="F58" t="n">
-        <v>1024.8579</v>
+        <v>44084.2953</v>
       </c>
       <c r="G58" t="n">
-        <v>6.924716666666669</v>
+        <v>6.929150000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.661</v>
+        <v>6.675</v>
       </c>
       <c r="C59" t="n">
-        <v>6.603</v>
+        <v>6.675</v>
       </c>
       <c r="D59" t="n">
-        <v>6.661</v>
+        <v>6.675</v>
       </c>
       <c r="E59" t="n">
-        <v>6.603</v>
+        <v>6.675</v>
       </c>
       <c r="F59" t="n">
-        <v>15507.4166</v>
+        <v>1024.8579</v>
       </c>
       <c r="G59" t="n">
-        <v>6.918583333333335</v>
+        <v>6.924716666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.6</v>
+        <v>6.661</v>
       </c>
       <c r="C60" t="n">
-        <v>6.604</v>
+        <v>6.603</v>
       </c>
       <c r="D60" t="n">
-        <v>6.604</v>
+        <v>6.661</v>
       </c>
       <c r="E60" t="n">
-        <v>6.6</v>
+        <v>6.603</v>
       </c>
       <c r="F60" t="n">
-        <v>11008.49</v>
+        <v>15507.4166</v>
       </c>
       <c r="G60" t="n">
-        <v>6.913150000000002</v>
+        <v>6.918583333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="C61" t="n">
-        <v>6.58</v>
+        <v>6.604</v>
       </c>
       <c r="D61" t="n">
-        <v>6.58</v>
+        <v>6.604</v>
       </c>
       <c r="E61" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="F61" t="n">
-        <v>2700</v>
+        <v>11008.49</v>
       </c>
       <c r="G61" t="n">
-        <v>6.906650000000001</v>
+        <v>6.913150000000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.55</v>
+        <v>6.58</v>
       </c>
       <c r="C62" t="n">
-        <v>6.55</v>
+        <v>6.58</v>
       </c>
       <c r="D62" t="n">
-        <v>6.55</v>
+        <v>6.58</v>
       </c>
       <c r="E62" t="n">
-        <v>6.55</v>
+        <v>6.58</v>
       </c>
       <c r="F62" t="n">
-        <v>3183.8315</v>
+        <v>2700</v>
       </c>
       <c r="G62" t="n">
-        <v>6.89965</v>
+        <v>6.906650000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>6.55</v>
       </c>
       <c r="F63" t="n">
-        <v>27293.0579</v>
+        <v>3183.8315</v>
       </c>
       <c r="G63" t="n">
-        <v>6.892983333333334</v>
+        <v>6.89965</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="C64" t="n">
-        <v>6.571</v>
+        <v>6.55</v>
       </c>
       <c r="D64" t="n">
-        <v>6.571</v>
+        <v>6.55</v>
       </c>
       <c r="E64" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="F64" t="n">
-        <v>21490</v>
+        <v>27293.0579</v>
       </c>
       <c r="G64" t="n">
-        <v>6.886016666666668</v>
+        <v>6.892983333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>6.57</v>
       </c>
       <c r="C65" t="n">
-        <v>6.57</v>
+        <v>6.571</v>
       </c>
       <c r="D65" t="n">
-        <v>6.57</v>
+        <v>6.571</v>
       </c>
       <c r="E65" t="n">
         <v>6.57</v>
       </c>
       <c r="F65" t="n">
-        <v>5800</v>
+        <v>21490</v>
       </c>
       <c r="G65" t="n">
-        <v>6.879016666666669</v>
+        <v>6.886016666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,31 +2673,35 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="C66" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="D66" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="E66" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="F66" t="n">
-        <v>449811.8922</v>
+        <v>5800</v>
       </c>
       <c r="G66" t="n">
-        <v>6.872183333333335</v>
+        <v>6.879016666666669</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6.571</v>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
@@ -2720,20 +2724,28 @@
         <v>6.58</v>
       </c>
       <c r="F67" t="n">
-        <v>7476.4111</v>
+        <v>449811.8922</v>
       </c>
       <c r="G67" t="n">
-        <v>6.865833333333334</v>
+        <v>6.872183333333335</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="K67" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,20 +2767,28 @@
         <v>6.58</v>
       </c>
       <c r="F68" t="n">
-        <v>763855.7712</v>
+        <v>7476.4111</v>
       </c>
       <c r="G68" t="n">
-        <v>6.859666666666667</v>
+        <v>6.865833333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +2810,10 @@
         <v>6.58</v>
       </c>
       <c r="F69" t="n">
-        <v>164621.8313</v>
+        <v>763855.7712</v>
       </c>
       <c r="G69" t="n">
-        <v>6.8535</v>
+        <v>6.859666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2845,10 @@
         <v>6.58</v>
       </c>
       <c r="F70" t="n">
-        <v>46504.4765</v>
+        <v>164621.8313</v>
       </c>
       <c r="G70" t="n">
-        <v>6.847333333333334</v>
+        <v>6.8535</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2880,10 @@
         <v>6.58</v>
       </c>
       <c r="F71" t="n">
-        <v>199864.3642</v>
+        <v>46504.4765</v>
       </c>
       <c r="G71" t="n">
-        <v>6.841166666666667</v>
+        <v>6.847333333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2915,10 @@
         <v>6.58</v>
       </c>
       <c r="F72" t="n">
-        <v>229015.9878</v>
+        <v>199864.3642</v>
       </c>
       <c r="G72" t="n">
-        <v>6.834883333333334</v>
+        <v>6.841166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2950,10 @@
         <v>6.58</v>
       </c>
       <c r="F73" t="n">
-        <v>35810.7432</v>
+        <v>229015.9878</v>
       </c>
       <c r="G73" t="n">
-        <v>6.828333333333333</v>
+        <v>6.834883333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2985,10 @@
         <v>6.58</v>
       </c>
       <c r="F74" t="n">
-        <v>147350.5938</v>
+        <v>35810.7432</v>
       </c>
       <c r="G74" t="n">
-        <v>6.821333333333333</v>
+        <v>6.828333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3020,10 @@
         <v>6.58</v>
       </c>
       <c r="F75" t="n">
-        <v>494102.877</v>
+        <v>147350.5938</v>
       </c>
       <c r="G75" t="n">
-        <v>6.814083333333333</v>
+        <v>6.821333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3055,10 @@
         <v>6.58</v>
       </c>
       <c r="F76" t="n">
-        <v>542140.2277</v>
+        <v>494102.877</v>
       </c>
       <c r="G76" t="n">
-        <v>6.806833333333333</v>
+        <v>6.814083333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3090,10 @@
         <v>6.58</v>
       </c>
       <c r="F77" t="n">
-        <v>10000</v>
+        <v>542140.2277</v>
       </c>
       <c r="G77" t="n">
-        <v>6.799599999999999</v>
+        <v>6.806833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3113,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.549</v>
+        <v>6.58</v>
       </c>
       <c r="C78" t="n">
-        <v>6.549</v>
+        <v>6.58</v>
       </c>
       <c r="D78" t="n">
-        <v>6.549</v>
+        <v>6.58</v>
       </c>
       <c r="E78" t="n">
-        <v>6.549</v>
+        <v>6.58</v>
       </c>
       <c r="F78" t="n">
-        <v>14541.5592</v>
+        <v>10000</v>
       </c>
       <c r="G78" t="n">
-        <v>6.791849999999998</v>
+        <v>6.799599999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3148,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.579</v>
+        <v>6.549</v>
       </c>
       <c r="C79" t="n">
-        <v>6.579</v>
+        <v>6.549</v>
       </c>
       <c r="D79" t="n">
-        <v>6.579</v>
+        <v>6.549</v>
       </c>
       <c r="E79" t="n">
-        <v>6.579</v>
+        <v>6.549</v>
       </c>
       <c r="F79" t="n">
-        <v>155.5241</v>
+        <v>14541.5592</v>
       </c>
       <c r="G79" t="n">
-        <v>6.784499999999999</v>
+        <v>6.791849999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3183,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.54</v>
+        <v>6.579</v>
       </c>
       <c r="C80" t="n">
-        <v>6.54</v>
+        <v>6.579</v>
       </c>
       <c r="D80" t="n">
-        <v>6.54</v>
+        <v>6.579</v>
       </c>
       <c r="E80" t="n">
-        <v>6.54</v>
+        <v>6.579</v>
       </c>
       <c r="F80" t="n">
-        <v>12808.2815</v>
+        <v>155.5241</v>
       </c>
       <c r="G80" t="n">
-        <v>6.776599999999999</v>
+        <v>6.784499999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3218,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.57</v>
+        <v>6.54</v>
       </c>
       <c r="C81" t="n">
         <v>6.54</v>
       </c>
       <c r="D81" t="n">
-        <v>6.57</v>
+        <v>6.54</v>
       </c>
       <c r="E81" t="n">
         <v>6.54</v>
       </c>
       <c r="F81" t="n">
-        <v>14603.8343</v>
+        <v>12808.2815</v>
       </c>
       <c r="G81" t="n">
-        <v>6.768433333333333</v>
+        <v>6.776599999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3253,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C82" t="n">
         <v>6.54</v>
       </c>
-      <c r="C82" t="n">
-        <v>6.53</v>
-      </c>
       <c r="D82" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E82" t="n">
         <v>6.54</v>
       </c>
-      <c r="E82" t="n">
-        <v>6.53</v>
-      </c>
       <c r="F82" t="n">
-        <v>86736.4779</v>
+        <v>14603.8343</v>
       </c>
       <c r="G82" t="n">
-        <v>6.760366666666666</v>
+        <v>6.768433333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,38 +3288,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.53</v>
+        <v>6.54</v>
       </c>
       <c r="C83" t="n">
         <v>6.53</v>
       </c>
       <c r="D83" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E83" t="n">
         <v>6.53</v>
       </c>
-      <c r="E83" t="n">
-        <v>6.52</v>
-      </c>
       <c r="F83" t="n">
-        <v>1227293.1032</v>
+        <v>86736.4779</v>
       </c>
       <c r="G83" t="n">
-        <v>6.752616666666666</v>
+        <v>6.760366666666666</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3318,29 +3332,23 @@
         <v>6.53</v>
       </c>
       <c r="E84" t="n">
-        <v>6.53</v>
+        <v>6.52</v>
       </c>
       <c r="F84" t="n">
-        <v>274411.9141</v>
+        <v>1227293.1032</v>
       </c>
       <c r="G84" t="n">
-        <v>6.744449999999999</v>
+        <v>6.752616666666666</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3362,26 +3370,20 @@
         <v>6.53</v>
       </c>
       <c r="F85" t="n">
-        <v>296103.9752</v>
+        <v>274411.9141</v>
       </c>
       <c r="G85" t="n">
-        <v>6.736699999999998</v>
+        <v>6.744449999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3403,26 +3405,20 @@
         <v>6.53</v>
       </c>
       <c r="F86" t="n">
-        <v>258622.7932</v>
+        <v>296103.9752</v>
       </c>
       <c r="G86" t="n">
-        <v>6.729049999999998</v>
+        <v>6.736699999999998</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3444,26 +3440,20 @@
         <v>6.53</v>
       </c>
       <c r="F87" t="n">
-        <v>500799.6933</v>
+        <v>258622.7932</v>
       </c>
       <c r="G87" t="n">
-        <v>6.721883333333332</v>
+        <v>6.729049999999998</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3485,26 +3475,20 @@
         <v>6.53</v>
       </c>
       <c r="F88" t="n">
-        <v>305701.7363</v>
+        <v>500799.6933</v>
       </c>
       <c r="G88" t="n">
-        <v>6.714083333333331</v>
+        <v>6.721883333333332</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3517,19 +3501,19 @@
         <v>6.53</v>
       </c>
       <c r="C89" t="n">
-        <v>6.522</v>
+        <v>6.53</v>
       </c>
       <c r="D89" t="n">
         <v>6.53</v>
       </c>
       <c r="E89" t="n">
-        <v>6.522</v>
+        <v>6.53</v>
       </c>
       <c r="F89" t="n">
-        <v>487616.1396</v>
+        <v>305701.7363</v>
       </c>
       <c r="G89" t="n">
-        <v>6.706066666666664</v>
+        <v>6.714083333333331</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3539,11 +3523,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3553,22 +3533,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.57</v>
+        <v>6.53</v>
       </c>
       <c r="C90" t="n">
-        <v>6.57</v>
+        <v>6.522</v>
       </c>
       <c r="D90" t="n">
-        <v>6.57</v>
+        <v>6.53</v>
       </c>
       <c r="E90" t="n">
-        <v>6.57</v>
+        <v>6.522</v>
       </c>
       <c r="F90" t="n">
-        <v>3259.7426</v>
+        <v>487616.1396</v>
       </c>
       <c r="G90" t="n">
-        <v>6.699833333333331</v>
+        <v>6.706066666666664</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3578,11 +3558,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3595,33 +3571,33 @@
         <v>6.57</v>
       </c>
       <c r="C91" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="D91" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="E91" t="n">
         <v>6.57</v>
       </c>
       <c r="F91" t="n">
-        <v>795870.8012</v>
+        <v>3259.7426</v>
       </c>
       <c r="G91" t="n">
-        <v>6.693666666666664</v>
+        <v>6.699833333333331</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="n">
+        <v>6.522</v>
+      </c>
+      <c r="K91" t="n">
+        <v>6.522</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3631,22 +3607,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.614</v>
+        <v>6.57</v>
       </c>
       <c r="C92" t="n">
-        <v>6.614</v>
+        <v>6.58</v>
       </c>
       <c r="D92" t="n">
-        <v>6.614</v>
+        <v>6.58</v>
       </c>
       <c r="E92" t="n">
-        <v>6.614</v>
+        <v>6.57</v>
       </c>
       <c r="F92" t="n">
-        <v>155.7946</v>
+        <v>795870.8012</v>
       </c>
       <c r="G92" t="n">
-        <v>6.687899999999997</v>
+        <v>6.693666666666664</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3655,10 +3631,12 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>6.522</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3670,22 +3648,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.623</v>
+        <v>6.614</v>
       </c>
       <c r="C93" t="n">
-        <v>6.623</v>
+        <v>6.614</v>
       </c>
       <c r="D93" t="n">
-        <v>6.623</v>
+        <v>6.614</v>
       </c>
       <c r="E93" t="n">
-        <v>6.623</v>
+        <v>6.614</v>
       </c>
       <c r="F93" t="n">
-        <v>20862.9264</v>
+        <v>155.7946</v>
       </c>
       <c r="G93" t="n">
-        <v>6.682649999999997</v>
+        <v>6.687899999999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3694,10 +3672,12 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>6.522</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3709,22 +3689,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.59</v>
+        <v>6.623</v>
       </c>
       <c r="C94" t="n">
-        <v>6.59</v>
+        <v>6.623</v>
       </c>
       <c r="D94" t="n">
-        <v>6.59</v>
+        <v>6.623</v>
       </c>
       <c r="E94" t="n">
-        <v>6.59</v>
+        <v>6.623</v>
       </c>
       <c r="F94" t="n">
-        <v>6808.3109</v>
+        <v>20862.9264</v>
       </c>
       <c r="G94" t="n">
-        <v>6.676499999999996</v>
+        <v>6.682649999999997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3734,11 +3714,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3748,22 +3724,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.659</v>
+        <v>6.59</v>
       </c>
       <c r="C95" t="n">
-        <v>6.659</v>
+        <v>6.59</v>
       </c>
       <c r="D95" t="n">
-        <v>6.659</v>
+        <v>6.59</v>
       </c>
       <c r="E95" t="n">
-        <v>6.659</v>
+        <v>6.59</v>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>6808.3109</v>
       </c>
       <c r="G95" t="n">
-        <v>6.671499999999996</v>
+        <v>6.676499999999996</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3773,11 +3749,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3787,22 +3759,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.62</v>
+        <v>6.659</v>
       </c>
       <c r="C96" t="n">
-        <v>6.62</v>
+        <v>6.659</v>
       </c>
       <c r="D96" t="n">
-        <v>6.62</v>
+        <v>6.659</v>
       </c>
       <c r="E96" t="n">
-        <v>6.62</v>
+        <v>6.659</v>
       </c>
       <c r="F96" t="n">
-        <v>6809.2226</v>
+        <v>250</v>
       </c>
       <c r="G96" t="n">
-        <v>6.66488333333333</v>
+        <v>6.671499999999996</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3812,11 +3784,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3826,22 +3794,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="C97" t="n">
-        <v>6.64</v>
+        <v>6.62</v>
       </c>
       <c r="D97" t="n">
-        <v>6.649</v>
+        <v>6.62</v>
       </c>
       <c r="E97" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="F97" t="n">
-        <v>4364.2994</v>
+        <v>6809.2226</v>
       </c>
       <c r="G97" t="n">
-        <v>6.658599999999996</v>
+        <v>6.66488333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3851,11 +3819,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3865,22 +3829,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D98" t="n">
         <v>6.649</v>
       </c>
-      <c r="C98" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6.663</v>
-      </c>
       <c r="E98" t="n">
-        <v>6.649</v>
+        <v>6.63</v>
       </c>
       <c r="F98" t="n">
-        <v>61355.3124</v>
+        <v>4364.2994</v>
       </c>
       <c r="G98" t="n">
-        <v>6.652699999999997</v>
+        <v>6.658599999999996</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3890,11 +3854,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3904,7 +3864,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.65</v>
+        <v>6.649</v>
       </c>
       <c r="C99" t="n">
         <v>6.663</v>
@@ -3913,13 +3873,13 @@
         <v>6.663</v>
       </c>
       <c r="E99" t="n">
-        <v>6.638</v>
+        <v>6.649</v>
       </c>
       <c r="F99" t="n">
-        <v>123597.1157</v>
+        <v>61355.3124</v>
       </c>
       <c r="G99" t="n">
-        <v>6.647299999999997</v>
+        <v>6.652699999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3929,11 +3889,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3943,22 +3899,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.631</v>
+        <v>6.65</v>
       </c>
       <c r="C100" t="n">
-        <v>6.631</v>
+        <v>6.663</v>
       </c>
       <c r="D100" t="n">
-        <v>6.631</v>
+        <v>6.663</v>
       </c>
       <c r="E100" t="n">
-        <v>6.631</v>
+        <v>6.638</v>
       </c>
       <c r="F100" t="n">
-        <v>1007.65</v>
+        <v>123597.1157</v>
       </c>
       <c r="G100" t="n">
-        <v>6.64083333333333</v>
+        <v>6.647299999999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3968,11 +3924,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3982,22 +3934,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.65</v>
+        <v>6.631</v>
       </c>
       <c r="C101" t="n">
-        <v>6.657</v>
+        <v>6.631</v>
       </c>
       <c r="D101" t="n">
-        <v>6.657</v>
+        <v>6.631</v>
       </c>
       <c r="E101" t="n">
-        <v>6.65</v>
+        <v>6.631</v>
       </c>
       <c r="F101" t="n">
-        <v>1800</v>
+        <v>1007.65</v>
       </c>
       <c r="G101" t="n">
-        <v>6.634799999999997</v>
+        <v>6.64083333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4007,11 +3959,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4021,22 +3969,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.658</v>
+        <v>6.65</v>
       </c>
       <c r="C102" t="n">
-        <v>6.658</v>
+        <v>6.657</v>
       </c>
       <c r="D102" t="n">
-        <v>6.658</v>
+        <v>6.657</v>
       </c>
       <c r="E102" t="n">
-        <v>6.658</v>
+        <v>6.65</v>
       </c>
       <c r="F102" t="n">
-        <v>74955.97139999999</v>
+        <v>1800</v>
       </c>
       <c r="G102" t="n">
-        <v>6.629266666666664</v>
+        <v>6.634799999999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4046,11 +3994,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4060,22 +4004,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.663</v>
+        <v>6.658</v>
       </c>
       <c r="C103" t="n">
-        <v>6.698</v>
+        <v>6.658</v>
       </c>
       <c r="D103" t="n">
-        <v>6.698</v>
+        <v>6.658</v>
       </c>
       <c r="E103" t="n">
-        <v>6.663</v>
+        <v>6.658</v>
       </c>
       <c r="F103" t="n">
-        <v>9115.217699999999</v>
+        <v>74955.97139999999</v>
       </c>
       <c r="G103" t="n">
-        <v>6.624933333333329</v>
+        <v>6.629266666666664</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4085,11 +4029,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4099,22 +4039,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.671</v>
+        <v>6.663</v>
       </c>
       <c r="C104" t="n">
-        <v>6.7</v>
+        <v>6.698</v>
       </c>
       <c r="D104" t="n">
-        <v>6.7</v>
+        <v>6.698</v>
       </c>
       <c r="E104" t="n">
-        <v>6.671</v>
+        <v>6.663</v>
       </c>
       <c r="F104" t="n">
-        <v>102500</v>
+        <v>9115.217699999999</v>
       </c>
       <c r="G104" t="n">
-        <v>6.621266666666662</v>
+        <v>6.624933333333329</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4124,11 +4064,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4138,22 +4074,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.725</v>
+        <v>6.671</v>
       </c>
       <c r="C105" t="n">
-        <v>6.725</v>
+        <v>6.7</v>
       </c>
       <c r="D105" t="n">
-        <v>6.725</v>
+        <v>6.7</v>
       </c>
       <c r="E105" t="n">
-        <v>6.725</v>
+        <v>6.671</v>
       </c>
       <c r="F105" t="n">
-        <v>155.3265</v>
+        <v>102500</v>
       </c>
       <c r="G105" t="n">
-        <v>6.618366666666662</v>
+        <v>6.621266666666662</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4163,11 +4099,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4189,10 +4121,10 @@
         <v>6.725</v>
       </c>
       <c r="F106" t="n">
-        <v>734475.9292</v>
+        <v>155.3265</v>
       </c>
       <c r="G106" t="n">
-        <v>6.615966666666663</v>
+        <v>6.618366666666662</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4202,11 +4134,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4228,10 +4156,10 @@
         <v>6.725</v>
       </c>
       <c r="F107" t="n">
-        <v>826025.3173</v>
+        <v>734475.9292</v>
       </c>
       <c r="G107" t="n">
-        <v>6.613816666666663</v>
+        <v>6.615966666666663</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4241,11 +4169,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4267,10 +4191,10 @@
         <v>6.725</v>
       </c>
       <c r="F108" t="n">
-        <v>117127.3178</v>
+        <v>826025.3173</v>
       </c>
       <c r="G108" t="n">
-        <v>6.613383333333331</v>
+        <v>6.613816666666663</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4280,11 +4204,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4306,10 +4226,10 @@
         <v>6.725</v>
       </c>
       <c r="F109" t="n">
-        <v>2739506.6445</v>
+        <v>117127.3178</v>
       </c>
       <c r="G109" t="n">
-        <v>6.613333333333331</v>
+        <v>6.613383333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4319,11 +4239,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4333,22 +4249,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.749</v>
+        <v>6.725</v>
       </c>
       <c r="C110" t="n">
-        <v>6.749</v>
+        <v>6.725</v>
       </c>
       <c r="D110" t="n">
-        <v>6.749</v>
+        <v>6.725</v>
       </c>
       <c r="E110" t="n">
-        <v>6.749</v>
+        <v>6.725</v>
       </c>
       <c r="F110" t="n">
-        <v>100</v>
+        <v>2739506.6445</v>
       </c>
       <c r="G110" t="n">
-        <v>6.614383333333332</v>
+        <v>6.613333333333331</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4358,11 +4274,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4372,22 +4284,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.746</v>
+        <v>6.749</v>
       </c>
       <c r="C111" t="n">
-        <v>6.746</v>
+        <v>6.749</v>
       </c>
       <c r="D111" t="n">
-        <v>6.746</v>
+        <v>6.749</v>
       </c>
       <c r="E111" t="n">
-        <v>6.746</v>
+        <v>6.749</v>
       </c>
       <c r="F111" t="n">
-        <v>74428.25378001</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>6.615316666666664</v>
+        <v>6.614383333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4397,34 +4309,32 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.748</v>
+        <v>6.746</v>
       </c>
       <c r="C112" t="n">
-        <v>6.749</v>
+        <v>6.746</v>
       </c>
       <c r="D112" t="n">
-        <v>6.82</v>
+        <v>6.746</v>
       </c>
       <c r="E112" t="n">
-        <v>6.748</v>
+        <v>6.746</v>
       </c>
       <c r="F112" t="n">
-        <v>1067650.7652</v>
+        <v>74428.25378001</v>
       </c>
       <c r="G112" t="n">
-        <v>6.616133333333332</v>
+        <v>6.615316666666664</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4444,28 +4354,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="C113" t="n">
         <v>6.749</v>
       </c>
-      <c r="C113" t="n">
-        <v>6.748</v>
-      </c>
       <c r="D113" t="n">
-        <v>6.749</v>
+        <v>6.82</v>
       </c>
       <c r="E113" t="n">
         <v>6.748</v>
       </c>
       <c r="F113" t="n">
-        <v>195654.1679</v>
+        <v>1067650.7652</v>
       </c>
       <c r="G113" t="n">
-        <v>6.616933333333332</v>
+        <v>6.616133333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4479,22 +4389,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.748</v>
+        <v>6.749</v>
       </c>
       <c r="C114" t="n">
         <v>6.748</v>
       </c>
       <c r="D114" t="n">
-        <v>6.748</v>
+        <v>6.749</v>
       </c>
       <c r="E114" t="n">
         <v>6.748</v>
       </c>
       <c r="F114" t="n">
-        <v>123757.5905</v>
+        <v>195654.1679</v>
       </c>
       <c r="G114" t="n">
-        <v>6.618333333333331</v>
+        <v>6.616933333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4526,10 +4436,10 @@
         <v>6.748</v>
       </c>
       <c r="F115" t="n">
-        <v>65542.3797</v>
+        <v>123757.5905</v>
       </c>
       <c r="G115" t="n">
-        <v>6.618866666666665</v>
+        <v>6.618333333333331</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4561,10 +4471,10 @@
         <v>6.748</v>
       </c>
       <c r="F116" t="n">
-        <v>169562.9781</v>
+        <v>65542.3797</v>
       </c>
       <c r="G116" t="n">
-        <v>6.620083333333331</v>
+        <v>6.618866666666665</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4584,22 +4494,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.668</v>
+        <v>6.748</v>
       </c>
       <c r="C117" t="n">
-        <v>6.65</v>
+        <v>6.748</v>
       </c>
       <c r="D117" t="n">
-        <v>6.668</v>
+        <v>6.748</v>
       </c>
       <c r="E117" t="n">
-        <v>6.65</v>
+        <v>6.748</v>
       </c>
       <c r="F117" t="n">
-        <v>1184.2515</v>
+        <v>169562.9781</v>
       </c>
       <c r="G117" t="n">
-        <v>6.619666666666664</v>
+        <v>6.620083333333331</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4619,22 +4529,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>6.668</v>
+      </c>
+      <c r="C118" t="n">
         <v>6.65</v>
       </c>
-      <c r="C118" t="n">
-        <v>6.678</v>
-      </c>
       <c r="D118" t="n">
-        <v>6.678</v>
+        <v>6.668</v>
       </c>
       <c r="E118" t="n">
         <v>6.65</v>
       </c>
       <c r="F118" t="n">
-        <v>120000</v>
+        <v>1184.2515</v>
       </c>
       <c r="G118" t="n">
-        <v>6.619716666666664</v>
+        <v>6.619666666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4654,22 +4564,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="C119" t="n">
-        <v>6.63</v>
+        <v>6.678</v>
       </c>
       <c r="D119" t="n">
-        <v>6.63</v>
+        <v>6.678</v>
       </c>
       <c r="E119" t="n">
-        <v>6.63</v>
+        <v>6.65</v>
       </c>
       <c r="F119" t="n">
-        <v>7540.849</v>
+        <v>120000</v>
       </c>
       <c r="G119" t="n">
-        <v>6.620166666666663</v>
+        <v>6.619716666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4689,22 +4599,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="C120" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="D120" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="E120" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="F120" t="n">
-        <v>18534.5241</v>
+        <v>7540.849</v>
       </c>
       <c r="G120" t="n">
-        <v>6.620766666666664</v>
+        <v>6.620166666666663</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4727,19 +4637,19 @@
         <v>6.64</v>
       </c>
       <c r="C121" t="n">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
       <c r="D121" t="n">
         <v>6.64</v>
       </c>
       <c r="E121" t="n">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
       <c r="F121" t="n">
-        <v>21465</v>
+        <v>18534.5241</v>
       </c>
       <c r="G121" t="n">
-        <v>6.621599999999997</v>
+        <v>6.620766666666664</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4759,22 +4669,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.67</v>
+        <v>6.64</v>
       </c>
       <c r="C122" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="D122" t="n">
-        <v>6.67</v>
+        <v>6.64</v>
       </c>
       <c r="E122" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="F122" t="n">
-        <v>6335.326</v>
+        <v>21465</v>
       </c>
       <c r="G122" t="n">
-        <v>6.623599999999997</v>
+        <v>6.621599999999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4704,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="C123" t="n">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="D123" t="n">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="E123" t="n">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="F123" t="n">
-        <v>3130.42</v>
+        <v>6335.326</v>
       </c>
       <c r="G123" t="n">
-        <v>6.625099999999997</v>
+        <v>6.623599999999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4829,22 +4739,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.675</v>
+        <v>6.64</v>
       </c>
       <c r="C124" t="n">
-        <v>6.69</v>
+        <v>6.64</v>
       </c>
       <c r="D124" t="n">
-        <v>6.69</v>
+        <v>6.64</v>
       </c>
       <c r="E124" t="n">
-        <v>6.675</v>
+        <v>6.64</v>
       </c>
       <c r="F124" t="n">
-        <v>20862.93</v>
+        <v>3130.42</v>
       </c>
       <c r="G124" t="n">
-        <v>6.62708333333333</v>
+        <v>6.625099999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4864,22 +4774,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.71</v>
+        <v>6.675</v>
       </c>
       <c r="C125" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="D125" t="n">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
       <c r="E125" t="n">
-        <v>6.7</v>
+        <v>6.675</v>
       </c>
       <c r="F125" t="n">
-        <v>48069.8722</v>
+        <v>20862.93</v>
       </c>
       <c r="G125" t="n">
-        <v>6.629249999999996</v>
+        <v>6.62708333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4899,22 +4809,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.709</v>
+        <v>6.71</v>
       </c>
       <c r="C126" t="n">
-        <v>6.709</v>
+        <v>6.7</v>
       </c>
       <c r="D126" t="n">
-        <v>6.709</v>
+        <v>6.71</v>
       </c>
       <c r="E126" t="n">
-        <v>6.709</v>
+        <v>6.7</v>
       </c>
       <c r="F126" t="n">
-        <v>192977.4756</v>
+        <v>48069.8722</v>
       </c>
       <c r="G126" t="n">
-        <v>6.631399999999997</v>
+        <v>6.629249999999996</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4946,10 +4856,10 @@
         <v>6.709</v>
       </c>
       <c r="F127" t="n">
-        <v>59037.6235</v>
+        <v>192977.4756</v>
       </c>
       <c r="G127" t="n">
-        <v>6.633549999999997</v>
+        <v>6.631399999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4969,22 +4879,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.719</v>
+        <v>6.709</v>
       </c>
       <c r="C128" t="n">
-        <v>6.719</v>
+        <v>6.709</v>
       </c>
       <c r="D128" t="n">
-        <v>6.719</v>
+        <v>6.709</v>
       </c>
       <c r="E128" t="n">
-        <v>6.719</v>
+        <v>6.709</v>
       </c>
       <c r="F128" t="n">
-        <v>12166.7857</v>
+        <v>59037.6235</v>
       </c>
       <c r="G128" t="n">
-        <v>6.635866666666663</v>
+        <v>6.633549999999997</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5004,22 +4914,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.67</v>
+        <v>6.719</v>
       </c>
       <c r="C129" t="n">
-        <v>6.67</v>
+        <v>6.719</v>
       </c>
       <c r="D129" t="n">
-        <v>6.67</v>
+        <v>6.719</v>
       </c>
       <c r="E129" t="n">
-        <v>6.67</v>
+        <v>6.719</v>
       </c>
       <c r="F129" t="n">
-        <v>2965.46</v>
+        <v>12166.7857</v>
       </c>
       <c r="G129" t="n">
-        <v>6.637366666666664</v>
+        <v>6.635866666666663</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5051,10 +4961,10 @@
         <v>6.67</v>
       </c>
       <c r="F130" t="n">
-        <v>157.313</v>
+        <v>2965.46</v>
       </c>
       <c r="G130" t="n">
-        <v>6.638866666666664</v>
+        <v>6.637366666666664</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5074,22 +4984,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.707</v>
+        <v>6.67</v>
       </c>
       <c r="C131" t="n">
-        <v>6.707</v>
+        <v>6.67</v>
       </c>
       <c r="D131" t="n">
-        <v>6.707</v>
+        <v>6.67</v>
       </c>
       <c r="E131" t="n">
-        <v>6.707</v>
+        <v>6.67</v>
       </c>
       <c r="F131" t="n">
-        <v>19047.9152</v>
+        <v>157.313</v>
       </c>
       <c r="G131" t="n">
-        <v>6.640983333333332</v>
+        <v>6.638866666666664</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5109,22 +5019,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.65</v>
+        <v>6.707</v>
       </c>
       <c r="C132" t="n">
-        <v>6.66</v>
+        <v>6.707</v>
       </c>
       <c r="D132" t="n">
-        <v>6.66</v>
+        <v>6.707</v>
       </c>
       <c r="E132" t="n">
-        <v>6.638</v>
+        <v>6.707</v>
       </c>
       <c r="F132" t="n">
-        <v>148519.3037</v>
+        <v>19047.9152</v>
       </c>
       <c r="G132" t="n">
-        <v>6.642316666666665</v>
+        <v>6.640983333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5144,22 +5054,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.633</v>
+        <v>6.65</v>
       </c>
       <c r="C133" t="n">
-        <v>6.633</v>
+        <v>6.66</v>
       </c>
       <c r="D133" t="n">
-        <v>6.633</v>
+        <v>6.66</v>
       </c>
       <c r="E133" t="n">
-        <v>6.633</v>
+        <v>6.638</v>
       </c>
       <c r="F133" t="n">
-        <v>90121.83349999999</v>
+        <v>148519.3037</v>
       </c>
       <c r="G133" t="n">
-        <v>6.643199999999998</v>
+        <v>6.642316666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5179,22 +5089,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.699</v>
+        <v>6.633</v>
       </c>
       <c r="C134" t="n">
-        <v>6.699</v>
+        <v>6.633</v>
       </c>
       <c r="D134" t="n">
-        <v>6.699</v>
+        <v>6.633</v>
       </c>
       <c r="E134" t="n">
-        <v>6.699</v>
+        <v>6.633</v>
       </c>
       <c r="F134" t="n">
-        <v>19083.89</v>
+        <v>90121.83349999999</v>
       </c>
       <c r="G134" t="n">
-        <v>6.645183333333333</v>
+        <v>6.643199999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5214,22 +5124,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.704</v>
+        <v>6.699</v>
       </c>
       <c r="C135" t="n">
-        <v>6.704</v>
+        <v>6.699</v>
       </c>
       <c r="D135" t="n">
-        <v>6.704</v>
+        <v>6.699</v>
       </c>
       <c r="E135" t="n">
-        <v>6.704</v>
+        <v>6.699</v>
       </c>
       <c r="F135" t="n">
-        <v>298234.6474</v>
+        <v>19083.89</v>
       </c>
       <c r="G135" t="n">
-        <v>6.64725</v>
+        <v>6.645183333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5261,10 +5171,10 @@
         <v>6.704</v>
       </c>
       <c r="F136" t="n">
-        <v>453615.4908</v>
+        <v>298234.6474</v>
       </c>
       <c r="G136" t="n">
-        <v>6.649316666666667</v>
+        <v>6.64725</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5296,10 +5206,10 @@
         <v>6.704</v>
       </c>
       <c r="F137" t="n">
-        <v>381394.8479</v>
+        <v>453615.4908</v>
       </c>
       <c r="G137" t="n">
-        <v>6.651383333333333</v>
+        <v>6.649316666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5319,22 +5229,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.719</v>
+        <v>6.704</v>
       </c>
       <c r="C138" t="n">
-        <v>6.719</v>
+        <v>6.704</v>
       </c>
       <c r="D138" t="n">
-        <v>6.719</v>
+        <v>6.704</v>
       </c>
       <c r="E138" t="n">
-        <v>6.719</v>
+        <v>6.704</v>
       </c>
       <c r="F138" t="n">
-        <v>91604.76459999999</v>
+        <v>381394.8479</v>
       </c>
       <c r="G138" t="n">
-        <v>6.654216666666668</v>
+        <v>6.651383333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5366,10 +5276,10 @@
         <v>6.719</v>
       </c>
       <c r="F139" t="n">
-        <v>803966.9287</v>
+        <v>91604.76459999999</v>
       </c>
       <c r="G139" t="n">
-        <v>6.65655</v>
+        <v>6.654216666666668</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5401,10 +5311,10 @@
         <v>6.719</v>
       </c>
       <c r="F140" t="n">
-        <v>74229.4339</v>
+        <v>803966.9287</v>
       </c>
       <c r="G140" t="n">
-        <v>6.659533333333333</v>
+        <v>6.65655</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5424,22 +5334,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.72</v>
+        <v>6.719</v>
       </c>
       <c r="C141" t="n">
-        <v>6.72</v>
+        <v>6.719</v>
       </c>
       <c r="D141" t="n">
-        <v>6.72</v>
+        <v>6.719</v>
       </c>
       <c r="E141" t="n">
-        <v>6.72</v>
+        <v>6.719</v>
       </c>
       <c r="F141" t="n">
-        <v>25212.9285</v>
+        <v>74229.4339</v>
       </c>
       <c r="G141" t="n">
-        <v>6.662533333333333</v>
+        <v>6.659533333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5459,22 +5369,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.743</v>
+        <v>6.72</v>
       </c>
       <c r="C142" t="n">
-        <v>6.743</v>
+        <v>6.72</v>
       </c>
       <c r="D142" t="n">
-        <v>6.743</v>
+        <v>6.72</v>
       </c>
       <c r="E142" t="n">
-        <v>6.743</v>
+        <v>6.72</v>
       </c>
       <c r="F142" t="n">
-        <v>1061.8552</v>
+        <v>25212.9285</v>
       </c>
       <c r="G142" t="n">
-        <v>6.666083333333334</v>
+        <v>6.662533333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5494,22 +5404,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.703</v>
+        <v>6.743</v>
       </c>
       <c r="C143" t="n">
-        <v>6.703</v>
+        <v>6.743</v>
       </c>
       <c r="D143" t="n">
-        <v>6.703</v>
+        <v>6.743</v>
       </c>
       <c r="E143" t="n">
-        <v>6.703</v>
+        <v>6.743</v>
       </c>
       <c r="F143" t="n">
-        <v>115160.5209</v>
+        <v>1061.8552</v>
       </c>
       <c r="G143" t="n">
-        <v>6.668966666666667</v>
+        <v>6.666083333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5529,22 +5439,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.71</v>
+        <v>6.703</v>
       </c>
       <c r="C144" t="n">
-        <v>6.71</v>
+        <v>6.703</v>
       </c>
       <c r="D144" t="n">
-        <v>6.71</v>
+        <v>6.703</v>
       </c>
       <c r="E144" t="n">
-        <v>6.71</v>
+        <v>6.703</v>
       </c>
       <c r="F144" t="n">
-        <v>74580.9249</v>
+        <v>115160.5209</v>
       </c>
       <c r="G144" t="n">
-        <v>6.671966666666667</v>
+        <v>6.668966666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5564,22 +5474,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.689</v>
+        <v>6.71</v>
       </c>
       <c r="C145" t="n">
-        <v>6.689</v>
+        <v>6.71</v>
       </c>
       <c r="D145" t="n">
-        <v>6.689</v>
+        <v>6.71</v>
       </c>
       <c r="E145" t="n">
-        <v>6.689</v>
+        <v>6.71</v>
       </c>
       <c r="F145" t="n">
-        <v>2715.229</v>
+        <v>74580.9249</v>
       </c>
       <c r="G145" t="n">
-        <v>6.674616666666668</v>
+        <v>6.671966666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5599,22 +5509,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.73</v>
+        <v>6.689</v>
       </c>
       <c r="C146" t="n">
-        <v>6.703</v>
+        <v>6.689</v>
       </c>
       <c r="D146" t="n">
-        <v>6.73</v>
+        <v>6.689</v>
       </c>
       <c r="E146" t="n">
-        <v>6.703</v>
+        <v>6.689</v>
       </c>
       <c r="F146" t="n">
-        <v>29670.4936</v>
+        <v>2715.229</v>
       </c>
       <c r="G146" t="n">
-        <v>6.677500000000001</v>
+        <v>6.674616666666668</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5634,22 +5544,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.71</v>
+        <v>6.73</v>
       </c>
       <c r="C147" t="n">
-        <v>6.705</v>
+        <v>6.703</v>
       </c>
       <c r="D147" t="n">
-        <v>6.71</v>
+        <v>6.73</v>
       </c>
       <c r="E147" t="n">
-        <v>6.705</v>
+        <v>6.703</v>
       </c>
       <c r="F147" t="n">
-        <v>35979.9832</v>
+        <v>29670.4936</v>
       </c>
       <c r="G147" t="n">
-        <v>6.680416666666669</v>
+        <v>6.677500000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5669,22 +5579,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.662</v>
+        <v>6.71</v>
       </c>
       <c r="C148" t="n">
-        <v>6.662</v>
+        <v>6.705</v>
       </c>
       <c r="D148" t="n">
-        <v>6.662</v>
+        <v>6.71</v>
       </c>
       <c r="E148" t="n">
-        <v>6.662</v>
+        <v>6.705</v>
       </c>
       <c r="F148" t="n">
-        <v>1217.847</v>
+        <v>35979.9832</v>
       </c>
       <c r="G148" t="n">
-        <v>6.682616666666669</v>
+        <v>6.680416666666669</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5704,22 +5614,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.687</v>
+        <v>6.662</v>
       </c>
       <c r="C149" t="n">
-        <v>6.687</v>
+        <v>6.662</v>
       </c>
       <c r="D149" t="n">
-        <v>6.687</v>
+        <v>6.662</v>
       </c>
       <c r="E149" t="n">
-        <v>6.687</v>
+        <v>6.662</v>
       </c>
       <c r="F149" t="n">
-        <v>15000</v>
+        <v>1217.847</v>
       </c>
       <c r="G149" t="n">
-        <v>6.685366666666669</v>
+        <v>6.682616666666669</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5739,22 +5649,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.67</v>
+        <v>6.687</v>
       </c>
       <c r="C150" t="n">
-        <v>6.67</v>
+        <v>6.687</v>
       </c>
       <c r="D150" t="n">
-        <v>6.67</v>
+        <v>6.687</v>
       </c>
       <c r="E150" t="n">
-        <v>6.67</v>
+        <v>6.687</v>
       </c>
       <c r="F150" t="n">
-        <v>6072.2466</v>
+        <v>15000</v>
       </c>
       <c r="G150" t="n">
-        <v>6.687033333333336</v>
+        <v>6.685366666666669</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5774,22 +5684,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.672</v>
+        <v>6.67</v>
       </c>
       <c r="C151" t="n">
-        <v>6.672</v>
+        <v>6.67</v>
       </c>
       <c r="D151" t="n">
-        <v>6.672</v>
+        <v>6.67</v>
       </c>
       <c r="E151" t="n">
-        <v>6.672</v>
+        <v>6.67</v>
       </c>
       <c r="F151" t="n">
-        <v>8797</v>
+        <v>6072.2466</v>
       </c>
       <c r="G151" t="n">
-        <v>6.68856666666667</v>
+        <v>6.687033333333336</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5809,22 +5719,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.677</v>
+        <v>6.672</v>
       </c>
       <c r="C152" t="n">
-        <v>6.677</v>
+        <v>6.672</v>
       </c>
       <c r="D152" t="n">
-        <v>6.677</v>
+        <v>6.672</v>
       </c>
       <c r="E152" t="n">
-        <v>6.677</v>
+        <v>6.672</v>
       </c>
       <c r="F152" t="n">
-        <v>8727</v>
+        <v>8797</v>
       </c>
       <c r="G152" t="n">
-        <v>6.68961666666667</v>
+        <v>6.68856666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5839,6 +5749,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8727</v>
+      </c>
+      <c r="G153" t="n">
+        <v>6.68961666666667</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest IOST.xlsx
+++ b/BackTest/2020-01-19 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>10935.0706</v>
       </c>
       <c r="G2" t="n">
+        <v>6.933666666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.818466666666668</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1564.7129</v>
       </c>
       <c r="G3" t="n">
+        <v>6.940200000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.821783333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>10935.0706</v>
       </c>
       <c r="G4" t="n">
+        <v>6.943533333333335</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.824766666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>27293.0579</v>
       </c>
       <c r="G5" t="n">
+        <v>6.949466666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.829516666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>54293.8197</v>
       </c>
       <c r="G6" t="n">
+        <v>6.955466666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.834966666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>232660.6934</v>
       </c>
       <c r="G7" t="n">
+        <v>6.961466666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.840416666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>258169.3052</v>
       </c>
       <c r="G8" t="n">
+        <v>6.963133333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.84575</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>33301.5917</v>
       </c>
       <c r="G9" t="n">
+        <v>6.962333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.850266666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>116296.6642</v>
       </c>
       <c r="G10" t="n">
+        <v>6.961533333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.8536</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>160625.1226</v>
       </c>
       <c r="G11" t="n">
+        <v>6.960666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.858316666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>9297.266100000001</v>
       </c>
       <c r="G12" t="n">
+        <v>6.959800000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.86305</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>7825.2378</v>
       </c>
       <c r="G13" t="n">
+        <v>6.961266666666668</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.867766666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>7432.5026</v>
       </c>
       <c r="G14" t="n">
+        <v>6.963400000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.872750000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>99000</v>
       </c>
       <c r="G15" t="n">
+        <v>6.965333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.878183333333335</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>240000</v>
       </c>
       <c r="G16" t="n">
+        <v>6.971</v>
+      </c>
+      <c r="H16" t="n">
         <v>6.883866666666668</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>385330.6953</v>
       </c>
       <c r="G17" t="n">
+        <v>6.974</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.889433333333335</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>85581.0175</v>
       </c>
       <c r="G18" t="n">
+        <v>6.976933333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>6.895283333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>100521.3735</v>
       </c>
       <c r="G19" t="n">
+        <v>6.981199999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.900183333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2494.823</v>
       </c>
       <c r="G20" t="n">
+        <v>6.983266666666665</v>
+      </c>
+      <c r="H20" t="n">
         <v>6.904700000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>7714.5487</v>
       </c>
       <c r="G21" t="n">
+        <v>6.984866666666665</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.90875</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>100</v>
       </c>
       <c r="G22" t="n">
+        <v>6.987533333333332</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.913066666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>402.0108</v>
       </c>
       <c r="G23" t="n">
+        <v>6.991066666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.917050000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>155763.6177</v>
       </c>
       <c r="G24" t="n">
+        <v>6.994066666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>6.920716666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>13786.2423</v>
       </c>
       <c r="G25" t="n">
+        <v>6.998733333333332</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.923666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>202644.4312</v>
       </c>
       <c r="G26" t="n">
+        <v>7.001733333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.926683333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>177020.9374</v>
       </c>
       <c r="G27" t="n">
+        <v>7.004333333333332</v>
+      </c>
+      <c r="H27" t="n">
         <v>6.929533333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2670</v>
       </c>
       <c r="G28" t="n">
+        <v>7.004533333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>6.932666666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>367140.8546</v>
       </c>
       <c r="G29" t="n">
+        <v>7.006199999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>6.936433333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>356.7366</v>
       </c>
       <c r="G30" t="n">
+        <v>7.006399999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>6.94065</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>98000</v>
       </c>
       <c r="G31" t="n">
+        <v>7.001666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>6.943216666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>13640.3951</v>
       </c>
       <c r="G32" t="n">
+        <v>6.997333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>6.944383333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>14625.8964</v>
       </c>
       <c r="G33" t="n">
+        <v>6.993733333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.945833333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>31464.5277</v>
       </c>
       <c r="G34" t="n">
+        <v>6.988666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.946933333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>6150.6377</v>
       </c>
       <c r="G35" t="n">
+        <v>6.9846</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.947933333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>3266.3171</v>
       </c>
       <c r="G36" t="n">
+        <v>6.980933333333335</v>
+      </c>
+      <c r="H36" t="n">
         <v>6.948933333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>36816.5691</v>
       </c>
       <c r="G37" t="n">
+        <v>6.980066666666668</v>
+      </c>
+      <c r="H37" t="n">
         <v>6.951983333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>3300.516</v>
       </c>
       <c r="G38" t="n">
+        <v>6.980266666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>6.954599999999998</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>11659.7394</v>
       </c>
       <c r="G39" t="n">
+        <v>6.981733333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>6.957449999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>35250.6563</v>
       </c>
       <c r="G40" t="n">
+        <v>6.979533333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.959799999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>92.98309999999999</v>
       </c>
       <c r="G41" t="n">
+        <v>6.981133333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>6.962749999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>94246.3502</v>
       </c>
       <c r="G42" t="n">
+        <v>6.983133333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>6.965699999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>77135.1685</v>
       </c>
       <c r="G43" t="n">
+        <v>6.985133333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>6.967216666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>13047.7782</v>
       </c>
       <c r="G44" t="n">
+        <v>6.982466666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>6.968583333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>362.5</v>
       </c>
       <c r="G45" t="n">
+        <v>6.976933333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>6.968916666666668</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>450</v>
       </c>
       <c r="G46" t="n">
+        <v>6.973933333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>6.968900000000001</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>68106.73239999999</v>
       </c>
       <c r="G47" t="n">
+        <v>6.968533333333332</v>
+      </c>
+      <c r="H47" t="n">
         <v>6.968383333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>592837.8199999999</v>
       </c>
       <c r="G48" t="n">
+        <v>6.961466666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>6.968083333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>60000</v>
       </c>
       <c r="G49" t="n">
+        <v>6.949</v>
+      </c>
+      <c r="H49" t="n">
         <v>6.9656</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>117388.7026</v>
       </c>
       <c r="G50" t="n">
+        <v>6.933599999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>6.962733333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>40227.2452</v>
       </c>
       <c r="G51" t="n">
+        <v>6.9154</v>
+      </c>
+      <c r="H51" t="n">
         <v>6.959166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>100</v>
       </c>
       <c r="G52" t="n">
+        <v>6.8936</v>
+      </c>
+      <c r="H52" t="n">
         <v>6.955666666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>1306.4124</v>
       </c>
       <c r="G53" t="n">
+        <v>6.872466666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.951733333333335</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>66396.8426</v>
       </c>
       <c r="G54" t="n">
+        <v>6.851333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>6.947366666666668</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>559780.1244</v>
       </c>
       <c r="G55" t="n">
+        <v>6.829800000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>6.942400000000002</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>212000</v>
       </c>
       <c r="G56" t="n">
+        <v>6.809600000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>6.938283333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>7986.4404</v>
       </c>
       <c r="G57" t="n">
+        <v>6.786666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.933483333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>44084.2953</v>
       </c>
       <c r="G58" t="n">
+        <v>6.765666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>6.929150000000002</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1024.8579</v>
       </c>
       <c r="G59" t="n">
+        <v>6.746799999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>6.924716666666669</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>15507.4166</v>
       </c>
       <c r="G60" t="n">
+        <v>6.725666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.918583333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>11008.49</v>
       </c>
       <c r="G61" t="n">
+        <v>6.706</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.913150000000002</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>2700</v>
       </c>
       <c r="G62" t="n">
+        <v>6.686733333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.906650000000001</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>3183.8315</v>
       </c>
       <c r="G63" t="n">
+        <v>6.666466666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.89965</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>27293.0579</v>
       </c>
       <c r="G64" t="n">
+        <v>6.653066666666665</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.892983333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>21490</v>
       </c>
       <c r="G65" t="n">
+        <v>6.642599999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.886016666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,22 +2885,21 @@
         <v>5800</v>
       </c>
       <c r="G66" t="n">
+        <v>6.634866666666665</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.879016666666669</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>6.571</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2727,26 +2923,21 @@
         <v>449811.8922</v>
       </c>
       <c r="G67" t="n">
+        <v>6.627533333333331</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.872183333333335</v>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="K67" t="n">
-        <v>6.571</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,26 +2961,21 @@
         <v>7476.4111</v>
       </c>
       <c r="G68" t="n">
+        <v>6.619533333333331</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.865833333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="K68" t="n">
-        <v>6.571</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +2999,21 @@
         <v>763855.7712</v>
       </c>
       <c r="G69" t="n">
+        <v>6.61153333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.859666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3037,21 @@
         <v>164621.8313</v>
       </c>
       <c r="G70" t="n">
+        <v>6.60593333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.8535</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3075,21 @@
         <v>46504.4765</v>
       </c>
       <c r="G71" t="n">
+        <v>6.596866666666664</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.847333333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3113,21 @@
         <v>199864.3642</v>
       </c>
       <c r="G72" t="n">
+        <v>6.59053333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.841166666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3151,21 @@
         <v>229015.9878</v>
       </c>
       <c r="G73" t="n">
+        <v>6.584199999999997</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.834883333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3189,21 @@
         <v>35810.7432</v>
       </c>
       <c r="G74" t="n">
+        <v>6.577866666666664</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.828333333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3227,21 @@
         <v>147350.5938</v>
       </c>
       <c r="G75" t="n">
+        <v>6.576333333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.821333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3265,21 @@
         <v>494102.877</v>
       </c>
       <c r="G76" t="n">
+        <v>6.574733333333331</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.814083333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3303,21 @@
         <v>542140.2277</v>
       </c>
       <c r="G77" t="n">
+        <v>6.574733333333331</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.806833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3341,21 @@
         <v>10000</v>
       </c>
       <c r="G78" t="n">
+        <v>6.576733333333332</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.799599999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3379,21 @@
         <v>14541.5592</v>
       </c>
       <c r="G79" t="n">
+        <v>6.576666666666665</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.791849999999998</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3417,21 @@
         <v>155.5241</v>
       </c>
       <c r="G80" t="n">
+        <v>6.577199999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.784499999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3455,21 @@
         <v>12808.2815</v>
       </c>
       <c r="G81" t="n">
+        <v>6.575199999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.776599999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3493,21 @@
         <v>14603.8343</v>
       </c>
       <c r="G82" t="n">
+        <v>6.572533333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.768433333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3531,21 @@
         <v>86736.4779</v>
       </c>
       <c r="G83" t="n">
+        <v>6.569199999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.760366666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3569,21 @@
         <v>1227293.1032</v>
       </c>
       <c r="G84" t="n">
+        <v>6.565866666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.752616666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3607,25 @@
         <v>274411.9141</v>
       </c>
       <c r="G85" t="n">
+        <v>6.562533333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.744449999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3649,29 @@
         <v>296103.9752</v>
       </c>
       <c r="G86" t="n">
+        <v>6.559200000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.736699999999998</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="L86" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +3695,29 @@
         <v>258622.7932</v>
       </c>
       <c r="G87" t="n">
+        <v>6.555866666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.729049999999998</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="L87" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +3741,25 @@
         <v>500799.6933</v>
       </c>
       <c r="G88" t="n">
+        <v>6.552533333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.721883333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="L88" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +3783,29 @@
         <v>305701.7363</v>
       </c>
       <c r="G89" t="n">
+        <v>6.549200000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.714083333333331</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +3829,29 @@
         <v>487616.1396</v>
       </c>
       <c r="G90" t="n">
+        <v>6.545333333333335</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.706066666666664</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="L90" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,22 +3875,29 @@
         <v>3259.7426</v>
       </c>
       <c r="G91" t="n">
+        <v>6.544666666666669</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.699833333333331</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>6.522</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>6.522</v>
       </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3622,24 +3921,29 @@
         <v>795870.8012</v>
       </c>
       <c r="G92" t="n">
+        <v>6.544666666666669</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.693666666666664</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="n">
-        <v>6.522</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="L92" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3663,24 +3967,27 @@
         <v>155.7946</v>
       </c>
       <c r="G93" t="n">
+        <v>6.546933333333336</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.687899999999997</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.522</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,18 +4011,27 @@
         <v>20862.9264</v>
       </c>
       <c r="G94" t="n">
+        <v>6.551866666666669</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.682649999999997</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3739,18 +4055,27 @@
         <v>6808.3109</v>
       </c>
       <c r="G95" t="n">
+        <v>6.552600000000003</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.676499999999996</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,18 +4099,27 @@
         <v>250</v>
       </c>
       <c r="G96" t="n">
+        <v>6.560533333333336</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.671499999999996</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,18 +4143,27 @@
         <v>6809.2226</v>
       </c>
       <c r="G97" t="n">
+        <v>6.565866666666669</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.66488333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,18 +4187,27 @@
         <v>4364.2994</v>
       </c>
       <c r="G98" t="n">
+        <v>6.573200000000003</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.658599999999996</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,18 +4231,27 @@
         <v>61355.3124</v>
       </c>
       <c r="G99" t="n">
+        <v>6.582066666666669</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.652699999999997</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,18 +4275,27 @@
         <v>123597.1157</v>
       </c>
       <c r="G100" t="n">
+        <v>6.590933333333336</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.647299999999997</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,18 +4319,27 @@
         <v>1007.65</v>
       </c>
       <c r="G101" t="n">
+        <v>6.597666666666669</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.64083333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,18 +4363,27 @@
         <v>1800</v>
       </c>
       <c r="G102" t="n">
+        <v>6.606133333333335</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.634799999999997</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,18 +4407,27 @@
         <v>74955.97139999999</v>
       </c>
       <c r="G103" t="n">
+        <v>6.614666666666668</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.629266666666664</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,18 +4451,27 @@
         <v>9115.217699999999</v>
       </c>
       <c r="G104" t="n">
+        <v>6.625866666666669</v>
+      </c>
+      <c r="H104" t="n">
         <v>6.624933333333329</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,18 +4495,27 @@
         <v>102500</v>
       </c>
       <c r="G105" t="n">
+        <v>6.637733333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>6.621266666666662</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,18 +4539,27 @@
         <v>155.3265</v>
       </c>
       <c r="G106" t="n">
+        <v>6.648066666666669</v>
+      </c>
+      <c r="H106" t="n">
         <v>6.618366666666662</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,18 +4583,27 @@
         <v>734475.9292</v>
       </c>
       <c r="G107" t="n">
+        <v>6.657733333333336</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.615966666666663</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,18 +4627,27 @@
         <v>826025.3173</v>
       </c>
       <c r="G108" t="n">
+        <v>6.665133333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>6.613816666666663</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,18 +4671,27 @@
         <v>117127.3178</v>
       </c>
       <c r="G109" t="n">
+        <v>6.671933333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>6.613383333333331</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,18 +4715,27 @@
         <v>2739506.6445</v>
       </c>
       <c r="G110" t="n">
+        <v>6.680933333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>6.613333333333331</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,18 +4759,27 @@
         <v>100</v>
       </c>
       <c r="G111" t="n">
+        <v>6.686933333333332</v>
+      </c>
+      <c r="H111" t="n">
         <v>6.614383333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,18 +4803,27 @@
         <v>74428.25378001</v>
       </c>
       <c r="G112" t="n">
+        <v>6.695333333333332</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.615316666666664</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4369,18 +4847,27 @@
         <v>1067650.7652</v>
       </c>
       <c r="G113" t="n">
+        <v>6.702599999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>6.616133333333332</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,18 +4891,27 @@
         <v>195654.1679</v>
       </c>
       <c r="G114" t="n">
+        <v>6.708266666666665</v>
+      </c>
+      <c r="H114" t="n">
         <v>6.616933333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,18 +4935,27 @@
         <v>123757.5905</v>
       </c>
       <c r="G115" t="n">
+        <v>6.713933333333332</v>
+      </c>
+      <c r="H115" t="n">
         <v>6.618333333333331</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,18 +4979,27 @@
         <v>65542.3797</v>
       </c>
       <c r="G116" t="n">
+        <v>6.721733333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>6.618866666666665</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,18 +5023,27 @@
         <v>169562.9781</v>
       </c>
       <c r="G117" t="n">
+        <v>6.7278</v>
+      </c>
+      <c r="H117" t="n">
         <v>6.620083333333331</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,18 +5067,27 @@
         <v>1184.2515</v>
       </c>
       <c r="G118" t="n">
+        <v>6.727266666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>6.619666666666664</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,18 +5111,27 @@
         <v>120000</v>
       </c>
       <c r="G119" t="n">
+        <v>6.725933333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>6.619716666666664</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,18 +5155,27 @@
         <v>7540.849</v>
       </c>
       <c r="G120" t="n">
+        <v>6.721266666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>6.620166666666663</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,18 +5199,27 @@
         <v>18534.5241</v>
       </c>
       <c r="G121" t="n">
+        <v>6.7156</v>
+      </c>
+      <c r="H121" t="n">
         <v>6.620766666666664</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,18 +5243,27 @@
         <v>21465</v>
       </c>
       <c r="G122" t="n">
+        <v>6.709266666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>6.621599999999997</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4719,18 +5287,27 @@
         <v>6335.326</v>
       </c>
       <c r="G123" t="n">
+        <v>6.705600000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>6.623599999999997</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,18 +5331,27 @@
         <v>3130.42</v>
       </c>
       <c r="G124" t="n">
+        <v>6.699933333333335</v>
+      </c>
+      <c r="H124" t="n">
         <v>6.625099999999997</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4789,18 +5375,27 @@
         <v>20862.93</v>
       </c>
       <c r="G125" t="n">
+        <v>6.697600000000002</v>
+      </c>
+      <c r="H125" t="n">
         <v>6.62708333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,18 +5419,27 @@
         <v>48069.8722</v>
       </c>
       <c r="G126" t="n">
+        <v>6.694333333333335</v>
+      </c>
+      <c r="H126" t="n">
         <v>6.629249999999996</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,18 +5463,27 @@
         <v>192977.4756</v>
       </c>
       <c r="G127" t="n">
+        <v>6.69186666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>6.631399999999997</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,18 +5507,27 @@
         <v>59037.6235</v>
       </c>
       <c r="G128" t="n">
+        <v>6.689200000000003</v>
+      </c>
+      <c r="H128" t="n">
         <v>6.633549999999997</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4929,18 +5551,27 @@
         <v>12166.7857</v>
       </c>
       <c r="G129" t="n">
+        <v>6.68726666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>6.635866666666663</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,18 +5595,27 @@
         <v>2965.46</v>
       </c>
       <c r="G130" t="n">
+        <v>6.682066666666669</v>
+      </c>
+      <c r="H130" t="n">
         <v>6.637366666666664</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,18 +5639,27 @@
         <v>157.313</v>
       </c>
       <c r="G131" t="n">
+        <v>6.676866666666669</v>
+      </c>
+      <c r="H131" t="n">
         <v>6.638866666666664</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,18 +5683,27 @@
         <v>19047.9152</v>
       </c>
       <c r="G132" t="n">
+        <v>6.674133333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>6.640983333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,18 +5727,29 @@
         <v>148519.3037</v>
       </c>
       <c r="G133" t="n">
+        <v>6.674800000000001</v>
+      </c>
+      <c r="H133" t="n">
         <v>6.642316666666665</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="L133" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,18 +5773,29 @@
         <v>90121.83349999999</v>
       </c>
       <c r="G134" t="n">
+        <v>6.671800000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>6.643199999999998</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="L134" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,18 +5819,29 @@
         <v>19083.89</v>
       </c>
       <c r="G135" t="n">
+        <v>6.676400000000001</v>
+      </c>
+      <c r="H135" t="n">
         <v>6.645183333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="L135" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,18 +5865,27 @@
         <v>298234.6474</v>
       </c>
       <c r="G136" t="n">
+        <v>6.680666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>6.64725</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,18 +5909,27 @@
         <v>453615.4908</v>
       </c>
       <c r="G137" t="n">
+        <v>6.6856</v>
+      </c>
+      <c r="H137" t="n">
         <v>6.649316666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,18 +5953,27 @@
         <v>381394.8479</v>
       </c>
       <c r="G138" t="n">
+        <v>6.687866666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>6.651383333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5279,18 +5997,27 @@
         <v>91604.76459999999</v>
       </c>
       <c r="G139" t="n">
+        <v>6.693133333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>6.654216666666668</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,18 +6041,27 @@
         <v>803966.9287</v>
       </c>
       <c r="G140" t="n">
+        <v>6.695066666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>6.65655</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,18 +6085,27 @@
         <v>74229.4339</v>
       </c>
       <c r="G141" t="n">
+        <v>6.696333333333332</v>
+      </c>
+      <c r="H141" t="n">
         <v>6.659533333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,18 +6129,27 @@
         <v>25212.9285</v>
       </c>
       <c r="G142" t="n">
+        <v>6.697066666666665</v>
+      </c>
+      <c r="H142" t="n">
         <v>6.662533333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,18 +6173,27 @@
         <v>1061.8552</v>
       </c>
       <c r="G143" t="n">
+        <v>6.699333333333331</v>
+      </c>
+      <c r="H143" t="n">
         <v>6.666083333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,18 +6217,27 @@
         <v>115160.5209</v>
       </c>
       <c r="G144" t="n">
+        <v>6.698266666666665</v>
+      </c>
+      <c r="H144" t="n">
         <v>6.668966666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,18 +6261,27 @@
         <v>74580.9249</v>
       </c>
       <c r="G145" t="n">
+        <v>6.700933333333331</v>
+      </c>
+      <c r="H145" t="n">
         <v>6.671966666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,18 +6305,27 @@
         <v>2715.229</v>
       </c>
       <c r="G146" t="n">
+        <v>6.702199999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>6.674616666666668</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,18 +6349,27 @@
         <v>29670.4936</v>
       </c>
       <c r="G147" t="n">
+        <v>6.701933333333332</v>
+      </c>
+      <c r="H147" t="n">
         <v>6.677500000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,18 +6393,27 @@
         <v>35979.9832</v>
       </c>
       <c r="G148" t="n">
+        <v>6.704933333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>6.680416666666669</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,18 +6437,27 @@
         <v>1217.847</v>
       </c>
       <c r="G149" t="n">
+        <v>6.706866666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>6.682616666666669</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,18 +6481,27 @@
         <v>15000</v>
       </c>
       <c r="G150" t="n">
+        <v>6.706066666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>6.685366666666669</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,18 +6525,27 @@
         <v>6072.2466</v>
       </c>
       <c r="G151" t="n">
+        <v>6.7038</v>
+      </c>
+      <c r="H151" t="n">
         <v>6.687033333333336</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,18 +6569,27 @@
         <v>8797</v>
       </c>
       <c r="G152" t="n">
+        <v>6.701666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>6.68856666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,18 +6613,467 @@
         <v>8727</v>
       </c>
       <c r="G153" t="n">
+        <v>6.699866666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>6.68961666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="F154" t="n">
+        <v>51014.7916</v>
+      </c>
+      <c r="G154" t="n">
+        <v>6.6972</v>
+      </c>
+      <c r="H154" t="n">
+        <v>6.690550000000004</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="F155" t="n">
+        <v>45892.6989</v>
+      </c>
+      <c r="G155" t="n">
+        <v>6.694733333333335</v>
+      </c>
+      <c r="H155" t="n">
+        <v>6.692083333333338</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.683</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.683</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="F156" t="n">
+        <v>39161.5198</v>
+      </c>
+      <c r="G156" t="n">
+        <v>6.692333333333335</v>
+      </c>
+      <c r="H156" t="n">
+        <v>6.692483333333338</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7398.0401</v>
+      </c>
+      <c r="G157" t="n">
+        <v>6.688466666666669</v>
+      </c>
+      <c r="H157" t="n">
+        <v>6.693183333333337</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F158" t="n">
+        <v>100</v>
+      </c>
+      <c r="G158" t="n">
+        <v>6.687600000000002</v>
+      </c>
+      <c r="H158" t="n">
+        <v>6.694683333333338</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="F159" t="n">
+        <v>59897.4003</v>
+      </c>
+      <c r="G159" t="n">
+        <v>6.688933333333336</v>
+      </c>
+      <c r="H159" t="n">
+        <v>6.695683333333338</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.724</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="F160" t="n">
+        <v>152832.9029</v>
+      </c>
+      <c r="G160" t="n">
+        <v>6.689600000000002</v>
+      </c>
+      <c r="H160" t="n">
+        <v>6.696633333333338</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.702</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.701</v>
+      </c>
+      <c r="F161" t="n">
+        <v>43644.0115</v>
+      </c>
+      <c r="G161" t="n">
+        <v>6.690466666666668</v>
+      </c>
+      <c r="H161" t="n">
+        <v>6.697816666666671</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="F162" t="n">
+        <v>76</v>
+      </c>
+      <c r="G162" t="n">
+        <v>6.690600000000002</v>
+      </c>
+      <c r="H162" t="n">
+        <v>6.698616666666671</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="F163" t="n">
+        <v>44934</v>
+      </c>
+      <c r="G163" t="n">
+        <v>6.690600000000002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>6.699400000000003</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest IOST.xlsx
+++ b/BackTest/2020-01-19 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.97</v>
+        <v>6.86</v>
       </c>
       <c r="C2" t="n">
-        <v>6.97</v>
+        <v>6.873</v>
       </c>
       <c r="D2" t="n">
-        <v>6.97</v>
+        <v>6.873</v>
       </c>
       <c r="E2" t="n">
-        <v>6.97</v>
+        <v>6.86</v>
       </c>
       <c r="F2" t="n">
-        <v>10935.0706</v>
+        <v>85000</v>
       </c>
       <c r="G2" t="n">
-        <v>6.933666666666668</v>
+        <v>601394.7987564299</v>
       </c>
       <c r="H2" t="n">
-        <v>6.818466666666668</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.97</v>
+        <v>6.872</v>
       </c>
       <c r="C3" t="n">
-        <v>6.97</v>
+        <v>6.872</v>
       </c>
       <c r="D3" t="n">
-        <v>6.97</v>
+        <v>6.872</v>
       </c>
       <c r="E3" t="n">
-        <v>6.97</v>
+        <v>6.872</v>
       </c>
       <c r="F3" t="n">
-        <v>1564.7129</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="n">
-        <v>6.940200000000002</v>
+        <v>581394.7987564299</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821783333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.941</v>
+        <v>6.872</v>
       </c>
       <c r="C4" t="n">
-        <v>6.95</v>
+        <v>6.899</v>
       </c>
       <c r="D4" t="n">
-        <v>6.95</v>
+        <v>6.899</v>
       </c>
       <c r="E4" t="n">
-        <v>6.941</v>
+        <v>6.872</v>
       </c>
       <c r="F4" t="n">
-        <v>10935.0706</v>
+        <v>76000</v>
       </c>
       <c r="G4" t="n">
-        <v>6.943533333333335</v>
+        <v>657394.7987564299</v>
       </c>
       <c r="H4" t="n">
-        <v>6.824766666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.989</v>
+        <v>6.899</v>
       </c>
       <c r="C5" t="n">
-        <v>6.989</v>
+        <v>6.899</v>
       </c>
       <c r="D5" t="n">
-        <v>6.989</v>
+        <v>6.899</v>
       </c>
       <c r="E5" t="n">
-        <v>6.989</v>
+        <v>6.899</v>
       </c>
       <c r="F5" t="n">
-        <v>27293.0579</v>
+        <v>92000</v>
       </c>
       <c r="G5" t="n">
-        <v>6.949466666666668</v>
+        <v>657394.7987564299</v>
       </c>
       <c r="H5" t="n">
-        <v>6.829516666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.989</v>
+        <v>6.834</v>
       </c>
       <c r="C6" t="n">
-        <v>6.99</v>
+        <v>6.834</v>
       </c>
       <c r="D6" t="n">
-        <v>6.99</v>
+        <v>6.834</v>
       </c>
       <c r="E6" t="n">
-        <v>6.989</v>
+        <v>6.834</v>
       </c>
       <c r="F6" t="n">
-        <v>54293.8197</v>
+        <v>7423.8785</v>
       </c>
       <c r="G6" t="n">
-        <v>6.955466666666667</v>
+        <v>649970.9202564299</v>
       </c>
       <c r="H6" t="n">
-        <v>6.834966666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.996</v>
+        <v>6.862</v>
       </c>
       <c r="C7" t="n">
-        <v>6.99</v>
+        <v>6.86</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6.862</v>
       </c>
       <c r="E7" t="n">
-        <v>6.99</v>
+        <v>6.86</v>
       </c>
       <c r="F7" t="n">
-        <v>232660.6934</v>
+        <v>162564.154</v>
       </c>
       <c r="G7" t="n">
-        <v>6.961466666666666</v>
+        <v>812535.0742564299</v>
       </c>
       <c r="H7" t="n">
-        <v>6.840416666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.971</v>
+        <v>6.86</v>
       </c>
       <c r="C8" t="n">
-        <v>6.961</v>
+        <v>6.846</v>
       </c>
       <c r="D8" t="n">
-        <v>6.971</v>
+        <v>6.86</v>
       </c>
       <c r="E8" t="n">
-        <v>6.961</v>
+        <v>6.846</v>
       </c>
       <c r="F8" t="n">
-        <v>258169.3052</v>
+        <v>167826.5816</v>
       </c>
       <c r="G8" t="n">
-        <v>6.963133333333333</v>
+        <v>644708.4926564299</v>
       </c>
       <c r="H8" t="n">
-        <v>6.84575</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.95</v>
+        <v>6.846</v>
       </c>
       <c r="C9" t="n">
-        <v>6.95</v>
+        <v>6.846</v>
       </c>
       <c r="D9" t="n">
-        <v>6.95</v>
+        <v>6.846</v>
       </c>
       <c r="E9" t="n">
-        <v>6.95</v>
+        <v>6.846</v>
       </c>
       <c r="F9" t="n">
-        <v>33301.5917</v>
+        <v>517538.0622</v>
       </c>
       <c r="G9" t="n">
-        <v>6.962333333333333</v>
+        <v>644708.4926564299</v>
       </c>
       <c r="H9" t="n">
-        <v>6.850266666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.95</v>
+        <v>6.846</v>
       </c>
       <c r="C10" t="n">
-        <v>6.95</v>
+        <v>6.842</v>
       </c>
       <c r="D10" t="n">
-        <v>6.95</v>
+        <v>6.846</v>
       </c>
       <c r="E10" t="n">
-        <v>6.95</v>
+        <v>6.842</v>
       </c>
       <c r="F10" t="n">
-        <v>116296.6642</v>
+        <v>171840.4403</v>
       </c>
       <c r="G10" t="n">
-        <v>6.961533333333334</v>
+        <v>472868.0523564299</v>
       </c>
       <c r="H10" t="n">
-        <v>6.8536</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.95</v>
+        <v>6.85</v>
       </c>
       <c r="C11" t="n">
-        <v>6.95</v>
+        <v>6.842</v>
       </c>
       <c r="D11" t="n">
-        <v>6.95</v>
+        <v>6.85</v>
       </c>
       <c r="E11" t="n">
-        <v>6.95</v>
+        <v>6.842</v>
       </c>
       <c r="F11" t="n">
-        <v>160625.1226</v>
+        <v>11394.0328</v>
       </c>
       <c r="G11" t="n">
-        <v>6.960666666666667</v>
+        <v>472868.0523564299</v>
       </c>
       <c r="H11" t="n">
-        <v>6.858316666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.95</v>
+        <v>6.89</v>
       </c>
       <c r="C12" t="n">
-        <v>6.95</v>
+        <v>6.899</v>
       </c>
       <c r="D12" t="n">
-        <v>6.95</v>
+        <v>6.899</v>
       </c>
       <c r="E12" t="n">
-        <v>6.95</v>
+        <v>6.89</v>
       </c>
       <c r="F12" t="n">
-        <v>9297.266100000001</v>
+        <v>127907.6713</v>
       </c>
       <c r="G12" t="n">
-        <v>6.959800000000001</v>
+        <v>600775.7236564299</v>
       </c>
       <c r="H12" t="n">
-        <v>6.86305</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.957</v>
+        <v>6.899</v>
       </c>
       <c r="C13" t="n">
-        <v>6.957</v>
+        <v>6.876</v>
       </c>
       <c r="D13" t="n">
-        <v>6.957</v>
+        <v>6.899</v>
       </c>
       <c r="E13" t="n">
-        <v>6.957</v>
+        <v>6.876</v>
       </c>
       <c r="F13" t="n">
-        <v>7825.2378</v>
+        <v>6029.7904</v>
       </c>
       <c r="G13" t="n">
-        <v>6.961266666666668</v>
+        <v>594745.9332564299</v>
       </c>
       <c r="H13" t="n">
-        <v>6.867766666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.973</v>
+        <v>6.899</v>
       </c>
       <c r="C14" t="n">
-        <v>6.973</v>
+        <v>6.9</v>
       </c>
       <c r="D14" t="n">
-        <v>6.973</v>
+        <v>6.9</v>
       </c>
       <c r="E14" t="n">
-        <v>6.973</v>
+        <v>6.899</v>
       </c>
       <c r="F14" t="n">
-        <v>7432.5026</v>
+        <v>39588.8766</v>
       </c>
       <c r="G14" t="n">
-        <v>6.963400000000001</v>
+        <v>634334.8098564298</v>
       </c>
       <c r="H14" t="n">
-        <v>6.872750000000001</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.99</v>
+        <v>6.9</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E15" t="n">
-        <v>6.99</v>
+        <v>6.9</v>
       </c>
       <c r="F15" t="n">
-        <v>99000</v>
+        <v>827720.9135</v>
       </c>
       <c r="G15" t="n">
-        <v>6.965333333333334</v>
+        <v>634334.8098564298</v>
       </c>
       <c r="H15" t="n">
-        <v>6.878183333333335</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C16" t="n">
-        <v>7.015</v>
+        <v>6.9</v>
       </c>
       <c r="D16" t="n">
-        <v>7.015</v>
+        <v>6.9</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F16" t="n">
-        <v>240000</v>
+        <v>478398.1656</v>
       </c>
       <c r="G16" t="n">
-        <v>6.971</v>
+        <v>634334.8098564298</v>
       </c>
       <c r="H16" t="n">
-        <v>6.883866666666668</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.015</v>
+        <v>6.872</v>
       </c>
       <c r="C17" t="n">
-        <v>7.015</v>
+        <v>6.872</v>
       </c>
       <c r="D17" t="n">
-        <v>7.015</v>
+        <v>6.872</v>
       </c>
       <c r="E17" t="n">
-        <v>7.015</v>
+        <v>6.872</v>
       </c>
       <c r="F17" t="n">
-        <v>385330.6953</v>
+        <v>15038.3157</v>
       </c>
       <c r="G17" t="n">
-        <v>6.974</v>
+        <v>619296.4941564298</v>
       </c>
       <c r="H17" t="n">
-        <v>6.889433333333335</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="C18" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="D18" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="E18" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="F18" t="n">
-        <v>85581.0175</v>
+        <v>5048.5145</v>
       </c>
       <c r="G18" t="n">
-        <v>6.976933333333333</v>
+        <v>624345.0086564298</v>
       </c>
       <c r="H18" t="n">
-        <v>6.895283333333335</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="C19" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="D19" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="E19" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="F19" t="n">
-        <v>100521.3735</v>
+        <v>42753.3525</v>
       </c>
       <c r="G19" t="n">
-        <v>6.981199999999999</v>
+        <v>624345.0086564298</v>
       </c>
       <c r="H19" t="n">
-        <v>6.900183333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.02</v>
+        <v>6.9</v>
       </c>
       <c r="C20" t="n">
-        <v>7.02</v>
+        <v>6.9</v>
       </c>
       <c r="D20" t="n">
-        <v>7.02</v>
+        <v>6.9</v>
       </c>
       <c r="E20" t="n">
-        <v>7.02</v>
+        <v>6.9</v>
       </c>
       <c r="F20" t="n">
-        <v>2494.823</v>
+        <v>306160.5771</v>
       </c>
       <c r="G20" t="n">
-        <v>6.983266666666665</v>
+        <v>624345.0086564298</v>
       </c>
       <c r="H20" t="n">
-        <v>6.904700000000001</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="C21" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="D21" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="E21" t="n">
-        <v>7.014</v>
+        <v>6.9</v>
       </c>
       <c r="F21" t="n">
-        <v>7714.5487</v>
+        <v>245602.4374</v>
       </c>
       <c r="G21" t="n">
-        <v>6.984866666666665</v>
+        <v>624345.0086564298</v>
       </c>
       <c r="H21" t="n">
-        <v>6.90875</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.03</v>
+        <v>6.936</v>
       </c>
       <c r="C22" t="n">
-        <v>7.03</v>
+        <v>6.936</v>
       </c>
       <c r="D22" t="n">
-        <v>7.03</v>
+        <v>6.936</v>
       </c>
       <c r="E22" t="n">
-        <v>7.03</v>
+        <v>6.936</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>12385.2451</v>
       </c>
       <c r="G22" t="n">
-        <v>6.987533333333332</v>
+        <v>636730.2537564298</v>
       </c>
       <c r="H22" t="n">
-        <v>6.913066666666666</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.014</v>
+        <v>6.962</v>
       </c>
       <c r="C23" t="n">
-        <v>7.014</v>
+        <v>6.962</v>
       </c>
       <c r="D23" t="n">
-        <v>7.014</v>
+        <v>6.962</v>
       </c>
       <c r="E23" t="n">
-        <v>7.014</v>
+        <v>6.962</v>
       </c>
       <c r="F23" t="n">
-        <v>402.0108</v>
+        <v>131402.9462</v>
       </c>
       <c r="G23" t="n">
-        <v>6.991066666666666</v>
+        <v>768133.1999564298</v>
       </c>
       <c r="H23" t="n">
-        <v>6.917050000000001</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.014</v>
+        <v>6.962</v>
       </c>
       <c r="C24" t="n">
-        <v>6.995</v>
+        <v>6.962</v>
       </c>
       <c r="D24" t="n">
-        <v>7.014</v>
+        <v>6.962</v>
       </c>
       <c r="E24" t="n">
-        <v>6.995</v>
+        <v>6.961</v>
       </c>
       <c r="F24" t="n">
-        <v>155763.6177</v>
+        <v>26335.3961</v>
       </c>
       <c r="G24" t="n">
-        <v>6.994066666666666</v>
+        <v>768133.1999564298</v>
       </c>
       <c r="H24" t="n">
-        <v>6.920716666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.02</v>
+        <v>6.962</v>
       </c>
       <c r="C25" t="n">
-        <v>7.02</v>
+        <v>6.963</v>
       </c>
       <c r="D25" t="n">
-        <v>7.02</v>
+        <v>6.963</v>
       </c>
       <c r="E25" t="n">
-        <v>7.02</v>
+        <v>6.962</v>
       </c>
       <c r="F25" t="n">
-        <v>13786.2423</v>
+        <v>107041.0688</v>
       </c>
       <c r="G25" t="n">
-        <v>6.998733333333332</v>
+        <v>875174.2687564298</v>
       </c>
       <c r="H25" t="n">
-        <v>6.923666666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.996</v>
+        <v>6.963</v>
       </c>
       <c r="C26" t="n">
-        <v>6.995</v>
+        <v>6.963</v>
       </c>
       <c r="D26" t="n">
-        <v>6.996</v>
+        <v>6.963</v>
       </c>
       <c r="E26" t="n">
-        <v>6.995</v>
+        <v>6.963</v>
       </c>
       <c r="F26" t="n">
-        <v>202644.4312</v>
+        <v>53726.6674</v>
       </c>
       <c r="G26" t="n">
-        <v>7.001733333333332</v>
+        <v>875174.2687564298</v>
       </c>
       <c r="H26" t="n">
-        <v>6.926683333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.989</v>
+        <v>6.934</v>
       </c>
       <c r="C27" t="n">
-        <v>6.989</v>
+        <v>6.935</v>
       </c>
       <c r="D27" t="n">
-        <v>6.989</v>
+        <v>6.935</v>
       </c>
       <c r="E27" t="n">
-        <v>6.989</v>
+        <v>6.934</v>
       </c>
       <c r="F27" t="n">
-        <v>177020.9374</v>
+        <v>90121.83349999999</v>
       </c>
       <c r="G27" t="n">
-        <v>7.004333333333332</v>
+        <v>785052.4352564298</v>
       </c>
       <c r="H27" t="n">
-        <v>6.929533333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.96</v>
+        <v>6.941</v>
       </c>
       <c r="C28" t="n">
-        <v>6.96</v>
+        <v>6.941</v>
       </c>
       <c r="D28" t="n">
-        <v>6.96</v>
+        <v>6.941</v>
       </c>
       <c r="E28" t="n">
-        <v>6.96</v>
+        <v>6.941</v>
       </c>
       <c r="F28" t="n">
-        <v>2670</v>
+        <v>253000</v>
       </c>
       <c r="G28" t="n">
-        <v>7.004533333333332</v>
+        <v>1038052.43525643</v>
       </c>
       <c r="H28" t="n">
-        <v>6.932666666666666</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.99</v>
+        <v>6.963</v>
       </c>
       <c r="C29" t="n">
-        <v>6.998</v>
+        <v>6.971</v>
       </c>
       <c r="D29" t="n">
-        <v>6.998</v>
+        <v>6.971</v>
       </c>
       <c r="E29" t="n">
-        <v>6.99</v>
+        <v>6.963</v>
       </c>
       <c r="F29" t="n">
-        <v>367140.8546</v>
+        <v>60000</v>
       </c>
       <c r="G29" t="n">
-        <v>7.006199999999999</v>
+        <v>1098052.43525643</v>
       </c>
       <c r="H29" t="n">
-        <v>6.936433333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.003</v>
+        <v>6.93</v>
       </c>
       <c r="C30" t="n">
-        <v>7.003</v>
+        <v>6.93</v>
       </c>
       <c r="D30" t="n">
-        <v>7.003</v>
+        <v>6.93</v>
       </c>
       <c r="E30" t="n">
-        <v>7.003</v>
+        <v>6.93</v>
       </c>
       <c r="F30" t="n">
-        <v>356.7366</v>
+        <v>50796.4887</v>
       </c>
       <c r="G30" t="n">
-        <v>7.006399999999999</v>
+        <v>1047255.94655643</v>
       </c>
       <c r="H30" t="n">
-        <v>6.94065</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.95</v>
+        <v>6.97</v>
       </c>
       <c r="C31" t="n">
-        <v>6.944</v>
+        <v>6.97</v>
       </c>
       <c r="D31" t="n">
-        <v>6.95</v>
+        <v>6.97</v>
       </c>
       <c r="E31" t="n">
-        <v>6.944</v>
+        <v>6.97</v>
       </c>
       <c r="F31" t="n">
-        <v>98000</v>
+        <v>10935.0706</v>
       </c>
       <c r="G31" t="n">
-        <v>7.001666666666666</v>
+        <v>1058191.01715643</v>
       </c>
       <c r="H31" t="n">
-        <v>6.943216666666666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.95</v>
+        <v>6.97</v>
       </c>
       <c r="C32" t="n">
-        <v>6.95</v>
+        <v>6.97</v>
       </c>
       <c r="D32" t="n">
-        <v>6.95</v>
+        <v>6.97</v>
       </c>
       <c r="E32" t="n">
-        <v>6.95</v>
+        <v>6.97</v>
       </c>
       <c r="F32" t="n">
-        <v>13640.3951</v>
+        <v>1564.7129</v>
       </c>
       <c r="G32" t="n">
-        <v>6.997333333333333</v>
+        <v>1058191.01715643</v>
       </c>
       <c r="H32" t="n">
-        <v>6.944383333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.96</v>
+        <v>6.941</v>
       </c>
       <c r="C33" t="n">
-        <v>6.96</v>
+        <v>6.95</v>
       </c>
       <c r="D33" t="n">
-        <v>6.96</v>
+        <v>6.95</v>
       </c>
       <c r="E33" t="n">
-        <v>6.96</v>
+        <v>6.941</v>
       </c>
       <c r="F33" t="n">
-        <v>14625.8964</v>
+        <v>10935.0706</v>
       </c>
       <c r="G33" t="n">
-        <v>6.993733333333333</v>
+        <v>1047255.94655643</v>
       </c>
       <c r="H33" t="n">
-        <v>6.945833333333332</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.938</v>
+        <v>6.989</v>
       </c>
       <c r="C34" t="n">
-        <v>6.938</v>
+        <v>6.989</v>
       </c>
       <c r="D34" t="n">
-        <v>6.938</v>
+        <v>6.989</v>
       </c>
       <c r="E34" t="n">
-        <v>6.938</v>
+        <v>6.989</v>
       </c>
       <c r="F34" t="n">
-        <v>31464.5277</v>
+        <v>27293.0579</v>
       </c>
       <c r="G34" t="n">
-        <v>6.988666666666666</v>
+        <v>1074549.00445643</v>
       </c>
       <c r="H34" t="n">
-        <v>6.946933333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.959</v>
+        <v>6.989</v>
       </c>
       <c r="C35" t="n">
-        <v>6.959</v>
+        <v>6.99</v>
       </c>
       <c r="D35" t="n">
-        <v>6.959</v>
+        <v>6.99</v>
       </c>
       <c r="E35" t="n">
-        <v>6.959</v>
+        <v>6.989</v>
       </c>
       <c r="F35" t="n">
-        <v>6150.6377</v>
+        <v>54293.8197</v>
       </c>
       <c r="G35" t="n">
-        <v>6.9846</v>
+        <v>1128842.82415643</v>
       </c>
       <c r="H35" t="n">
-        <v>6.947933333333332</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.959</v>
+        <v>6.996</v>
       </c>
       <c r="C36" t="n">
-        <v>6.959</v>
+        <v>6.99</v>
       </c>
       <c r="D36" t="n">
-        <v>6.959</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>6.959</v>
+        <v>6.99</v>
       </c>
       <c r="F36" t="n">
-        <v>3266.3171</v>
+        <v>232660.6934</v>
       </c>
       <c r="G36" t="n">
-        <v>6.980933333333335</v>
+        <v>1128842.82415643</v>
       </c>
       <c r="H36" t="n">
-        <v>6.948933333333332</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.017</v>
+        <v>6.971</v>
       </c>
       <c r="C37" t="n">
-        <v>7.017</v>
+        <v>6.961</v>
       </c>
       <c r="D37" t="n">
-        <v>7.017</v>
+        <v>6.971</v>
       </c>
       <c r="E37" t="n">
-        <v>7.017</v>
+        <v>6.961</v>
       </c>
       <c r="F37" t="n">
-        <v>36816.5691</v>
+        <v>258169.3052</v>
       </c>
       <c r="G37" t="n">
-        <v>6.980066666666668</v>
+        <v>870673.51895643</v>
       </c>
       <c r="H37" t="n">
-        <v>6.951983333333332</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="C38" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="D38" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="E38" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>3300.516</v>
+        <v>33301.5917</v>
       </c>
       <c r="G38" t="n">
-        <v>6.980266666666667</v>
+        <v>837371.92725643</v>
       </c>
       <c r="H38" t="n">
-        <v>6.954599999999998</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="C39" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="D39" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="E39" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="F39" t="n">
-        <v>11659.7394</v>
+        <v>116296.6642</v>
       </c>
       <c r="G39" t="n">
-        <v>6.981733333333334</v>
+        <v>837371.92725643</v>
       </c>
       <c r="H39" t="n">
-        <v>6.957449999999998</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="C40" t="n">
-        <v>6.987</v>
+        <v>6.95</v>
       </c>
       <c r="D40" t="n">
-        <v>7.017</v>
+        <v>6.95</v>
       </c>
       <c r="E40" t="n">
-        <v>6.987</v>
+        <v>6.95</v>
       </c>
       <c r="F40" t="n">
-        <v>35250.6563</v>
+        <v>160625.1226</v>
       </c>
       <c r="G40" t="n">
-        <v>6.979533333333333</v>
+        <v>837371.92725643</v>
       </c>
       <c r="H40" t="n">
-        <v>6.959799999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.019</v>
+        <v>6.95</v>
       </c>
       <c r="C41" t="n">
-        <v>7.019</v>
+        <v>6.95</v>
       </c>
       <c r="D41" t="n">
-        <v>7.019</v>
+        <v>6.95</v>
       </c>
       <c r="E41" t="n">
-        <v>7.019</v>
+        <v>6.95</v>
       </c>
       <c r="F41" t="n">
-        <v>92.98309999999999</v>
+        <v>9297.266100000001</v>
       </c>
       <c r="G41" t="n">
-        <v>6.981133333333333</v>
+        <v>837371.92725643</v>
       </c>
       <c r="H41" t="n">
-        <v>6.962749999999999</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.019</v>
+        <v>6.957</v>
       </c>
       <c r="C42" t="n">
-        <v>7.019</v>
+        <v>6.957</v>
       </c>
       <c r="D42" t="n">
-        <v>7.019</v>
+        <v>6.957</v>
       </c>
       <c r="E42" t="n">
-        <v>7.019</v>
+        <v>6.957</v>
       </c>
       <c r="F42" t="n">
-        <v>94246.3502</v>
+        <v>7825.2378</v>
       </c>
       <c r="G42" t="n">
-        <v>6.983133333333333</v>
+        <v>845197.16505643</v>
       </c>
       <c r="H42" t="n">
-        <v>6.965699999999999</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.99</v>
+        <v>6.973</v>
       </c>
       <c r="C43" t="n">
-        <v>6.99</v>
+        <v>6.973</v>
       </c>
       <c r="D43" t="n">
-        <v>6.99</v>
+        <v>6.973</v>
       </c>
       <c r="E43" t="n">
-        <v>6.99</v>
+        <v>6.973</v>
       </c>
       <c r="F43" t="n">
-        <v>77135.1685</v>
+        <v>7432.5026</v>
       </c>
       <c r="G43" t="n">
-        <v>6.985133333333334</v>
+        <v>852629.66765643</v>
       </c>
       <c r="H43" t="n">
-        <v>6.967216666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.987</v>
+        <v>6.99</v>
       </c>
       <c r="C44" t="n">
-        <v>6.958</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>6.987</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>6.958</v>
+        <v>6.99</v>
       </c>
       <c r="F44" t="n">
-        <v>13047.7782</v>
+        <v>99000</v>
       </c>
       <c r="G44" t="n">
-        <v>6.982466666666666</v>
+        <v>951629.66765643</v>
       </c>
       <c r="H44" t="n">
-        <v>6.968583333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.92</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
-        <v>6.92</v>
+        <v>7.015</v>
       </c>
       <c r="D45" t="n">
-        <v>6.92</v>
+        <v>7.015</v>
       </c>
       <c r="E45" t="n">
-        <v>6.92</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>362.5</v>
+        <v>240000</v>
       </c>
       <c r="G45" t="n">
-        <v>6.976933333333333</v>
+        <v>1191629.66765643</v>
       </c>
       <c r="H45" t="n">
-        <v>6.968916666666668</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.94</v>
+        <v>7.015</v>
       </c>
       <c r="C46" t="n">
-        <v>6.899</v>
+        <v>7.015</v>
       </c>
       <c r="D46" t="n">
-        <v>6.94</v>
+        <v>7.015</v>
       </c>
       <c r="E46" t="n">
-        <v>6.899</v>
+        <v>7.015</v>
       </c>
       <c r="F46" t="n">
-        <v>450</v>
+        <v>385330.6953</v>
       </c>
       <c r="G46" t="n">
-        <v>6.973933333333333</v>
+        <v>1191629.66765643</v>
       </c>
       <c r="H46" t="n">
-        <v>6.968900000000001</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.89</v>
+        <v>7.014</v>
       </c>
       <c r="C47" t="n">
-        <v>6.869</v>
+        <v>7.014</v>
       </c>
       <c r="D47" t="n">
-        <v>6.89</v>
+        <v>7.014</v>
       </c>
       <c r="E47" t="n">
-        <v>6.859</v>
+        <v>7.014</v>
       </c>
       <c r="F47" t="n">
-        <v>68106.73239999999</v>
+        <v>85581.0175</v>
       </c>
       <c r="G47" t="n">
-        <v>6.968533333333332</v>
+        <v>1106048.65015643</v>
       </c>
       <c r="H47" t="n">
-        <v>6.968383333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.868</v>
+        <v>7.014</v>
       </c>
       <c r="C48" t="n">
-        <v>6.854</v>
+        <v>7.014</v>
       </c>
       <c r="D48" t="n">
-        <v>6.868</v>
+        <v>7.014</v>
       </c>
       <c r="E48" t="n">
-        <v>6.813</v>
+        <v>7.014</v>
       </c>
       <c r="F48" t="n">
-        <v>592837.8199999999</v>
+        <v>100521.3735</v>
       </c>
       <c r="G48" t="n">
-        <v>6.961466666666666</v>
+        <v>1106048.65015643</v>
       </c>
       <c r="H48" t="n">
-        <v>6.968083333333334</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.77</v>
+        <v>7.02</v>
       </c>
       <c r="C49" t="n">
-        <v>6.751</v>
+        <v>7.02</v>
       </c>
       <c r="D49" t="n">
-        <v>6.77</v>
+        <v>7.02</v>
       </c>
       <c r="E49" t="n">
-        <v>6.751</v>
+        <v>7.02</v>
       </c>
       <c r="F49" t="n">
-        <v>60000</v>
+        <v>2494.823</v>
       </c>
       <c r="G49" t="n">
-        <v>6.949</v>
+        <v>1108543.47315643</v>
       </c>
       <c r="H49" t="n">
-        <v>6.9656</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.77</v>
+        <v>7.014</v>
       </c>
       <c r="C50" t="n">
-        <v>6.728</v>
+        <v>7.014</v>
       </c>
       <c r="D50" t="n">
-        <v>6.77</v>
+        <v>7.014</v>
       </c>
       <c r="E50" t="n">
-        <v>6.728</v>
+        <v>7.014</v>
       </c>
       <c r="F50" t="n">
-        <v>117388.7026</v>
+        <v>7714.5487</v>
       </c>
       <c r="G50" t="n">
-        <v>6.933599999999999</v>
+        <v>1100828.92445643</v>
       </c>
       <c r="H50" t="n">
-        <v>6.962733333333334</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.709</v>
+        <v>7.03</v>
       </c>
       <c r="C51" t="n">
-        <v>6.686</v>
+        <v>7.03</v>
       </c>
       <c r="D51" t="n">
-        <v>6.709</v>
+        <v>7.03</v>
       </c>
       <c r="E51" t="n">
-        <v>6.686</v>
+        <v>7.03</v>
       </c>
       <c r="F51" t="n">
-        <v>40227.2452</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>6.9154</v>
+        <v>1100928.92445643</v>
       </c>
       <c r="H51" t="n">
-        <v>6.959166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.69</v>
+        <v>7.014</v>
       </c>
       <c r="C52" t="n">
-        <v>6.69</v>
+        <v>7.014</v>
       </c>
       <c r="D52" t="n">
-        <v>6.69</v>
+        <v>7.014</v>
       </c>
       <c r="E52" t="n">
-        <v>6.69</v>
+        <v>7.014</v>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>402.0108</v>
       </c>
       <c r="G52" t="n">
-        <v>6.8936</v>
+        <v>1100526.91365643</v>
       </c>
       <c r="H52" t="n">
-        <v>6.955666666666668</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.7</v>
+        <v>7.014</v>
       </c>
       <c r="C53" t="n">
-        <v>6.7</v>
+        <v>6.995</v>
       </c>
       <c r="D53" t="n">
-        <v>6.7</v>
+        <v>7.014</v>
       </c>
       <c r="E53" t="n">
-        <v>6.7</v>
+        <v>6.995</v>
       </c>
       <c r="F53" t="n">
-        <v>1306.4124</v>
+        <v>155763.6177</v>
       </c>
       <c r="G53" t="n">
-        <v>6.872466666666667</v>
+        <v>944763.29595643</v>
       </c>
       <c r="H53" t="n">
-        <v>6.951733333333335</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.7</v>
+        <v>7.02</v>
       </c>
       <c r="C54" t="n">
-        <v>6.7</v>
+        <v>7.02</v>
       </c>
       <c r="D54" t="n">
-        <v>6.7</v>
+        <v>7.02</v>
       </c>
       <c r="E54" t="n">
-        <v>6.7</v>
+        <v>7.02</v>
       </c>
       <c r="F54" t="n">
-        <v>66396.8426</v>
+        <v>13786.2423</v>
       </c>
       <c r="G54" t="n">
-        <v>6.851333333333334</v>
+        <v>958549.5382564301</v>
       </c>
       <c r="H54" t="n">
-        <v>6.947366666666668</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.7</v>
+        <v>6.996</v>
       </c>
       <c r="C55" t="n">
-        <v>6.664</v>
+        <v>6.995</v>
       </c>
       <c r="D55" t="n">
-        <v>6.7</v>
+        <v>6.996</v>
       </c>
       <c r="E55" t="n">
-        <v>6.664</v>
+        <v>6.995</v>
       </c>
       <c r="F55" t="n">
-        <v>559780.1244</v>
+        <v>202644.4312</v>
       </c>
       <c r="G55" t="n">
-        <v>6.829800000000001</v>
+        <v>755905.1070564301</v>
       </c>
       <c r="H55" t="n">
-        <v>6.942400000000002</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.716</v>
+        <v>6.989</v>
       </c>
       <c r="C56" t="n">
-        <v>6.716</v>
+        <v>6.989</v>
       </c>
       <c r="D56" t="n">
-        <v>6.716</v>
+        <v>6.989</v>
       </c>
       <c r="E56" t="n">
-        <v>6.716</v>
+        <v>6.989</v>
       </c>
       <c r="F56" t="n">
-        <v>212000</v>
+        <v>177020.9374</v>
       </c>
       <c r="G56" t="n">
-        <v>6.809600000000001</v>
+        <v>578884.1696564301</v>
       </c>
       <c r="H56" t="n">
-        <v>6.938283333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.675</v>
+        <v>6.96</v>
       </c>
       <c r="C57" t="n">
-        <v>6.675</v>
+        <v>6.96</v>
       </c>
       <c r="D57" t="n">
-        <v>6.675</v>
+        <v>6.96</v>
       </c>
       <c r="E57" t="n">
-        <v>6.675</v>
+        <v>6.96</v>
       </c>
       <c r="F57" t="n">
-        <v>7986.4404</v>
+        <v>2670</v>
       </c>
       <c r="G57" t="n">
-        <v>6.786666666666666</v>
+        <v>576214.1696564301</v>
       </c>
       <c r="H57" t="n">
-        <v>6.933483333333334</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.675</v>
+        <v>6.99</v>
       </c>
       <c r="C58" t="n">
-        <v>6.675</v>
+        <v>6.998</v>
       </c>
       <c r="D58" t="n">
-        <v>6.675</v>
+        <v>6.998</v>
       </c>
       <c r="E58" t="n">
-        <v>6.675</v>
+        <v>6.99</v>
       </c>
       <c r="F58" t="n">
-        <v>44084.2953</v>
+        <v>367140.8546</v>
       </c>
       <c r="G58" t="n">
-        <v>6.765666666666666</v>
+        <v>943355.0242564301</v>
       </c>
       <c r="H58" t="n">
-        <v>6.929150000000002</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.675</v>
+        <v>7.003</v>
       </c>
       <c r="C59" t="n">
-        <v>6.675</v>
+        <v>7.003</v>
       </c>
       <c r="D59" t="n">
-        <v>6.675</v>
+        <v>7.003</v>
       </c>
       <c r="E59" t="n">
-        <v>6.675</v>
+        <v>7.003</v>
       </c>
       <c r="F59" t="n">
-        <v>1024.8579</v>
+        <v>356.7366</v>
       </c>
       <c r="G59" t="n">
-        <v>6.746799999999999</v>
+        <v>943711.76085643</v>
       </c>
       <c r="H59" t="n">
-        <v>6.924716666666669</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.661</v>
+        <v>6.95</v>
       </c>
       <c r="C60" t="n">
-        <v>6.603</v>
+        <v>6.944</v>
       </c>
       <c r="D60" t="n">
-        <v>6.661</v>
+        <v>6.95</v>
       </c>
       <c r="E60" t="n">
-        <v>6.603</v>
+        <v>6.944</v>
       </c>
       <c r="F60" t="n">
-        <v>15507.4166</v>
+        <v>98000</v>
       </c>
       <c r="G60" t="n">
-        <v>6.725666666666666</v>
+        <v>845711.76085643</v>
       </c>
       <c r="H60" t="n">
-        <v>6.918583333333335</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.6</v>
+        <v>6.95</v>
       </c>
       <c r="C61" t="n">
-        <v>6.604</v>
+        <v>6.95</v>
       </c>
       <c r="D61" t="n">
-        <v>6.604</v>
+        <v>6.95</v>
       </c>
       <c r="E61" t="n">
-        <v>6.6</v>
+        <v>6.95</v>
       </c>
       <c r="F61" t="n">
-        <v>11008.49</v>
+        <v>13640.3951</v>
       </c>
       <c r="G61" t="n">
-        <v>6.706</v>
+        <v>859352.15595643</v>
       </c>
       <c r="H61" t="n">
-        <v>6.913150000000002</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.58</v>
+        <v>6.96</v>
       </c>
       <c r="C62" t="n">
-        <v>6.58</v>
+        <v>6.96</v>
       </c>
       <c r="D62" t="n">
-        <v>6.58</v>
+        <v>6.96</v>
       </c>
       <c r="E62" t="n">
-        <v>6.58</v>
+        <v>6.96</v>
       </c>
       <c r="F62" t="n">
-        <v>2700</v>
+        <v>14625.8964</v>
       </c>
       <c r="G62" t="n">
-        <v>6.686733333333333</v>
+        <v>873978.05235643</v>
       </c>
       <c r="H62" t="n">
-        <v>6.906650000000001</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.55</v>
+        <v>6.938</v>
       </c>
       <c r="C63" t="n">
-        <v>6.55</v>
+        <v>6.938</v>
       </c>
       <c r="D63" t="n">
-        <v>6.55</v>
+        <v>6.938</v>
       </c>
       <c r="E63" t="n">
-        <v>6.55</v>
+        <v>6.938</v>
       </c>
       <c r="F63" t="n">
-        <v>3183.8315</v>
+        <v>31464.5277</v>
       </c>
       <c r="G63" t="n">
-        <v>6.666466666666666</v>
+        <v>842513.52465643</v>
       </c>
       <c r="H63" t="n">
-        <v>6.89965</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.55</v>
+        <v>6.959</v>
       </c>
       <c r="C64" t="n">
-        <v>6.55</v>
+        <v>6.959</v>
       </c>
       <c r="D64" t="n">
-        <v>6.55</v>
+        <v>6.959</v>
       </c>
       <c r="E64" t="n">
-        <v>6.55</v>
+        <v>6.959</v>
       </c>
       <c r="F64" t="n">
-        <v>27293.0579</v>
+        <v>6150.6377</v>
       </c>
       <c r="G64" t="n">
-        <v>6.653066666666665</v>
+        <v>848664.16235643</v>
       </c>
       <c r="H64" t="n">
-        <v>6.892983333333334</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.57</v>
+        <v>6.959</v>
       </c>
       <c r="C65" t="n">
-        <v>6.571</v>
+        <v>6.959</v>
       </c>
       <c r="D65" t="n">
-        <v>6.571</v>
+        <v>6.959</v>
       </c>
       <c r="E65" t="n">
-        <v>6.57</v>
+        <v>6.959</v>
       </c>
       <c r="F65" t="n">
-        <v>21490</v>
+        <v>3266.3171</v>
       </c>
       <c r="G65" t="n">
-        <v>6.642599999999999</v>
+        <v>848664.16235643</v>
       </c>
       <c r="H65" t="n">
-        <v>6.886016666666668</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.57</v>
+        <v>7.017</v>
       </c>
       <c r="C66" t="n">
-        <v>6.57</v>
+        <v>7.017</v>
       </c>
       <c r="D66" t="n">
-        <v>6.57</v>
+        <v>7.017</v>
       </c>
       <c r="E66" t="n">
-        <v>6.57</v>
+        <v>7.017</v>
       </c>
       <c r="F66" t="n">
-        <v>5800</v>
+        <v>36816.5691</v>
       </c>
       <c r="G66" t="n">
-        <v>6.634866666666665</v>
+        <v>885480.7314564299</v>
       </c>
       <c r="H66" t="n">
-        <v>6.879016666666669</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="C67" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="D67" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="E67" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="F67" t="n">
-        <v>449811.8922</v>
+        <v>3300.516</v>
       </c>
       <c r="G67" t="n">
-        <v>6.627533333333331</v>
+        <v>885480.7314564299</v>
       </c>
       <c r="H67" t="n">
-        <v>6.872183333333335</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="C68" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="D68" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="E68" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="F68" t="n">
-        <v>7476.4111</v>
+        <v>11659.7394</v>
       </c>
       <c r="G68" t="n">
-        <v>6.619533333333331</v>
+        <v>885480.7314564299</v>
       </c>
       <c r="H68" t="n">
-        <v>6.865833333333334</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="C69" t="n">
-        <v>6.58</v>
+        <v>6.987</v>
       </c>
       <c r="D69" t="n">
-        <v>6.58</v>
+        <v>7.017</v>
       </c>
       <c r="E69" t="n">
-        <v>6.58</v>
+        <v>6.987</v>
       </c>
       <c r="F69" t="n">
-        <v>763855.7712</v>
+        <v>35250.6563</v>
       </c>
       <c r="G69" t="n">
-        <v>6.61153333333333</v>
+        <v>850230.0751564299</v>
       </c>
       <c r="H69" t="n">
-        <v>6.859666666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.58</v>
+        <v>7.019</v>
       </c>
       <c r="C70" t="n">
-        <v>6.58</v>
+        <v>7.019</v>
       </c>
       <c r="D70" t="n">
-        <v>6.58</v>
+        <v>7.019</v>
       </c>
       <c r="E70" t="n">
-        <v>6.58</v>
+        <v>7.019</v>
       </c>
       <c r="F70" t="n">
-        <v>164621.8313</v>
+        <v>92.98309999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>6.60593333333333</v>
+        <v>850323.0582564299</v>
       </c>
       <c r="H70" t="n">
-        <v>6.8535</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.58</v>
+        <v>7.019</v>
       </c>
       <c r="C71" t="n">
-        <v>6.58</v>
+        <v>7.019</v>
       </c>
       <c r="D71" t="n">
-        <v>6.58</v>
+        <v>7.019</v>
       </c>
       <c r="E71" t="n">
-        <v>6.58</v>
+        <v>7.019</v>
       </c>
       <c r="F71" t="n">
-        <v>46504.4765</v>
+        <v>94246.3502</v>
       </c>
       <c r="G71" t="n">
-        <v>6.596866666666664</v>
+        <v>850323.0582564299</v>
       </c>
       <c r="H71" t="n">
-        <v>6.847333333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.58</v>
+        <v>6.99</v>
       </c>
       <c r="C72" t="n">
-        <v>6.58</v>
+        <v>6.99</v>
       </c>
       <c r="D72" t="n">
-        <v>6.58</v>
+        <v>6.99</v>
       </c>
       <c r="E72" t="n">
-        <v>6.58</v>
+        <v>6.99</v>
       </c>
       <c r="F72" t="n">
-        <v>199864.3642</v>
+        <v>77135.1685</v>
       </c>
       <c r="G72" t="n">
-        <v>6.59053333333333</v>
+        <v>773187.8897564298</v>
       </c>
       <c r="H72" t="n">
-        <v>6.841166666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.58</v>
+        <v>6.987</v>
       </c>
       <c r="C73" t="n">
-        <v>6.58</v>
+        <v>6.958</v>
       </c>
       <c r="D73" t="n">
-        <v>6.58</v>
+        <v>6.987</v>
       </c>
       <c r="E73" t="n">
-        <v>6.58</v>
+        <v>6.958</v>
       </c>
       <c r="F73" t="n">
-        <v>229015.9878</v>
+        <v>13047.7782</v>
       </c>
       <c r="G73" t="n">
-        <v>6.584199999999997</v>
+        <v>760140.1115564299</v>
       </c>
       <c r="H73" t="n">
-        <v>6.834883333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.58</v>
+        <v>6.92</v>
       </c>
       <c r="C74" t="n">
-        <v>6.58</v>
+        <v>6.92</v>
       </c>
       <c r="D74" t="n">
-        <v>6.58</v>
+        <v>6.92</v>
       </c>
       <c r="E74" t="n">
-        <v>6.58</v>
+        <v>6.92</v>
       </c>
       <c r="F74" t="n">
-        <v>35810.7432</v>
+        <v>362.5</v>
       </c>
       <c r="G74" t="n">
-        <v>6.577866666666664</v>
+        <v>759777.6115564299</v>
       </c>
       <c r="H74" t="n">
-        <v>6.828333333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.58</v>
+        <v>6.94</v>
       </c>
       <c r="C75" t="n">
-        <v>6.58</v>
+        <v>6.899</v>
       </c>
       <c r="D75" t="n">
-        <v>6.58</v>
+        <v>6.94</v>
       </c>
       <c r="E75" t="n">
-        <v>6.58</v>
+        <v>6.899</v>
       </c>
       <c r="F75" t="n">
-        <v>147350.5938</v>
+        <v>450</v>
       </c>
       <c r="G75" t="n">
-        <v>6.576333333333332</v>
+        <v>759327.6115564299</v>
       </c>
       <c r="H75" t="n">
-        <v>6.821333333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.58</v>
+        <v>6.89</v>
       </c>
       <c r="C76" t="n">
-        <v>6.58</v>
+        <v>6.869</v>
       </c>
       <c r="D76" t="n">
-        <v>6.58</v>
+        <v>6.89</v>
       </c>
       <c r="E76" t="n">
-        <v>6.58</v>
+        <v>6.859</v>
       </c>
       <c r="F76" t="n">
-        <v>494102.877</v>
+        <v>68106.73239999999</v>
       </c>
       <c r="G76" t="n">
-        <v>6.574733333333331</v>
+        <v>691220.8791564299</v>
       </c>
       <c r="H76" t="n">
-        <v>6.814083333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.58</v>
+        <v>6.868</v>
       </c>
       <c r="C77" t="n">
-        <v>6.58</v>
+        <v>6.854</v>
       </c>
       <c r="D77" t="n">
-        <v>6.58</v>
+        <v>6.868</v>
       </c>
       <c r="E77" t="n">
-        <v>6.58</v>
+        <v>6.813</v>
       </c>
       <c r="F77" t="n">
-        <v>542140.2277</v>
+        <v>592837.8199999999</v>
       </c>
       <c r="G77" t="n">
-        <v>6.574733333333331</v>
+        <v>98383.05915642995</v>
       </c>
       <c r="H77" t="n">
-        <v>6.806833333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.58</v>
+        <v>6.77</v>
       </c>
       <c r="C78" t="n">
-        <v>6.58</v>
+        <v>6.751</v>
       </c>
       <c r="D78" t="n">
-        <v>6.58</v>
+        <v>6.77</v>
       </c>
       <c r="E78" t="n">
-        <v>6.58</v>
+        <v>6.751</v>
       </c>
       <c r="F78" t="n">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="G78" t="n">
-        <v>6.576733333333332</v>
+        <v>38383.05915642995</v>
       </c>
       <c r="H78" t="n">
-        <v>6.799599999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.549</v>
+        <v>6.77</v>
       </c>
       <c r="C79" t="n">
-        <v>6.549</v>
+        <v>6.728</v>
       </c>
       <c r="D79" t="n">
-        <v>6.549</v>
+        <v>6.77</v>
       </c>
       <c r="E79" t="n">
-        <v>6.549</v>
+        <v>6.728</v>
       </c>
       <c r="F79" t="n">
-        <v>14541.5592</v>
+        <v>117388.7026</v>
       </c>
       <c r="G79" t="n">
-        <v>6.576666666666665</v>
+        <v>-79005.64344357005</v>
       </c>
       <c r="H79" t="n">
-        <v>6.791849999999998</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.579</v>
+        <v>6.709</v>
       </c>
       <c r="C80" t="n">
-        <v>6.579</v>
+        <v>6.686</v>
       </c>
       <c r="D80" t="n">
-        <v>6.579</v>
+        <v>6.709</v>
       </c>
       <c r="E80" t="n">
-        <v>6.579</v>
+        <v>6.686</v>
       </c>
       <c r="F80" t="n">
-        <v>155.5241</v>
+        <v>40227.2452</v>
       </c>
       <c r="G80" t="n">
-        <v>6.577199999999999</v>
+        <v>-119232.88864357</v>
       </c>
       <c r="H80" t="n">
-        <v>6.784499999999999</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.54</v>
+        <v>6.69</v>
       </c>
       <c r="C81" t="n">
-        <v>6.54</v>
+        <v>6.69</v>
       </c>
       <c r="D81" t="n">
-        <v>6.54</v>
+        <v>6.69</v>
       </c>
       <c r="E81" t="n">
-        <v>6.54</v>
+        <v>6.69</v>
       </c>
       <c r="F81" t="n">
-        <v>12808.2815</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>6.575199999999999</v>
+        <v>-119132.88864357</v>
       </c>
       <c r="H81" t="n">
-        <v>6.776599999999999</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.57</v>
+        <v>6.7</v>
       </c>
       <c r="C82" t="n">
-        <v>6.54</v>
+        <v>6.7</v>
       </c>
       <c r="D82" t="n">
-        <v>6.57</v>
+        <v>6.7</v>
       </c>
       <c r="E82" t="n">
-        <v>6.54</v>
+        <v>6.7</v>
       </c>
       <c r="F82" t="n">
-        <v>14603.8343</v>
+        <v>1306.4124</v>
       </c>
       <c r="G82" t="n">
-        <v>6.572533333333333</v>
+        <v>-117826.47624357</v>
       </c>
       <c r="H82" t="n">
-        <v>6.768433333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.54</v>
+        <v>6.7</v>
       </c>
       <c r="C83" t="n">
-        <v>6.53</v>
+        <v>6.7</v>
       </c>
       <c r="D83" t="n">
-        <v>6.54</v>
+        <v>6.7</v>
       </c>
       <c r="E83" t="n">
-        <v>6.53</v>
+        <v>6.7</v>
       </c>
       <c r="F83" t="n">
-        <v>86736.4779</v>
+        <v>66396.8426</v>
       </c>
       <c r="G83" t="n">
-        <v>6.569199999999999</v>
+        <v>-117826.47624357</v>
       </c>
       <c r="H83" t="n">
-        <v>6.760366666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.53</v>
+        <v>6.7</v>
       </c>
       <c r="C84" t="n">
-        <v>6.53</v>
+        <v>6.664</v>
       </c>
       <c r="D84" t="n">
-        <v>6.53</v>
+        <v>6.7</v>
       </c>
       <c r="E84" t="n">
-        <v>6.52</v>
+        <v>6.664</v>
       </c>
       <c r="F84" t="n">
-        <v>1227293.1032</v>
+        <v>559780.1244</v>
       </c>
       <c r="G84" t="n">
-        <v>6.565866666666667</v>
+        <v>-677606.6006435701</v>
       </c>
       <c r="H84" t="n">
-        <v>6.752616666666666</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,40 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.53</v>
+        <v>6.716</v>
       </c>
       <c r="C85" t="n">
-        <v>6.53</v>
+        <v>6.716</v>
       </c>
       <c r="D85" t="n">
-        <v>6.53</v>
+        <v>6.716</v>
       </c>
       <c r="E85" t="n">
-        <v>6.53</v>
+        <v>6.716</v>
       </c>
       <c r="F85" t="n">
-        <v>274411.9141</v>
+        <v>212000</v>
       </c>
       <c r="G85" t="n">
-        <v>6.562533333333334</v>
+        <v>-465606.6006435701</v>
       </c>
       <c r="H85" t="n">
-        <v>6.744449999999999</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L85" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,44 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="C86" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="D86" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="E86" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="F86" t="n">
-        <v>296103.9752</v>
+        <v>7986.4404</v>
       </c>
       <c r="G86" t="n">
-        <v>6.559200000000001</v>
+        <v>-473593.0410435701</v>
       </c>
       <c r="H86" t="n">
-        <v>6.736699999999998</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L86" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,44 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="C87" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="D87" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="E87" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="F87" t="n">
-        <v>258622.7932</v>
+        <v>44084.2953</v>
       </c>
       <c r="G87" t="n">
-        <v>6.555866666666668</v>
+        <v>-473593.0410435701</v>
       </c>
       <c r="H87" t="n">
-        <v>6.729049999999998</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L87" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,40 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="C88" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="D88" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="E88" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="F88" t="n">
-        <v>500799.6933</v>
+        <v>1024.8579</v>
       </c>
       <c r="G88" t="n">
-        <v>6.552533333333334</v>
+        <v>-473593.0410435701</v>
       </c>
       <c r="H88" t="n">
-        <v>6.721883333333332</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L88" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3768,44 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.53</v>
+        <v>6.661</v>
       </c>
       <c r="C89" t="n">
-        <v>6.53</v>
+        <v>6.603</v>
       </c>
       <c r="D89" t="n">
-        <v>6.53</v>
+        <v>6.661</v>
       </c>
       <c r="E89" t="n">
-        <v>6.53</v>
+        <v>6.603</v>
       </c>
       <c r="F89" t="n">
-        <v>305701.7363</v>
+        <v>15507.4166</v>
       </c>
       <c r="G89" t="n">
-        <v>6.549200000000001</v>
+        <v>-489100.4576435701</v>
       </c>
       <c r="H89" t="n">
-        <v>6.714083333333331</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L89" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,44 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.53</v>
+        <v>6.6</v>
       </c>
       <c r="C90" t="n">
-        <v>6.522</v>
+        <v>6.604</v>
       </c>
       <c r="D90" t="n">
-        <v>6.53</v>
+        <v>6.604</v>
       </c>
       <c r="E90" t="n">
-        <v>6.522</v>
+        <v>6.6</v>
       </c>
       <c r="F90" t="n">
-        <v>487616.1396</v>
+        <v>11008.49</v>
       </c>
       <c r="G90" t="n">
-        <v>6.545333333333335</v>
+        <v>-478091.9676435701</v>
       </c>
       <c r="H90" t="n">
-        <v>6.706066666666664</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="L90" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,44 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="C91" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="D91" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="E91" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="F91" t="n">
-        <v>3259.7426</v>
+        <v>2700</v>
       </c>
       <c r="G91" t="n">
-        <v>6.544666666666669</v>
+        <v>-480791.9676435701</v>
       </c>
       <c r="H91" t="n">
-        <v>6.699833333333331</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>6.522</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3906,44 +3583,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="C92" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="D92" t="n">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="E92" t="n">
-        <v>6.57</v>
+        <v>6.55</v>
       </c>
       <c r="F92" t="n">
-        <v>795870.8012</v>
+        <v>3183.8315</v>
       </c>
       <c r="G92" t="n">
-        <v>6.544666666666669</v>
+        <v>-483975.7991435701</v>
       </c>
       <c r="H92" t="n">
-        <v>6.693666666666664</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>6.58</v>
       </c>
       <c r="K92" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="L92" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,42 +3622,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.614</v>
+        <v>6.55</v>
       </c>
       <c r="C93" t="n">
-        <v>6.614</v>
+        <v>6.55</v>
       </c>
       <c r="D93" t="n">
-        <v>6.614</v>
+        <v>6.55</v>
       </c>
       <c r="E93" t="n">
-        <v>6.614</v>
+        <v>6.55</v>
       </c>
       <c r="F93" t="n">
-        <v>155.7946</v>
+        <v>27293.0579</v>
       </c>
       <c r="G93" t="n">
-        <v>6.546933333333336</v>
+        <v>-483975.7991435701</v>
       </c>
       <c r="H93" t="n">
-        <v>6.687899999999997</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K93" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3996,42 +3665,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.623</v>
+        <v>6.57</v>
       </c>
       <c r="C94" t="n">
-        <v>6.623</v>
+        <v>6.571</v>
       </c>
       <c r="D94" t="n">
-        <v>6.623</v>
+        <v>6.571</v>
       </c>
       <c r="E94" t="n">
-        <v>6.623</v>
+        <v>6.57</v>
       </c>
       <c r="F94" t="n">
-        <v>20862.9264</v>
+        <v>21490</v>
       </c>
       <c r="G94" t="n">
-        <v>6.551866666666669</v>
+        <v>-462485.7991435701</v>
       </c>
       <c r="H94" t="n">
-        <v>6.682649999999997</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K94" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,42 +3708,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.59</v>
+        <v>6.57</v>
       </c>
       <c r="C95" t="n">
-        <v>6.59</v>
+        <v>6.57</v>
       </c>
       <c r="D95" t="n">
-        <v>6.59</v>
+        <v>6.57</v>
       </c>
       <c r="E95" t="n">
-        <v>6.59</v>
+        <v>6.57</v>
       </c>
       <c r="F95" t="n">
-        <v>6808.3109</v>
+        <v>5800</v>
       </c>
       <c r="G95" t="n">
-        <v>6.552600000000003</v>
+        <v>-468285.7991435701</v>
       </c>
       <c r="H95" t="n">
-        <v>6.676499999999996</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="K95" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,42 +3751,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.659</v>
+        <v>6.58</v>
       </c>
       <c r="C96" t="n">
-        <v>6.659</v>
+        <v>6.58</v>
       </c>
       <c r="D96" t="n">
-        <v>6.659</v>
+        <v>6.58</v>
       </c>
       <c r="E96" t="n">
-        <v>6.659</v>
+        <v>6.58</v>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>449811.8922</v>
       </c>
       <c r="G96" t="n">
-        <v>6.560533333333336</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H96" t="n">
-        <v>6.671499999999996</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="K96" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,42 +3794,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.62</v>
+        <v>6.58</v>
       </c>
       <c r="C97" t="n">
-        <v>6.62</v>
+        <v>6.58</v>
       </c>
       <c r="D97" t="n">
-        <v>6.62</v>
+        <v>6.58</v>
       </c>
       <c r="E97" t="n">
-        <v>6.62</v>
+        <v>6.58</v>
       </c>
       <c r="F97" t="n">
-        <v>6809.2226</v>
+        <v>7476.4111</v>
       </c>
       <c r="G97" t="n">
-        <v>6.565866666666669</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H97" t="n">
-        <v>6.66488333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4172,42 +3835,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.63</v>
+        <v>6.58</v>
       </c>
       <c r="C98" t="n">
-        <v>6.64</v>
+        <v>6.58</v>
       </c>
       <c r="D98" t="n">
-        <v>6.649</v>
+        <v>6.58</v>
       </c>
       <c r="E98" t="n">
-        <v>6.63</v>
+        <v>6.58</v>
       </c>
       <c r="F98" t="n">
-        <v>4364.2994</v>
+        <v>763855.7712</v>
       </c>
       <c r="G98" t="n">
-        <v>6.573200000000003</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H98" t="n">
-        <v>6.658599999999996</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,42 +3876,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.649</v>
+        <v>6.58</v>
       </c>
       <c r="C99" t="n">
-        <v>6.663</v>
+        <v>6.58</v>
       </c>
       <c r="D99" t="n">
-        <v>6.663</v>
+        <v>6.58</v>
       </c>
       <c r="E99" t="n">
-        <v>6.649</v>
+        <v>6.58</v>
       </c>
       <c r="F99" t="n">
-        <v>61355.3124</v>
+        <v>164621.8313</v>
       </c>
       <c r="G99" t="n">
-        <v>6.582066666666669</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H99" t="n">
-        <v>6.652699999999997</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,42 +3917,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.65</v>
+        <v>6.58</v>
       </c>
       <c r="C100" t="n">
-        <v>6.663</v>
+        <v>6.58</v>
       </c>
       <c r="D100" t="n">
-        <v>6.663</v>
+        <v>6.58</v>
       </c>
       <c r="E100" t="n">
-        <v>6.638</v>
+        <v>6.58</v>
       </c>
       <c r="F100" t="n">
-        <v>123597.1157</v>
+        <v>46504.4765</v>
       </c>
       <c r="G100" t="n">
-        <v>6.590933333333336</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H100" t="n">
-        <v>6.647299999999997</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,42 +3958,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.631</v>
+        <v>6.58</v>
       </c>
       <c r="C101" t="n">
-        <v>6.631</v>
+        <v>6.58</v>
       </c>
       <c r="D101" t="n">
-        <v>6.631</v>
+        <v>6.58</v>
       </c>
       <c r="E101" t="n">
-        <v>6.631</v>
+        <v>6.58</v>
       </c>
       <c r="F101" t="n">
-        <v>1007.65</v>
+        <v>199864.3642</v>
       </c>
       <c r="G101" t="n">
-        <v>6.597666666666669</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H101" t="n">
-        <v>6.64083333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,42 +3999,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.65</v>
+        <v>6.58</v>
       </c>
       <c r="C102" t="n">
-        <v>6.657</v>
+        <v>6.58</v>
       </c>
       <c r="D102" t="n">
-        <v>6.657</v>
+        <v>6.58</v>
       </c>
       <c r="E102" t="n">
-        <v>6.65</v>
+        <v>6.58</v>
       </c>
       <c r="F102" t="n">
-        <v>1800</v>
+        <v>229015.9878</v>
       </c>
       <c r="G102" t="n">
-        <v>6.606133333333335</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H102" t="n">
-        <v>6.634799999999997</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,42 +4040,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.658</v>
+        <v>6.58</v>
       </c>
       <c r="C103" t="n">
-        <v>6.658</v>
+        <v>6.58</v>
       </c>
       <c r="D103" t="n">
-        <v>6.658</v>
+        <v>6.58</v>
       </c>
       <c r="E103" t="n">
-        <v>6.658</v>
+        <v>6.58</v>
       </c>
       <c r="F103" t="n">
-        <v>74955.97139999999</v>
+        <v>35810.7432</v>
       </c>
       <c r="G103" t="n">
-        <v>6.614666666666668</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H103" t="n">
-        <v>6.629266666666664</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,42 +4081,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.663</v>
+        <v>6.58</v>
       </c>
       <c r="C104" t="n">
-        <v>6.698</v>
+        <v>6.58</v>
       </c>
       <c r="D104" t="n">
-        <v>6.698</v>
+        <v>6.58</v>
       </c>
       <c r="E104" t="n">
-        <v>6.663</v>
+        <v>6.58</v>
       </c>
       <c r="F104" t="n">
-        <v>9115.217699999999</v>
+        <v>147350.5938</v>
       </c>
       <c r="G104" t="n">
-        <v>6.625866666666669</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H104" t="n">
-        <v>6.624933333333329</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4480,42 +4122,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.671</v>
+        <v>6.58</v>
       </c>
       <c r="C105" t="n">
-        <v>6.7</v>
+        <v>6.58</v>
       </c>
       <c r="D105" t="n">
-        <v>6.7</v>
+        <v>6.58</v>
       </c>
       <c r="E105" t="n">
-        <v>6.671</v>
+        <v>6.58</v>
       </c>
       <c r="F105" t="n">
-        <v>102500</v>
+        <v>494102.877</v>
       </c>
       <c r="G105" t="n">
-        <v>6.637733333333335</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H105" t="n">
-        <v>6.621266666666662</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,42 +4163,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.725</v>
+        <v>6.58</v>
       </c>
       <c r="C106" t="n">
-        <v>6.725</v>
+        <v>6.58</v>
       </c>
       <c r="D106" t="n">
-        <v>6.725</v>
+        <v>6.58</v>
       </c>
       <c r="E106" t="n">
-        <v>6.725</v>
+        <v>6.58</v>
       </c>
       <c r="F106" t="n">
-        <v>155.3265</v>
+        <v>542140.2277</v>
       </c>
       <c r="G106" t="n">
-        <v>6.648066666666669</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H106" t="n">
-        <v>6.618366666666662</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4568,42 +4204,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.725</v>
+        <v>6.58</v>
       </c>
       <c r="C107" t="n">
-        <v>6.725</v>
+        <v>6.58</v>
       </c>
       <c r="D107" t="n">
-        <v>6.725</v>
+        <v>6.58</v>
       </c>
       <c r="E107" t="n">
-        <v>6.725</v>
+        <v>6.58</v>
       </c>
       <c r="F107" t="n">
-        <v>734475.9292</v>
+        <v>10000</v>
       </c>
       <c r="G107" t="n">
-        <v>6.657733333333336</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H107" t="n">
-        <v>6.615966666666663</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,42 +4245,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.725</v>
+        <v>6.549</v>
       </c>
       <c r="C108" t="n">
-        <v>6.725</v>
+        <v>6.549</v>
       </c>
       <c r="D108" t="n">
-        <v>6.725</v>
+        <v>6.549</v>
       </c>
       <c r="E108" t="n">
-        <v>6.725</v>
+        <v>6.549</v>
       </c>
       <c r="F108" t="n">
-        <v>826025.3173</v>
+        <v>14541.5592</v>
       </c>
       <c r="G108" t="n">
-        <v>6.665133333333334</v>
+        <v>-33015.46614357007</v>
       </c>
       <c r="H108" t="n">
-        <v>6.613816666666663</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,42 +4286,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.725</v>
+        <v>6.579</v>
       </c>
       <c r="C109" t="n">
-        <v>6.725</v>
+        <v>6.579</v>
       </c>
       <c r="D109" t="n">
-        <v>6.725</v>
+        <v>6.579</v>
       </c>
       <c r="E109" t="n">
-        <v>6.725</v>
+        <v>6.579</v>
       </c>
       <c r="F109" t="n">
-        <v>117127.3178</v>
+        <v>155.5241</v>
       </c>
       <c r="G109" t="n">
-        <v>6.671933333333333</v>
+        <v>-32859.94204357007</v>
       </c>
       <c r="H109" t="n">
-        <v>6.613383333333331</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,42 +4327,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.725</v>
+        <v>6.54</v>
       </c>
       <c r="C110" t="n">
-        <v>6.725</v>
+        <v>6.54</v>
       </c>
       <c r="D110" t="n">
-        <v>6.725</v>
+        <v>6.54</v>
       </c>
       <c r="E110" t="n">
-        <v>6.725</v>
+        <v>6.54</v>
       </c>
       <c r="F110" t="n">
-        <v>2739506.6445</v>
+        <v>12808.2815</v>
       </c>
       <c r="G110" t="n">
-        <v>6.680933333333333</v>
+        <v>-45668.22354357006</v>
       </c>
       <c r="H110" t="n">
-        <v>6.613333333333331</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,42 +4368,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.749</v>
+        <v>6.57</v>
       </c>
       <c r="C111" t="n">
-        <v>6.749</v>
+        <v>6.54</v>
       </c>
       <c r="D111" t="n">
-        <v>6.749</v>
+        <v>6.57</v>
       </c>
       <c r="E111" t="n">
-        <v>6.749</v>
+        <v>6.54</v>
       </c>
       <c r="F111" t="n">
-        <v>100</v>
+        <v>14603.8343</v>
       </c>
       <c r="G111" t="n">
-        <v>6.686933333333332</v>
+        <v>-45668.22354357006</v>
       </c>
       <c r="H111" t="n">
-        <v>6.614383333333332</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,42 +4409,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.746</v>
+        <v>6.54</v>
       </c>
       <c r="C112" t="n">
-        <v>6.746</v>
+        <v>6.53</v>
       </c>
       <c r="D112" t="n">
-        <v>6.746</v>
+        <v>6.54</v>
       </c>
       <c r="E112" t="n">
-        <v>6.746</v>
+        <v>6.53</v>
       </c>
       <c r="F112" t="n">
-        <v>74428.25378001</v>
+        <v>86736.4779</v>
       </c>
       <c r="G112" t="n">
-        <v>6.695333333333332</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H112" t="n">
-        <v>6.615316666666664</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,42 +4450,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="C113" t="n">
-        <v>6.749</v>
+        <v>6.53</v>
       </c>
       <c r="D113" t="n">
-        <v>6.82</v>
+        <v>6.53</v>
       </c>
       <c r="E113" t="n">
-        <v>6.748</v>
+        <v>6.52</v>
       </c>
       <c r="F113" t="n">
-        <v>1067650.7652</v>
+        <v>1227293.1032</v>
       </c>
       <c r="G113" t="n">
-        <v>6.702599999999999</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H113" t="n">
-        <v>6.616133333333332</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,42 +4491,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.749</v>
+        <v>6.53</v>
       </c>
       <c r="C114" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="D114" t="n">
-        <v>6.749</v>
+        <v>6.53</v>
       </c>
       <c r="E114" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="F114" t="n">
-        <v>195654.1679</v>
+        <v>274411.9141</v>
       </c>
       <c r="G114" t="n">
-        <v>6.708266666666665</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H114" t="n">
-        <v>6.616933333333332</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4920,42 +4532,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="C115" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="D115" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="E115" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="F115" t="n">
-        <v>123757.5905</v>
+        <v>296103.9752</v>
       </c>
       <c r="G115" t="n">
-        <v>6.713933333333332</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H115" t="n">
-        <v>6.618333333333331</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,42 +4573,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="C116" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="D116" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="E116" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="F116" t="n">
-        <v>65542.3797</v>
+        <v>258622.7932</v>
       </c>
       <c r="G116" t="n">
-        <v>6.721733333333333</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H116" t="n">
-        <v>6.618866666666665</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,42 +4614,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="C117" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="D117" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="E117" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="F117" t="n">
-        <v>169562.9781</v>
+        <v>500799.6933</v>
       </c>
       <c r="G117" t="n">
-        <v>6.7278</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H117" t="n">
-        <v>6.620083333333331</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,42 +4655,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.668</v>
+        <v>6.53</v>
       </c>
       <c r="C118" t="n">
-        <v>6.65</v>
+        <v>6.53</v>
       </c>
       <c r="D118" t="n">
-        <v>6.668</v>
+        <v>6.53</v>
       </c>
       <c r="E118" t="n">
-        <v>6.65</v>
+        <v>6.53</v>
       </c>
       <c r="F118" t="n">
-        <v>1184.2515</v>
+        <v>305701.7363</v>
       </c>
       <c r="G118" t="n">
-        <v>6.727266666666667</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H118" t="n">
-        <v>6.619666666666664</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5096,42 +4696,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.65</v>
+        <v>6.53</v>
       </c>
       <c r="C119" t="n">
-        <v>6.678</v>
+        <v>6.522</v>
       </c>
       <c r="D119" t="n">
-        <v>6.678</v>
+        <v>6.53</v>
       </c>
       <c r="E119" t="n">
-        <v>6.65</v>
+        <v>6.522</v>
       </c>
       <c r="F119" t="n">
-        <v>120000</v>
+        <v>487616.1396</v>
       </c>
       <c r="G119" t="n">
-        <v>6.725933333333334</v>
+        <v>-620020.8410435701</v>
       </c>
       <c r="H119" t="n">
-        <v>6.619716666666664</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,42 +4737,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.63</v>
+        <v>6.57</v>
       </c>
       <c r="C120" t="n">
-        <v>6.63</v>
+        <v>6.57</v>
       </c>
       <c r="D120" t="n">
-        <v>6.63</v>
+        <v>6.57</v>
       </c>
       <c r="E120" t="n">
-        <v>6.63</v>
+        <v>6.57</v>
       </c>
       <c r="F120" t="n">
-        <v>7540.849</v>
+        <v>3259.7426</v>
       </c>
       <c r="G120" t="n">
-        <v>6.721266666666667</v>
+        <v>-616761.0984435701</v>
       </c>
       <c r="H120" t="n">
-        <v>6.620166666666663</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5184,42 +4778,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.64</v>
+        <v>6.57</v>
       </c>
       <c r="C121" t="n">
-        <v>6.64</v>
+        <v>6.58</v>
       </c>
       <c r="D121" t="n">
-        <v>6.64</v>
+        <v>6.58</v>
       </c>
       <c r="E121" t="n">
-        <v>6.64</v>
+        <v>6.57</v>
       </c>
       <c r="F121" t="n">
-        <v>18534.5241</v>
+        <v>795870.8012</v>
       </c>
       <c r="G121" t="n">
-        <v>6.7156</v>
+        <v>179109.7027564299</v>
       </c>
       <c r="H121" t="n">
-        <v>6.620766666666664</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,42 +4819,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.64</v>
+        <v>6.614</v>
       </c>
       <c r="C122" t="n">
-        <v>6.63</v>
+        <v>6.614</v>
       </c>
       <c r="D122" t="n">
-        <v>6.64</v>
+        <v>6.614</v>
       </c>
       <c r="E122" t="n">
-        <v>6.63</v>
+        <v>6.614</v>
       </c>
       <c r="F122" t="n">
-        <v>21465</v>
+        <v>155.7946</v>
       </c>
       <c r="G122" t="n">
-        <v>6.709266666666667</v>
+        <v>179265.4973564299</v>
       </c>
       <c r="H122" t="n">
-        <v>6.621599999999997</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,42 +4860,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.67</v>
+        <v>6.623</v>
       </c>
       <c r="C123" t="n">
-        <v>6.67</v>
+        <v>6.623</v>
       </c>
       <c r="D123" t="n">
-        <v>6.67</v>
+        <v>6.623</v>
       </c>
       <c r="E123" t="n">
-        <v>6.67</v>
+        <v>6.623</v>
       </c>
       <c r="F123" t="n">
-        <v>6335.326</v>
+        <v>20862.9264</v>
       </c>
       <c r="G123" t="n">
-        <v>6.705600000000001</v>
+        <v>200128.4237564299</v>
       </c>
       <c r="H123" t="n">
-        <v>6.623599999999997</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5316,42 +4901,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.64</v>
+        <v>6.59</v>
       </c>
       <c r="C124" t="n">
-        <v>6.64</v>
+        <v>6.59</v>
       </c>
       <c r="D124" t="n">
-        <v>6.64</v>
+        <v>6.59</v>
       </c>
       <c r="E124" t="n">
-        <v>6.64</v>
+        <v>6.59</v>
       </c>
       <c r="F124" t="n">
-        <v>3130.42</v>
+        <v>6808.3109</v>
       </c>
       <c r="G124" t="n">
-        <v>6.699933333333335</v>
+        <v>193320.1128564299</v>
       </c>
       <c r="H124" t="n">
-        <v>6.625099999999997</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,42 +4942,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.675</v>
+        <v>6.659</v>
       </c>
       <c r="C125" t="n">
-        <v>6.69</v>
+        <v>6.659</v>
       </c>
       <c r="D125" t="n">
-        <v>6.69</v>
+        <v>6.659</v>
       </c>
       <c r="E125" t="n">
-        <v>6.675</v>
+        <v>6.659</v>
       </c>
       <c r="F125" t="n">
-        <v>20862.93</v>
+        <v>250</v>
       </c>
       <c r="G125" t="n">
-        <v>6.697600000000002</v>
+        <v>193570.1128564299</v>
       </c>
       <c r="H125" t="n">
-        <v>6.62708333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,42 +4983,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.71</v>
+        <v>6.62</v>
       </c>
       <c r="C126" t="n">
-        <v>6.7</v>
+        <v>6.62</v>
       </c>
       <c r="D126" t="n">
-        <v>6.71</v>
+        <v>6.62</v>
       </c>
       <c r="E126" t="n">
-        <v>6.7</v>
+        <v>6.62</v>
       </c>
       <c r="F126" t="n">
-        <v>48069.8722</v>
+        <v>6809.2226</v>
       </c>
       <c r="G126" t="n">
-        <v>6.694333333333335</v>
+        <v>186760.8902564299</v>
       </c>
       <c r="H126" t="n">
-        <v>6.629249999999996</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5448,42 +5024,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.709</v>
+        <v>6.63</v>
       </c>
       <c r="C127" t="n">
-        <v>6.709</v>
+        <v>6.64</v>
       </c>
       <c r="D127" t="n">
-        <v>6.709</v>
+        <v>6.649</v>
       </c>
       <c r="E127" t="n">
-        <v>6.709</v>
+        <v>6.63</v>
       </c>
       <c r="F127" t="n">
-        <v>192977.4756</v>
+        <v>4364.2994</v>
       </c>
       <c r="G127" t="n">
-        <v>6.69186666666667</v>
+        <v>191125.1896564299</v>
       </c>
       <c r="H127" t="n">
-        <v>6.631399999999997</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,42 +5065,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.709</v>
+        <v>6.649</v>
       </c>
       <c r="C128" t="n">
-        <v>6.709</v>
+        <v>6.663</v>
       </c>
       <c r="D128" t="n">
-        <v>6.709</v>
+        <v>6.663</v>
       </c>
       <c r="E128" t="n">
-        <v>6.709</v>
+        <v>6.649</v>
       </c>
       <c r="F128" t="n">
-        <v>59037.6235</v>
+        <v>61355.3124</v>
       </c>
       <c r="G128" t="n">
-        <v>6.689200000000003</v>
+        <v>252480.5020564299</v>
       </c>
       <c r="H128" t="n">
-        <v>6.633549999999997</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5536,42 +5106,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.719</v>
+        <v>6.65</v>
       </c>
       <c r="C129" t="n">
-        <v>6.719</v>
+        <v>6.663</v>
       </c>
       <c r="D129" t="n">
-        <v>6.719</v>
+        <v>6.663</v>
       </c>
       <c r="E129" t="n">
-        <v>6.719</v>
+        <v>6.638</v>
       </c>
       <c r="F129" t="n">
-        <v>12166.7857</v>
+        <v>123597.1157</v>
       </c>
       <c r="G129" t="n">
-        <v>6.68726666666667</v>
+        <v>252480.5020564299</v>
       </c>
       <c r="H129" t="n">
-        <v>6.635866666666663</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5580,42 +5147,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.67</v>
+        <v>6.631</v>
       </c>
       <c r="C130" t="n">
-        <v>6.67</v>
+        <v>6.631</v>
       </c>
       <c r="D130" t="n">
-        <v>6.67</v>
+        <v>6.631</v>
       </c>
       <c r="E130" t="n">
-        <v>6.67</v>
+        <v>6.631</v>
       </c>
       <c r="F130" t="n">
-        <v>2965.46</v>
+        <v>1007.65</v>
       </c>
       <c r="G130" t="n">
-        <v>6.682066666666669</v>
+        <v>251472.8520564299</v>
       </c>
       <c r="H130" t="n">
-        <v>6.637366666666664</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5624,42 +5188,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="C131" t="n">
-        <v>6.67</v>
+        <v>6.657</v>
       </c>
       <c r="D131" t="n">
-        <v>6.67</v>
+        <v>6.657</v>
       </c>
       <c r="E131" t="n">
-        <v>6.67</v>
+        <v>6.65</v>
       </c>
       <c r="F131" t="n">
-        <v>157.313</v>
+        <v>1800</v>
       </c>
       <c r="G131" t="n">
-        <v>6.676866666666669</v>
+        <v>253272.8520564299</v>
       </c>
       <c r="H131" t="n">
-        <v>6.638866666666664</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5668,42 +5229,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.707</v>
+        <v>6.658</v>
       </c>
       <c r="C132" t="n">
-        <v>6.707</v>
+        <v>6.658</v>
       </c>
       <c r="D132" t="n">
-        <v>6.707</v>
+        <v>6.658</v>
       </c>
       <c r="E132" t="n">
-        <v>6.707</v>
+        <v>6.658</v>
       </c>
       <c r="F132" t="n">
-        <v>19047.9152</v>
+        <v>74955.97139999999</v>
       </c>
       <c r="G132" t="n">
-        <v>6.674133333333335</v>
+        <v>328228.8234564299</v>
       </c>
       <c r="H132" t="n">
-        <v>6.640983333333332</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5712,44 +5270,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.65</v>
+        <v>6.663</v>
       </c>
       <c r="C133" t="n">
-        <v>6.66</v>
+        <v>6.698</v>
       </c>
       <c r="D133" t="n">
-        <v>6.66</v>
+        <v>6.698</v>
       </c>
       <c r="E133" t="n">
-        <v>6.638</v>
+        <v>6.663</v>
       </c>
       <c r="F133" t="n">
-        <v>148519.3037</v>
+        <v>9115.217699999999</v>
       </c>
       <c r="G133" t="n">
-        <v>6.674800000000001</v>
+        <v>337344.0411564299</v>
       </c>
       <c r="H133" t="n">
-        <v>6.642316666666665</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="L133" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,44 +5311,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.633</v>
+        <v>6.671</v>
       </c>
       <c r="C134" t="n">
-        <v>6.633</v>
+        <v>6.7</v>
       </c>
       <c r="D134" t="n">
-        <v>6.633</v>
+        <v>6.7</v>
       </c>
       <c r="E134" t="n">
-        <v>6.633</v>
+        <v>6.671</v>
       </c>
       <c r="F134" t="n">
-        <v>90121.83349999999</v>
+        <v>102500</v>
       </c>
       <c r="G134" t="n">
-        <v>6.671800000000001</v>
+        <v>439844.0411564299</v>
       </c>
       <c r="H134" t="n">
-        <v>6.643199999999998</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="L134" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,44 +5352,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.699</v>
+        <v>6.725</v>
       </c>
       <c r="C135" t="n">
-        <v>6.699</v>
+        <v>6.725</v>
       </c>
       <c r="D135" t="n">
-        <v>6.699</v>
+        <v>6.725</v>
       </c>
       <c r="E135" t="n">
-        <v>6.699</v>
+        <v>6.725</v>
       </c>
       <c r="F135" t="n">
-        <v>19083.89</v>
+        <v>155.3265</v>
       </c>
       <c r="G135" t="n">
-        <v>6.676400000000001</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H135" t="n">
-        <v>6.645183333333333</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>6.633</v>
-      </c>
-      <c r="L135" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5850,42 +5393,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="C136" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="D136" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="E136" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="F136" t="n">
-        <v>298234.6474</v>
+        <v>734475.9292</v>
       </c>
       <c r="G136" t="n">
-        <v>6.680666666666667</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H136" t="n">
-        <v>6.64725</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5894,42 +5434,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="C137" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="D137" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="E137" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="F137" t="n">
-        <v>453615.4908</v>
+        <v>826025.3173</v>
       </c>
       <c r="G137" t="n">
-        <v>6.6856</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H137" t="n">
-        <v>6.649316666666667</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5938,42 +5475,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="C138" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="D138" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="E138" t="n">
-        <v>6.704</v>
+        <v>6.725</v>
       </c>
       <c r="F138" t="n">
-        <v>381394.8479</v>
+        <v>117127.3178</v>
       </c>
       <c r="G138" t="n">
-        <v>6.687866666666666</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H138" t="n">
-        <v>6.651383333333333</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5982,42 +5516,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.719</v>
+        <v>6.725</v>
       </c>
       <c r="C139" t="n">
-        <v>6.719</v>
+        <v>6.725</v>
       </c>
       <c r="D139" t="n">
-        <v>6.719</v>
+        <v>6.725</v>
       </c>
       <c r="E139" t="n">
-        <v>6.719</v>
+        <v>6.725</v>
       </c>
       <c r="F139" t="n">
-        <v>91604.76459999999</v>
+        <v>2739506.6445</v>
       </c>
       <c r="G139" t="n">
-        <v>6.693133333333333</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H139" t="n">
-        <v>6.654216666666668</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6026,42 +5557,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.719</v>
+        <v>6.749</v>
       </c>
       <c r="C140" t="n">
-        <v>6.719</v>
+        <v>6.749</v>
       </c>
       <c r="D140" t="n">
-        <v>6.719</v>
+        <v>6.749</v>
       </c>
       <c r="E140" t="n">
-        <v>6.719</v>
+        <v>6.749</v>
       </c>
       <c r="F140" t="n">
-        <v>803966.9287</v>
+        <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>6.695066666666666</v>
+        <v>440099.3676564299</v>
       </c>
       <c r="H140" t="n">
-        <v>6.65655</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6070,42 +5598,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.719</v>
+        <v>6.746</v>
       </c>
       <c r="C141" t="n">
-        <v>6.719</v>
+        <v>6.746</v>
       </c>
       <c r="D141" t="n">
-        <v>6.719</v>
+        <v>6.746</v>
       </c>
       <c r="E141" t="n">
-        <v>6.719</v>
+        <v>6.746</v>
       </c>
       <c r="F141" t="n">
-        <v>74229.4339</v>
+        <v>74428.25378001</v>
       </c>
       <c r="G141" t="n">
-        <v>6.696333333333332</v>
+        <v>365671.1138764199</v>
       </c>
       <c r="H141" t="n">
-        <v>6.659533333333333</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6114,42 +5639,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.72</v>
+        <v>6.748</v>
       </c>
       <c r="C142" t="n">
-        <v>6.72</v>
+        <v>6.749</v>
       </c>
       <c r="D142" t="n">
-        <v>6.72</v>
+        <v>6.82</v>
       </c>
       <c r="E142" t="n">
-        <v>6.72</v>
+        <v>6.748</v>
       </c>
       <c r="F142" t="n">
-        <v>25212.9285</v>
+        <v>1067650.7652</v>
       </c>
       <c r="G142" t="n">
-        <v>6.697066666666665</v>
+        <v>1433321.87907642</v>
       </c>
       <c r="H142" t="n">
-        <v>6.662533333333333</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6158,42 +5680,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.743</v>
+        <v>6.749</v>
       </c>
       <c r="C143" t="n">
-        <v>6.743</v>
+        <v>6.748</v>
       </c>
       <c r="D143" t="n">
-        <v>6.743</v>
+        <v>6.749</v>
       </c>
       <c r="E143" t="n">
-        <v>6.743</v>
+        <v>6.748</v>
       </c>
       <c r="F143" t="n">
-        <v>1061.8552</v>
+        <v>195654.1679</v>
       </c>
       <c r="G143" t="n">
-        <v>6.699333333333331</v>
+        <v>1237667.71117642</v>
       </c>
       <c r="H143" t="n">
-        <v>6.666083333333334</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6202,42 +5721,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.703</v>
+        <v>6.748</v>
       </c>
       <c r="C144" t="n">
-        <v>6.703</v>
+        <v>6.748</v>
       </c>
       <c r="D144" t="n">
-        <v>6.703</v>
+        <v>6.748</v>
       </c>
       <c r="E144" t="n">
-        <v>6.703</v>
+        <v>6.748</v>
       </c>
       <c r="F144" t="n">
-        <v>115160.5209</v>
+        <v>123757.5905</v>
       </c>
       <c r="G144" t="n">
-        <v>6.698266666666665</v>
+        <v>1237667.71117642</v>
       </c>
       <c r="H144" t="n">
-        <v>6.668966666666667</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,42 +5762,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.71</v>
+        <v>6.748</v>
       </c>
       <c r="C145" t="n">
-        <v>6.71</v>
+        <v>6.748</v>
       </c>
       <c r="D145" t="n">
-        <v>6.71</v>
+        <v>6.748</v>
       </c>
       <c r="E145" t="n">
-        <v>6.71</v>
+        <v>6.748</v>
       </c>
       <c r="F145" t="n">
-        <v>74580.9249</v>
+        <v>65542.3797</v>
       </c>
       <c r="G145" t="n">
-        <v>6.700933333333331</v>
+        <v>1237667.71117642</v>
       </c>
       <c r="H145" t="n">
-        <v>6.671966666666667</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,42 +5803,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.689</v>
+        <v>6.748</v>
       </c>
       <c r="C146" t="n">
-        <v>6.689</v>
+        <v>6.748</v>
       </c>
       <c r="D146" t="n">
-        <v>6.689</v>
+        <v>6.748</v>
       </c>
       <c r="E146" t="n">
-        <v>6.689</v>
+        <v>6.748</v>
       </c>
       <c r="F146" t="n">
-        <v>2715.229</v>
+        <v>169562.9781</v>
       </c>
       <c r="G146" t="n">
-        <v>6.702199999999999</v>
+        <v>1237667.71117642</v>
       </c>
       <c r="H146" t="n">
-        <v>6.674616666666668</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6334,42 +5844,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.73</v>
+        <v>6.668</v>
       </c>
       <c r="C147" t="n">
-        <v>6.703</v>
+        <v>6.65</v>
       </c>
       <c r="D147" t="n">
-        <v>6.73</v>
+        <v>6.668</v>
       </c>
       <c r="E147" t="n">
-        <v>6.703</v>
+        <v>6.65</v>
       </c>
       <c r="F147" t="n">
-        <v>29670.4936</v>
+        <v>1184.2515</v>
       </c>
       <c r="G147" t="n">
-        <v>6.701933333333332</v>
+        <v>1236483.45967642</v>
       </c>
       <c r="H147" t="n">
-        <v>6.677500000000001</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6378,42 +5885,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.71</v>
+        <v>6.65</v>
       </c>
       <c r="C148" t="n">
-        <v>6.705</v>
+        <v>6.678</v>
       </c>
       <c r="D148" t="n">
-        <v>6.71</v>
+        <v>6.678</v>
       </c>
       <c r="E148" t="n">
-        <v>6.705</v>
+        <v>6.65</v>
       </c>
       <c r="F148" t="n">
-        <v>35979.9832</v>
+        <v>120000</v>
       </c>
       <c r="G148" t="n">
-        <v>6.704933333333332</v>
+        <v>1356483.45967642</v>
       </c>
       <c r="H148" t="n">
-        <v>6.680416666666669</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,42 +5926,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.662</v>
+        <v>6.63</v>
       </c>
       <c r="C149" t="n">
-        <v>6.662</v>
+        <v>6.63</v>
       </c>
       <c r="D149" t="n">
-        <v>6.662</v>
+        <v>6.63</v>
       </c>
       <c r="E149" t="n">
-        <v>6.662</v>
+        <v>6.63</v>
       </c>
       <c r="F149" t="n">
-        <v>1217.847</v>
+        <v>7540.849</v>
       </c>
       <c r="G149" t="n">
-        <v>6.706866666666667</v>
+        <v>1348942.61067642</v>
       </c>
       <c r="H149" t="n">
-        <v>6.682616666666669</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,42 +5967,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.687</v>
+        <v>6.64</v>
       </c>
       <c r="C150" t="n">
-        <v>6.687</v>
+        <v>6.64</v>
       </c>
       <c r="D150" t="n">
-        <v>6.687</v>
+        <v>6.64</v>
       </c>
       <c r="E150" t="n">
-        <v>6.687</v>
+        <v>6.64</v>
       </c>
       <c r="F150" t="n">
-        <v>15000</v>
+        <v>18534.5241</v>
       </c>
       <c r="G150" t="n">
-        <v>6.706066666666667</v>
+        <v>1367477.13477642</v>
       </c>
       <c r="H150" t="n">
-        <v>6.685366666666669</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6510,42 +6008,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.67</v>
+        <v>6.64</v>
       </c>
       <c r="C151" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="D151" t="n">
-        <v>6.67</v>
+        <v>6.64</v>
       </c>
       <c r="E151" t="n">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="F151" t="n">
-        <v>6072.2466</v>
+        <v>21465</v>
       </c>
       <c r="G151" t="n">
-        <v>6.7038</v>
+        <v>1346012.13477642</v>
       </c>
       <c r="H151" t="n">
-        <v>6.687033333333336</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,42 +6049,39 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.672</v>
+        <v>6.67</v>
       </c>
       <c r="C152" t="n">
-        <v>6.672</v>
+        <v>6.67</v>
       </c>
       <c r="D152" t="n">
-        <v>6.672</v>
+        <v>6.67</v>
       </c>
       <c r="E152" t="n">
-        <v>6.672</v>
+        <v>6.67</v>
       </c>
       <c r="F152" t="n">
-        <v>8797</v>
+        <v>6335.326</v>
       </c>
       <c r="G152" t="n">
-        <v>6.701666666666667</v>
+        <v>1352347.46077642</v>
       </c>
       <c r="H152" t="n">
-        <v>6.68856666666667</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6598,42 +6090,39 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6.677</v>
+        <v>6.64</v>
       </c>
       <c r="C153" t="n">
-        <v>6.677</v>
+        <v>6.64</v>
       </c>
       <c r="D153" t="n">
-        <v>6.677</v>
+        <v>6.64</v>
       </c>
       <c r="E153" t="n">
-        <v>6.677</v>
+        <v>6.64</v>
       </c>
       <c r="F153" t="n">
-        <v>8727</v>
+        <v>3130.42</v>
       </c>
       <c r="G153" t="n">
-        <v>6.699866666666667</v>
+        <v>1349217.04077642</v>
       </c>
       <c r="H153" t="n">
-        <v>6.68961666666667</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,42 +6131,39 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.679</v>
+        <v>6.675</v>
       </c>
       <c r="C154" t="n">
-        <v>6.679</v>
+        <v>6.69</v>
       </c>
       <c r="D154" t="n">
-        <v>6.679</v>
+        <v>6.69</v>
       </c>
       <c r="E154" t="n">
-        <v>6.679</v>
+        <v>6.675</v>
       </c>
       <c r="F154" t="n">
-        <v>51014.7916</v>
+        <v>20862.93</v>
       </c>
       <c r="G154" t="n">
-        <v>6.6972</v>
+        <v>1370079.97077642</v>
       </c>
       <c r="H154" t="n">
-        <v>6.690550000000004</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6686,42 +6172,39 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>6.682</v>
+        <v>6.71</v>
       </c>
       <c r="C155" t="n">
-        <v>6.682</v>
+        <v>6.7</v>
       </c>
       <c r="D155" t="n">
-        <v>6.682</v>
+        <v>6.71</v>
       </c>
       <c r="E155" t="n">
-        <v>6.682</v>
+        <v>6.7</v>
       </c>
       <c r="F155" t="n">
-        <v>45892.6989</v>
+        <v>48069.8722</v>
       </c>
       <c r="G155" t="n">
-        <v>6.694733333333335</v>
+        <v>1418149.84297642</v>
       </c>
       <c r="H155" t="n">
-        <v>6.692083333333338</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N155" t="n">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6730,42 +6213,39 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>6.682</v>
+        <v>6.709</v>
       </c>
       <c r="C156" t="n">
-        <v>6.683</v>
+        <v>6.709</v>
       </c>
       <c r="D156" t="n">
-        <v>6.683</v>
+        <v>6.709</v>
       </c>
       <c r="E156" t="n">
-        <v>6.682</v>
+        <v>6.709</v>
       </c>
       <c r="F156" t="n">
-        <v>39161.5198</v>
+        <v>192977.4756</v>
       </c>
       <c r="G156" t="n">
-        <v>6.692333333333335</v>
+        <v>1611127.31857642</v>
       </c>
       <c r="H156" t="n">
-        <v>6.692483333333338</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6774,42 +6254,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>6.662</v>
+        <v>6.709</v>
       </c>
       <c r="C157" t="n">
-        <v>6.662</v>
+        <v>6.709</v>
       </c>
       <c r="D157" t="n">
-        <v>6.662</v>
+        <v>6.709</v>
       </c>
       <c r="E157" t="n">
-        <v>6.662</v>
+        <v>6.709</v>
       </c>
       <c r="F157" t="n">
-        <v>7398.0401</v>
+        <v>59037.6235</v>
       </c>
       <c r="G157" t="n">
-        <v>6.688466666666669</v>
+        <v>1611127.31857642</v>
       </c>
       <c r="H157" t="n">
-        <v>6.693183333333337</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,42 +6295,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>6.73</v>
+        <v>6.719</v>
       </c>
       <c r="C158" t="n">
-        <v>6.73</v>
+        <v>6.719</v>
       </c>
       <c r="D158" t="n">
-        <v>6.73</v>
+        <v>6.719</v>
       </c>
       <c r="E158" t="n">
-        <v>6.73</v>
+        <v>6.719</v>
       </c>
       <c r="F158" t="n">
-        <v>100</v>
+        <v>12166.7857</v>
       </c>
       <c r="G158" t="n">
-        <v>6.687600000000002</v>
+        <v>1623294.10427642</v>
       </c>
       <c r="H158" t="n">
-        <v>6.694683333333338</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6862,42 +6336,39 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>6.723</v>
+        <v>6.67</v>
       </c>
       <c r="C159" t="n">
-        <v>6.723</v>
+        <v>6.67</v>
       </c>
       <c r="D159" t="n">
-        <v>6.723</v>
+        <v>6.67</v>
       </c>
       <c r="E159" t="n">
-        <v>6.723</v>
+        <v>6.67</v>
       </c>
       <c r="F159" t="n">
-        <v>59897.4003</v>
+        <v>2965.46</v>
       </c>
       <c r="G159" t="n">
-        <v>6.688933333333336</v>
+        <v>1620328.64427642</v>
       </c>
       <c r="H159" t="n">
-        <v>6.695683333333338</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,42 +6377,39 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>6.707</v>
+        <v>6.67</v>
       </c>
       <c r="C160" t="n">
-        <v>6.72</v>
+        <v>6.67</v>
       </c>
       <c r="D160" t="n">
-        <v>6.724</v>
+        <v>6.67</v>
       </c>
       <c r="E160" t="n">
-        <v>6.707</v>
+        <v>6.67</v>
       </c>
       <c r="F160" t="n">
-        <v>152832.9029</v>
+        <v>157.313</v>
       </c>
       <c r="G160" t="n">
-        <v>6.689600000000002</v>
+        <v>1620328.64427642</v>
       </c>
       <c r="H160" t="n">
-        <v>6.696633333333338</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6950,42 +6418,39 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>6.71</v>
+        <v>6.707</v>
       </c>
       <c r="C161" t="n">
-        <v>6.702</v>
+        <v>6.707</v>
       </c>
       <c r="D161" t="n">
-        <v>6.71</v>
+        <v>6.707</v>
       </c>
       <c r="E161" t="n">
-        <v>6.701</v>
+        <v>6.707</v>
       </c>
       <c r="F161" t="n">
-        <v>43644.0115</v>
+        <v>19047.9152</v>
       </c>
       <c r="G161" t="n">
-        <v>6.690466666666668</v>
+        <v>1639376.55947642</v>
       </c>
       <c r="H161" t="n">
-        <v>6.697816666666671</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,42 +6459,39 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>6.705</v>
+        <v>6.65</v>
       </c>
       <c r="C162" t="n">
-        <v>6.705</v>
+        <v>6.66</v>
       </c>
       <c r="D162" t="n">
-        <v>6.705</v>
+        <v>6.66</v>
       </c>
       <c r="E162" t="n">
-        <v>6.705</v>
+        <v>6.638</v>
       </c>
       <c r="F162" t="n">
-        <v>76</v>
+        <v>148519.3037</v>
       </c>
       <c r="G162" t="n">
-        <v>6.690600000000002</v>
+        <v>1490857.25577642</v>
       </c>
       <c r="H162" t="n">
-        <v>6.698616666666671</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N162" t="n">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7038,42 +6500,1228 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="F163" t="n">
+        <v>90121.83349999999</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1400735.42227642</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19083.89</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1419819.31227642</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="F165" t="n">
+        <v>298234.6474</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1718053.95967642</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="F166" t="n">
+        <v>453615.4908</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1718053.95967642</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="F167" t="n">
+        <v>381394.8479</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1718053.95967642</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="C168" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="F168" t="n">
+        <v>91604.76459999999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1809658.72427642</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="F169" t="n">
+        <v>803966.9287</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1809658.72427642</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="F170" t="n">
+        <v>74229.4339</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1809658.72427642</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F171" t="n">
+        <v>25212.9285</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1834871.65277642</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.743</v>
+      </c>
+      <c r="C172" t="n">
+        <v>6.743</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6.743</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.743</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1061.8552</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1835933.50797642</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="E173" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="F173" t="n">
+        <v>115160.5209</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1720772.98707642</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F174" t="n">
+        <v>74580.9249</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1795353.91197642</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2715.229</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1792638.68297642</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E176" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="F176" t="n">
+        <v>29670.4936</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1822309.17657642</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C177" t="n">
         <v>6.705</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D177" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E177" t="n">
         <v>6.705</v>
       </c>
-      <c r="D163" t="n">
+      <c r="F177" t="n">
+        <v>35979.9832</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1858289.15977642</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1217.847</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1857071.31277642</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6.687</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.687</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6.687</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6.687</v>
+      </c>
+      <c r="F179" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1872071.31277642</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E180" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="F180" t="n">
+        <v>6072.2466</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1865999.06617642</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6.672</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.672</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.672</v>
+      </c>
+      <c r="E181" t="n">
+        <v>6.672</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8797</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1874796.06617642</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="D182" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="E182" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8727</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1883523.06617642</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="E183" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="F183" t="n">
+        <v>51014.7916</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1934537.85777642</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="E184" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="F184" t="n">
+        <v>45892.6989</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1980430.55667642</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6.683</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.683</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="F185" t="n">
+        <v>39161.5198</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2019592.07647642</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="E186" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="F186" t="n">
+        <v>7398.0401</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2012194.036376419</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D187" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F187" t="n">
+        <v>100</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2012294.036376419</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="D188" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="F188" t="n">
+        <v>59897.4003</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1952396.636076419</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6.724</v>
+      </c>
+      <c r="E189" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="F189" t="n">
+        <v>152832.9029</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1799563.73317642</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.702</v>
+      </c>
+      <c r="D190" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6.701</v>
+      </c>
+      <c r="F190" t="n">
+        <v>43644.0115</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1755919.721676419</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
         <v>6.705</v>
       </c>
-      <c r="E163" t="n">
+      <c r="C191" t="n">
         <v>6.705</v>
       </c>
-      <c r="F163" t="n">
+      <c r="D191" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="F191" t="n">
+        <v>76</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1755995.721676419</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="F192" t="n">
         <v>44934</v>
       </c>
-      <c r="G163" t="n">
-        <v>6.690600000000002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>6.699400000000003</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N163" t="n">
+      <c r="G192" t="n">
+        <v>1755995.721676419</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest IOST.xlsx
+++ b/BackTest/2020-01-19 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.86</v>
+        <v>6.99</v>
       </c>
       <c r="C2" t="n">
-        <v>6.873</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>6.873</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>6.86</v>
+        <v>6.99</v>
       </c>
       <c r="F2" t="n">
-        <v>85000</v>
+        <v>99000</v>
       </c>
       <c r="G2" t="n">
-        <v>601394.7987564299</v>
+        <v>951629.66765643</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.872</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>6.872</v>
+        <v>7.015</v>
       </c>
       <c r="D3" t="n">
-        <v>6.872</v>
+        <v>7.015</v>
       </c>
       <c r="E3" t="n">
-        <v>6.872</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="G3" t="n">
-        <v>581394.7987564299</v>
+        <v>1191629.66765643</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.872</v>
+        <v>7.015</v>
       </c>
       <c r="C4" t="n">
-        <v>6.899</v>
+        <v>7.015</v>
       </c>
       <c r="D4" t="n">
-        <v>6.899</v>
+        <v>7.015</v>
       </c>
       <c r="E4" t="n">
-        <v>6.872</v>
+        <v>7.015</v>
       </c>
       <c r="F4" t="n">
-        <v>76000</v>
+        <v>385330.6953</v>
       </c>
       <c r="G4" t="n">
-        <v>657394.7987564299</v>
+        <v>1191629.66765643</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.899</v>
+        <v>7.014</v>
       </c>
       <c r="C5" t="n">
-        <v>6.899</v>
+        <v>7.014</v>
       </c>
       <c r="D5" t="n">
-        <v>6.899</v>
+        <v>7.014</v>
       </c>
       <c r="E5" t="n">
-        <v>6.899</v>
+        <v>7.014</v>
       </c>
       <c r="F5" t="n">
-        <v>92000</v>
+        <v>85581.0175</v>
       </c>
       <c r="G5" t="n">
-        <v>657394.7987564299</v>
+        <v>1106048.65015643</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.834</v>
+        <v>7.014</v>
       </c>
       <c r="C6" t="n">
-        <v>6.834</v>
+        <v>7.014</v>
       </c>
       <c r="D6" t="n">
-        <v>6.834</v>
+        <v>7.014</v>
       </c>
       <c r="E6" t="n">
-        <v>6.834</v>
+        <v>7.014</v>
       </c>
       <c r="F6" t="n">
-        <v>7423.8785</v>
+        <v>100521.3735</v>
       </c>
       <c r="G6" t="n">
-        <v>649970.9202564299</v>
+        <v>1106048.65015643</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.862</v>
+        <v>7.02</v>
       </c>
       <c r="C7" t="n">
-        <v>6.86</v>
+        <v>7.02</v>
       </c>
       <c r="D7" t="n">
-        <v>6.862</v>
+        <v>7.02</v>
       </c>
       <c r="E7" t="n">
-        <v>6.86</v>
+        <v>7.02</v>
       </c>
       <c r="F7" t="n">
-        <v>162564.154</v>
+        <v>2494.823</v>
       </c>
       <c r="G7" t="n">
-        <v>812535.0742564299</v>
+        <v>1108543.47315643</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.86</v>
+        <v>7.014</v>
       </c>
       <c r="C8" t="n">
-        <v>6.846</v>
+        <v>7.014</v>
       </c>
       <c r="D8" t="n">
-        <v>6.86</v>
+        <v>7.014</v>
       </c>
       <c r="E8" t="n">
-        <v>6.846</v>
+        <v>7.014</v>
       </c>
       <c r="F8" t="n">
-        <v>167826.5816</v>
+        <v>7714.5487</v>
       </c>
       <c r="G8" t="n">
-        <v>644708.4926564299</v>
+        <v>1100828.92445643</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.846</v>
+        <v>7.03</v>
       </c>
       <c r="C9" t="n">
-        <v>6.846</v>
+        <v>7.03</v>
       </c>
       <c r="D9" t="n">
-        <v>6.846</v>
+        <v>7.03</v>
       </c>
       <c r="E9" t="n">
-        <v>6.846</v>
+        <v>7.03</v>
       </c>
       <c r="F9" t="n">
-        <v>517538.0622</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>644708.4926564299</v>
+        <v>1100928.92445643</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.846</v>
+        <v>7.014</v>
       </c>
       <c r="C10" t="n">
-        <v>6.842</v>
+        <v>7.014</v>
       </c>
       <c r="D10" t="n">
-        <v>6.846</v>
+        <v>7.014</v>
       </c>
       <c r="E10" t="n">
-        <v>6.842</v>
+        <v>7.014</v>
       </c>
       <c r="F10" t="n">
-        <v>171840.4403</v>
+        <v>402.0108</v>
       </c>
       <c r="G10" t="n">
-        <v>472868.0523564299</v>
+        <v>1100526.91365643</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.85</v>
+        <v>7.014</v>
       </c>
       <c r="C11" t="n">
-        <v>6.842</v>
+        <v>6.995</v>
       </c>
       <c r="D11" t="n">
-        <v>6.85</v>
+        <v>7.014</v>
       </c>
       <c r="E11" t="n">
-        <v>6.842</v>
+        <v>6.995</v>
       </c>
       <c r="F11" t="n">
-        <v>11394.0328</v>
+        <v>155763.6177</v>
       </c>
       <c r="G11" t="n">
-        <v>472868.0523564299</v>
+        <v>944763.29595643</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.89</v>
+        <v>7.02</v>
       </c>
       <c r="C12" t="n">
-        <v>6.899</v>
+        <v>7.02</v>
       </c>
       <c r="D12" t="n">
-        <v>6.899</v>
+        <v>7.02</v>
       </c>
       <c r="E12" t="n">
-        <v>6.89</v>
+        <v>7.02</v>
       </c>
       <c r="F12" t="n">
-        <v>127907.6713</v>
+        <v>13786.2423</v>
       </c>
       <c r="G12" t="n">
-        <v>600775.7236564299</v>
+        <v>958549.5382564301</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.899</v>
+        <v>6.996</v>
       </c>
       <c r="C13" t="n">
-        <v>6.876</v>
+        <v>6.995</v>
       </c>
       <c r="D13" t="n">
-        <v>6.899</v>
+        <v>6.996</v>
       </c>
       <c r="E13" t="n">
-        <v>6.876</v>
+        <v>6.995</v>
       </c>
       <c r="F13" t="n">
-        <v>6029.7904</v>
+        <v>202644.4312</v>
       </c>
       <c r="G13" t="n">
-        <v>594745.9332564299</v>
+        <v>755905.1070564301</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.899</v>
+        <v>6.989</v>
       </c>
       <c r="C14" t="n">
-        <v>6.9</v>
+        <v>6.989</v>
       </c>
       <c r="D14" t="n">
-        <v>6.9</v>
+        <v>6.989</v>
       </c>
       <c r="E14" t="n">
-        <v>6.899</v>
+        <v>6.989</v>
       </c>
       <c r="F14" t="n">
-        <v>39588.8766</v>
+        <v>177020.9374</v>
       </c>
       <c r="G14" t="n">
-        <v>634334.8098564298</v>
+        <v>578884.1696564301</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="C15" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="D15" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="E15" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="F15" t="n">
-        <v>827720.9135</v>
+        <v>2670</v>
       </c>
       <c r="G15" t="n">
-        <v>634334.8098564298</v>
+        <v>576214.1696564301</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.9</v>
+        <v>6.99</v>
       </c>
       <c r="C16" t="n">
-        <v>6.9</v>
+        <v>6.998</v>
       </c>
       <c r="D16" t="n">
-        <v>6.9</v>
+        <v>6.998</v>
       </c>
       <c r="E16" t="n">
-        <v>6.9</v>
+        <v>6.99</v>
       </c>
       <c r="F16" t="n">
-        <v>478398.1656</v>
+        <v>367140.8546</v>
       </c>
       <c r="G16" t="n">
-        <v>634334.8098564298</v>
+        <v>943355.0242564301</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.872</v>
+        <v>7.003</v>
       </c>
       <c r="C17" t="n">
-        <v>6.872</v>
+        <v>7.003</v>
       </c>
       <c r="D17" t="n">
-        <v>6.872</v>
+        <v>7.003</v>
       </c>
       <c r="E17" t="n">
-        <v>6.872</v>
+        <v>7.003</v>
       </c>
       <c r="F17" t="n">
-        <v>15038.3157</v>
+        <v>356.7366</v>
       </c>
       <c r="G17" t="n">
-        <v>619296.4941564298</v>
+        <v>943711.76085643</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="C18" t="n">
-        <v>6.9</v>
+        <v>6.944</v>
       </c>
       <c r="D18" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9</v>
+        <v>6.944</v>
       </c>
       <c r="F18" t="n">
-        <v>5048.5145</v>
+        <v>98000</v>
       </c>
       <c r="G18" t="n">
-        <v>624345.0086564298</v>
+        <v>845711.76085643</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="C19" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="D19" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="E19" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="F19" t="n">
-        <v>42753.3525</v>
+        <v>13640.3951</v>
       </c>
       <c r="G19" t="n">
-        <v>624345.0086564298</v>
+        <v>859352.15595643</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="C20" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="D20" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="E20" t="n">
-        <v>6.9</v>
+        <v>6.96</v>
       </c>
       <c r="F20" t="n">
-        <v>306160.5771</v>
+        <v>14625.8964</v>
       </c>
       <c r="G20" t="n">
-        <v>624345.0086564298</v>
+        <v>873978.05235643</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.9</v>
+        <v>6.938</v>
       </c>
       <c r="C21" t="n">
-        <v>6.9</v>
+        <v>6.938</v>
       </c>
       <c r="D21" t="n">
-        <v>6.9</v>
+        <v>6.938</v>
       </c>
       <c r="E21" t="n">
-        <v>6.9</v>
+        <v>6.938</v>
       </c>
       <c r="F21" t="n">
-        <v>245602.4374</v>
+        <v>31464.5277</v>
       </c>
       <c r="G21" t="n">
-        <v>624345.0086564298</v>
+        <v>842513.52465643</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.936</v>
+        <v>6.959</v>
       </c>
       <c r="C22" t="n">
-        <v>6.936</v>
+        <v>6.959</v>
       </c>
       <c r="D22" t="n">
-        <v>6.936</v>
+        <v>6.959</v>
       </c>
       <c r="E22" t="n">
-        <v>6.936</v>
+        <v>6.959</v>
       </c>
       <c r="F22" t="n">
-        <v>12385.2451</v>
+        <v>6150.6377</v>
       </c>
       <c r="G22" t="n">
-        <v>636730.2537564298</v>
+        <v>848664.16235643</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.962</v>
+        <v>6.959</v>
       </c>
       <c r="C23" t="n">
-        <v>6.962</v>
+        <v>6.959</v>
       </c>
       <c r="D23" t="n">
-        <v>6.962</v>
+        <v>6.959</v>
       </c>
       <c r="E23" t="n">
-        <v>6.962</v>
+        <v>6.959</v>
       </c>
       <c r="F23" t="n">
-        <v>131402.9462</v>
+        <v>3266.3171</v>
       </c>
       <c r="G23" t="n">
-        <v>768133.1999564298</v>
+        <v>848664.16235643</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.962</v>
+        <v>7.017</v>
       </c>
       <c r="C24" t="n">
-        <v>6.962</v>
+        <v>7.017</v>
       </c>
       <c r="D24" t="n">
-        <v>6.962</v>
+        <v>7.017</v>
       </c>
       <c r="E24" t="n">
-        <v>6.961</v>
+        <v>7.017</v>
       </c>
       <c r="F24" t="n">
-        <v>26335.3961</v>
+        <v>36816.5691</v>
       </c>
       <c r="G24" t="n">
-        <v>768133.1999564298</v>
+        <v>885480.7314564299</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.962</v>
+        <v>7.017</v>
       </c>
       <c r="C25" t="n">
-        <v>6.963</v>
+        <v>7.017</v>
       </c>
       <c r="D25" t="n">
-        <v>6.963</v>
+        <v>7.017</v>
       </c>
       <c r="E25" t="n">
-        <v>6.962</v>
+        <v>7.017</v>
       </c>
       <c r="F25" t="n">
-        <v>107041.0688</v>
+        <v>3300.516</v>
       </c>
       <c r="G25" t="n">
-        <v>875174.2687564298</v>
+        <v>885480.7314564299</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.963</v>
+        <v>7.017</v>
       </c>
       <c r="C26" t="n">
-        <v>6.963</v>
+        <v>7.017</v>
       </c>
       <c r="D26" t="n">
-        <v>6.963</v>
+        <v>7.017</v>
       </c>
       <c r="E26" t="n">
-        <v>6.963</v>
+        <v>7.017</v>
       </c>
       <c r="F26" t="n">
-        <v>53726.6674</v>
+        <v>11659.7394</v>
       </c>
       <c r="G26" t="n">
-        <v>875174.2687564298</v>
+        <v>885480.7314564299</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.934</v>
+        <v>7.017</v>
       </c>
       <c r="C27" t="n">
-        <v>6.935</v>
+        <v>6.987</v>
       </c>
       <c r="D27" t="n">
-        <v>6.935</v>
+        <v>7.017</v>
       </c>
       <c r="E27" t="n">
-        <v>6.934</v>
+        <v>6.987</v>
       </c>
       <c r="F27" t="n">
-        <v>90121.83349999999</v>
+        <v>35250.6563</v>
       </c>
       <c r="G27" t="n">
-        <v>785052.4352564298</v>
+        <v>850230.0751564299</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.941</v>
+        <v>7.019</v>
       </c>
       <c r="C28" t="n">
-        <v>6.941</v>
+        <v>7.019</v>
       </c>
       <c r="D28" t="n">
-        <v>6.941</v>
+        <v>7.019</v>
       </c>
       <c r="E28" t="n">
-        <v>6.941</v>
+        <v>7.019</v>
       </c>
       <c r="F28" t="n">
-        <v>253000</v>
+        <v>92.98309999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>1038052.43525643</v>
+        <v>850323.0582564299</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.963</v>
+        <v>7.019</v>
       </c>
       <c r="C29" t="n">
-        <v>6.971</v>
+        <v>7.019</v>
       </c>
       <c r="D29" t="n">
-        <v>6.971</v>
+        <v>7.019</v>
       </c>
       <c r="E29" t="n">
-        <v>6.963</v>
+        <v>7.019</v>
       </c>
       <c r="F29" t="n">
-        <v>60000</v>
+        <v>94246.3502</v>
       </c>
       <c r="G29" t="n">
-        <v>1098052.43525643</v>
+        <v>850323.0582564299</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.93</v>
+        <v>6.99</v>
       </c>
       <c r="C30" t="n">
-        <v>6.93</v>
+        <v>6.99</v>
       </c>
       <c r="D30" t="n">
-        <v>6.93</v>
+        <v>6.99</v>
       </c>
       <c r="E30" t="n">
-        <v>6.93</v>
+        <v>6.99</v>
       </c>
       <c r="F30" t="n">
-        <v>50796.4887</v>
+        <v>77135.1685</v>
       </c>
       <c r="G30" t="n">
-        <v>1047255.94655643</v>
+        <v>773187.8897564298</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.97</v>
+        <v>6.987</v>
       </c>
       <c r="C31" t="n">
-        <v>6.97</v>
+        <v>6.958</v>
       </c>
       <c r="D31" t="n">
-        <v>6.97</v>
+        <v>6.987</v>
       </c>
       <c r="E31" t="n">
-        <v>6.97</v>
+        <v>6.958</v>
       </c>
       <c r="F31" t="n">
-        <v>10935.0706</v>
+        <v>13047.7782</v>
       </c>
       <c r="G31" t="n">
-        <v>1058191.01715643</v>
+        <v>760140.1115564299</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.97</v>
+        <v>6.92</v>
       </c>
       <c r="C32" t="n">
-        <v>6.97</v>
+        <v>6.92</v>
       </c>
       <c r="D32" t="n">
-        <v>6.97</v>
+        <v>6.92</v>
       </c>
       <c r="E32" t="n">
-        <v>6.97</v>
+        <v>6.92</v>
       </c>
       <c r="F32" t="n">
-        <v>1564.7129</v>
+        <v>362.5</v>
       </c>
       <c r="G32" t="n">
-        <v>1058191.01715643</v>
+        <v>759777.6115564299</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.941</v>
+        <v>6.94</v>
       </c>
       <c r="C33" t="n">
-        <v>6.95</v>
+        <v>6.899</v>
       </c>
       <c r="D33" t="n">
-        <v>6.95</v>
+        <v>6.94</v>
       </c>
       <c r="E33" t="n">
-        <v>6.941</v>
+        <v>6.899</v>
       </c>
       <c r="F33" t="n">
-        <v>10935.0706</v>
+        <v>450</v>
       </c>
       <c r="G33" t="n">
-        <v>1047255.94655643</v>
+        <v>759327.6115564299</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.989</v>
+        <v>6.89</v>
       </c>
       <c r="C34" t="n">
-        <v>6.989</v>
+        <v>6.869</v>
       </c>
       <c r="D34" t="n">
-        <v>6.989</v>
+        <v>6.89</v>
       </c>
       <c r="E34" t="n">
-        <v>6.989</v>
+        <v>6.859</v>
       </c>
       <c r="F34" t="n">
-        <v>27293.0579</v>
+        <v>68106.73239999999</v>
       </c>
       <c r="G34" t="n">
-        <v>1074549.00445643</v>
+        <v>691220.8791564299</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.989</v>
+        <v>6.868</v>
       </c>
       <c r="C35" t="n">
-        <v>6.99</v>
+        <v>6.854</v>
       </c>
       <c r="D35" t="n">
-        <v>6.99</v>
+        <v>6.868</v>
       </c>
       <c r="E35" t="n">
-        <v>6.989</v>
+        <v>6.813</v>
       </c>
       <c r="F35" t="n">
-        <v>54293.8197</v>
+        <v>592837.8199999999</v>
       </c>
       <c r="G35" t="n">
-        <v>1128842.82415643</v>
+        <v>98383.05915642995</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.996</v>
+        <v>6.77</v>
       </c>
       <c r="C36" t="n">
-        <v>6.99</v>
+        <v>6.751</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>6.77</v>
       </c>
       <c r="E36" t="n">
-        <v>6.99</v>
+        <v>6.751</v>
       </c>
       <c r="F36" t="n">
-        <v>232660.6934</v>
+        <v>60000</v>
       </c>
       <c r="G36" t="n">
-        <v>1128842.82415643</v>
+        <v>38383.05915642995</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.971</v>
+        <v>6.77</v>
       </c>
       <c r="C37" t="n">
-        <v>6.961</v>
+        <v>6.728</v>
       </c>
       <c r="D37" t="n">
-        <v>6.971</v>
+        <v>6.77</v>
       </c>
       <c r="E37" t="n">
-        <v>6.961</v>
+        <v>6.728</v>
       </c>
       <c r="F37" t="n">
-        <v>258169.3052</v>
+        <v>117388.7026</v>
       </c>
       <c r="G37" t="n">
-        <v>870673.51895643</v>
+        <v>-79005.64344357005</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.95</v>
+        <v>6.709</v>
       </c>
       <c r="C38" t="n">
-        <v>6.95</v>
+        <v>6.686</v>
       </c>
       <c r="D38" t="n">
-        <v>6.95</v>
+        <v>6.709</v>
       </c>
       <c r="E38" t="n">
-        <v>6.95</v>
+        <v>6.686</v>
       </c>
       <c r="F38" t="n">
-        <v>33301.5917</v>
+        <v>40227.2452</v>
       </c>
       <c r="G38" t="n">
-        <v>837371.92725643</v>
+        <v>-119232.88864357</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.95</v>
+        <v>6.69</v>
       </c>
       <c r="C39" t="n">
-        <v>6.95</v>
+        <v>6.69</v>
       </c>
       <c r="D39" t="n">
-        <v>6.95</v>
+        <v>6.69</v>
       </c>
       <c r="E39" t="n">
-        <v>6.95</v>
+        <v>6.69</v>
       </c>
       <c r="F39" t="n">
-        <v>116296.6642</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>837371.92725643</v>
+        <v>-119132.88864357</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="C40" t="n">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="D40" t="n">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="E40" t="n">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="F40" t="n">
-        <v>160625.1226</v>
+        <v>1306.4124</v>
       </c>
       <c r="G40" t="n">
-        <v>837371.92725643</v>
+        <v>-117826.47624357</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="C41" t="n">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="D41" t="n">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="E41" t="n">
-        <v>6.95</v>
+        <v>6.7</v>
       </c>
       <c r="F41" t="n">
-        <v>9297.266100000001</v>
+        <v>66396.8426</v>
       </c>
       <c r="G41" t="n">
-        <v>837371.92725643</v>
+        <v>-117826.47624357</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.957</v>
+        <v>6.7</v>
       </c>
       <c r="C42" t="n">
-        <v>6.957</v>
+        <v>6.664</v>
       </c>
       <c r="D42" t="n">
-        <v>6.957</v>
+        <v>6.7</v>
       </c>
       <c r="E42" t="n">
-        <v>6.957</v>
+        <v>6.664</v>
       </c>
       <c r="F42" t="n">
-        <v>7825.2378</v>
+        <v>559780.1244</v>
       </c>
       <c r="G42" t="n">
-        <v>845197.16505643</v>
+        <v>-677606.6006435701</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.973</v>
+        <v>6.716</v>
       </c>
       <c r="C43" t="n">
-        <v>6.973</v>
+        <v>6.716</v>
       </c>
       <c r="D43" t="n">
-        <v>6.973</v>
+        <v>6.716</v>
       </c>
       <c r="E43" t="n">
-        <v>6.973</v>
+        <v>6.716</v>
       </c>
       <c r="F43" t="n">
-        <v>7432.5026</v>
+        <v>212000</v>
       </c>
       <c r="G43" t="n">
-        <v>852629.66765643</v>
+        <v>-465606.6006435701</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.99</v>
+        <v>6.675</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>6.675</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>6.675</v>
       </c>
       <c r="E44" t="n">
-        <v>6.99</v>
+        <v>6.675</v>
       </c>
       <c r="F44" t="n">
-        <v>99000</v>
+        <v>7986.4404</v>
       </c>
       <c r="G44" t="n">
-        <v>951629.66765643</v>
+        <v>-473593.0410435701</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>6.675</v>
       </c>
       <c r="C45" t="n">
-        <v>7.015</v>
+        <v>6.675</v>
       </c>
       <c r="D45" t="n">
-        <v>7.015</v>
+        <v>6.675</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6.675</v>
       </c>
       <c r="F45" t="n">
-        <v>240000</v>
+        <v>44084.2953</v>
       </c>
       <c r="G45" t="n">
-        <v>1191629.66765643</v>
+        <v>-473593.0410435701</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.015</v>
+        <v>6.675</v>
       </c>
       <c r="C46" t="n">
-        <v>7.015</v>
+        <v>6.675</v>
       </c>
       <c r="D46" t="n">
-        <v>7.015</v>
+        <v>6.675</v>
       </c>
       <c r="E46" t="n">
-        <v>7.015</v>
+        <v>6.675</v>
       </c>
       <c r="F46" t="n">
-        <v>385330.6953</v>
+        <v>1024.8579</v>
       </c>
       <c r="G46" t="n">
-        <v>1191629.66765643</v>
+        <v>-473593.0410435701</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.014</v>
+        <v>6.661</v>
       </c>
       <c r="C47" t="n">
-        <v>7.014</v>
+        <v>6.603</v>
       </c>
       <c r="D47" t="n">
-        <v>7.014</v>
+        <v>6.661</v>
       </c>
       <c r="E47" t="n">
-        <v>7.014</v>
+        <v>6.603</v>
       </c>
       <c r="F47" t="n">
-        <v>85581.0175</v>
+        <v>15507.4166</v>
       </c>
       <c r="G47" t="n">
-        <v>1106048.65015643</v>
+        <v>-489100.4576435701</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.014</v>
+        <v>6.6</v>
       </c>
       <c r="C48" t="n">
-        <v>7.014</v>
+        <v>6.604</v>
       </c>
       <c r="D48" t="n">
-        <v>7.014</v>
+        <v>6.604</v>
       </c>
       <c r="E48" t="n">
-        <v>7.014</v>
+        <v>6.6</v>
       </c>
       <c r="F48" t="n">
-        <v>100521.3735</v>
+        <v>11008.49</v>
       </c>
       <c r="G48" t="n">
-        <v>1106048.65015643</v>
+        <v>-478091.9676435701</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.02</v>
+        <v>6.58</v>
       </c>
       <c r="C49" t="n">
-        <v>7.02</v>
+        <v>6.58</v>
       </c>
       <c r="D49" t="n">
-        <v>7.02</v>
+        <v>6.58</v>
       </c>
       <c r="E49" t="n">
-        <v>7.02</v>
+        <v>6.58</v>
       </c>
       <c r="F49" t="n">
-        <v>2494.823</v>
+        <v>2700</v>
       </c>
       <c r="G49" t="n">
-        <v>1108543.47315643</v>
+        <v>-480791.9676435701</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.014</v>
+        <v>6.55</v>
       </c>
       <c r="C50" t="n">
-        <v>7.014</v>
+        <v>6.55</v>
       </c>
       <c r="D50" t="n">
-        <v>7.014</v>
+        <v>6.55</v>
       </c>
       <c r="E50" t="n">
-        <v>7.014</v>
+        <v>6.55</v>
       </c>
       <c r="F50" t="n">
-        <v>7714.5487</v>
+        <v>3183.8315</v>
       </c>
       <c r="G50" t="n">
-        <v>1100828.92445643</v>
+        <v>-483975.7991435701</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.03</v>
+        <v>6.55</v>
       </c>
       <c r="C51" t="n">
-        <v>7.03</v>
+        <v>6.55</v>
       </c>
       <c r="D51" t="n">
-        <v>7.03</v>
+        <v>6.55</v>
       </c>
       <c r="E51" t="n">
-        <v>7.03</v>
+        <v>6.55</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>27293.0579</v>
       </c>
       <c r="G51" t="n">
-        <v>1100928.92445643</v>
+        <v>-483975.7991435701</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.014</v>
+        <v>6.57</v>
       </c>
       <c r="C52" t="n">
-        <v>7.014</v>
+        <v>6.571</v>
       </c>
       <c r="D52" t="n">
-        <v>7.014</v>
+        <v>6.571</v>
       </c>
       <c r="E52" t="n">
-        <v>7.014</v>
+        <v>6.57</v>
       </c>
       <c r="F52" t="n">
-        <v>402.0108</v>
+        <v>21490</v>
       </c>
       <c r="G52" t="n">
-        <v>1100526.91365643</v>
+        <v>-462485.7991435701</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.014</v>
+        <v>6.57</v>
       </c>
       <c r="C53" t="n">
-        <v>6.995</v>
+        <v>6.57</v>
       </c>
       <c r="D53" t="n">
-        <v>7.014</v>
+        <v>6.57</v>
       </c>
       <c r="E53" t="n">
-        <v>6.995</v>
+        <v>6.57</v>
       </c>
       <c r="F53" t="n">
-        <v>155763.6177</v>
+        <v>5800</v>
       </c>
       <c r="G53" t="n">
-        <v>944763.29595643</v>
+        <v>-468285.7991435701</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.02</v>
+        <v>6.58</v>
       </c>
       <c r="C54" t="n">
-        <v>7.02</v>
+        <v>6.58</v>
       </c>
       <c r="D54" t="n">
-        <v>7.02</v>
+        <v>6.58</v>
       </c>
       <c r="E54" t="n">
-        <v>7.02</v>
+        <v>6.58</v>
       </c>
       <c r="F54" t="n">
-        <v>13786.2423</v>
+        <v>449811.8922</v>
       </c>
       <c r="G54" t="n">
-        <v>958549.5382564301</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.996</v>
+        <v>6.58</v>
       </c>
       <c r="C55" t="n">
-        <v>6.995</v>
+        <v>6.58</v>
       </c>
       <c r="D55" t="n">
-        <v>6.996</v>
+        <v>6.58</v>
       </c>
       <c r="E55" t="n">
-        <v>6.995</v>
+        <v>6.58</v>
       </c>
       <c r="F55" t="n">
-        <v>202644.4312</v>
+        <v>7476.4111</v>
       </c>
       <c r="G55" t="n">
-        <v>755905.1070564301</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.989</v>
+        <v>6.58</v>
       </c>
       <c r="C56" t="n">
-        <v>6.989</v>
+        <v>6.58</v>
       </c>
       <c r="D56" t="n">
-        <v>6.989</v>
+        <v>6.58</v>
       </c>
       <c r="E56" t="n">
-        <v>6.989</v>
+        <v>6.58</v>
       </c>
       <c r="F56" t="n">
-        <v>177020.9374</v>
+        <v>763855.7712</v>
       </c>
       <c r="G56" t="n">
-        <v>578884.1696564301</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.96</v>
+        <v>6.58</v>
       </c>
       <c r="C57" t="n">
-        <v>6.96</v>
+        <v>6.58</v>
       </c>
       <c r="D57" t="n">
-        <v>6.96</v>
+        <v>6.58</v>
       </c>
       <c r="E57" t="n">
-        <v>6.96</v>
+        <v>6.58</v>
       </c>
       <c r="F57" t="n">
-        <v>2670</v>
+        <v>164621.8313</v>
       </c>
       <c r="G57" t="n">
-        <v>576214.1696564301</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.99</v>
+        <v>6.58</v>
       </c>
       <c r="C58" t="n">
-        <v>6.998</v>
+        <v>6.58</v>
       </c>
       <c r="D58" t="n">
-        <v>6.998</v>
+        <v>6.58</v>
       </c>
       <c r="E58" t="n">
-        <v>6.99</v>
+        <v>6.58</v>
       </c>
       <c r="F58" t="n">
-        <v>367140.8546</v>
+        <v>46504.4765</v>
       </c>
       <c r="G58" t="n">
-        <v>943355.0242564301</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,34 +2483,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.003</v>
+        <v>6.58</v>
       </c>
       <c r="C59" t="n">
-        <v>7.003</v>
+        <v>6.58</v>
       </c>
       <c r="D59" t="n">
-        <v>7.003</v>
+        <v>6.58</v>
       </c>
       <c r="E59" t="n">
-        <v>7.003</v>
+        <v>6.58</v>
       </c>
       <c r="F59" t="n">
-        <v>356.7366</v>
+        <v>199864.3642</v>
       </c>
       <c r="G59" t="n">
-        <v>943711.76085643</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,34 +2519,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.95</v>
+        <v>6.58</v>
       </c>
       <c r="C60" t="n">
-        <v>6.944</v>
+        <v>6.58</v>
       </c>
       <c r="D60" t="n">
-        <v>6.95</v>
+        <v>6.58</v>
       </c>
       <c r="E60" t="n">
-        <v>6.944</v>
+        <v>6.58</v>
       </c>
       <c r="F60" t="n">
-        <v>98000</v>
+        <v>229015.9878</v>
       </c>
       <c r="G60" t="n">
-        <v>845711.76085643</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,34 +2555,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.95</v>
+        <v>6.58</v>
       </c>
       <c r="C61" t="n">
-        <v>6.95</v>
+        <v>6.58</v>
       </c>
       <c r="D61" t="n">
-        <v>6.95</v>
+        <v>6.58</v>
       </c>
       <c r="E61" t="n">
-        <v>6.95</v>
+        <v>6.58</v>
       </c>
       <c r="F61" t="n">
-        <v>13640.3951</v>
+        <v>35810.7432</v>
       </c>
       <c r="G61" t="n">
-        <v>859352.15595643</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.96</v>
+        <v>6.58</v>
       </c>
       <c r="C62" t="n">
-        <v>6.96</v>
+        <v>6.58</v>
       </c>
       <c r="D62" t="n">
-        <v>6.96</v>
+        <v>6.58</v>
       </c>
       <c r="E62" t="n">
-        <v>6.96</v>
+        <v>6.58</v>
       </c>
       <c r="F62" t="n">
-        <v>14625.8964</v>
+        <v>147350.5938</v>
       </c>
       <c r="G62" t="n">
-        <v>873978.05235643</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.938</v>
+        <v>6.58</v>
       </c>
       <c r="C63" t="n">
-        <v>6.938</v>
+        <v>6.58</v>
       </c>
       <c r="D63" t="n">
-        <v>6.938</v>
+        <v>6.58</v>
       </c>
       <c r="E63" t="n">
-        <v>6.938</v>
+        <v>6.58</v>
       </c>
       <c r="F63" t="n">
-        <v>31464.5277</v>
+        <v>494102.877</v>
       </c>
       <c r="G63" t="n">
-        <v>842513.52465643</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.959</v>
+        <v>6.58</v>
       </c>
       <c r="C64" t="n">
-        <v>6.959</v>
+        <v>6.58</v>
       </c>
       <c r="D64" t="n">
-        <v>6.959</v>
+        <v>6.58</v>
       </c>
       <c r="E64" t="n">
-        <v>6.959</v>
+        <v>6.58</v>
       </c>
       <c r="F64" t="n">
-        <v>6150.6377</v>
+        <v>542140.2277</v>
       </c>
       <c r="G64" t="n">
-        <v>848664.16235643</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.959</v>
+        <v>6.58</v>
       </c>
       <c r="C65" t="n">
-        <v>6.959</v>
+        <v>6.58</v>
       </c>
       <c r="D65" t="n">
-        <v>6.959</v>
+        <v>6.58</v>
       </c>
       <c r="E65" t="n">
-        <v>6.959</v>
+        <v>6.58</v>
       </c>
       <c r="F65" t="n">
-        <v>3266.3171</v>
+        <v>10000</v>
       </c>
       <c r="G65" t="n">
-        <v>848664.16235643</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.017</v>
+        <v>6.549</v>
       </c>
       <c r="C66" t="n">
-        <v>7.017</v>
+        <v>6.549</v>
       </c>
       <c r="D66" t="n">
-        <v>7.017</v>
+        <v>6.549</v>
       </c>
       <c r="E66" t="n">
-        <v>7.017</v>
+        <v>6.549</v>
       </c>
       <c r="F66" t="n">
-        <v>36816.5691</v>
+        <v>14541.5592</v>
       </c>
       <c r="G66" t="n">
-        <v>885480.7314564299</v>
+        <v>-33015.46614357007</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.017</v>
+        <v>6.579</v>
       </c>
       <c r="C67" t="n">
-        <v>7.017</v>
+        <v>6.579</v>
       </c>
       <c r="D67" t="n">
-        <v>7.017</v>
+        <v>6.579</v>
       </c>
       <c r="E67" t="n">
-        <v>7.017</v>
+        <v>6.579</v>
       </c>
       <c r="F67" t="n">
-        <v>3300.516</v>
+        <v>155.5241</v>
       </c>
       <c r="G67" t="n">
-        <v>885480.7314564299</v>
+        <v>-32859.94204357007</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,34 +2807,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.017</v>
+        <v>6.54</v>
       </c>
       <c r="C68" t="n">
-        <v>7.017</v>
+        <v>6.54</v>
       </c>
       <c r="D68" t="n">
-        <v>7.017</v>
+        <v>6.54</v>
       </c>
       <c r="E68" t="n">
-        <v>7.017</v>
+        <v>6.54</v>
       </c>
       <c r="F68" t="n">
-        <v>11659.7394</v>
+        <v>12808.2815</v>
       </c>
       <c r="G68" t="n">
-        <v>885480.7314564299</v>
+        <v>-45668.22354357006</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2772,448 +2843,533 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.017</v>
+        <v>6.57</v>
       </c>
       <c r="C69" t="n">
-        <v>6.987</v>
+        <v>6.54</v>
       </c>
       <c r="D69" t="n">
-        <v>7.017</v>
+        <v>6.57</v>
       </c>
       <c r="E69" t="n">
-        <v>6.987</v>
+        <v>6.54</v>
       </c>
       <c r="F69" t="n">
-        <v>35250.6563</v>
+        <v>14603.8343</v>
       </c>
       <c r="G69" t="n">
-        <v>850230.0751564299</v>
+        <v>-45668.22354357006</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.54</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.019</v>
+        <v>6.54</v>
       </c>
       <c r="C70" t="n">
-        <v>7.019</v>
+        <v>6.53</v>
       </c>
       <c r="D70" t="n">
-        <v>7.019</v>
+        <v>6.54</v>
       </c>
       <c r="E70" t="n">
-        <v>7.019</v>
+        <v>6.53</v>
       </c>
       <c r="F70" t="n">
-        <v>92.98309999999999</v>
+        <v>86736.4779</v>
       </c>
       <c r="G70" t="n">
-        <v>850323.0582564299</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6.54</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.019</v>
+        <v>6.53</v>
       </c>
       <c r="C71" t="n">
-        <v>7.019</v>
+        <v>6.53</v>
       </c>
       <c r="D71" t="n">
-        <v>7.019</v>
+        <v>6.53</v>
       </c>
       <c r="E71" t="n">
-        <v>7.019</v>
+        <v>6.52</v>
       </c>
       <c r="F71" t="n">
-        <v>94246.3502</v>
+        <v>1227293.1032</v>
       </c>
       <c r="G71" t="n">
-        <v>850323.0582564299</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6.53</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.99</v>
+        <v>6.53</v>
       </c>
       <c r="C72" t="n">
-        <v>6.99</v>
+        <v>6.53</v>
       </c>
       <c r="D72" t="n">
-        <v>6.99</v>
+        <v>6.53</v>
       </c>
       <c r="E72" t="n">
-        <v>6.99</v>
+        <v>6.53</v>
       </c>
       <c r="F72" t="n">
-        <v>77135.1685</v>
+        <v>274411.9141</v>
       </c>
       <c r="G72" t="n">
-        <v>773187.8897564298</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6.53</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.987</v>
+        <v>6.53</v>
       </c>
       <c r="C73" t="n">
-        <v>6.958</v>
+        <v>6.53</v>
       </c>
       <c r="D73" t="n">
-        <v>6.987</v>
+        <v>6.53</v>
       </c>
       <c r="E73" t="n">
-        <v>6.958</v>
+        <v>6.53</v>
       </c>
       <c r="F73" t="n">
-        <v>13047.7782</v>
+        <v>296103.9752</v>
       </c>
       <c r="G73" t="n">
-        <v>760140.1115564299</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6.53</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.92</v>
+        <v>6.53</v>
       </c>
       <c r="C74" t="n">
-        <v>6.92</v>
+        <v>6.53</v>
       </c>
       <c r="D74" t="n">
-        <v>6.92</v>
+        <v>6.53</v>
       </c>
       <c r="E74" t="n">
-        <v>6.92</v>
+        <v>6.53</v>
       </c>
       <c r="F74" t="n">
-        <v>362.5</v>
+        <v>258622.7932</v>
       </c>
       <c r="G74" t="n">
-        <v>759777.6115564299</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6.53</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.94</v>
+        <v>6.53</v>
       </c>
       <c r="C75" t="n">
-        <v>6.899</v>
+        <v>6.53</v>
       </c>
       <c r="D75" t="n">
-        <v>6.94</v>
+        <v>6.53</v>
       </c>
       <c r="E75" t="n">
-        <v>6.899</v>
+        <v>6.53</v>
       </c>
       <c r="F75" t="n">
-        <v>450</v>
+        <v>500799.6933</v>
       </c>
       <c r="G75" t="n">
-        <v>759327.6115564299</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>6.53</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.89</v>
+        <v>6.53</v>
       </c>
       <c r="C76" t="n">
-        <v>6.869</v>
+        <v>6.53</v>
       </c>
       <c r="D76" t="n">
-        <v>6.89</v>
+        <v>6.53</v>
       </c>
       <c r="E76" t="n">
-        <v>6.859</v>
+        <v>6.53</v>
       </c>
       <c r="F76" t="n">
-        <v>68106.73239999999</v>
+        <v>305701.7363</v>
       </c>
       <c r="G76" t="n">
-        <v>691220.8791564299</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>6.53</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.868</v>
+        <v>6.53</v>
       </c>
       <c r="C77" t="n">
-        <v>6.854</v>
+        <v>6.522</v>
       </c>
       <c r="D77" t="n">
-        <v>6.868</v>
+        <v>6.53</v>
       </c>
       <c r="E77" t="n">
-        <v>6.813</v>
+        <v>6.522</v>
       </c>
       <c r="F77" t="n">
-        <v>592837.8199999999</v>
+        <v>487616.1396</v>
       </c>
       <c r="G77" t="n">
-        <v>98383.05915642995</v>
+        <v>-620020.8410435701</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6.53</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.77</v>
+        <v>6.57</v>
       </c>
       <c r="C78" t="n">
-        <v>6.751</v>
+        <v>6.57</v>
       </c>
       <c r="D78" t="n">
-        <v>6.77</v>
+        <v>6.57</v>
       </c>
       <c r="E78" t="n">
-        <v>6.751</v>
+        <v>6.57</v>
       </c>
       <c r="F78" t="n">
-        <v>60000</v>
+        <v>3259.7426</v>
       </c>
       <c r="G78" t="n">
-        <v>38383.05915642995</v>
+        <v>-616761.0984435701</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6.522</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.77</v>
+        <v>6.57</v>
       </c>
       <c r="C79" t="n">
-        <v>6.728</v>
+        <v>6.58</v>
       </c>
       <c r="D79" t="n">
-        <v>6.77</v>
+        <v>6.58</v>
       </c>
       <c r="E79" t="n">
-        <v>6.728</v>
+        <v>6.57</v>
       </c>
       <c r="F79" t="n">
-        <v>117388.7026</v>
+        <v>795870.8012</v>
       </c>
       <c r="G79" t="n">
-        <v>-79005.64344357005</v>
+        <v>179109.7027564299</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6.57</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.709</v>
+        <v>6.614</v>
       </c>
       <c r="C80" t="n">
-        <v>6.686</v>
+        <v>6.614</v>
       </c>
       <c r="D80" t="n">
-        <v>6.709</v>
+        <v>6.614</v>
       </c>
       <c r="E80" t="n">
-        <v>6.686</v>
+        <v>6.614</v>
       </c>
       <c r="F80" t="n">
-        <v>40227.2452</v>
+        <v>155.7946</v>
       </c>
       <c r="G80" t="n">
-        <v>-119232.88864357</v>
+        <v>179265.4973564299</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6.58</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.69</v>
+        <v>6.623</v>
       </c>
       <c r="C81" t="n">
-        <v>6.69</v>
+        <v>6.623</v>
       </c>
       <c r="D81" t="n">
-        <v>6.69</v>
+        <v>6.623</v>
       </c>
       <c r="E81" t="n">
-        <v>6.69</v>
+        <v>6.623</v>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>20862.9264</v>
       </c>
       <c r="G81" t="n">
-        <v>-119132.88864357</v>
+        <v>200128.4237564299</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,32 +3379,37 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.7</v>
+        <v>6.59</v>
       </c>
       <c r="C82" t="n">
-        <v>6.7</v>
+        <v>6.59</v>
       </c>
       <c r="D82" t="n">
-        <v>6.7</v>
+        <v>6.59</v>
       </c>
       <c r="E82" t="n">
-        <v>6.7</v>
+        <v>6.59</v>
       </c>
       <c r="F82" t="n">
-        <v>1306.4124</v>
+        <v>6808.3109</v>
       </c>
       <c r="G82" t="n">
-        <v>-117826.47624357</v>
+        <v>193320.1128564299</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,67 +3419,79 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.7</v>
+        <v>6.659</v>
       </c>
       <c r="C83" t="n">
-        <v>6.7</v>
+        <v>6.659</v>
       </c>
       <c r="D83" t="n">
-        <v>6.7</v>
+        <v>6.659</v>
       </c>
       <c r="E83" t="n">
-        <v>6.7</v>
+        <v>6.659</v>
       </c>
       <c r="F83" t="n">
-        <v>66396.8426</v>
+        <v>250</v>
       </c>
       <c r="G83" t="n">
-        <v>-117826.47624357</v>
+        <v>193570.1128564299</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6.59</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.7</v>
+        <v>6.62</v>
       </c>
       <c r="C84" t="n">
-        <v>6.664</v>
+        <v>6.62</v>
       </c>
       <c r="D84" t="n">
-        <v>6.7</v>
+        <v>6.62</v>
       </c>
       <c r="E84" t="n">
-        <v>6.664</v>
+        <v>6.62</v>
       </c>
       <c r="F84" t="n">
-        <v>559780.1244</v>
+        <v>6809.2226</v>
       </c>
       <c r="G84" t="n">
-        <v>-677606.6006435701</v>
+        <v>186760.8902564299</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,32 +3501,37 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.716</v>
+        <v>6.63</v>
       </c>
       <c r="C85" t="n">
-        <v>6.716</v>
+        <v>6.64</v>
       </c>
       <c r="D85" t="n">
-        <v>6.716</v>
+        <v>6.649</v>
       </c>
       <c r="E85" t="n">
-        <v>6.716</v>
+        <v>6.63</v>
       </c>
       <c r="F85" t="n">
-        <v>212000</v>
+        <v>4364.2994</v>
       </c>
       <c r="G85" t="n">
-        <v>-465606.6006435701</v>
+        <v>191125.1896564299</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,102 +3541,121 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.675</v>
+        <v>6.649</v>
       </c>
       <c r="C86" t="n">
-        <v>6.675</v>
+        <v>6.663</v>
       </c>
       <c r="D86" t="n">
-        <v>6.675</v>
+        <v>6.663</v>
       </c>
       <c r="E86" t="n">
-        <v>6.675</v>
+        <v>6.649</v>
       </c>
       <c r="F86" t="n">
-        <v>7986.4404</v>
+        <v>61355.3124</v>
       </c>
       <c r="G86" t="n">
-        <v>-473593.0410435701</v>
+        <v>252480.5020564299</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.64</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.675</v>
+        <v>6.65</v>
       </c>
       <c r="C87" t="n">
-        <v>6.675</v>
+        <v>6.663</v>
       </c>
       <c r="D87" t="n">
-        <v>6.675</v>
+        <v>6.663</v>
       </c>
       <c r="E87" t="n">
-        <v>6.675</v>
+        <v>6.638</v>
       </c>
       <c r="F87" t="n">
-        <v>44084.2953</v>
+        <v>123597.1157</v>
       </c>
       <c r="G87" t="n">
-        <v>-473593.0410435701</v>
+        <v>252480.5020564299</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.663</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.675</v>
+        <v>6.631</v>
       </c>
       <c r="C88" t="n">
-        <v>6.675</v>
+        <v>6.631</v>
       </c>
       <c r="D88" t="n">
-        <v>6.675</v>
+        <v>6.631</v>
       </c>
       <c r="E88" t="n">
-        <v>6.675</v>
+        <v>6.631</v>
       </c>
       <c r="F88" t="n">
-        <v>1024.8579</v>
+        <v>1007.65</v>
       </c>
       <c r="G88" t="n">
-        <v>-473593.0410435701</v>
+        <v>251472.8520564299</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,67 +3665,79 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.661</v>
+        <v>6.65</v>
       </c>
       <c r="C89" t="n">
-        <v>6.603</v>
+        <v>6.657</v>
       </c>
       <c r="D89" t="n">
-        <v>6.661</v>
+        <v>6.657</v>
       </c>
       <c r="E89" t="n">
-        <v>6.603</v>
+        <v>6.65</v>
       </c>
       <c r="F89" t="n">
-        <v>15507.4166</v>
+        <v>1800</v>
       </c>
       <c r="G89" t="n">
-        <v>-489100.4576435701</v>
+        <v>253272.8520564299</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.631</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.6</v>
+        <v>6.658</v>
       </c>
       <c r="C90" t="n">
-        <v>6.604</v>
+        <v>6.658</v>
       </c>
       <c r="D90" t="n">
-        <v>6.604</v>
+        <v>6.658</v>
       </c>
       <c r="E90" t="n">
-        <v>6.6</v>
+        <v>6.658</v>
       </c>
       <c r="F90" t="n">
-        <v>11008.49</v>
+        <v>74955.97139999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-478091.9676435701</v>
+        <v>328228.8234564299</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,205 +3747,208 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.58</v>
+        <v>6.663</v>
       </c>
       <c r="C91" t="n">
-        <v>6.58</v>
+        <v>6.698</v>
       </c>
       <c r="D91" t="n">
-        <v>6.58</v>
+        <v>6.698</v>
       </c>
       <c r="E91" t="n">
-        <v>6.58</v>
+        <v>6.663</v>
       </c>
       <c r="F91" t="n">
-        <v>2700</v>
+        <v>9115.217699999999</v>
       </c>
       <c r="G91" t="n">
-        <v>-480791.9676435701</v>
+        <v>337344.0411564299</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.658</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.55</v>
+        <v>6.671</v>
       </c>
       <c r="C92" t="n">
-        <v>6.55</v>
+        <v>6.7</v>
       </c>
       <c r="D92" t="n">
-        <v>6.55</v>
+        <v>6.7</v>
       </c>
       <c r="E92" t="n">
-        <v>6.55</v>
+        <v>6.671</v>
       </c>
       <c r="F92" t="n">
-        <v>3183.8315</v>
+        <v>102500</v>
       </c>
       <c r="G92" t="n">
-        <v>-483975.7991435701</v>
+        <v>439844.0411564299</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="K92" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.55</v>
+        <v>6.725</v>
       </c>
       <c r="C93" t="n">
-        <v>6.55</v>
+        <v>6.725</v>
       </c>
       <c r="D93" t="n">
-        <v>6.55</v>
+        <v>6.725</v>
       </c>
       <c r="E93" t="n">
-        <v>6.55</v>
+        <v>6.725</v>
       </c>
       <c r="F93" t="n">
-        <v>27293.0579</v>
+        <v>155.3265</v>
       </c>
       <c r="G93" t="n">
-        <v>-483975.7991435701</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="K93" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.57</v>
+        <v>6.725</v>
       </c>
       <c r="C94" t="n">
-        <v>6.571</v>
+        <v>6.725</v>
       </c>
       <c r="D94" t="n">
-        <v>6.571</v>
+        <v>6.725</v>
       </c>
       <c r="E94" t="n">
-        <v>6.57</v>
+        <v>6.725</v>
       </c>
       <c r="F94" t="n">
-        <v>21490</v>
+        <v>734475.9292</v>
       </c>
       <c r="G94" t="n">
-        <v>-462485.7991435701</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="K94" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.57</v>
+        <v>6.725</v>
       </c>
       <c r="C95" t="n">
-        <v>6.57</v>
+        <v>6.725</v>
       </c>
       <c r="D95" t="n">
-        <v>6.57</v>
+        <v>6.725</v>
       </c>
       <c r="E95" t="n">
-        <v>6.57</v>
+        <v>6.725</v>
       </c>
       <c r="F95" t="n">
-        <v>5800</v>
+        <v>826025.3173</v>
       </c>
       <c r="G95" t="n">
-        <v>-468285.7991435701</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>6.571</v>
-      </c>
-      <c r="K95" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,41 +3957,38 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.58</v>
+        <v>6.725</v>
       </c>
       <c r="C96" t="n">
-        <v>6.58</v>
+        <v>6.725</v>
       </c>
       <c r="D96" t="n">
-        <v>6.58</v>
+        <v>6.725</v>
       </c>
       <c r="E96" t="n">
-        <v>6.58</v>
+        <v>6.725</v>
       </c>
       <c r="F96" t="n">
-        <v>449811.8922</v>
+        <v>117127.3178</v>
       </c>
       <c r="G96" t="n">
-        <v>-18473.90694357007</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="K96" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3788,28 +3997,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.58</v>
+        <v>6.725</v>
       </c>
       <c r="C97" t="n">
-        <v>6.58</v>
+        <v>6.725</v>
       </c>
       <c r="D97" t="n">
-        <v>6.58</v>
+        <v>6.725</v>
       </c>
       <c r="E97" t="n">
-        <v>6.58</v>
+        <v>6.725</v>
       </c>
       <c r="F97" t="n">
-        <v>7476.4111</v>
+        <v>2739506.6445</v>
       </c>
       <c r="G97" t="n">
-        <v>-18473.90694357007</v>
+        <v>439999.3676564299</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3818,9 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3829,28 +4037,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.58</v>
+        <v>6.749</v>
       </c>
       <c r="C98" t="n">
-        <v>6.58</v>
+        <v>6.749</v>
       </c>
       <c r="D98" t="n">
-        <v>6.58</v>
+        <v>6.749</v>
       </c>
       <c r="E98" t="n">
-        <v>6.58</v>
+        <v>6.749</v>
       </c>
       <c r="F98" t="n">
-        <v>763855.7712</v>
+        <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>-18473.90694357007</v>
+        <v>440099.3676564299</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3859,9 +4068,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,28 +4077,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.58</v>
+        <v>6.746</v>
       </c>
       <c r="C99" t="n">
-        <v>6.58</v>
+        <v>6.746</v>
       </c>
       <c r="D99" t="n">
-        <v>6.58</v>
+        <v>6.746</v>
       </c>
       <c r="E99" t="n">
-        <v>6.58</v>
+        <v>6.746</v>
       </c>
       <c r="F99" t="n">
-        <v>164621.8313</v>
+        <v>74428.25378001</v>
       </c>
       <c r="G99" t="n">
-        <v>-18473.90694357007</v>
+        <v>365671.1138764199</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3900,9 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,28 +4117,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="C100" t="n">
-        <v>6.58</v>
+        <v>6.749</v>
       </c>
       <c r="D100" t="n">
-        <v>6.58</v>
+        <v>6.82</v>
       </c>
       <c r="E100" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="F100" t="n">
-        <v>46504.4765</v>
+        <v>1067650.7652</v>
       </c>
       <c r="G100" t="n">
-        <v>-18473.90694357007</v>
+        <v>1433321.87907642</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3941,9 +4148,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,28 +4157,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.58</v>
+        <v>6.749</v>
       </c>
       <c r="C101" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="D101" t="n">
-        <v>6.58</v>
+        <v>6.749</v>
       </c>
       <c r="E101" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="F101" t="n">
-        <v>199864.3642</v>
+        <v>195654.1679</v>
       </c>
       <c r="G101" t="n">
-        <v>-18473.90694357007</v>
+        <v>1237667.71117642</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3982,9 +4188,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3993,28 +4197,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="C102" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="D102" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="E102" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="F102" t="n">
-        <v>229015.9878</v>
+        <v>123757.5905</v>
       </c>
       <c r="G102" t="n">
-        <v>-18473.90694357007</v>
+        <v>1237667.71117642</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4023,9 +4228,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,28 +4237,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="C103" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="D103" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="E103" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="F103" t="n">
-        <v>35810.7432</v>
+        <v>65542.3797</v>
       </c>
       <c r="G103" t="n">
-        <v>-18473.90694357007</v>
+        <v>1237667.71117642</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4064,9 +4268,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4075,28 +4277,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="C104" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="D104" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="E104" t="n">
-        <v>6.58</v>
+        <v>6.748</v>
       </c>
       <c r="F104" t="n">
-        <v>147350.5938</v>
+        <v>169562.9781</v>
       </c>
       <c r="G104" t="n">
-        <v>-18473.90694357007</v>
+        <v>1237667.71117642</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4105,9 +4308,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,28 +4317,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.58</v>
+        <v>6.668</v>
       </c>
       <c r="C105" t="n">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
       <c r="D105" t="n">
-        <v>6.58</v>
+        <v>6.668</v>
       </c>
       <c r="E105" t="n">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
       <c r="F105" t="n">
-        <v>494102.877</v>
+        <v>1184.2515</v>
       </c>
       <c r="G105" t="n">
-        <v>-18473.90694357007</v>
+        <v>1236483.45967642</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4146,9 +4348,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4157,28 +4357,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
       <c r="C106" t="n">
-        <v>6.58</v>
+        <v>6.678</v>
       </c>
       <c r="D106" t="n">
-        <v>6.58</v>
+        <v>6.678</v>
       </c>
       <c r="E106" t="n">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
       <c r="F106" t="n">
-        <v>542140.2277</v>
+        <v>120000</v>
       </c>
       <c r="G106" t="n">
-        <v>-18473.90694357007</v>
+        <v>1356483.45967642</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4187,9 +4388,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,28 +4397,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.58</v>
+        <v>6.63</v>
       </c>
       <c r="C107" t="n">
-        <v>6.58</v>
+        <v>6.63</v>
       </c>
       <c r="D107" t="n">
-        <v>6.58</v>
+        <v>6.63</v>
       </c>
       <c r="E107" t="n">
-        <v>6.58</v>
+        <v>6.63</v>
       </c>
       <c r="F107" t="n">
-        <v>10000</v>
+        <v>7540.849</v>
       </c>
       <c r="G107" t="n">
-        <v>-18473.90694357007</v>
+        <v>1348942.61067642</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4228,9 +4428,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4239,28 +4437,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.549</v>
+        <v>6.64</v>
       </c>
       <c r="C108" t="n">
-        <v>6.549</v>
+        <v>6.64</v>
       </c>
       <c r="D108" t="n">
-        <v>6.549</v>
+        <v>6.64</v>
       </c>
       <c r="E108" t="n">
-        <v>6.549</v>
+        <v>6.64</v>
       </c>
       <c r="F108" t="n">
-        <v>14541.5592</v>
+        <v>18534.5241</v>
       </c>
       <c r="G108" t="n">
-        <v>-33015.46614357007</v>
+        <v>1367477.13477642</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4269,9 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,28 +4477,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.579</v>
+        <v>6.64</v>
       </c>
       <c r="C109" t="n">
-        <v>6.579</v>
+        <v>6.63</v>
       </c>
       <c r="D109" t="n">
-        <v>6.579</v>
+        <v>6.64</v>
       </c>
       <c r="E109" t="n">
-        <v>6.579</v>
+        <v>6.63</v>
       </c>
       <c r="F109" t="n">
-        <v>155.5241</v>
+        <v>21465</v>
       </c>
       <c r="G109" t="n">
-        <v>-32859.94204357007</v>
+        <v>1346012.13477642</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4310,9 +4508,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4321,28 +4517,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.54</v>
+        <v>6.67</v>
       </c>
       <c r="C110" t="n">
-        <v>6.54</v>
+        <v>6.67</v>
       </c>
       <c r="D110" t="n">
-        <v>6.54</v>
+        <v>6.67</v>
       </c>
       <c r="E110" t="n">
-        <v>6.54</v>
+        <v>6.67</v>
       </c>
       <c r="F110" t="n">
-        <v>12808.2815</v>
+        <v>6335.326</v>
       </c>
       <c r="G110" t="n">
-        <v>-45668.22354357006</v>
+        <v>1352347.46077642</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4351,9 +4548,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,28 +4557,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.57</v>
+        <v>6.64</v>
       </c>
       <c r="C111" t="n">
-        <v>6.54</v>
+        <v>6.64</v>
       </c>
       <c r="D111" t="n">
-        <v>6.57</v>
+        <v>6.64</v>
       </c>
       <c r="E111" t="n">
-        <v>6.54</v>
+        <v>6.64</v>
       </c>
       <c r="F111" t="n">
-        <v>14603.8343</v>
+        <v>3130.42</v>
       </c>
       <c r="G111" t="n">
-        <v>-45668.22354357006</v>
+        <v>1349217.04077642</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4392,9 +4588,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4403,28 +4597,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.54</v>
+        <v>6.675</v>
       </c>
       <c r="C112" t="n">
-        <v>6.53</v>
+        <v>6.69</v>
       </c>
       <c r="D112" t="n">
-        <v>6.54</v>
+        <v>6.69</v>
       </c>
       <c r="E112" t="n">
-        <v>6.53</v>
+        <v>6.675</v>
       </c>
       <c r="F112" t="n">
-        <v>86736.4779</v>
+        <v>20862.93</v>
       </c>
       <c r="G112" t="n">
-        <v>-132404.7014435701</v>
+        <v>1370079.97077642</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4433,9 +4628,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,28 +4637,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.53</v>
+        <v>6.71</v>
       </c>
       <c r="C113" t="n">
-        <v>6.53</v>
+        <v>6.7</v>
       </c>
       <c r="D113" t="n">
-        <v>6.53</v>
+        <v>6.71</v>
       </c>
       <c r="E113" t="n">
-        <v>6.52</v>
+        <v>6.7</v>
       </c>
       <c r="F113" t="n">
-        <v>1227293.1032</v>
+        <v>48069.8722</v>
       </c>
       <c r="G113" t="n">
-        <v>-132404.7014435701</v>
+        <v>1418149.84297642</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4474,9 +4668,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,28 +4677,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.53</v>
+        <v>6.709</v>
       </c>
       <c r="C114" t="n">
-        <v>6.53</v>
+        <v>6.709</v>
       </c>
       <c r="D114" t="n">
-        <v>6.53</v>
+        <v>6.709</v>
       </c>
       <c r="E114" t="n">
-        <v>6.53</v>
+        <v>6.709</v>
       </c>
       <c r="F114" t="n">
-        <v>274411.9141</v>
+        <v>192977.4756</v>
       </c>
       <c r="G114" t="n">
-        <v>-132404.7014435701</v>
+        <v>1611127.31857642</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4515,9 +4708,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4526,28 +4717,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.53</v>
+        <v>6.709</v>
       </c>
       <c r="C115" t="n">
-        <v>6.53</v>
+        <v>6.709</v>
       </c>
       <c r="D115" t="n">
-        <v>6.53</v>
+        <v>6.709</v>
       </c>
       <c r="E115" t="n">
-        <v>6.53</v>
+        <v>6.709</v>
       </c>
       <c r="F115" t="n">
-        <v>296103.9752</v>
+        <v>59037.6235</v>
       </c>
       <c r="G115" t="n">
-        <v>-132404.7014435701</v>
+        <v>1611127.31857642</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4556,9 +4748,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,28 +4757,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.53</v>
+        <v>6.719</v>
       </c>
       <c r="C116" t="n">
-        <v>6.53</v>
+        <v>6.719</v>
       </c>
       <c r="D116" t="n">
-        <v>6.53</v>
+        <v>6.719</v>
       </c>
       <c r="E116" t="n">
-        <v>6.53</v>
+        <v>6.719</v>
       </c>
       <c r="F116" t="n">
-        <v>258622.7932</v>
+        <v>12166.7857</v>
       </c>
       <c r="G116" t="n">
-        <v>-132404.7014435701</v>
+        <v>1623294.10427642</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4597,9 +4788,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4608,28 +4797,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.53</v>
+        <v>6.67</v>
       </c>
       <c r="C117" t="n">
-        <v>6.53</v>
+        <v>6.67</v>
       </c>
       <c r="D117" t="n">
-        <v>6.53</v>
+        <v>6.67</v>
       </c>
       <c r="E117" t="n">
-        <v>6.53</v>
+        <v>6.67</v>
       </c>
       <c r="F117" t="n">
-        <v>500799.6933</v>
+        <v>2965.46</v>
       </c>
       <c r="G117" t="n">
-        <v>-132404.7014435701</v>
+        <v>1620328.64427642</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4638,9 +4828,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,28 +4837,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.53</v>
+        <v>6.67</v>
       </c>
       <c r="C118" t="n">
-        <v>6.53</v>
+        <v>6.67</v>
       </c>
       <c r="D118" t="n">
-        <v>6.53</v>
+        <v>6.67</v>
       </c>
       <c r="E118" t="n">
-        <v>6.53</v>
+        <v>6.67</v>
       </c>
       <c r="F118" t="n">
-        <v>305701.7363</v>
+        <v>157.313</v>
       </c>
       <c r="G118" t="n">
-        <v>-132404.7014435701</v>
+        <v>1620328.64427642</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4679,9 +4868,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,28 +4877,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.53</v>
+        <v>6.707</v>
       </c>
       <c r="C119" t="n">
-        <v>6.522</v>
+        <v>6.707</v>
       </c>
       <c r="D119" t="n">
-        <v>6.53</v>
+        <v>6.707</v>
       </c>
       <c r="E119" t="n">
-        <v>6.522</v>
+        <v>6.707</v>
       </c>
       <c r="F119" t="n">
-        <v>487616.1396</v>
+        <v>19047.9152</v>
       </c>
       <c r="G119" t="n">
-        <v>-620020.8410435701</v>
+        <v>1639376.55947642</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4720,9 +4908,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4731,28 +4917,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.57</v>
+        <v>6.65</v>
       </c>
       <c r="C120" t="n">
-        <v>6.57</v>
+        <v>6.66</v>
       </c>
       <c r="D120" t="n">
-        <v>6.57</v>
+        <v>6.66</v>
       </c>
       <c r="E120" t="n">
-        <v>6.57</v>
+        <v>6.638</v>
       </c>
       <c r="F120" t="n">
-        <v>3259.7426</v>
+        <v>148519.3037</v>
       </c>
       <c r="G120" t="n">
-        <v>-616761.0984435701</v>
+        <v>1490857.25577642</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4761,9 +4948,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,28 +4957,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.57</v>
+        <v>6.633</v>
       </c>
       <c r="C121" t="n">
-        <v>6.58</v>
+        <v>6.633</v>
       </c>
       <c r="D121" t="n">
-        <v>6.58</v>
+        <v>6.633</v>
       </c>
       <c r="E121" t="n">
-        <v>6.57</v>
+        <v>6.633</v>
       </c>
       <c r="F121" t="n">
-        <v>795870.8012</v>
+        <v>90121.83349999999</v>
       </c>
       <c r="G121" t="n">
-        <v>179109.7027564299</v>
+        <v>1400735.42227642</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4802,9 +4988,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,28 +4997,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.614</v>
+        <v>6.699</v>
       </c>
       <c r="C122" t="n">
-        <v>6.614</v>
+        <v>6.699</v>
       </c>
       <c r="D122" t="n">
-        <v>6.614</v>
+        <v>6.699</v>
       </c>
       <c r="E122" t="n">
-        <v>6.614</v>
+        <v>6.699</v>
       </c>
       <c r="F122" t="n">
-        <v>155.7946</v>
+        <v>19083.89</v>
       </c>
       <c r="G122" t="n">
-        <v>179265.4973564299</v>
+        <v>1419819.31227642</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4843,9 +5028,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4854,28 +5037,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.623</v>
+        <v>6.704</v>
       </c>
       <c r="C123" t="n">
-        <v>6.623</v>
+        <v>6.704</v>
       </c>
       <c r="D123" t="n">
-        <v>6.623</v>
+        <v>6.704</v>
       </c>
       <c r="E123" t="n">
-        <v>6.623</v>
+        <v>6.704</v>
       </c>
       <c r="F123" t="n">
-        <v>20862.9264</v>
+        <v>298234.6474</v>
       </c>
       <c r="G123" t="n">
-        <v>200128.4237564299</v>
+        <v>1718053.95967642</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4884,9 +5068,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,28 +5077,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.59</v>
+        <v>6.704</v>
       </c>
       <c r="C124" t="n">
-        <v>6.59</v>
+        <v>6.704</v>
       </c>
       <c r="D124" t="n">
-        <v>6.59</v>
+        <v>6.704</v>
       </c>
       <c r="E124" t="n">
-        <v>6.59</v>
+        <v>6.704</v>
       </c>
       <c r="F124" t="n">
-        <v>6808.3109</v>
+        <v>453615.4908</v>
       </c>
       <c r="G124" t="n">
-        <v>193320.1128564299</v>
+        <v>1718053.95967642</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4925,9 +5108,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,28 +5117,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.659</v>
+        <v>6.704</v>
       </c>
       <c r="C125" t="n">
-        <v>6.659</v>
+        <v>6.704</v>
       </c>
       <c r="D125" t="n">
-        <v>6.659</v>
+        <v>6.704</v>
       </c>
       <c r="E125" t="n">
-        <v>6.659</v>
+        <v>6.704</v>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>381394.8479</v>
       </c>
       <c r="G125" t="n">
-        <v>193570.1128564299</v>
+        <v>1718053.95967642</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4966,9 +5148,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4977,28 +5157,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.62</v>
+        <v>6.719</v>
       </c>
       <c r="C126" t="n">
-        <v>6.62</v>
+        <v>6.719</v>
       </c>
       <c r="D126" t="n">
-        <v>6.62</v>
+        <v>6.719</v>
       </c>
       <c r="E126" t="n">
-        <v>6.62</v>
+        <v>6.719</v>
       </c>
       <c r="F126" t="n">
-        <v>6809.2226</v>
+        <v>91604.76459999999</v>
       </c>
       <c r="G126" t="n">
-        <v>186760.8902564299</v>
+        <v>1809658.72427642</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5007,9 +5188,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,28 +5197,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.63</v>
+        <v>6.719</v>
       </c>
       <c r="C127" t="n">
-        <v>6.64</v>
+        <v>6.719</v>
       </c>
       <c r="D127" t="n">
-        <v>6.649</v>
+        <v>6.719</v>
       </c>
       <c r="E127" t="n">
-        <v>6.63</v>
+        <v>6.719</v>
       </c>
       <c r="F127" t="n">
-        <v>4364.2994</v>
+        <v>803966.9287</v>
       </c>
       <c r="G127" t="n">
-        <v>191125.1896564299</v>
+        <v>1809658.72427642</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5048,9 +5228,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,28 +5237,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.649</v>
+        <v>6.719</v>
       </c>
       <c r="C128" t="n">
-        <v>6.663</v>
+        <v>6.719</v>
       </c>
       <c r="D128" t="n">
-        <v>6.663</v>
+        <v>6.719</v>
       </c>
       <c r="E128" t="n">
-        <v>6.649</v>
+        <v>6.719</v>
       </c>
       <c r="F128" t="n">
-        <v>61355.3124</v>
+        <v>74229.4339</v>
       </c>
       <c r="G128" t="n">
-        <v>252480.5020564299</v>
+        <v>1809658.72427642</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5089,9 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5100,28 +5277,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.65</v>
+        <v>6.72</v>
       </c>
       <c r="C129" t="n">
-        <v>6.663</v>
+        <v>6.72</v>
       </c>
       <c r="D129" t="n">
-        <v>6.663</v>
+        <v>6.72</v>
       </c>
       <c r="E129" t="n">
-        <v>6.638</v>
+        <v>6.72</v>
       </c>
       <c r="F129" t="n">
-        <v>123597.1157</v>
+        <v>25212.9285</v>
       </c>
       <c r="G129" t="n">
-        <v>252480.5020564299</v>
+        <v>1834871.65277642</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5130,9 +5308,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5141,28 +5317,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.631</v>
+        <v>6.743</v>
       </c>
       <c r="C130" t="n">
-        <v>6.631</v>
+        <v>6.743</v>
       </c>
       <c r="D130" t="n">
-        <v>6.631</v>
+        <v>6.743</v>
       </c>
       <c r="E130" t="n">
-        <v>6.631</v>
+        <v>6.743</v>
       </c>
       <c r="F130" t="n">
-        <v>1007.65</v>
+        <v>1061.8552</v>
       </c>
       <c r="G130" t="n">
-        <v>251472.8520564299</v>
+        <v>1835933.50797642</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5171,9 +5348,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5182,28 +5357,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.65</v>
+        <v>6.703</v>
       </c>
       <c r="C131" t="n">
-        <v>6.657</v>
+        <v>6.703</v>
       </c>
       <c r="D131" t="n">
-        <v>6.657</v>
+        <v>6.703</v>
       </c>
       <c r="E131" t="n">
-        <v>6.65</v>
+        <v>6.703</v>
       </c>
       <c r="F131" t="n">
-        <v>1800</v>
+        <v>115160.5209</v>
       </c>
       <c r="G131" t="n">
-        <v>253272.8520564299</v>
+        <v>1720772.98707642</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5212,9 +5388,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,28 +5397,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.658</v>
+        <v>6.71</v>
       </c>
       <c r="C132" t="n">
-        <v>6.658</v>
+        <v>6.71</v>
       </c>
       <c r="D132" t="n">
-        <v>6.658</v>
+        <v>6.71</v>
       </c>
       <c r="E132" t="n">
-        <v>6.658</v>
+        <v>6.71</v>
       </c>
       <c r="F132" t="n">
-        <v>74955.97139999999</v>
+        <v>74580.9249</v>
       </c>
       <c r="G132" t="n">
-        <v>328228.8234564299</v>
+        <v>1795353.91197642</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5253,9 +5428,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,28 +5437,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.663</v>
+        <v>6.689</v>
       </c>
       <c r="C133" t="n">
-        <v>6.698</v>
+        <v>6.689</v>
       </c>
       <c r="D133" t="n">
-        <v>6.698</v>
+        <v>6.689</v>
       </c>
       <c r="E133" t="n">
-        <v>6.663</v>
+        <v>6.689</v>
       </c>
       <c r="F133" t="n">
-        <v>9115.217699999999</v>
+        <v>2715.229</v>
       </c>
       <c r="G133" t="n">
-        <v>337344.0411564299</v>
+        <v>1792638.68297642</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5294,9 +5468,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,28 +5477,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.671</v>
+        <v>6.73</v>
       </c>
       <c r="C134" t="n">
-        <v>6.7</v>
+        <v>6.703</v>
       </c>
       <c r="D134" t="n">
-        <v>6.7</v>
+        <v>6.73</v>
       </c>
       <c r="E134" t="n">
-        <v>6.671</v>
+        <v>6.703</v>
       </c>
       <c r="F134" t="n">
-        <v>102500</v>
+        <v>29670.4936</v>
       </c>
       <c r="G134" t="n">
-        <v>439844.0411564299</v>
+        <v>1822309.17657642</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5335,9 +5508,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,28 +5517,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.725</v>
+        <v>6.71</v>
       </c>
       <c r="C135" t="n">
-        <v>6.725</v>
+        <v>6.705</v>
       </c>
       <c r="D135" t="n">
-        <v>6.725</v>
+        <v>6.71</v>
       </c>
       <c r="E135" t="n">
-        <v>6.725</v>
+        <v>6.705</v>
       </c>
       <c r="F135" t="n">
-        <v>155.3265</v>
+        <v>35979.9832</v>
       </c>
       <c r="G135" t="n">
-        <v>439999.3676564299</v>
+        <v>1858289.15977642</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5376,9 +5548,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5387,28 +5557,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.725</v>
+        <v>6.662</v>
       </c>
       <c r="C136" t="n">
-        <v>6.725</v>
+        <v>6.662</v>
       </c>
       <c r="D136" t="n">
-        <v>6.725</v>
+        <v>6.662</v>
       </c>
       <c r="E136" t="n">
-        <v>6.725</v>
+        <v>6.662</v>
       </c>
       <c r="F136" t="n">
-        <v>734475.9292</v>
+        <v>1217.847</v>
       </c>
       <c r="G136" t="n">
-        <v>439999.3676564299</v>
+        <v>1857071.31277642</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5417,9 +5588,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5428,28 +5597,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.725</v>
+        <v>6.687</v>
       </c>
       <c r="C137" t="n">
-        <v>6.725</v>
+        <v>6.687</v>
       </c>
       <c r="D137" t="n">
-        <v>6.725</v>
+        <v>6.687</v>
       </c>
       <c r="E137" t="n">
-        <v>6.725</v>
+        <v>6.687</v>
       </c>
       <c r="F137" t="n">
-        <v>826025.3173</v>
+        <v>15000</v>
       </c>
       <c r="G137" t="n">
-        <v>439999.3676564299</v>
+        <v>1872071.31277642</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5458,9 +5628,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5469,28 +5637,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.725</v>
+        <v>6.67</v>
       </c>
       <c r="C138" t="n">
-        <v>6.725</v>
+        <v>6.67</v>
       </c>
       <c r="D138" t="n">
-        <v>6.725</v>
+        <v>6.67</v>
       </c>
       <c r="E138" t="n">
-        <v>6.725</v>
+        <v>6.67</v>
       </c>
       <c r="F138" t="n">
-        <v>117127.3178</v>
+        <v>6072.2466</v>
       </c>
       <c r="G138" t="n">
-        <v>439999.3676564299</v>
+        <v>1865999.06617642</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5499,9 +5668,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5510,28 +5677,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.725</v>
+        <v>6.672</v>
       </c>
       <c r="C139" t="n">
-        <v>6.725</v>
+        <v>6.672</v>
       </c>
       <c r="D139" t="n">
-        <v>6.725</v>
+        <v>6.672</v>
       </c>
       <c r="E139" t="n">
-        <v>6.725</v>
+        <v>6.672</v>
       </c>
       <c r="F139" t="n">
-        <v>2739506.6445</v>
+        <v>8797</v>
       </c>
       <c r="G139" t="n">
-        <v>439999.3676564299</v>
+        <v>1874796.06617642</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5540,9 +5708,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5551,28 +5717,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.749</v>
+        <v>6.677</v>
       </c>
       <c r="C140" t="n">
-        <v>6.749</v>
+        <v>6.677</v>
       </c>
       <c r="D140" t="n">
-        <v>6.749</v>
+        <v>6.677</v>
       </c>
       <c r="E140" t="n">
-        <v>6.749</v>
+        <v>6.677</v>
       </c>
       <c r="F140" t="n">
-        <v>100</v>
+        <v>8727</v>
       </c>
       <c r="G140" t="n">
-        <v>440099.3676564299</v>
+        <v>1883523.06617642</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5581,9 +5748,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5592,28 +5757,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.746</v>
+        <v>6.679</v>
       </c>
       <c r="C141" t="n">
-        <v>6.746</v>
+        <v>6.679</v>
       </c>
       <c r="D141" t="n">
-        <v>6.746</v>
+        <v>6.679</v>
       </c>
       <c r="E141" t="n">
-        <v>6.746</v>
+        <v>6.679</v>
       </c>
       <c r="F141" t="n">
-        <v>74428.25378001</v>
+        <v>51014.7916</v>
       </c>
       <c r="G141" t="n">
-        <v>365671.1138764199</v>
+        <v>1934537.85777642</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5622,9 +5788,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5633,28 +5797,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.748</v>
+        <v>6.682</v>
       </c>
       <c r="C142" t="n">
-        <v>6.749</v>
+        <v>6.682</v>
       </c>
       <c r="D142" t="n">
-        <v>6.82</v>
+        <v>6.682</v>
       </c>
       <c r="E142" t="n">
-        <v>6.748</v>
+        <v>6.682</v>
       </c>
       <c r="F142" t="n">
-        <v>1067650.7652</v>
+        <v>45892.6989</v>
       </c>
       <c r="G142" t="n">
-        <v>1433321.87907642</v>
+        <v>1980430.55667642</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5663,9 +5828,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5674,28 +5837,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.749</v>
+        <v>6.682</v>
       </c>
       <c r="C143" t="n">
-        <v>6.748</v>
+        <v>6.683</v>
       </c>
       <c r="D143" t="n">
-        <v>6.749</v>
+        <v>6.683</v>
       </c>
       <c r="E143" t="n">
-        <v>6.748</v>
+        <v>6.682</v>
       </c>
       <c r="F143" t="n">
-        <v>195654.1679</v>
+        <v>39161.5198</v>
       </c>
       <c r="G143" t="n">
-        <v>1237667.71117642</v>
+        <v>2019592.07647642</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5704,9 +5868,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5715,28 +5877,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.748</v>
+        <v>6.662</v>
       </c>
       <c r="C144" t="n">
-        <v>6.748</v>
+        <v>6.662</v>
       </c>
       <c r="D144" t="n">
-        <v>6.748</v>
+        <v>6.662</v>
       </c>
       <c r="E144" t="n">
-        <v>6.748</v>
+        <v>6.662</v>
       </c>
       <c r="F144" t="n">
-        <v>123757.5905</v>
+        <v>7398.0401</v>
       </c>
       <c r="G144" t="n">
-        <v>1237667.71117642</v>
+        <v>2012194.036376419</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5745,9 +5908,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5756,28 +5917,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.748</v>
+        <v>6.73</v>
       </c>
       <c r="C145" t="n">
-        <v>6.748</v>
+        <v>6.73</v>
       </c>
       <c r="D145" t="n">
-        <v>6.748</v>
+        <v>6.73</v>
       </c>
       <c r="E145" t="n">
-        <v>6.748</v>
+        <v>6.73</v>
       </c>
       <c r="F145" t="n">
-        <v>65542.3797</v>
+        <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>1237667.71117642</v>
+        <v>2012294.036376419</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5786,9 +5948,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5797,28 +5957,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.748</v>
+        <v>6.723</v>
       </c>
       <c r="C146" t="n">
-        <v>6.748</v>
+        <v>6.723</v>
       </c>
       <c r="D146" t="n">
-        <v>6.748</v>
+        <v>6.723</v>
       </c>
       <c r="E146" t="n">
-        <v>6.748</v>
+        <v>6.723</v>
       </c>
       <c r="F146" t="n">
-        <v>169562.9781</v>
+        <v>59897.4003</v>
       </c>
       <c r="G146" t="n">
-        <v>1237667.71117642</v>
+        <v>1952396.636076419</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5827,9 +5988,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5838,28 +5997,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.668</v>
+        <v>6.707</v>
       </c>
       <c r="C147" t="n">
-        <v>6.65</v>
+        <v>6.72</v>
       </c>
       <c r="D147" t="n">
-        <v>6.668</v>
+        <v>6.724</v>
       </c>
       <c r="E147" t="n">
-        <v>6.65</v>
+        <v>6.707</v>
       </c>
       <c r="F147" t="n">
-        <v>1184.2515</v>
+        <v>152832.9029</v>
       </c>
       <c r="G147" t="n">
-        <v>1236483.45967642</v>
+        <v>1799563.73317642</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5868,9 +6028,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5879,28 +6037,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.65</v>
+        <v>6.71</v>
       </c>
       <c r="C148" t="n">
-        <v>6.678</v>
+        <v>6.702</v>
       </c>
       <c r="D148" t="n">
-        <v>6.678</v>
+        <v>6.71</v>
       </c>
       <c r="E148" t="n">
-        <v>6.65</v>
+        <v>6.701</v>
       </c>
       <c r="F148" t="n">
-        <v>120000</v>
+        <v>43644.0115</v>
       </c>
       <c r="G148" t="n">
-        <v>1356483.45967642</v>
+        <v>1755919.721676419</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5909,9 +6068,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5920,28 +6077,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.63</v>
+        <v>6.705</v>
       </c>
       <c r="C149" t="n">
-        <v>6.63</v>
+        <v>6.705</v>
       </c>
       <c r="D149" t="n">
-        <v>6.63</v>
+        <v>6.705</v>
       </c>
       <c r="E149" t="n">
-        <v>6.63</v>
+        <v>6.705</v>
       </c>
       <c r="F149" t="n">
-        <v>7540.849</v>
+        <v>76</v>
       </c>
       <c r="G149" t="n">
-        <v>1348942.61067642</v>
+        <v>1755995.721676419</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5950,9 +6108,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5961,28 +6117,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.64</v>
+        <v>6.705</v>
       </c>
       <c r="C150" t="n">
-        <v>6.64</v>
+        <v>6.705</v>
       </c>
       <c r="D150" t="n">
-        <v>6.64</v>
+        <v>6.705</v>
       </c>
       <c r="E150" t="n">
-        <v>6.64</v>
+        <v>6.705</v>
       </c>
       <c r="F150" t="n">
-        <v>18534.5241</v>
+        <v>44934</v>
       </c>
       <c r="G150" t="n">
-        <v>1367477.13477642</v>
+        <v>1755995.721676419</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5991,9 +6148,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6002,1728 +6157,7 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C151" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="D151" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="E151" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="F151" t="n">
-        <v>21465</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1346012.13477642</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="C152" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D152" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="E152" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="F152" t="n">
-        <v>6335.326</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1352347.46077642</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C153" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="D153" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="E153" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3130.42</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1349217.04077642</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>6.675</v>
-      </c>
-      <c r="C154" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="D154" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="E154" t="n">
-        <v>6.675</v>
-      </c>
-      <c r="F154" t="n">
-        <v>20862.93</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1370079.97077642</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="C155" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>48069.8722</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1418149.84297642</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="C156" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="D156" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="F156" t="n">
-        <v>192977.4756</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1611127.31857642</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="C157" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="D157" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="E157" t="n">
-        <v>6.709</v>
-      </c>
-      <c r="F157" t="n">
-        <v>59037.6235</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1611127.31857642</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="C158" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="D158" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="E158" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="F158" t="n">
-        <v>12166.7857</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1623294.10427642</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="C159" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D159" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="E159" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2965.46</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1620328.64427642</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="C160" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D160" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="E160" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="F160" t="n">
-        <v>157.313</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1620328.64427642</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="C161" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="D161" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="E161" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="F161" t="n">
-        <v>19047.9152</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1639376.55947642</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="C162" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="D162" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E162" t="n">
-        <v>6.638</v>
-      </c>
-      <c r="F162" t="n">
-        <v>148519.3037</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1490857.25577642</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>6.633</v>
-      </c>
-      <c r="C163" t="n">
-        <v>6.633</v>
-      </c>
-      <c r="D163" t="n">
-        <v>6.633</v>
-      </c>
-      <c r="E163" t="n">
-        <v>6.633</v>
-      </c>
-      <c r="F163" t="n">
-        <v>90121.83349999999</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1400735.42227642</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>6.699</v>
-      </c>
-      <c r="C164" t="n">
-        <v>6.699</v>
-      </c>
-      <c r="D164" t="n">
-        <v>6.699</v>
-      </c>
-      <c r="E164" t="n">
-        <v>6.699</v>
-      </c>
-      <c r="F164" t="n">
-        <v>19083.89</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1419819.31227642</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="C165" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="D165" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="E165" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="F165" t="n">
-        <v>298234.6474</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1718053.95967642</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="C166" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="D166" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="E166" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="F166" t="n">
-        <v>453615.4908</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1718053.95967642</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="C167" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="D167" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="E167" t="n">
-        <v>6.704</v>
-      </c>
-      <c r="F167" t="n">
-        <v>381394.8479</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1718053.95967642</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="C168" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="D168" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="E168" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="F168" t="n">
-        <v>91604.76459999999</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1809658.72427642</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="C169" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="D169" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="E169" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="F169" t="n">
-        <v>803966.9287</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1809658.72427642</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="C170" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="D170" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="E170" t="n">
-        <v>6.719</v>
-      </c>
-      <c r="F170" t="n">
-        <v>74229.4339</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1809658.72427642</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="C171" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D171" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="E171" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="F171" t="n">
-        <v>25212.9285</v>
-      </c>
-      <c r="G171" t="n">
-        <v>1834871.65277642</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>6.743</v>
-      </c>
-      <c r="C172" t="n">
-        <v>6.743</v>
-      </c>
-      <c r="D172" t="n">
-        <v>6.743</v>
-      </c>
-      <c r="E172" t="n">
-        <v>6.743</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1061.8552</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1835933.50797642</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="C173" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="D173" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="E173" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="F173" t="n">
-        <v>115160.5209</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1720772.98707642</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="C174" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="D174" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="E174" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="F174" t="n">
-        <v>74580.9249</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1795353.91197642</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="C175" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="D175" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="E175" t="n">
-        <v>6.689</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2715.229</v>
-      </c>
-      <c r="G175" t="n">
-        <v>1792638.68297642</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C176" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="D176" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="E176" t="n">
-        <v>6.703</v>
-      </c>
-      <c r="F176" t="n">
-        <v>29670.4936</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1822309.17657642</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="C177" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="D177" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="E177" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="F177" t="n">
-        <v>35979.9832</v>
-      </c>
-      <c r="G177" t="n">
-        <v>1858289.15977642</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="C178" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="D178" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="E178" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1217.847</v>
-      </c>
-      <c r="G178" t="n">
-        <v>1857071.31277642</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>6.687</v>
-      </c>
-      <c r="C179" t="n">
-        <v>6.687</v>
-      </c>
-      <c r="D179" t="n">
-        <v>6.687</v>
-      </c>
-      <c r="E179" t="n">
-        <v>6.687</v>
-      </c>
-      <c r="F179" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1872071.31277642</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="C180" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D180" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="E180" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="F180" t="n">
-        <v>6072.2466</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1865999.06617642</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>6.672</v>
-      </c>
-      <c r="C181" t="n">
-        <v>6.672</v>
-      </c>
-      <c r="D181" t="n">
-        <v>6.672</v>
-      </c>
-      <c r="E181" t="n">
-        <v>6.672</v>
-      </c>
-      <c r="F181" t="n">
-        <v>8797</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1874796.06617642</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="C182" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="D182" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="E182" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="F182" t="n">
-        <v>8727</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1883523.06617642</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="D183" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="E183" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="F183" t="n">
-        <v>51014.7916</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1934537.85777642</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>6.682</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.682</v>
-      </c>
-      <c r="D184" t="n">
-        <v>6.682</v>
-      </c>
-      <c r="E184" t="n">
-        <v>6.682</v>
-      </c>
-      <c r="F184" t="n">
-        <v>45892.6989</v>
-      </c>
-      <c r="G184" t="n">
-        <v>1980430.55667642</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>6.682</v>
-      </c>
-      <c r="C185" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="D185" t="n">
-        <v>6.683</v>
-      </c>
-      <c r="E185" t="n">
-        <v>6.682</v>
-      </c>
-      <c r="F185" t="n">
-        <v>39161.5198</v>
-      </c>
-      <c r="G185" t="n">
-        <v>2019592.07647642</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="C186" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="D186" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="E186" t="n">
-        <v>6.662</v>
-      </c>
-      <c r="F186" t="n">
-        <v>7398.0401</v>
-      </c>
-      <c r="G186" t="n">
-        <v>2012194.036376419</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C187" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D187" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="E187" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F187" t="n">
-        <v>100</v>
-      </c>
-      <c r="G187" t="n">
-        <v>2012294.036376419</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>6.723</v>
-      </c>
-      <c r="C188" t="n">
-        <v>6.723</v>
-      </c>
-      <c r="D188" t="n">
-        <v>6.723</v>
-      </c>
-      <c r="E188" t="n">
-        <v>6.723</v>
-      </c>
-      <c r="F188" t="n">
-        <v>59897.4003</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1952396.636076419</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="C189" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D189" t="n">
-        <v>6.724</v>
-      </c>
-      <c r="E189" t="n">
-        <v>6.707</v>
-      </c>
-      <c r="F189" t="n">
-        <v>152832.9029</v>
-      </c>
-      <c r="G189" t="n">
-        <v>1799563.73317642</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="C190" t="n">
-        <v>6.702</v>
-      </c>
-      <c r="D190" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="E190" t="n">
-        <v>6.701</v>
-      </c>
-      <c r="F190" t="n">
-        <v>43644.0115</v>
-      </c>
-      <c r="G190" t="n">
-        <v>1755919.721676419</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="C191" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="D191" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="E191" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="F191" t="n">
-        <v>76</v>
-      </c>
-      <c r="G191" t="n">
-        <v>1755995.721676419</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="C192" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="D192" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="E192" t="n">
-        <v>6.705</v>
-      </c>
-      <c r="F192" t="n">
-        <v>44934</v>
-      </c>
-      <c r="G192" t="n">
-        <v>1755995.721676419</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
+      <c r="N150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest IOST.xlsx
+++ b/BackTest/2020-01-19 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.99</v>
+        <v>6.771</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6.771</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>6.771</v>
       </c>
       <c r="E2" t="n">
-        <v>6.99</v>
+        <v>6.771</v>
       </c>
       <c r="F2" t="n">
-        <v>99000</v>
+        <v>711.0413</v>
       </c>
       <c r="G2" t="n">
-        <v>951629.66765643</v>
+        <v>-1504.726743570099</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6.713</v>
       </c>
       <c r="C3" t="n">
-        <v>7.015</v>
+        <v>6.704</v>
       </c>
       <c r="D3" t="n">
-        <v>7.015</v>
+        <v>6.713</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6.646</v>
       </c>
       <c r="F3" t="n">
-        <v>240000</v>
+        <v>247222.0471</v>
       </c>
       <c r="G3" t="n">
-        <v>1191629.66765643</v>
+        <v>-248726.7738435701</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.015</v>
+        <v>6.663</v>
       </c>
       <c r="C4" t="n">
-        <v>7.015</v>
+        <v>6.663</v>
       </c>
       <c r="D4" t="n">
-        <v>7.015</v>
+        <v>6.663</v>
       </c>
       <c r="E4" t="n">
-        <v>7.015</v>
+        <v>6.663</v>
       </c>
       <c r="F4" t="n">
-        <v>385330.6953</v>
+        <v>8614.9828</v>
       </c>
       <c r="G4" t="n">
-        <v>1191629.66765643</v>
+        <v>-257341.7566435701</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.014</v>
+        <v>6.663</v>
       </c>
       <c r="C5" t="n">
-        <v>7.014</v>
+        <v>6.663</v>
       </c>
       <c r="D5" t="n">
-        <v>7.014</v>
+        <v>6.663</v>
       </c>
       <c r="E5" t="n">
-        <v>7.014</v>
+        <v>6.663</v>
       </c>
       <c r="F5" t="n">
-        <v>85581.0175</v>
+        <v>3297.9828</v>
       </c>
       <c r="G5" t="n">
-        <v>1106048.65015643</v>
+        <v>-257341.7566435701</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.014</v>
+        <v>6.653</v>
       </c>
       <c r="C6" t="n">
-        <v>7.014</v>
+        <v>6.641</v>
       </c>
       <c r="D6" t="n">
-        <v>7.014</v>
+        <v>6.653</v>
       </c>
       <c r="E6" t="n">
-        <v>7.014</v>
+        <v>6.641</v>
       </c>
       <c r="F6" t="n">
-        <v>100521.3735</v>
+        <v>13079.0943</v>
       </c>
       <c r="G6" t="n">
-        <v>1106048.65015643</v>
+        <v>-270420.8509435701</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,31 +618,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.02</v>
+        <v>6.68</v>
       </c>
       <c r="C7" t="n">
-        <v>7.02</v>
+        <v>6.679</v>
       </c>
       <c r="D7" t="n">
-        <v>7.02</v>
+        <v>6.68</v>
       </c>
       <c r="E7" t="n">
-        <v>7.02</v>
+        <v>6.679</v>
       </c>
       <c r="F7" t="n">
-        <v>2494.823</v>
+        <v>9241.2394</v>
       </c>
       <c r="G7" t="n">
-        <v>1108543.47315643</v>
+        <v>-261179.6115435701</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.641</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.641</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -654,32 +658,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.014</v>
+        <v>6.75</v>
       </c>
       <c r="C8" t="n">
-        <v>7.014</v>
+        <v>6.75</v>
       </c>
       <c r="D8" t="n">
-        <v>7.014</v>
+        <v>6.75</v>
       </c>
       <c r="E8" t="n">
-        <v>7.014</v>
+        <v>6.75</v>
       </c>
       <c r="F8" t="n">
-        <v>7714.5487</v>
+        <v>10012.2305</v>
       </c>
       <c r="G8" t="n">
-        <v>1100828.92445643</v>
+        <v>-251167.3810435701</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>6.641</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +700,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.03</v>
+        <v>6.67</v>
       </c>
       <c r="C9" t="n">
-        <v>7.03</v>
+        <v>6.667</v>
       </c>
       <c r="D9" t="n">
-        <v>7.03</v>
+        <v>6.67</v>
       </c>
       <c r="E9" t="n">
-        <v>7.03</v>
+        <v>6.667</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>13009.4626</v>
       </c>
       <c r="G9" t="n">
-        <v>1100928.92445643</v>
+        <v>-264176.8436435701</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>6.641</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,28 +742,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.014</v>
+        <v>6.666</v>
       </c>
       <c r="C10" t="n">
-        <v>7.014</v>
+        <v>6.666</v>
       </c>
       <c r="D10" t="n">
-        <v>7.014</v>
+        <v>6.666</v>
       </c>
       <c r="E10" t="n">
-        <v>7.014</v>
+        <v>6.666</v>
       </c>
       <c r="F10" t="n">
-        <v>402.0108</v>
+        <v>8621.893599999999</v>
       </c>
       <c r="G10" t="n">
-        <v>1100526.91365643</v>
+        <v>-272798.7372435701</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +778,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.014</v>
+        <v>6.674</v>
       </c>
       <c r="C11" t="n">
-        <v>6.995</v>
+        <v>6.674</v>
       </c>
       <c r="D11" t="n">
-        <v>7.014</v>
+        <v>6.674</v>
       </c>
       <c r="E11" t="n">
-        <v>6.995</v>
+        <v>6.674</v>
       </c>
       <c r="F11" t="n">
-        <v>155763.6177</v>
+        <v>17758.7115</v>
       </c>
       <c r="G11" t="n">
-        <v>944763.29595643</v>
+        <v>-255040.0257435701</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +814,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.02</v>
+        <v>6.674</v>
       </c>
       <c r="C12" t="n">
-        <v>7.02</v>
+        <v>6.674</v>
       </c>
       <c r="D12" t="n">
-        <v>7.02</v>
+        <v>6.674</v>
       </c>
       <c r="E12" t="n">
-        <v>7.02</v>
+        <v>6.674</v>
       </c>
       <c r="F12" t="n">
-        <v>13786.2423</v>
+        <v>53690.107</v>
       </c>
       <c r="G12" t="n">
-        <v>958549.5382564301</v>
+        <v>-255040.0257435701</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +850,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.996</v>
+        <v>6.674</v>
       </c>
       <c r="C13" t="n">
-        <v>6.995</v>
+        <v>6.674</v>
       </c>
       <c r="D13" t="n">
-        <v>6.996</v>
+        <v>6.674</v>
       </c>
       <c r="E13" t="n">
-        <v>6.995</v>
+        <v>6.674</v>
       </c>
       <c r="F13" t="n">
-        <v>202644.4312</v>
+        <v>206309.7308</v>
       </c>
       <c r="G13" t="n">
-        <v>755905.1070564301</v>
+        <v>-255040.0257435701</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +886,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.989</v>
+        <v>6.674</v>
       </c>
       <c r="C14" t="n">
-        <v>6.989</v>
+        <v>6.674</v>
       </c>
       <c r="D14" t="n">
-        <v>6.989</v>
+        <v>6.674</v>
       </c>
       <c r="E14" t="n">
-        <v>6.989</v>
+        <v>6.674</v>
       </c>
       <c r="F14" t="n">
-        <v>177020.9374</v>
+        <v>122241.4507</v>
       </c>
       <c r="G14" t="n">
-        <v>578884.1696564301</v>
+        <v>-255040.0257435701</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +922,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.96</v>
+        <v>6.682</v>
       </c>
       <c r="C15" t="n">
-        <v>6.96</v>
+        <v>6.681</v>
       </c>
       <c r="D15" t="n">
-        <v>6.96</v>
+        <v>6.682</v>
       </c>
       <c r="E15" t="n">
-        <v>6.96</v>
+        <v>6.681</v>
       </c>
       <c r="F15" t="n">
-        <v>2670</v>
+        <v>120000</v>
       </c>
       <c r="G15" t="n">
-        <v>576214.1696564301</v>
+        <v>-135040.0257435701</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +958,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.99</v>
+        <v>6.673</v>
       </c>
       <c r="C16" t="n">
-        <v>6.998</v>
+        <v>6.663</v>
       </c>
       <c r="D16" t="n">
-        <v>6.998</v>
+        <v>6.673</v>
       </c>
       <c r="E16" t="n">
-        <v>6.99</v>
+        <v>6.663</v>
       </c>
       <c r="F16" t="n">
-        <v>367140.8546</v>
+        <v>12997.2247</v>
       </c>
       <c r="G16" t="n">
-        <v>943355.0242564301</v>
+        <v>-148037.2504435701</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +994,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.003</v>
+        <v>6.72</v>
       </c>
       <c r="C17" t="n">
-        <v>7.003</v>
+        <v>6.72</v>
       </c>
       <c r="D17" t="n">
-        <v>7.003</v>
+        <v>6.72</v>
       </c>
       <c r="E17" t="n">
-        <v>7.003</v>
+        <v>6.72</v>
       </c>
       <c r="F17" t="n">
-        <v>356.7366</v>
+        <v>14641.9236</v>
       </c>
       <c r="G17" t="n">
-        <v>943711.76085643</v>
+        <v>-133395.3268435701</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1030,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.95</v>
+        <v>6.749</v>
       </c>
       <c r="C18" t="n">
-        <v>6.944</v>
+        <v>6.749</v>
       </c>
       <c r="D18" t="n">
-        <v>6.95</v>
+        <v>6.749</v>
       </c>
       <c r="E18" t="n">
-        <v>6.944</v>
+        <v>6.749</v>
       </c>
       <c r="F18" t="n">
-        <v>98000</v>
+        <v>5566.0322</v>
       </c>
       <c r="G18" t="n">
-        <v>845711.76085643</v>
+        <v>-127829.2946435701</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1066,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.95</v>
+        <v>6.771</v>
       </c>
       <c r="C19" t="n">
-        <v>6.95</v>
+        <v>6.771</v>
       </c>
       <c r="D19" t="n">
-        <v>6.95</v>
+        <v>6.771</v>
       </c>
       <c r="E19" t="n">
-        <v>6.95</v>
+        <v>6.771</v>
       </c>
       <c r="F19" t="n">
-        <v>13640.3951</v>
+        <v>123191.0949</v>
       </c>
       <c r="G19" t="n">
-        <v>859352.15595643</v>
+        <v>-4638.199743570076</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1102,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.96</v>
+        <v>6.76</v>
       </c>
       <c r="C20" t="n">
-        <v>6.96</v>
+        <v>6.771</v>
       </c>
       <c r="D20" t="n">
-        <v>6.96</v>
+        <v>6.771</v>
       </c>
       <c r="E20" t="n">
-        <v>6.96</v>
+        <v>6.76</v>
       </c>
       <c r="F20" t="n">
-        <v>14625.8964</v>
+        <v>89012.86079999999</v>
       </c>
       <c r="G20" t="n">
-        <v>873978.05235643</v>
+        <v>-4638.199743570076</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1138,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.938</v>
+        <v>6.775</v>
       </c>
       <c r="C21" t="n">
-        <v>6.938</v>
+        <v>6.775</v>
       </c>
       <c r="D21" t="n">
-        <v>6.938</v>
+        <v>6.775</v>
       </c>
       <c r="E21" t="n">
-        <v>6.938</v>
+        <v>6.775</v>
       </c>
       <c r="F21" t="n">
-        <v>31464.5277</v>
+        <v>64394.9854</v>
       </c>
       <c r="G21" t="n">
-        <v>842513.52465643</v>
+        <v>59756.78565642992</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1174,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.959</v>
+        <v>6.775</v>
       </c>
       <c r="C22" t="n">
-        <v>6.959</v>
+        <v>6.775</v>
       </c>
       <c r="D22" t="n">
-        <v>6.959</v>
+        <v>6.775</v>
       </c>
       <c r="E22" t="n">
-        <v>6.959</v>
+        <v>6.775</v>
       </c>
       <c r="F22" t="n">
-        <v>6150.6377</v>
+        <v>3460.7989</v>
       </c>
       <c r="G22" t="n">
-        <v>848664.16235643</v>
+        <v>59756.78565642992</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.959</v>
+        <v>6.811</v>
       </c>
       <c r="C23" t="n">
-        <v>6.959</v>
+        <v>6.843</v>
       </c>
       <c r="D23" t="n">
-        <v>6.959</v>
+        <v>6.843</v>
       </c>
       <c r="E23" t="n">
-        <v>6.959</v>
+        <v>6.811</v>
       </c>
       <c r="F23" t="n">
-        <v>3266.3171</v>
+        <v>97000</v>
       </c>
       <c r="G23" t="n">
-        <v>848664.16235643</v>
+        <v>156756.7856564299</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,22 +1246,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.017</v>
+        <v>6.814</v>
       </c>
       <c r="C24" t="n">
-        <v>7.017</v>
+        <v>6.814</v>
       </c>
       <c r="D24" t="n">
-        <v>7.017</v>
+        <v>6.814</v>
       </c>
       <c r="E24" t="n">
-        <v>7.017</v>
+        <v>6.814</v>
       </c>
       <c r="F24" t="n">
-        <v>36816.5691</v>
+        <v>1221</v>
       </c>
       <c r="G24" t="n">
-        <v>885480.7314564299</v>
+        <v>155535.7856564299</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1282,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.017</v>
+        <v>6.818</v>
       </c>
       <c r="C25" t="n">
-        <v>7.017</v>
+        <v>6.818</v>
       </c>
       <c r="D25" t="n">
-        <v>7.017</v>
+        <v>6.818</v>
       </c>
       <c r="E25" t="n">
-        <v>7.017</v>
+        <v>6.818</v>
       </c>
       <c r="F25" t="n">
-        <v>3300.516</v>
+        <v>3762.5385</v>
       </c>
       <c r="G25" t="n">
-        <v>885480.7314564299</v>
+        <v>159298.3241564299</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1318,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.017</v>
+        <v>6.772</v>
       </c>
       <c r="C26" t="n">
-        <v>7.017</v>
+        <v>6.772</v>
       </c>
       <c r="D26" t="n">
-        <v>7.017</v>
+        <v>6.772</v>
       </c>
       <c r="E26" t="n">
-        <v>7.017</v>
+        <v>6.772</v>
       </c>
       <c r="F26" t="n">
-        <v>11659.7394</v>
+        <v>8863.2346</v>
       </c>
       <c r="G26" t="n">
-        <v>885480.7314564299</v>
+        <v>150435.0895564299</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1354,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.017</v>
+        <v>6.772</v>
       </c>
       <c r="C27" t="n">
-        <v>6.987</v>
+        <v>6.772</v>
       </c>
       <c r="D27" t="n">
-        <v>7.017</v>
+        <v>6.772</v>
       </c>
       <c r="E27" t="n">
-        <v>6.987</v>
+        <v>6.772</v>
       </c>
       <c r="F27" t="n">
-        <v>35250.6563</v>
+        <v>18505.7311</v>
       </c>
       <c r="G27" t="n">
-        <v>850230.0751564299</v>
+        <v>150435.0895564299</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1390,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.019</v>
+        <v>6.789</v>
       </c>
       <c r="C28" t="n">
-        <v>7.019</v>
+        <v>6.75</v>
       </c>
       <c r="D28" t="n">
-        <v>7.019</v>
+        <v>6.789</v>
       </c>
       <c r="E28" t="n">
-        <v>7.019</v>
+        <v>6.75</v>
       </c>
       <c r="F28" t="n">
-        <v>92.98309999999999</v>
+        <v>13335</v>
       </c>
       <c r="G28" t="n">
-        <v>850323.0582564299</v>
+        <v>137100.0895564299</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1426,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.019</v>
+        <v>6.79</v>
       </c>
       <c r="C29" t="n">
-        <v>7.019</v>
+        <v>6.79</v>
       </c>
       <c r="D29" t="n">
-        <v>7.019</v>
+        <v>6.79</v>
       </c>
       <c r="E29" t="n">
-        <v>7.019</v>
+        <v>6.79</v>
       </c>
       <c r="F29" t="n">
-        <v>94246.3502</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="n">
-        <v>850323.0582564299</v>
+        <v>142100.0895564299</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1462,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.99</v>
+        <v>6.79</v>
       </c>
       <c r="C30" t="n">
-        <v>6.99</v>
+        <v>6.88</v>
       </c>
       <c r="D30" t="n">
-        <v>6.99</v>
+        <v>6.88</v>
       </c>
       <c r="E30" t="n">
-        <v>6.99</v>
+        <v>6.79</v>
       </c>
       <c r="F30" t="n">
-        <v>77135.1685</v>
+        <v>544294.7092</v>
       </c>
       <c r="G30" t="n">
-        <v>773187.8897564298</v>
+        <v>686394.7987564299</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1498,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.987</v>
+        <v>6.86</v>
       </c>
       <c r="C31" t="n">
-        <v>6.958</v>
+        <v>6.873</v>
       </c>
       <c r="D31" t="n">
-        <v>6.987</v>
+        <v>6.873</v>
       </c>
       <c r="E31" t="n">
-        <v>6.958</v>
+        <v>6.86</v>
       </c>
       <c r="F31" t="n">
-        <v>13047.7782</v>
+        <v>85000</v>
       </c>
       <c r="G31" t="n">
-        <v>760140.1115564299</v>
+        <v>601394.7987564299</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1534,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.92</v>
+        <v>6.872</v>
       </c>
       <c r="C32" t="n">
-        <v>6.92</v>
+        <v>6.872</v>
       </c>
       <c r="D32" t="n">
-        <v>6.92</v>
+        <v>6.872</v>
       </c>
       <c r="E32" t="n">
-        <v>6.92</v>
+        <v>6.872</v>
       </c>
       <c r="F32" t="n">
-        <v>362.5</v>
+        <v>20000</v>
       </c>
       <c r="G32" t="n">
-        <v>759777.6115564299</v>
+        <v>581394.7987564299</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1570,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.94</v>
+        <v>6.872</v>
       </c>
       <c r="C33" t="n">
         <v>6.899</v>
       </c>
       <c r="D33" t="n">
-        <v>6.94</v>
+        <v>6.899</v>
       </c>
       <c r="E33" t="n">
-        <v>6.899</v>
+        <v>6.872</v>
       </c>
       <c r="F33" t="n">
-        <v>450</v>
+        <v>76000</v>
       </c>
       <c r="G33" t="n">
-        <v>759327.6115564299</v>
+        <v>657394.7987564299</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,22 +1606,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.89</v>
+        <v>6.899</v>
       </c>
       <c r="C34" t="n">
-        <v>6.869</v>
+        <v>6.899</v>
       </c>
       <c r="D34" t="n">
-        <v>6.89</v>
+        <v>6.899</v>
       </c>
       <c r="E34" t="n">
-        <v>6.859</v>
+        <v>6.899</v>
       </c>
       <c r="F34" t="n">
-        <v>68106.73239999999</v>
+        <v>92000</v>
       </c>
       <c r="G34" t="n">
-        <v>691220.8791564299</v>
+        <v>657394.7987564299</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1642,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.868</v>
+        <v>6.834</v>
       </c>
       <c r="C35" t="n">
-        <v>6.854</v>
+        <v>6.834</v>
       </c>
       <c r="D35" t="n">
-        <v>6.868</v>
+        <v>6.834</v>
       </c>
       <c r="E35" t="n">
-        <v>6.813</v>
+        <v>6.834</v>
       </c>
       <c r="F35" t="n">
-        <v>592837.8199999999</v>
+        <v>7423.8785</v>
       </c>
       <c r="G35" t="n">
-        <v>98383.05915642995</v>
+        <v>649970.9202564299</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1678,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.77</v>
+        <v>6.862</v>
       </c>
       <c r="C36" t="n">
-        <v>6.751</v>
+        <v>6.86</v>
       </c>
       <c r="D36" t="n">
-        <v>6.77</v>
+        <v>6.862</v>
       </c>
       <c r="E36" t="n">
-        <v>6.751</v>
+        <v>6.86</v>
       </c>
       <c r="F36" t="n">
-        <v>60000</v>
+        <v>162564.154</v>
       </c>
       <c r="G36" t="n">
-        <v>38383.05915642995</v>
+        <v>812535.0742564299</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1714,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.77</v>
+        <v>6.86</v>
       </c>
       <c r="C37" t="n">
-        <v>6.728</v>
+        <v>6.846</v>
       </c>
       <c r="D37" t="n">
-        <v>6.77</v>
+        <v>6.86</v>
       </c>
       <c r="E37" t="n">
-        <v>6.728</v>
+        <v>6.846</v>
       </c>
       <c r="F37" t="n">
-        <v>117388.7026</v>
+        <v>167826.5816</v>
       </c>
       <c r="G37" t="n">
-        <v>-79005.64344357005</v>
+        <v>644708.4926564299</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1750,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.709</v>
+        <v>6.846</v>
       </c>
       <c r="C38" t="n">
-        <v>6.686</v>
+        <v>6.846</v>
       </c>
       <c r="D38" t="n">
-        <v>6.709</v>
+        <v>6.846</v>
       </c>
       <c r="E38" t="n">
-        <v>6.686</v>
+        <v>6.846</v>
       </c>
       <c r="F38" t="n">
-        <v>40227.2452</v>
+        <v>517538.0622</v>
       </c>
       <c r="G38" t="n">
-        <v>-119232.88864357</v>
+        <v>644708.4926564299</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1786,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.69</v>
+        <v>6.846</v>
       </c>
       <c r="C39" t="n">
-        <v>6.69</v>
+        <v>6.842</v>
       </c>
       <c r="D39" t="n">
-        <v>6.69</v>
+        <v>6.846</v>
       </c>
       <c r="E39" t="n">
-        <v>6.69</v>
+        <v>6.842</v>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>171840.4403</v>
       </c>
       <c r="G39" t="n">
-        <v>-119132.88864357</v>
+        <v>472868.0523564299</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1822,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.7</v>
+        <v>6.85</v>
       </c>
       <c r="C40" t="n">
-        <v>6.7</v>
+        <v>6.842</v>
       </c>
       <c r="D40" t="n">
-        <v>6.7</v>
+        <v>6.85</v>
       </c>
       <c r="E40" t="n">
-        <v>6.7</v>
+        <v>6.842</v>
       </c>
       <c r="F40" t="n">
-        <v>1306.4124</v>
+        <v>11394.0328</v>
       </c>
       <c r="G40" t="n">
-        <v>-117826.47624357</v>
+        <v>472868.0523564299</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="C41" t="n">
-        <v>6.7</v>
+        <v>6.899</v>
       </c>
       <c r="D41" t="n">
-        <v>6.7</v>
+        <v>6.899</v>
       </c>
       <c r="E41" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="F41" t="n">
-        <v>66396.8426</v>
+        <v>127907.6713</v>
       </c>
       <c r="G41" t="n">
-        <v>-117826.47624357</v>
+        <v>600775.7236564299</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1894,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.7</v>
+        <v>6.899</v>
       </c>
       <c r="C42" t="n">
-        <v>6.664</v>
+        <v>6.876</v>
       </c>
       <c r="D42" t="n">
-        <v>6.7</v>
+        <v>6.899</v>
       </c>
       <c r="E42" t="n">
-        <v>6.664</v>
+        <v>6.876</v>
       </c>
       <c r="F42" t="n">
-        <v>559780.1244</v>
+        <v>6029.7904</v>
       </c>
       <c r="G42" t="n">
-        <v>-677606.6006435701</v>
+        <v>594745.9332564299</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1930,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.716</v>
+        <v>6.899</v>
       </c>
       <c r="C43" t="n">
-        <v>6.716</v>
+        <v>6.9</v>
       </c>
       <c r="D43" t="n">
-        <v>6.716</v>
+        <v>6.9</v>
       </c>
       <c r="E43" t="n">
-        <v>6.716</v>
+        <v>6.899</v>
       </c>
       <c r="F43" t="n">
-        <v>212000</v>
+        <v>39588.8766</v>
       </c>
       <c r="G43" t="n">
-        <v>-465606.6006435701</v>
+        <v>634334.8098564298</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1966,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.675</v>
+        <v>6.9</v>
       </c>
       <c r="C44" t="n">
-        <v>6.675</v>
+        <v>6.9</v>
       </c>
       <c r="D44" t="n">
-        <v>6.675</v>
+        <v>6.9</v>
       </c>
       <c r="E44" t="n">
-        <v>6.675</v>
+        <v>6.9</v>
       </c>
       <c r="F44" t="n">
-        <v>7986.4404</v>
+        <v>827720.9135</v>
       </c>
       <c r="G44" t="n">
-        <v>-473593.0410435701</v>
+        <v>634334.8098564298</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2002,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.675</v>
+        <v>6.9</v>
       </c>
       <c r="C45" t="n">
-        <v>6.675</v>
+        <v>6.9</v>
       </c>
       <c r="D45" t="n">
-        <v>6.675</v>
+        <v>6.9</v>
       </c>
       <c r="E45" t="n">
-        <v>6.675</v>
+        <v>6.9</v>
       </c>
       <c r="F45" t="n">
-        <v>44084.2953</v>
+        <v>478398.1656</v>
       </c>
       <c r="G45" t="n">
-        <v>-473593.0410435701</v>
+        <v>634334.8098564298</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2038,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.675</v>
+        <v>6.872</v>
       </c>
       <c r="C46" t="n">
-        <v>6.675</v>
+        <v>6.872</v>
       </c>
       <c r="D46" t="n">
-        <v>6.675</v>
+        <v>6.872</v>
       </c>
       <c r="E46" t="n">
-        <v>6.675</v>
+        <v>6.872</v>
       </c>
       <c r="F46" t="n">
-        <v>1024.8579</v>
+        <v>15038.3157</v>
       </c>
       <c r="G46" t="n">
-        <v>-473593.0410435701</v>
+        <v>619296.4941564298</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2074,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.661</v>
+        <v>6.9</v>
       </c>
       <c r="C47" t="n">
-        <v>6.603</v>
+        <v>6.9</v>
       </c>
       <c r="D47" t="n">
-        <v>6.661</v>
+        <v>6.9</v>
       </c>
       <c r="E47" t="n">
-        <v>6.603</v>
+        <v>6.9</v>
       </c>
       <c r="F47" t="n">
-        <v>15507.4166</v>
+        <v>5048.5145</v>
       </c>
       <c r="G47" t="n">
-        <v>-489100.4576435701</v>
+        <v>624345.0086564298</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2110,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="C48" t="n">
-        <v>6.604</v>
+        <v>6.9</v>
       </c>
       <c r="D48" t="n">
-        <v>6.604</v>
+        <v>6.9</v>
       </c>
       <c r="E48" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F48" t="n">
-        <v>11008.49</v>
+        <v>42753.3525</v>
       </c>
       <c r="G48" t="n">
-        <v>-478091.9676435701</v>
+        <v>624345.0086564298</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2146,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.58</v>
+        <v>6.9</v>
       </c>
       <c r="C49" t="n">
-        <v>6.58</v>
+        <v>6.9</v>
       </c>
       <c r="D49" t="n">
-        <v>6.58</v>
+        <v>6.9</v>
       </c>
       <c r="E49" t="n">
-        <v>6.58</v>
+        <v>6.9</v>
       </c>
       <c r="F49" t="n">
-        <v>2700</v>
+        <v>306160.5771</v>
       </c>
       <c r="G49" t="n">
-        <v>-480791.9676435701</v>
+        <v>624345.0086564298</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2182,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.55</v>
+        <v>6.9</v>
       </c>
       <c r="C50" t="n">
-        <v>6.55</v>
+        <v>6.9</v>
       </c>
       <c r="D50" t="n">
-        <v>6.55</v>
+        <v>6.9</v>
       </c>
       <c r="E50" t="n">
-        <v>6.55</v>
+        <v>6.9</v>
       </c>
       <c r="F50" t="n">
-        <v>3183.8315</v>
+        <v>245602.4374</v>
       </c>
       <c r="G50" t="n">
-        <v>-483975.7991435701</v>
+        <v>624345.0086564298</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2218,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.55</v>
+        <v>6.936</v>
       </c>
       <c r="C51" t="n">
-        <v>6.55</v>
+        <v>6.936</v>
       </c>
       <c r="D51" t="n">
-        <v>6.55</v>
+        <v>6.936</v>
       </c>
       <c r="E51" t="n">
-        <v>6.55</v>
+        <v>6.936</v>
       </c>
       <c r="F51" t="n">
-        <v>27293.0579</v>
+        <v>12385.2451</v>
       </c>
       <c r="G51" t="n">
-        <v>-483975.7991435701</v>
+        <v>636730.2537564298</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2254,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.57</v>
+        <v>6.962</v>
       </c>
       <c r="C52" t="n">
-        <v>6.571</v>
+        <v>6.962</v>
       </c>
       <c r="D52" t="n">
-        <v>6.571</v>
+        <v>6.962</v>
       </c>
       <c r="E52" t="n">
-        <v>6.57</v>
+        <v>6.962</v>
       </c>
       <c r="F52" t="n">
-        <v>21490</v>
+        <v>131402.9462</v>
       </c>
       <c r="G52" t="n">
-        <v>-462485.7991435701</v>
+        <v>768133.1999564298</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,28 +2290,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.57</v>
+        <v>6.962</v>
       </c>
       <c r="C53" t="n">
-        <v>6.57</v>
+        <v>6.962</v>
       </c>
       <c r="D53" t="n">
-        <v>6.57</v>
+        <v>6.962</v>
       </c>
       <c r="E53" t="n">
-        <v>6.57</v>
+        <v>6.961</v>
       </c>
       <c r="F53" t="n">
-        <v>5800</v>
+        <v>26335.3961</v>
       </c>
       <c r="G53" t="n">
-        <v>-468285.7991435701</v>
+        <v>768133.1999564298</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2326,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.58</v>
+        <v>6.962</v>
       </c>
       <c r="C54" t="n">
-        <v>6.58</v>
+        <v>6.963</v>
       </c>
       <c r="D54" t="n">
-        <v>6.58</v>
+        <v>6.963</v>
       </c>
       <c r="E54" t="n">
-        <v>6.58</v>
+        <v>6.962</v>
       </c>
       <c r="F54" t="n">
-        <v>449811.8922</v>
+        <v>107041.0688</v>
       </c>
       <c r="G54" t="n">
-        <v>-18473.90694357007</v>
+        <v>875174.2687564298</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2362,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.58</v>
+        <v>6.963</v>
       </c>
       <c r="C55" t="n">
-        <v>6.58</v>
+        <v>6.963</v>
       </c>
       <c r="D55" t="n">
-        <v>6.58</v>
+        <v>6.963</v>
       </c>
       <c r="E55" t="n">
-        <v>6.58</v>
+        <v>6.963</v>
       </c>
       <c r="F55" t="n">
-        <v>7476.4111</v>
+        <v>53726.6674</v>
       </c>
       <c r="G55" t="n">
-        <v>-18473.90694357007</v>
+        <v>875174.2687564298</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2398,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.58</v>
+        <v>6.934</v>
       </c>
       <c r="C56" t="n">
-        <v>6.58</v>
+        <v>6.935</v>
       </c>
       <c r="D56" t="n">
-        <v>6.58</v>
+        <v>6.935</v>
       </c>
       <c r="E56" t="n">
-        <v>6.58</v>
+        <v>6.934</v>
       </c>
       <c r="F56" t="n">
-        <v>763855.7712</v>
+        <v>90121.83349999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-18473.90694357007</v>
+        <v>785052.4352564298</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2434,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.58</v>
+        <v>6.941</v>
       </c>
       <c r="C57" t="n">
-        <v>6.58</v>
+        <v>6.941</v>
       </c>
       <c r="D57" t="n">
-        <v>6.58</v>
+        <v>6.941</v>
       </c>
       <c r="E57" t="n">
-        <v>6.58</v>
+        <v>6.941</v>
       </c>
       <c r="F57" t="n">
-        <v>164621.8313</v>
+        <v>253000</v>
       </c>
       <c r="G57" t="n">
-        <v>-18473.90694357007</v>
+        <v>1038052.43525643</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2470,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.58</v>
+        <v>6.963</v>
       </c>
       <c r="C58" t="n">
-        <v>6.58</v>
+        <v>6.971</v>
       </c>
       <c r="D58" t="n">
-        <v>6.58</v>
+        <v>6.971</v>
       </c>
       <c r="E58" t="n">
-        <v>6.58</v>
+        <v>6.963</v>
       </c>
       <c r="F58" t="n">
-        <v>46504.4765</v>
+        <v>60000</v>
       </c>
       <c r="G58" t="n">
-        <v>-18473.90694357007</v>
+        <v>1098052.43525643</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,28 +2506,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.58</v>
+        <v>6.93</v>
       </c>
       <c r="C59" t="n">
-        <v>6.58</v>
+        <v>6.93</v>
       </c>
       <c r="D59" t="n">
-        <v>6.58</v>
+        <v>6.93</v>
       </c>
       <c r="E59" t="n">
-        <v>6.58</v>
+        <v>6.93</v>
       </c>
       <c r="F59" t="n">
-        <v>199864.3642</v>
+        <v>50796.4887</v>
       </c>
       <c r="G59" t="n">
-        <v>-18473.90694357007</v>
+        <v>1047255.94655643</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2542,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.58</v>
+        <v>6.97</v>
       </c>
       <c r="C60" t="n">
-        <v>6.58</v>
+        <v>6.97</v>
       </c>
       <c r="D60" t="n">
-        <v>6.58</v>
+        <v>6.97</v>
       </c>
       <c r="E60" t="n">
-        <v>6.58</v>
+        <v>6.97</v>
       </c>
       <c r="F60" t="n">
-        <v>229015.9878</v>
+        <v>10935.0706</v>
       </c>
       <c r="G60" t="n">
-        <v>-18473.90694357007</v>
+        <v>1058191.01715643</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2578,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.58</v>
+        <v>6.97</v>
       </c>
       <c r="C61" t="n">
-        <v>6.58</v>
+        <v>6.97</v>
       </c>
       <c r="D61" t="n">
-        <v>6.58</v>
+        <v>6.97</v>
       </c>
       <c r="E61" t="n">
-        <v>6.58</v>
+        <v>6.97</v>
       </c>
       <c r="F61" t="n">
-        <v>35810.7432</v>
+        <v>1564.7129</v>
       </c>
       <c r="G61" t="n">
-        <v>-18473.90694357007</v>
+        <v>1058191.01715643</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,28 +2614,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.58</v>
+        <v>6.941</v>
       </c>
       <c r="C62" t="n">
-        <v>6.58</v>
+        <v>6.95</v>
       </c>
       <c r="D62" t="n">
-        <v>6.58</v>
+        <v>6.95</v>
       </c>
       <c r="E62" t="n">
-        <v>6.58</v>
+        <v>6.941</v>
       </c>
       <c r="F62" t="n">
-        <v>147350.5938</v>
+        <v>10935.0706</v>
       </c>
       <c r="G62" t="n">
-        <v>-18473.90694357007</v>
+        <v>1047255.94655643</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,28 +2650,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.58</v>
+        <v>6.989</v>
       </c>
       <c r="C63" t="n">
-        <v>6.58</v>
+        <v>6.989</v>
       </c>
       <c r="D63" t="n">
-        <v>6.58</v>
+        <v>6.989</v>
       </c>
       <c r="E63" t="n">
-        <v>6.58</v>
+        <v>6.989</v>
       </c>
       <c r="F63" t="n">
-        <v>494102.877</v>
+        <v>27293.0579</v>
       </c>
       <c r="G63" t="n">
-        <v>-18473.90694357007</v>
+        <v>1074549.00445643</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,28 +2686,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.58</v>
+        <v>6.989</v>
       </c>
       <c r="C64" t="n">
-        <v>6.58</v>
+        <v>6.99</v>
       </c>
       <c r="D64" t="n">
-        <v>6.58</v>
+        <v>6.99</v>
       </c>
       <c r="E64" t="n">
-        <v>6.58</v>
+        <v>6.989</v>
       </c>
       <c r="F64" t="n">
-        <v>542140.2277</v>
+        <v>54293.8197</v>
       </c>
       <c r="G64" t="n">
-        <v>-18473.90694357007</v>
+        <v>1128842.82415643</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,28 +2722,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.58</v>
+        <v>6.996</v>
       </c>
       <c r="C65" t="n">
-        <v>6.58</v>
+        <v>6.99</v>
       </c>
       <c r="D65" t="n">
-        <v>6.58</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>6.58</v>
+        <v>6.99</v>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>232660.6934</v>
       </c>
       <c r="G65" t="n">
-        <v>-18473.90694357007</v>
+        <v>1128842.82415643</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2742,28 +2758,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.549</v>
+        <v>6.971</v>
       </c>
       <c r="C66" t="n">
-        <v>6.549</v>
+        <v>6.961</v>
       </c>
       <c r="D66" t="n">
-        <v>6.549</v>
+        <v>6.971</v>
       </c>
       <c r="E66" t="n">
-        <v>6.549</v>
+        <v>6.961</v>
       </c>
       <c r="F66" t="n">
-        <v>14541.5592</v>
+        <v>258169.3052</v>
       </c>
       <c r="G66" t="n">
-        <v>-33015.46614357007</v>
+        <v>870673.51895643</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,22 +2794,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.579</v>
+        <v>6.95</v>
       </c>
       <c r="C67" t="n">
-        <v>6.579</v>
+        <v>6.95</v>
       </c>
       <c r="D67" t="n">
-        <v>6.579</v>
+        <v>6.95</v>
       </c>
       <c r="E67" t="n">
-        <v>6.579</v>
+        <v>6.95</v>
       </c>
       <c r="F67" t="n">
-        <v>155.5241</v>
+        <v>33301.5917</v>
       </c>
       <c r="G67" t="n">
-        <v>-32859.94204357007</v>
+        <v>837371.92725643</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2830,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.54</v>
+        <v>6.95</v>
       </c>
       <c r="C68" t="n">
-        <v>6.54</v>
+        <v>6.95</v>
       </c>
       <c r="D68" t="n">
-        <v>6.54</v>
+        <v>6.95</v>
       </c>
       <c r="E68" t="n">
-        <v>6.54</v>
+        <v>6.95</v>
       </c>
       <c r="F68" t="n">
-        <v>12808.2815</v>
+        <v>116296.6642</v>
       </c>
       <c r="G68" t="n">
-        <v>-45668.22354357006</v>
+        <v>837371.92725643</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,38 +2866,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.57</v>
+        <v>6.95</v>
       </c>
       <c r="C69" t="n">
-        <v>6.54</v>
+        <v>6.95</v>
       </c>
       <c r="D69" t="n">
-        <v>6.57</v>
+        <v>6.95</v>
       </c>
       <c r="E69" t="n">
-        <v>6.54</v>
+        <v>6.95</v>
       </c>
       <c r="F69" t="n">
-        <v>14603.8343</v>
+        <v>160625.1226</v>
       </c>
       <c r="G69" t="n">
-        <v>-45668.22354357006</v>
+        <v>837371.92725643</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>6.54</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2892,38 +2902,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.54</v>
+        <v>6.95</v>
       </c>
       <c r="C70" t="n">
-        <v>6.53</v>
+        <v>6.95</v>
       </c>
       <c r="D70" t="n">
-        <v>6.54</v>
+        <v>6.95</v>
       </c>
       <c r="E70" t="n">
-        <v>6.53</v>
+        <v>6.95</v>
       </c>
       <c r="F70" t="n">
-        <v>86736.4779</v>
+        <v>9297.266100000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-132404.7014435701</v>
+        <v>837371.92725643</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>6.54</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2934,38 +2938,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.53</v>
+        <v>6.957</v>
       </c>
       <c r="C71" t="n">
-        <v>6.53</v>
+        <v>6.957</v>
       </c>
       <c r="D71" t="n">
-        <v>6.53</v>
+        <v>6.957</v>
       </c>
       <c r="E71" t="n">
-        <v>6.52</v>
+        <v>6.957</v>
       </c>
       <c r="F71" t="n">
-        <v>1227293.1032</v>
+        <v>7825.2378</v>
       </c>
       <c r="G71" t="n">
-        <v>-132404.7014435701</v>
+        <v>845197.16505643</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2976,38 +2974,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.53</v>
+        <v>6.973</v>
       </c>
       <c r="C72" t="n">
-        <v>6.53</v>
+        <v>6.973</v>
       </c>
       <c r="D72" t="n">
-        <v>6.53</v>
+        <v>6.973</v>
       </c>
       <c r="E72" t="n">
-        <v>6.53</v>
+        <v>6.973</v>
       </c>
       <c r="F72" t="n">
-        <v>274411.9141</v>
+        <v>7432.5026</v>
       </c>
       <c r="G72" t="n">
-        <v>-132404.7014435701</v>
+        <v>852629.66765643</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3018,38 +3010,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.53</v>
+        <v>6.99</v>
       </c>
       <c r="C73" t="n">
-        <v>6.53</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
-        <v>6.53</v>
+        <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>6.53</v>
+        <v>6.99</v>
       </c>
       <c r="F73" t="n">
-        <v>296103.9752</v>
+        <v>99000</v>
       </c>
       <c r="G73" t="n">
-        <v>-132404.7014435701</v>
+        <v>951629.66765643</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3060,38 +3046,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.53</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>6.53</v>
+        <v>7.015</v>
       </c>
       <c r="D74" t="n">
-        <v>6.53</v>
+        <v>7.015</v>
       </c>
       <c r="E74" t="n">
-        <v>6.53</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>258622.7932</v>
+        <v>240000</v>
       </c>
       <c r="G74" t="n">
-        <v>-132404.7014435701</v>
+        <v>1191629.66765643</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3102,38 +3082,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.53</v>
+        <v>7.015</v>
       </c>
       <c r="C75" t="n">
-        <v>6.53</v>
+        <v>7.015</v>
       </c>
       <c r="D75" t="n">
-        <v>6.53</v>
+        <v>7.015</v>
       </c>
       <c r="E75" t="n">
-        <v>6.53</v>
+        <v>7.015</v>
       </c>
       <c r="F75" t="n">
-        <v>500799.6933</v>
+        <v>385330.6953</v>
       </c>
       <c r="G75" t="n">
-        <v>-132404.7014435701</v>
+        <v>1191629.66765643</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>6.53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3144,38 +3118,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.53</v>
+        <v>7.014</v>
       </c>
       <c r="C76" t="n">
-        <v>6.53</v>
+        <v>7.014</v>
       </c>
       <c r="D76" t="n">
-        <v>6.53</v>
+        <v>7.014</v>
       </c>
       <c r="E76" t="n">
-        <v>6.53</v>
+        <v>7.014</v>
       </c>
       <c r="F76" t="n">
-        <v>305701.7363</v>
+        <v>85581.0175</v>
       </c>
       <c r="G76" t="n">
-        <v>-132404.7014435701</v>
+        <v>1106048.65015643</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3186,38 +3154,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.53</v>
+        <v>7.014</v>
       </c>
       <c r="C77" t="n">
-        <v>6.522</v>
+        <v>7.014</v>
       </c>
       <c r="D77" t="n">
-        <v>6.53</v>
+        <v>7.014</v>
       </c>
       <c r="E77" t="n">
-        <v>6.522</v>
+        <v>7.014</v>
       </c>
       <c r="F77" t="n">
-        <v>487616.1396</v>
+        <v>100521.3735</v>
       </c>
       <c r="G77" t="n">
-        <v>-620020.8410435701</v>
+        <v>1106048.65015643</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>6.53</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3228,38 +3190,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.57</v>
+        <v>7.02</v>
       </c>
       <c r="C78" t="n">
-        <v>6.57</v>
+        <v>7.02</v>
       </c>
       <c r="D78" t="n">
-        <v>6.57</v>
+        <v>7.02</v>
       </c>
       <c r="E78" t="n">
-        <v>6.57</v>
+        <v>7.02</v>
       </c>
       <c r="F78" t="n">
-        <v>3259.7426</v>
+        <v>2494.823</v>
       </c>
       <c r="G78" t="n">
-        <v>-616761.0984435701</v>
+        <v>1108543.47315643</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>6.522</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3270,38 +3226,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.57</v>
+        <v>7.014</v>
       </c>
       <c r="C79" t="n">
-        <v>6.58</v>
+        <v>7.014</v>
       </c>
       <c r="D79" t="n">
-        <v>6.58</v>
+        <v>7.014</v>
       </c>
       <c r="E79" t="n">
-        <v>6.57</v>
+        <v>7.014</v>
       </c>
       <c r="F79" t="n">
-        <v>795870.8012</v>
+        <v>7714.5487</v>
       </c>
       <c r="G79" t="n">
-        <v>179109.7027564299</v>
+        <v>1100828.92445643</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>6.57</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3312,38 +3262,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.614</v>
+        <v>7.03</v>
       </c>
       <c r="C80" t="n">
-        <v>6.614</v>
+        <v>7.03</v>
       </c>
       <c r="D80" t="n">
-        <v>6.614</v>
+        <v>7.03</v>
       </c>
       <c r="E80" t="n">
-        <v>6.614</v>
+        <v>7.03</v>
       </c>
       <c r="F80" t="n">
-        <v>155.7946</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>179265.4973564299</v>
+        <v>1100928.92445643</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>6.58</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3298,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.623</v>
+        <v>7.014</v>
       </c>
       <c r="C81" t="n">
-        <v>6.623</v>
+        <v>7.014</v>
       </c>
       <c r="D81" t="n">
-        <v>6.623</v>
+        <v>7.014</v>
       </c>
       <c r="E81" t="n">
-        <v>6.623</v>
+        <v>7.014</v>
       </c>
       <c r="F81" t="n">
-        <v>20862.9264</v>
+        <v>402.0108</v>
       </c>
       <c r="G81" t="n">
-        <v>200128.4237564299</v>
+        <v>1100526.91365643</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3379,11 +3323,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3394,22 +3334,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.59</v>
+        <v>7.014</v>
       </c>
       <c r="C82" t="n">
-        <v>6.59</v>
+        <v>6.995</v>
       </c>
       <c r="D82" t="n">
-        <v>6.59</v>
+        <v>7.014</v>
       </c>
       <c r="E82" t="n">
-        <v>6.59</v>
+        <v>6.995</v>
       </c>
       <c r="F82" t="n">
-        <v>6808.3109</v>
+        <v>155763.6177</v>
       </c>
       <c r="G82" t="n">
-        <v>193320.1128564299</v>
+        <v>944763.29595643</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3419,11 +3359,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3434,38 +3370,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.659</v>
+        <v>7.02</v>
       </c>
       <c r="C83" t="n">
-        <v>6.659</v>
+        <v>7.02</v>
       </c>
       <c r="D83" t="n">
-        <v>6.659</v>
+        <v>7.02</v>
       </c>
       <c r="E83" t="n">
-        <v>6.659</v>
+        <v>7.02</v>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>13786.2423</v>
       </c>
       <c r="G83" t="n">
-        <v>193570.1128564299</v>
+        <v>958549.5382564301</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>6.59</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3476,22 +3406,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.62</v>
+        <v>6.996</v>
       </c>
       <c r="C84" t="n">
-        <v>6.62</v>
+        <v>6.995</v>
       </c>
       <c r="D84" t="n">
-        <v>6.62</v>
+        <v>6.996</v>
       </c>
       <c r="E84" t="n">
-        <v>6.62</v>
+        <v>6.995</v>
       </c>
       <c r="F84" t="n">
-        <v>6809.2226</v>
+        <v>202644.4312</v>
       </c>
       <c r="G84" t="n">
-        <v>186760.8902564299</v>
+        <v>755905.1070564301</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3501,11 +3431,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3516,22 +3442,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.63</v>
+        <v>6.989</v>
       </c>
       <c r="C85" t="n">
-        <v>6.64</v>
+        <v>6.989</v>
       </c>
       <c r="D85" t="n">
-        <v>6.649</v>
+        <v>6.989</v>
       </c>
       <c r="E85" t="n">
-        <v>6.63</v>
+        <v>6.989</v>
       </c>
       <c r="F85" t="n">
-        <v>4364.2994</v>
+        <v>177020.9374</v>
       </c>
       <c r="G85" t="n">
-        <v>191125.1896564299</v>
+        <v>578884.1696564301</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3541,11 +3467,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3556,38 +3478,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.649</v>
+        <v>6.96</v>
       </c>
       <c r="C86" t="n">
-        <v>6.663</v>
+        <v>6.96</v>
       </c>
       <c r="D86" t="n">
-        <v>6.663</v>
+        <v>6.96</v>
       </c>
       <c r="E86" t="n">
-        <v>6.649</v>
+        <v>6.96</v>
       </c>
       <c r="F86" t="n">
-        <v>61355.3124</v>
+        <v>2670</v>
       </c>
       <c r="G86" t="n">
-        <v>252480.5020564299</v>
+        <v>576214.1696564301</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>6.64</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3598,38 +3514,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.65</v>
+        <v>6.99</v>
       </c>
       <c r="C87" t="n">
-        <v>6.663</v>
+        <v>6.998</v>
       </c>
       <c r="D87" t="n">
-        <v>6.663</v>
+        <v>6.998</v>
       </c>
       <c r="E87" t="n">
-        <v>6.638</v>
+        <v>6.99</v>
       </c>
       <c r="F87" t="n">
-        <v>123597.1157</v>
+        <v>367140.8546</v>
       </c>
       <c r="G87" t="n">
-        <v>252480.5020564299</v>
+        <v>943355.0242564301</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>6.663</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3640,22 +3550,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.631</v>
+        <v>7.003</v>
       </c>
       <c r="C88" t="n">
-        <v>6.631</v>
+        <v>7.003</v>
       </c>
       <c r="D88" t="n">
-        <v>6.631</v>
+        <v>7.003</v>
       </c>
       <c r="E88" t="n">
-        <v>6.631</v>
+        <v>7.003</v>
       </c>
       <c r="F88" t="n">
-        <v>1007.65</v>
+        <v>356.7366</v>
       </c>
       <c r="G88" t="n">
-        <v>251472.8520564299</v>
+        <v>943711.76085643</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3665,11 +3575,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3680,38 +3586,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.65</v>
+        <v>6.95</v>
       </c>
       <c r="C89" t="n">
-        <v>6.657</v>
+        <v>6.944</v>
       </c>
       <c r="D89" t="n">
-        <v>6.657</v>
+        <v>6.95</v>
       </c>
       <c r="E89" t="n">
-        <v>6.65</v>
+        <v>6.944</v>
       </c>
       <c r="F89" t="n">
-        <v>1800</v>
+        <v>98000</v>
       </c>
       <c r="G89" t="n">
-        <v>253272.8520564299</v>
+        <v>845711.76085643</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>6.631</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3722,22 +3622,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.658</v>
+        <v>6.95</v>
       </c>
       <c r="C90" t="n">
-        <v>6.658</v>
+        <v>6.95</v>
       </c>
       <c r="D90" t="n">
-        <v>6.658</v>
+        <v>6.95</v>
       </c>
       <c r="E90" t="n">
-        <v>6.658</v>
+        <v>6.95</v>
       </c>
       <c r="F90" t="n">
-        <v>74955.97139999999</v>
+        <v>13640.3951</v>
       </c>
       <c r="G90" t="n">
-        <v>328228.8234564299</v>
+        <v>859352.15595643</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3747,11 +3647,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3762,38 +3658,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.663</v>
+        <v>6.96</v>
       </c>
       <c r="C91" t="n">
-        <v>6.698</v>
+        <v>6.96</v>
       </c>
       <c r="D91" t="n">
-        <v>6.698</v>
+        <v>6.96</v>
       </c>
       <c r="E91" t="n">
-        <v>6.663</v>
+        <v>6.96</v>
       </c>
       <c r="F91" t="n">
-        <v>9115.217699999999</v>
+        <v>14625.8964</v>
       </c>
       <c r="G91" t="n">
-        <v>337344.0411564299</v>
+        <v>873978.05235643</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>6.658</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3804,22 +3694,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.671</v>
+        <v>6.938</v>
       </c>
       <c r="C92" t="n">
-        <v>6.7</v>
+        <v>6.938</v>
       </c>
       <c r="D92" t="n">
-        <v>6.7</v>
+        <v>6.938</v>
       </c>
       <c r="E92" t="n">
-        <v>6.671</v>
+        <v>6.938</v>
       </c>
       <c r="F92" t="n">
-        <v>102500</v>
+        <v>31464.5277</v>
       </c>
       <c r="G92" t="n">
-        <v>439844.0411564299</v>
+        <v>842513.52465643</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3829,11 +3719,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +3730,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.725</v>
+        <v>6.959</v>
       </c>
       <c r="C93" t="n">
-        <v>6.725</v>
+        <v>6.959</v>
       </c>
       <c r="D93" t="n">
-        <v>6.725</v>
+        <v>6.959</v>
       </c>
       <c r="E93" t="n">
-        <v>6.725</v>
+        <v>6.959</v>
       </c>
       <c r="F93" t="n">
-        <v>155.3265</v>
+        <v>6150.6377</v>
       </c>
       <c r="G93" t="n">
-        <v>439999.3676564299</v>
+        <v>848664.16235643</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3869,11 +3755,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3884,22 +3766,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.725</v>
+        <v>6.959</v>
       </c>
       <c r="C94" t="n">
-        <v>6.725</v>
+        <v>6.959</v>
       </c>
       <c r="D94" t="n">
-        <v>6.725</v>
+        <v>6.959</v>
       </c>
       <c r="E94" t="n">
-        <v>6.725</v>
+        <v>6.959</v>
       </c>
       <c r="F94" t="n">
-        <v>734475.9292</v>
+        <v>3266.3171</v>
       </c>
       <c r="G94" t="n">
-        <v>439999.3676564299</v>
+        <v>848664.16235643</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3909,11 +3791,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3924,22 +3802,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="C95" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="D95" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="E95" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="F95" t="n">
-        <v>826025.3173</v>
+        <v>36816.5691</v>
       </c>
       <c r="G95" t="n">
-        <v>439999.3676564299</v>
+        <v>885480.7314564299</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3949,11 +3827,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3964,22 +3838,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="C96" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="D96" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="E96" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="F96" t="n">
-        <v>117127.3178</v>
+        <v>3300.516</v>
       </c>
       <c r="G96" t="n">
-        <v>439999.3676564299</v>
+        <v>885480.7314564299</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3989,11 +3863,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4004,22 +3874,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="C97" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="D97" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="E97" t="n">
-        <v>6.725</v>
+        <v>7.017</v>
       </c>
       <c r="F97" t="n">
-        <v>2739506.6445</v>
+        <v>11659.7394</v>
       </c>
       <c r="G97" t="n">
-        <v>439999.3676564299</v>
+        <v>885480.7314564299</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4029,11 +3899,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4044,22 +3910,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.749</v>
+        <v>7.017</v>
       </c>
       <c r="C98" t="n">
-        <v>6.749</v>
+        <v>6.987</v>
       </c>
       <c r="D98" t="n">
-        <v>6.749</v>
+        <v>7.017</v>
       </c>
       <c r="E98" t="n">
-        <v>6.749</v>
+        <v>6.987</v>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>35250.6563</v>
       </c>
       <c r="G98" t="n">
-        <v>440099.3676564299</v>
+        <v>850230.0751564299</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4069,11 +3935,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4084,22 +3946,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.746</v>
+        <v>7.019</v>
       </c>
       <c r="C99" t="n">
-        <v>6.746</v>
+        <v>7.019</v>
       </c>
       <c r="D99" t="n">
-        <v>6.746</v>
+        <v>7.019</v>
       </c>
       <c r="E99" t="n">
-        <v>6.746</v>
+        <v>7.019</v>
       </c>
       <c r="F99" t="n">
-        <v>74428.25378001</v>
+        <v>92.98309999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>365671.1138764199</v>
+        <v>850323.0582564299</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4109,11 +3971,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +3982,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.748</v>
+        <v>7.019</v>
       </c>
       <c r="C100" t="n">
-        <v>6.749</v>
+        <v>7.019</v>
       </c>
       <c r="D100" t="n">
-        <v>6.82</v>
+        <v>7.019</v>
       </c>
       <c r="E100" t="n">
-        <v>6.748</v>
+        <v>7.019</v>
       </c>
       <c r="F100" t="n">
-        <v>1067650.7652</v>
+        <v>94246.3502</v>
       </c>
       <c r="G100" t="n">
-        <v>1433321.87907642</v>
+        <v>850323.0582564299</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4149,11 +4007,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4164,22 +4018,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.749</v>
+        <v>6.99</v>
       </c>
       <c r="C101" t="n">
-        <v>6.748</v>
+        <v>6.99</v>
       </c>
       <c r="D101" t="n">
-        <v>6.749</v>
+        <v>6.99</v>
       </c>
       <c r="E101" t="n">
-        <v>6.748</v>
+        <v>6.99</v>
       </c>
       <c r="F101" t="n">
-        <v>195654.1679</v>
+        <v>77135.1685</v>
       </c>
       <c r="G101" t="n">
-        <v>1237667.71117642</v>
+        <v>773187.8897564298</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4189,11 +4043,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4204,22 +4054,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.748</v>
+        <v>6.987</v>
       </c>
       <c r="C102" t="n">
-        <v>6.748</v>
+        <v>6.958</v>
       </c>
       <c r="D102" t="n">
-        <v>6.748</v>
+        <v>6.987</v>
       </c>
       <c r="E102" t="n">
-        <v>6.748</v>
+        <v>6.958</v>
       </c>
       <c r="F102" t="n">
-        <v>123757.5905</v>
+        <v>13047.7782</v>
       </c>
       <c r="G102" t="n">
-        <v>1237667.71117642</v>
+        <v>760140.1115564299</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4229,11 +4079,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4244,22 +4090,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.748</v>
+        <v>6.92</v>
       </c>
       <c r="C103" t="n">
-        <v>6.748</v>
+        <v>6.92</v>
       </c>
       <c r="D103" t="n">
-        <v>6.748</v>
+        <v>6.92</v>
       </c>
       <c r="E103" t="n">
-        <v>6.748</v>
+        <v>6.92</v>
       </c>
       <c r="F103" t="n">
-        <v>65542.3797</v>
+        <v>362.5</v>
       </c>
       <c r="G103" t="n">
-        <v>1237667.71117642</v>
+        <v>759777.6115564299</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4269,11 +4115,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +4126,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.748</v>
+        <v>6.94</v>
       </c>
       <c r="C104" t="n">
-        <v>6.748</v>
+        <v>6.899</v>
       </c>
       <c r="D104" t="n">
-        <v>6.748</v>
+        <v>6.94</v>
       </c>
       <c r="E104" t="n">
-        <v>6.748</v>
+        <v>6.899</v>
       </c>
       <c r="F104" t="n">
-        <v>169562.9781</v>
+        <v>450</v>
       </c>
       <c r="G104" t="n">
-        <v>1237667.71117642</v>
+        <v>759327.6115564299</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4309,11 +4151,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4324,22 +4162,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.668</v>
+        <v>6.89</v>
       </c>
       <c r="C105" t="n">
-        <v>6.65</v>
+        <v>6.869</v>
       </c>
       <c r="D105" t="n">
-        <v>6.668</v>
+        <v>6.89</v>
       </c>
       <c r="E105" t="n">
-        <v>6.65</v>
+        <v>6.859</v>
       </c>
       <c r="F105" t="n">
-        <v>1184.2515</v>
+        <v>68106.73239999999</v>
       </c>
       <c r="G105" t="n">
-        <v>1236483.45967642</v>
+        <v>691220.8791564299</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4349,11 +4187,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4364,22 +4198,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.65</v>
+        <v>6.868</v>
       </c>
       <c r="C106" t="n">
-        <v>6.678</v>
+        <v>6.854</v>
       </c>
       <c r="D106" t="n">
-        <v>6.678</v>
+        <v>6.868</v>
       </c>
       <c r="E106" t="n">
-        <v>6.65</v>
+        <v>6.813</v>
       </c>
       <c r="F106" t="n">
-        <v>120000</v>
+        <v>592837.8199999999</v>
       </c>
       <c r="G106" t="n">
-        <v>1356483.45967642</v>
+        <v>98383.05915642995</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4389,11 +4223,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4404,22 +4234,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.63</v>
+        <v>6.77</v>
       </c>
       <c r="C107" t="n">
-        <v>6.63</v>
+        <v>6.751</v>
       </c>
       <c r="D107" t="n">
-        <v>6.63</v>
+        <v>6.77</v>
       </c>
       <c r="E107" t="n">
-        <v>6.63</v>
+        <v>6.751</v>
       </c>
       <c r="F107" t="n">
-        <v>7540.849</v>
+        <v>60000</v>
       </c>
       <c r="G107" t="n">
-        <v>1348942.61067642</v>
+        <v>38383.05915642995</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4429,11 +4259,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4444,22 +4270,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.64</v>
+        <v>6.77</v>
       </c>
       <c r="C108" t="n">
-        <v>6.64</v>
+        <v>6.728</v>
       </c>
       <c r="D108" t="n">
-        <v>6.64</v>
+        <v>6.77</v>
       </c>
       <c r="E108" t="n">
-        <v>6.64</v>
+        <v>6.728</v>
       </c>
       <c r="F108" t="n">
-        <v>18534.5241</v>
+        <v>117388.7026</v>
       </c>
       <c r="G108" t="n">
-        <v>1367477.13477642</v>
+        <v>-79005.64344357005</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4469,11 +4295,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4484,22 +4306,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.64</v>
+        <v>6.709</v>
       </c>
       <c r="C109" t="n">
-        <v>6.63</v>
+        <v>6.686</v>
       </c>
       <c r="D109" t="n">
-        <v>6.64</v>
+        <v>6.709</v>
       </c>
       <c r="E109" t="n">
-        <v>6.63</v>
+        <v>6.686</v>
       </c>
       <c r="F109" t="n">
-        <v>21465</v>
+        <v>40227.2452</v>
       </c>
       <c r="G109" t="n">
-        <v>1346012.13477642</v>
+        <v>-119232.88864357</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4509,11 +4331,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4524,22 +4342,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
       <c r="C110" t="n">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
       <c r="D110" t="n">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
       <c r="E110" t="n">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
       <c r="F110" t="n">
-        <v>6335.326</v>
+        <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>1352347.46077642</v>
+        <v>-119132.88864357</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4549,11 +4367,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4564,22 +4378,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="C111" t="n">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="D111" t="n">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="E111" t="n">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="F111" t="n">
-        <v>3130.42</v>
+        <v>1306.4124</v>
       </c>
       <c r="G111" t="n">
-        <v>1349217.04077642</v>
+        <v>-117826.47624357</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4589,11 +4403,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4604,22 +4414,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.675</v>
+        <v>6.7</v>
       </c>
       <c r="C112" t="n">
-        <v>6.69</v>
+        <v>6.7</v>
       </c>
       <c r="D112" t="n">
-        <v>6.69</v>
+        <v>6.7</v>
       </c>
       <c r="E112" t="n">
-        <v>6.675</v>
+        <v>6.7</v>
       </c>
       <c r="F112" t="n">
-        <v>20862.93</v>
+        <v>66396.8426</v>
       </c>
       <c r="G112" t="n">
-        <v>1370079.97077642</v>
+        <v>-117826.47624357</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4629,11 +4439,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4644,22 +4450,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="C113" t="n">
+        <v>6.664</v>
+      </c>
+      <c r="D113" t="n">
         <v>6.7</v>
       </c>
-      <c r="D113" t="n">
-        <v>6.71</v>
-      </c>
       <c r="E113" t="n">
-        <v>6.7</v>
+        <v>6.664</v>
       </c>
       <c r="F113" t="n">
-        <v>48069.8722</v>
+        <v>559780.1244</v>
       </c>
       <c r="G113" t="n">
-        <v>1418149.84297642</v>
+        <v>-677606.6006435701</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4669,11 +4475,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +4486,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.709</v>
+        <v>6.716</v>
       </c>
       <c r="C114" t="n">
-        <v>6.709</v>
+        <v>6.716</v>
       </c>
       <c r="D114" t="n">
-        <v>6.709</v>
+        <v>6.716</v>
       </c>
       <c r="E114" t="n">
-        <v>6.709</v>
+        <v>6.716</v>
       </c>
       <c r="F114" t="n">
-        <v>192977.4756</v>
+        <v>212000</v>
       </c>
       <c r="G114" t="n">
-        <v>1611127.31857642</v>
+        <v>-465606.6006435701</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4709,11 +4511,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4724,22 +4522,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.709</v>
+        <v>6.675</v>
       </c>
       <c r="C115" t="n">
-        <v>6.709</v>
+        <v>6.675</v>
       </c>
       <c r="D115" t="n">
-        <v>6.709</v>
+        <v>6.675</v>
       </c>
       <c r="E115" t="n">
-        <v>6.709</v>
+        <v>6.675</v>
       </c>
       <c r="F115" t="n">
-        <v>59037.6235</v>
+        <v>7986.4404</v>
       </c>
       <c r="G115" t="n">
-        <v>1611127.31857642</v>
+        <v>-473593.0410435701</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4749,11 +4547,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4764,22 +4558,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.719</v>
+        <v>6.675</v>
       </c>
       <c r="C116" t="n">
-        <v>6.719</v>
+        <v>6.675</v>
       </c>
       <c r="D116" t="n">
-        <v>6.719</v>
+        <v>6.675</v>
       </c>
       <c r="E116" t="n">
-        <v>6.719</v>
+        <v>6.675</v>
       </c>
       <c r="F116" t="n">
-        <v>12166.7857</v>
+        <v>44084.2953</v>
       </c>
       <c r="G116" t="n">
-        <v>1623294.10427642</v>
+        <v>-473593.0410435701</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4789,11 +4583,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4804,22 +4594,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.67</v>
+        <v>6.675</v>
       </c>
       <c r="C117" t="n">
-        <v>6.67</v>
+        <v>6.675</v>
       </c>
       <c r="D117" t="n">
-        <v>6.67</v>
+        <v>6.675</v>
       </c>
       <c r="E117" t="n">
-        <v>6.67</v>
+        <v>6.675</v>
       </c>
       <c r="F117" t="n">
-        <v>2965.46</v>
+        <v>1024.8579</v>
       </c>
       <c r="G117" t="n">
-        <v>1620328.64427642</v>
+        <v>-473593.0410435701</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4829,11 +4619,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4844,22 +4630,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.67</v>
+        <v>6.661</v>
       </c>
       <c r="C118" t="n">
-        <v>6.67</v>
+        <v>6.603</v>
       </c>
       <c r="D118" t="n">
-        <v>6.67</v>
+        <v>6.661</v>
       </c>
       <c r="E118" t="n">
-        <v>6.67</v>
+        <v>6.603</v>
       </c>
       <c r="F118" t="n">
-        <v>157.313</v>
+        <v>15507.4166</v>
       </c>
       <c r="G118" t="n">
-        <v>1620328.64427642</v>
+        <v>-489100.4576435701</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4869,11 +4655,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4884,22 +4666,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.707</v>
+        <v>6.6</v>
       </c>
       <c r="C119" t="n">
-        <v>6.707</v>
+        <v>6.604</v>
       </c>
       <c r="D119" t="n">
-        <v>6.707</v>
+        <v>6.604</v>
       </c>
       <c r="E119" t="n">
-        <v>6.707</v>
+        <v>6.6</v>
       </c>
       <c r="F119" t="n">
-        <v>19047.9152</v>
+        <v>11008.49</v>
       </c>
       <c r="G119" t="n">
-        <v>1639376.55947642</v>
+        <v>-478091.9676435701</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4909,11 +4691,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4924,22 +4702,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.65</v>
+        <v>6.58</v>
       </c>
       <c r="C120" t="n">
-        <v>6.66</v>
+        <v>6.58</v>
       </c>
       <c r="D120" t="n">
-        <v>6.66</v>
+        <v>6.58</v>
       </c>
       <c r="E120" t="n">
-        <v>6.638</v>
+        <v>6.58</v>
       </c>
       <c r="F120" t="n">
-        <v>148519.3037</v>
+        <v>2700</v>
       </c>
       <c r="G120" t="n">
-        <v>1490857.25577642</v>
+        <v>-480791.9676435701</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4949,11 +4727,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4964,36 +4738,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.633</v>
+        <v>6.55</v>
       </c>
       <c r="C121" t="n">
-        <v>6.633</v>
+        <v>6.55</v>
       </c>
       <c r="D121" t="n">
-        <v>6.633</v>
+        <v>6.55</v>
       </c>
       <c r="E121" t="n">
-        <v>6.633</v>
+        <v>6.55</v>
       </c>
       <c r="F121" t="n">
-        <v>90121.83349999999</v>
+        <v>3183.8315</v>
       </c>
       <c r="G121" t="n">
-        <v>1400735.42227642</v>
+        <v>-483975.7991435701</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K121" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5004,34 +4778,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.699</v>
+        <v>6.55</v>
       </c>
       <c r="C122" t="n">
-        <v>6.699</v>
+        <v>6.55</v>
       </c>
       <c r="D122" t="n">
-        <v>6.699</v>
+        <v>6.55</v>
       </c>
       <c r="E122" t="n">
-        <v>6.699</v>
+        <v>6.55</v>
       </c>
       <c r="F122" t="n">
-        <v>19083.89</v>
+        <v>27293.0579</v>
       </c>
       <c r="G122" t="n">
-        <v>1419819.31227642</v>
+        <v>-483975.7991435701</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K122" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -5044,34 +4822,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.704</v>
+        <v>6.57</v>
       </c>
       <c r="C123" t="n">
-        <v>6.704</v>
+        <v>6.571</v>
       </c>
       <c r="D123" t="n">
-        <v>6.704</v>
+        <v>6.571</v>
       </c>
       <c r="E123" t="n">
-        <v>6.704</v>
+        <v>6.57</v>
       </c>
       <c r="F123" t="n">
-        <v>298234.6474</v>
+        <v>21490</v>
       </c>
       <c r="G123" t="n">
-        <v>1718053.95967642</v>
+        <v>-462485.7991435701</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K123" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -5084,31 +4866,35 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.704</v>
+        <v>6.57</v>
       </c>
       <c r="C124" t="n">
-        <v>6.704</v>
+        <v>6.57</v>
       </c>
       <c r="D124" t="n">
-        <v>6.704</v>
+        <v>6.57</v>
       </c>
       <c r="E124" t="n">
-        <v>6.704</v>
+        <v>6.57</v>
       </c>
       <c r="F124" t="n">
-        <v>453615.4908</v>
+        <v>5800</v>
       </c>
       <c r="G124" t="n">
-        <v>1718053.95967642</v>
+        <v>-468285.7991435701</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="K124" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5124,31 +4910,35 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.704</v>
+        <v>6.58</v>
       </c>
       <c r="C125" t="n">
-        <v>6.704</v>
+        <v>6.58</v>
       </c>
       <c r="D125" t="n">
-        <v>6.704</v>
+        <v>6.58</v>
       </c>
       <c r="E125" t="n">
-        <v>6.704</v>
+        <v>6.58</v>
       </c>
       <c r="F125" t="n">
-        <v>381394.8479</v>
+        <v>449811.8922</v>
       </c>
       <c r="G125" t="n">
-        <v>1718053.95967642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="K125" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,31 +4954,35 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="C126" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="D126" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="E126" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="F126" t="n">
-        <v>91604.76459999999</v>
+        <v>7476.4111</v>
       </c>
       <c r="G126" t="n">
-        <v>1809658.72427642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K126" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5204,31 +4998,35 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="C127" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="D127" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="E127" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="F127" t="n">
-        <v>803966.9287</v>
+        <v>763855.7712</v>
       </c>
       <c r="G127" t="n">
-        <v>1809658.72427642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K127" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,31 +5042,35 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="C128" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="D128" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="E128" t="n">
-        <v>6.719</v>
+        <v>6.58</v>
       </c>
       <c r="F128" t="n">
-        <v>74229.4339</v>
+        <v>164621.8313</v>
       </c>
       <c r="G128" t="n">
-        <v>1809658.72427642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K128" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5284,31 +5086,35 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.72</v>
+        <v>6.58</v>
       </c>
       <c r="C129" t="n">
-        <v>6.72</v>
+        <v>6.58</v>
       </c>
       <c r="D129" t="n">
-        <v>6.72</v>
+        <v>6.58</v>
       </c>
       <c r="E129" t="n">
-        <v>6.72</v>
+        <v>6.58</v>
       </c>
       <c r="F129" t="n">
-        <v>25212.9285</v>
+        <v>46504.4765</v>
       </c>
       <c r="G129" t="n">
-        <v>1834871.65277642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K129" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5324,31 +5130,35 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.743</v>
+        <v>6.58</v>
       </c>
       <c r="C130" t="n">
-        <v>6.743</v>
+        <v>6.58</v>
       </c>
       <c r="D130" t="n">
-        <v>6.743</v>
+        <v>6.58</v>
       </c>
       <c r="E130" t="n">
-        <v>6.743</v>
+        <v>6.58</v>
       </c>
       <c r="F130" t="n">
-        <v>1061.8552</v>
+        <v>199864.3642</v>
       </c>
       <c r="G130" t="n">
-        <v>1835933.50797642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K130" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5364,31 +5174,35 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.703</v>
+        <v>6.58</v>
       </c>
       <c r="C131" t="n">
-        <v>6.703</v>
+        <v>6.58</v>
       </c>
       <c r="D131" t="n">
-        <v>6.703</v>
+        <v>6.58</v>
       </c>
       <c r="E131" t="n">
-        <v>6.703</v>
+        <v>6.58</v>
       </c>
       <c r="F131" t="n">
-        <v>115160.5209</v>
+        <v>229015.9878</v>
       </c>
       <c r="G131" t="n">
-        <v>1720772.98707642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K131" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,31 +5218,35 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.71</v>
+        <v>6.58</v>
       </c>
       <c r="C132" t="n">
-        <v>6.71</v>
+        <v>6.58</v>
       </c>
       <c r="D132" t="n">
-        <v>6.71</v>
+        <v>6.58</v>
       </c>
       <c r="E132" t="n">
-        <v>6.71</v>
+        <v>6.58</v>
       </c>
       <c r="F132" t="n">
-        <v>74580.9249</v>
+        <v>35810.7432</v>
       </c>
       <c r="G132" t="n">
-        <v>1795353.91197642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K132" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5444,31 +5262,35 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.689</v>
+        <v>6.58</v>
       </c>
       <c r="C133" t="n">
-        <v>6.689</v>
+        <v>6.58</v>
       </c>
       <c r="D133" t="n">
-        <v>6.689</v>
+        <v>6.58</v>
       </c>
       <c r="E133" t="n">
-        <v>6.689</v>
+        <v>6.58</v>
       </c>
       <c r="F133" t="n">
-        <v>2715.229</v>
+        <v>147350.5938</v>
       </c>
       <c r="G133" t="n">
-        <v>1792638.68297642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K133" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5484,31 +5306,35 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.73</v>
+        <v>6.58</v>
       </c>
       <c r="C134" t="n">
-        <v>6.703</v>
+        <v>6.58</v>
       </c>
       <c r="D134" t="n">
-        <v>6.73</v>
+        <v>6.58</v>
       </c>
       <c r="E134" t="n">
-        <v>6.703</v>
+        <v>6.58</v>
       </c>
       <c r="F134" t="n">
-        <v>29670.4936</v>
+        <v>494102.877</v>
       </c>
       <c r="G134" t="n">
-        <v>1822309.17657642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K134" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,31 +5350,35 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.71</v>
+        <v>6.58</v>
       </c>
       <c r="C135" t="n">
-        <v>6.705</v>
+        <v>6.58</v>
       </c>
       <c r="D135" t="n">
-        <v>6.71</v>
+        <v>6.58</v>
       </c>
       <c r="E135" t="n">
-        <v>6.705</v>
+        <v>6.58</v>
       </c>
       <c r="F135" t="n">
-        <v>35979.9832</v>
+        <v>542140.2277</v>
       </c>
       <c r="G135" t="n">
-        <v>1858289.15977642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K135" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,31 +5394,35 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.662</v>
+        <v>6.58</v>
       </c>
       <c r="C136" t="n">
-        <v>6.662</v>
+        <v>6.58</v>
       </c>
       <c r="D136" t="n">
-        <v>6.662</v>
+        <v>6.58</v>
       </c>
       <c r="E136" t="n">
-        <v>6.662</v>
+        <v>6.58</v>
       </c>
       <c r="F136" t="n">
-        <v>1217.847</v>
+        <v>10000</v>
       </c>
       <c r="G136" t="n">
-        <v>1857071.31277642</v>
+        <v>-18473.90694357007</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K136" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5604,31 +5438,35 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.687</v>
+        <v>6.549</v>
       </c>
       <c r="C137" t="n">
-        <v>6.687</v>
+        <v>6.549</v>
       </c>
       <c r="D137" t="n">
-        <v>6.687</v>
+        <v>6.549</v>
       </c>
       <c r="E137" t="n">
-        <v>6.687</v>
+        <v>6.549</v>
       </c>
       <c r="F137" t="n">
-        <v>15000</v>
+        <v>14541.5592</v>
       </c>
       <c r="G137" t="n">
-        <v>1872071.31277642</v>
+        <v>-33015.46614357007</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="K137" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5644,31 +5482,35 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.67</v>
+        <v>6.579</v>
       </c>
       <c r="C138" t="n">
-        <v>6.67</v>
+        <v>6.579</v>
       </c>
       <c r="D138" t="n">
-        <v>6.67</v>
+        <v>6.579</v>
       </c>
       <c r="E138" t="n">
-        <v>6.67</v>
+        <v>6.579</v>
       </c>
       <c r="F138" t="n">
-        <v>6072.2466</v>
+        <v>155.5241</v>
       </c>
       <c r="G138" t="n">
-        <v>1865999.06617642</v>
+        <v>-32859.94204357007</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.549</v>
+      </c>
+      <c r="K138" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5684,31 +5526,35 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.672</v>
+        <v>6.54</v>
       </c>
       <c r="C139" t="n">
-        <v>6.672</v>
+        <v>6.54</v>
       </c>
       <c r="D139" t="n">
-        <v>6.672</v>
+        <v>6.54</v>
       </c>
       <c r="E139" t="n">
-        <v>6.672</v>
+        <v>6.54</v>
       </c>
       <c r="F139" t="n">
-        <v>8797</v>
+        <v>12808.2815</v>
       </c>
       <c r="G139" t="n">
-        <v>1874796.06617642</v>
+        <v>-45668.22354357006</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.579</v>
+      </c>
+      <c r="K139" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5724,31 +5570,35 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.677</v>
+        <v>6.57</v>
       </c>
       <c r="C140" t="n">
-        <v>6.677</v>
+        <v>6.54</v>
       </c>
       <c r="D140" t="n">
-        <v>6.677</v>
+        <v>6.57</v>
       </c>
       <c r="E140" t="n">
-        <v>6.677</v>
+        <v>6.54</v>
       </c>
       <c r="F140" t="n">
-        <v>8727</v>
+        <v>14603.8343</v>
       </c>
       <c r="G140" t="n">
-        <v>1883523.06617642</v>
+        <v>-45668.22354357006</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="K140" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5764,31 +5614,35 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.679</v>
+        <v>6.54</v>
       </c>
       <c r="C141" t="n">
-        <v>6.679</v>
+        <v>6.53</v>
       </c>
       <c r="D141" t="n">
-        <v>6.679</v>
+        <v>6.54</v>
       </c>
       <c r="E141" t="n">
-        <v>6.679</v>
+        <v>6.53</v>
       </c>
       <c r="F141" t="n">
-        <v>51014.7916</v>
+        <v>86736.4779</v>
       </c>
       <c r="G141" t="n">
-        <v>1934537.85777642</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="K141" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,31 +5658,35 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.682</v>
+        <v>6.53</v>
       </c>
       <c r="C142" t="n">
-        <v>6.682</v>
+        <v>6.53</v>
       </c>
       <c r="D142" t="n">
-        <v>6.682</v>
+        <v>6.53</v>
       </c>
       <c r="E142" t="n">
-        <v>6.682</v>
+        <v>6.52</v>
       </c>
       <c r="F142" t="n">
-        <v>45892.6989</v>
+        <v>1227293.1032</v>
       </c>
       <c r="G142" t="n">
-        <v>1980430.55667642</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K142" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5844,31 +5702,35 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.682</v>
+        <v>6.53</v>
       </c>
       <c r="C143" t="n">
-        <v>6.683</v>
+        <v>6.53</v>
       </c>
       <c r="D143" t="n">
-        <v>6.683</v>
+        <v>6.53</v>
       </c>
       <c r="E143" t="n">
-        <v>6.682</v>
+        <v>6.53</v>
       </c>
       <c r="F143" t="n">
-        <v>39161.5198</v>
+        <v>274411.9141</v>
       </c>
       <c r="G143" t="n">
-        <v>2019592.07647642</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K143" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5884,31 +5746,35 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.662</v>
+        <v>6.53</v>
       </c>
       <c r="C144" t="n">
-        <v>6.662</v>
+        <v>6.53</v>
       </c>
       <c r="D144" t="n">
-        <v>6.662</v>
+        <v>6.53</v>
       </c>
       <c r="E144" t="n">
-        <v>6.662</v>
+        <v>6.53</v>
       </c>
       <c r="F144" t="n">
-        <v>7398.0401</v>
+        <v>296103.9752</v>
       </c>
       <c r="G144" t="n">
-        <v>2012194.036376419</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K144" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5924,31 +5790,35 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.73</v>
+        <v>6.53</v>
       </c>
       <c r="C145" t="n">
-        <v>6.73</v>
+        <v>6.53</v>
       </c>
       <c r="D145" t="n">
-        <v>6.73</v>
+        <v>6.53</v>
       </c>
       <c r="E145" t="n">
-        <v>6.73</v>
+        <v>6.53</v>
       </c>
       <c r="F145" t="n">
-        <v>100</v>
+        <v>258622.7932</v>
       </c>
       <c r="G145" t="n">
-        <v>2012294.036376419</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K145" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5964,31 +5834,35 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.723</v>
+        <v>6.53</v>
       </c>
       <c r="C146" t="n">
-        <v>6.723</v>
+        <v>6.53</v>
       </c>
       <c r="D146" t="n">
-        <v>6.723</v>
+        <v>6.53</v>
       </c>
       <c r="E146" t="n">
-        <v>6.723</v>
+        <v>6.53</v>
       </c>
       <c r="F146" t="n">
-        <v>59897.4003</v>
+        <v>500799.6933</v>
       </c>
       <c r="G146" t="n">
-        <v>1952396.636076419</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K146" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6004,31 +5878,35 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.707</v>
+        <v>6.53</v>
       </c>
       <c r="C147" t="n">
-        <v>6.72</v>
+        <v>6.53</v>
       </c>
       <c r="D147" t="n">
-        <v>6.724</v>
+        <v>6.53</v>
       </c>
       <c r="E147" t="n">
-        <v>6.707</v>
+        <v>6.53</v>
       </c>
       <c r="F147" t="n">
-        <v>152832.9029</v>
+        <v>305701.7363</v>
       </c>
       <c r="G147" t="n">
-        <v>1799563.73317642</v>
+        <v>-132404.7014435701</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K147" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,31 +5922,35 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.71</v>
+        <v>6.53</v>
       </c>
       <c r="C148" t="n">
-        <v>6.702</v>
+        <v>6.522</v>
       </c>
       <c r="D148" t="n">
-        <v>6.71</v>
+        <v>6.53</v>
       </c>
       <c r="E148" t="n">
-        <v>6.701</v>
+        <v>6.522</v>
       </c>
       <c r="F148" t="n">
-        <v>43644.0115</v>
+        <v>487616.1396</v>
       </c>
       <c r="G148" t="n">
-        <v>1755919.721676419</v>
+        <v>-620020.8410435701</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K148" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6084,22 +5966,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.705</v>
+        <v>6.57</v>
       </c>
       <c r="C149" t="n">
-        <v>6.705</v>
+        <v>6.57</v>
       </c>
       <c r="D149" t="n">
-        <v>6.705</v>
+        <v>6.57</v>
       </c>
       <c r="E149" t="n">
-        <v>6.705</v>
+        <v>6.57</v>
       </c>
       <c r="F149" t="n">
-        <v>76</v>
+        <v>3259.7426</v>
       </c>
       <c r="G149" t="n">
-        <v>1755995.721676419</v>
+        <v>-616761.0984435701</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6108,7 +5990,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>6.58</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,40 +6008,3024 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F150" t="n">
+        <v>795870.8012</v>
+      </c>
+      <c r="G150" t="n">
+        <v>179109.7027564299</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.614</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.614</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.614</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.614</v>
+      </c>
+      <c r="F151" t="n">
+        <v>155.7946</v>
+      </c>
+      <c r="G151" t="n">
+        <v>179265.4973564299</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="F152" t="n">
+        <v>20862.9264</v>
+      </c>
+      <c r="G152" t="n">
+        <v>200128.4237564299</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6808.3109</v>
+      </c>
+      <c r="G153" t="n">
+        <v>193320.1128564299</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.659</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.659</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.659</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.659</v>
+      </c>
+      <c r="F154" t="n">
+        <v>250</v>
+      </c>
+      <c r="G154" t="n">
+        <v>193570.1128564299</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6809.2226</v>
+      </c>
+      <c r="G155" t="n">
+        <v>186760.8902564299</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.649</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4364.2994</v>
+      </c>
+      <c r="G156" t="n">
+        <v>191125.1896564299</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.649</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.649</v>
+      </c>
+      <c r="F157" t="n">
+        <v>61355.3124</v>
+      </c>
+      <c r="G157" t="n">
+        <v>252480.5020564299</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.638</v>
+      </c>
+      <c r="F158" t="n">
+        <v>123597.1157</v>
+      </c>
+      <c r="G158" t="n">
+        <v>252480.5020564299</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1007.65</v>
+      </c>
+      <c r="G159" t="n">
+        <v>251472.8520564299</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.657</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.657</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G160" t="n">
+        <v>253272.8520564299</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="F161" t="n">
+        <v>74955.97139999999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>328228.8234564299</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="F162" t="n">
+        <v>9115.217699999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>337344.0411564299</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.671</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.671</v>
+      </c>
+      <c r="F163" t="n">
+        <v>102500</v>
+      </c>
+      <c r="G163" t="n">
+        <v>439844.0411564299</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="F164" t="n">
+        <v>155.3265</v>
+      </c>
+      <c r="G164" t="n">
+        <v>439999.3676564299</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="F165" t="n">
+        <v>734475.9292</v>
+      </c>
+      <c r="G165" t="n">
+        <v>439999.3676564299</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="F166" t="n">
+        <v>826025.3173</v>
+      </c>
+      <c r="G166" t="n">
+        <v>439999.3676564299</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="F167" t="n">
+        <v>117127.3178</v>
+      </c>
+      <c r="G167" t="n">
+        <v>439999.3676564299</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="C168" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2739506.6445</v>
+      </c>
+      <c r="G168" t="n">
+        <v>439999.3676564299</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="F169" t="n">
+        <v>100</v>
+      </c>
+      <c r="G169" t="n">
+        <v>440099.3676564299</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.746</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.746</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.746</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.746</v>
+      </c>
+      <c r="F170" t="n">
+        <v>74428.25378001</v>
+      </c>
+      <c r="G170" t="n">
+        <v>365671.1138764199</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1067650.7652</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1433321.87907642</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="C172" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6.749</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="F172" t="n">
+        <v>195654.1679</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1237667.71117642</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="E173" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="F173" t="n">
+        <v>123757.5905</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1237667.71117642</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="F174" t="n">
+        <v>65542.3797</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1237667.71117642</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6.748</v>
+      </c>
+      <c r="F175" t="n">
+        <v>169562.9781</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1237667.71117642</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6.668</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6.668</v>
+      </c>
+      <c r="E176" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1184.2515</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1236483.45967642</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.678</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6.678</v>
+      </c>
+      <c r="E177" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F177" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1356483.45967642</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7540.849</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1348942.61067642</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18534.5241</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1367477.13477642</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E180" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F180" t="n">
+        <v>21465</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1346012.13477642</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E181" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="F181" t="n">
+        <v>6335.326</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1352347.46077642</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D182" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E182" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3130.42</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1349217.04077642</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6.675</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E183" t="n">
+        <v>6.675</v>
+      </c>
+      <c r="F183" t="n">
+        <v>20862.93</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1370079.97077642</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E184" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>48069.8722</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1418149.84297642</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="F185" t="n">
+        <v>192977.4756</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1611127.31857642</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="E186" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="F186" t="n">
+        <v>59037.6235</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1611127.31857642</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="D187" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12166.7857</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1623294.10427642</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D188" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2965.46</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1620328.64427642</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E189" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="F189" t="n">
+        <v>157.313</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1620328.64427642</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="D190" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19047.9152</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1639376.55947642</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C191" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D191" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6.638</v>
+      </c>
+      <c r="F191" t="n">
+        <v>148519.3037</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1490857.25577642</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6.633</v>
+      </c>
+      <c r="F192" t="n">
+        <v>90121.83349999999</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1400735.42227642</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="D193" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="E193" t="n">
+        <v>6.699</v>
+      </c>
+      <c r="F193" t="n">
+        <v>19083.89</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1419819.31227642</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="F194" t="n">
+        <v>298234.6474</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1718053.95967642</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="D195" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="E195" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="F195" t="n">
+        <v>453615.4908</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1718053.95967642</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="C196" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="D196" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="E196" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="F196" t="n">
+        <v>381394.8479</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1718053.95967642</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="C197" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="E197" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="F197" t="n">
+        <v>91604.76459999999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1809658.72427642</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="F198" t="n">
+        <v>803966.9287</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1809658.72427642</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="D199" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="E199" t="n">
+        <v>6.719</v>
+      </c>
+      <c r="F199" t="n">
+        <v>74229.4339</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1809658.72427642</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C200" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D200" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="E200" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25212.9285</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1834871.65277642</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6.743</v>
+      </c>
+      <c r="C201" t="n">
+        <v>6.743</v>
+      </c>
+      <c r="D201" t="n">
+        <v>6.743</v>
+      </c>
+      <c r="E201" t="n">
+        <v>6.743</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1061.8552</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1835933.50797642</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="D202" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="E202" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="F202" t="n">
+        <v>115160.5209</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1720772.98707642</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C203" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="D203" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E203" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F203" t="n">
+        <v>74580.9249</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1795353.91197642</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="E204" t="n">
+        <v>6.689</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2715.229</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1792638.68297642</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6.703</v>
+      </c>
+      <c r="F205" t="n">
+        <v>29670.4936</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1822309.17657642</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C206" t="n">
         <v>6.705</v>
       </c>
-      <c r="C150" t="n">
+      <c r="D206" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E206" t="n">
         <v>6.705</v>
       </c>
-      <c r="D150" t="n">
+      <c r="F206" t="n">
+        <v>35979.9832</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1858289.15977642</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="C207" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="E207" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1217.847</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1857071.31277642</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6.687</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6.687</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6.687</v>
+      </c>
+      <c r="E208" t="n">
+        <v>6.687</v>
+      </c>
+      <c r="F208" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1872071.31277642</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C209" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D209" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="F209" t="n">
+        <v>6072.2466</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1865999.06617642</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6.672</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6.672</v>
+      </c>
+      <c r="D210" t="n">
+        <v>6.672</v>
+      </c>
+      <c r="E210" t="n">
+        <v>6.672</v>
+      </c>
+      <c r="F210" t="n">
+        <v>8797</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1874796.06617642</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="E211" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="F211" t="n">
+        <v>8727</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1883523.06617642</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="E212" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="F212" t="n">
+        <v>51014.7916</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1934537.85777642</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="F213" t="n">
+        <v>45892.6989</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1980430.55667642</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.683</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6.683</v>
+      </c>
+      <c r="E214" t="n">
+        <v>6.682</v>
+      </c>
+      <c r="F214" t="n">
+        <v>39161.5198</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2019592.07647642</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="E215" t="n">
+        <v>6.662</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7398.0401</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2012194.036376419</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C216" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D216" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E216" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F216" t="n">
+        <v>100</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2012294.036376419</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="C217" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="D217" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="E217" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="F217" t="n">
+        <v>59897.4003</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1952396.636076419</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D218" t="n">
+        <v>6.724</v>
+      </c>
+      <c r="E218" t="n">
+        <v>6.707</v>
+      </c>
+      <c r="F218" t="n">
+        <v>152832.9029</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1799563.73317642</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6.702</v>
+      </c>
+      <c r="D219" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E219" t="n">
+        <v>6.701</v>
+      </c>
+      <c r="F219" t="n">
+        <v>43644.0115</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1755919.721676419</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
         <v>6.705</v>
       </c>
-      <c r="E150" t="n">
+      <c r="C220" t="n">
         <v>6.705</v>
       </c>
-      <c r="F150" t="n">
+      <c r="D220" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="E220" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="F220" t="n">
+        <v>76</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1755995.721676419</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="C221" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="D221" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6.705</v>
+      </c>
+      <c r="F221" t="n">
         <v>44934</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G221" t="n">
         <v>1755995.721676419</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest IOST.xlsx
+++ b/BackTest/2020-01-19 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,10 +550,14 @@
         <v>-257341.7566435701</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.663</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,19 @@
         <v>-270420.8509435701</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +628,19 @@
         <v>-261179.6115435701</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.641</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +669,19 @@
         <v>-251167.3810435701</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +713,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +752,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +788,19 @@
         <v>-255040.0257435701</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.666</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +829,19 @@
         <v>-255040.0257435701</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.674</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +870,19 @@
         <v>-255040.0257435701</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.674</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,15 +911,19 @@
         <v>-255040.0257435701</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6.674</v>
       </c>
       <c r="J14" t="n">
-        <v>6.674</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>6.663</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,15 +952,17 @@
         <v>-135040.0257435701</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.674</v>
+      </c>
       <c r="J15" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -923,15 +993,17 @@
         <v>-148037.2504435701</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.681</v>
+      </c>
       <c r="J16" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -962,11 +1034,13 @@
         <v>-133395.3268435701</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.663</v>
+      </c>
       <c r="J17" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1001,11 +1075,13 @@
         <v>-127829.2946435701</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.72</v>
+      </c>
       <c r="J18" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1044,7 +1120,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1083,7 +1159,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1122,7 +1198,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1161,7 +1237,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1200,7 +1276,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1239,7 +1315,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1278,7 +1354,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1317,7 +1393,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1356,7 +1432,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1395,7 +1471,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1434,7 +1510,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1473,7 +1549,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1512,7 +1588,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1551,7 +1627,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1586,19 +1662,19 @@
         <v>657394.7987564299</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>6.674</v>
+        <v>6.663</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.028712915792628</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr"/>
     </row>
@@ -1625,11 +1701,17 @@
         <v>657394.7987564299</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1661,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1694,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1727,8 +1821,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1760,8 +1860,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1793,8 +1899,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1826,8 +1938,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1859,8 +1977,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +2016,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1925,8 +2055,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1958,8 +2094,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1991,8 +2133,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2024,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2057,8 +2211,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2090,8 +2250,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2120,11 +2286,17 @@
         <v>624345.0086564298</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2153,11 +2325,17 @@
         <v>624345.0086564298</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2189,8 +2367,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2222,8 +2406,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2255,8 +2445,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2288,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2321,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2354,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2384,11 +2598,17 @@
         <v>1038052.43525643</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2417,11 +2637,17 @@
         <v>1098052.43525643</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2450,11 +2676,17 @@
         <v>1047255.94655643</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2483,11 +2715,17 @@
         <v>1058191.01715643</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2519,8 +2757,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2552,8 +2796,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2585,8 +2835,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2618,8 +2874,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2651,8 +2913,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2684,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2717,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2747,13 +3027,19 @@
         <v>837371.92725643</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6.663</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>1.038073690529791</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -2780,7 +3066,7 @@
         <v>837371.92725643</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2813,7 +3099,7 @@
         <v>837371.92725643</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2846,7 +3132,7 @@
         <v>845197.16505643</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2879,7 +3165,7 @@
         <v>852629.66765643</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2912,7 +3198,7 @@
         <v>951629.66765643</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2945,7 +3231,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2978,7 +3264,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3044,7 +3330,7 @@
         <v>1106048.65015643</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3077,7 +3363,7 @@
         <v>1108543.47315643</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3110,7 +3396,7 @@
         <v>1100828.92445643</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3143,7 +3429,7 @@
         <v>1100928.92445643</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3176,7 +3462,7 @@
         <v>1100526.91365643</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3209,7 +3495,7 @@
         <v>944763.29595643</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3242,7 +3528,7 @@
         <v>958549.5382564301</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3275,7 +3561,7 @@
         <v>755905.1070564301</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3308,7 +3594,7 @@
         <v>578884.1696564301</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3341,7 +3627,7 @@
         <v>576214.1696564301</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3374,7 +3660,7 @@
         <v>943355.0242564301</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3407,7 +3693,7 @@
         <v>943711.76085643</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3440,7 +3726,7 @@
         <v>845711.76085643</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3473,7 +3759,7 @@
         <v>859352.15595643</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3506,7 +3792,7 @@
         <v>873978.05235643</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3539,7 +3825,7 @@
         <v>842513.52465643</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3572,7 +3858,7 @@
         <v>848664.16235643</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3605,7 +3891,7 @@
         <v>848664.16235643</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3638,7 +3924,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3671,7 +3957,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3704,7 +3990,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3737,7 +4023,7 @@
         <v>850230.0751564299</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3770,7 +4056,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3803,7 +4089,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3836,7 +4122,7 @@
         <v>773187.8897564298</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3869,7 +4155,7 @@
         <v>760140.1115564299</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3902,7 +4188,7 @@
         <v>759777.6115564299</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3935,7 +4221,7 @@
         <v>759327.6115564299</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3968,7 +4254,7 @@
         <v>691220.8791564299</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4001,7 +4287,7 @@
         <v>98383.05915642995</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4034,7 +4320,7 @@
         <v>38383.05915642995</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4067,7 +4353,7 @@
         <v>-79005.64344357005</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4100,7 +4386,7 @@
         <v>-119232.88864357</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4133,7 +4419,7 @@
         <v>-119132.88864357</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4166,7 +4452,7 @@
         <v>-117826.47624357</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4199,7 +4485,7 @@
         <v>-117826.47624357</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4232,7 +4518,7 @@
         <v>-677606.6006435701</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4265,7 +4551,7 @@
         <v>-465606.6006435701</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4298,7 +4584,7 @@
         <v>-473593.0410435701</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4331,7 +4617,7 @@
         <v>-473593.0410435701</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4364,7 +4650,7 @@
         <v>-473593.0410435701</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4430,7 +4716,7 @@
         <v>-478091.9676435701</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4463,7 +4749,7 @@
         <v>-480791.9676435701</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4496,7 +4782,7 @@
         <v>-483975.7991435701</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4529,7 +4815,7 @@
         <v>-483975.7991435701</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4562,7 +4848,7 @@
         <v>-462485.7991435701</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4595,7 +4881,7 @@
         <v>-468285.7991435701</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4628,7 +4914,7 @@
         <v>-18473.90694357007</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4661,7 +4947,7 @@
         <v>-18473.90694357007</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4694,7 +4980,7 @@
         <v>-18473.90694357007</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4727,7 +5013,7 @@
         <v>-18473.90694357007</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5321,10 +5607,14 @@
         <v>-132404.7014435701</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="J146" t="n">
+        <v>6.53</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5354,11 +5644,19 @@
         <v>-132404.7014435701</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="J147" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +5685,19 @@
         <v>-620020.8410435701</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="J148" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5726,19 @@
         <v>-616761.0984435701</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>6.522</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +5767,19 @@
         <v>179109.7027564299</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5486,15 +5808,19 @@
         <v>179265.4973564299</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>6.58</v>
       </c>
       <c r="J151" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+        <v>6.53</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5523,15 +5849,17 @@
         <v>200128.4237564299</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>6.614</v>
+      </c>
       <c r="J152" t="n">
-        <v>6.58</v>
+        <v>6.53</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -5562,15 +5890,17 @@
         <v>193320.1128564299</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>6.623</v>
+      </c>
       <c r="J153" t="n">
-        <v>6.58</v>
+        <v>6.53</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5601,11 +5931,19 @@
         <v>193570.1128564299</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="J154" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +5975,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5670,8 +6014,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5703,8 +6053,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5736,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5769,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5802,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5835,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5868,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5901,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5934,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5967,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6000,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6033,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6066,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6099,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6132,8 +6560,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6165,8 +6599,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6198,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6228,15 +6674,17 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>6.748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>6.748</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+        <v>6.53</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6265,17 +6713,15 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>6.748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L174" t="n">
@@ -6306,17 +6752,15 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>6.748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
@@ -6347,17 +6791,15 @@
         <v>1236483.45967642</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>6.748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
@@ -6388,13 +6830,11 @@
         <v>1356483.45967642</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>6.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6429,13 +6869,11 @@
         <v>1348942.61067642</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>6.678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6470,13 +6908,11 @@
         <v>1367477.13477642</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>6.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6511,13 +6947,11 @@
         <v>1346012.13477642</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>6.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6552,13 +6986,11 @@
         <v>1352347.46077642</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>6.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6593,13 +7025,11 @@
         <v>1349217.04077642</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>6.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6634,13 +7064,11 @@
         <v>1370079.97077642</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>6.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6675,13 +7103,11 @@
         <v>1418149.84297642</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>6.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6716,13 +7142,11 @@
         <v>1611127.31857642</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>6.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6757,13 +7181,11 @@
         <v>1611127.31857642</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>6.709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6798,13 +7220,11 @@
         <v>1623294.10427642</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>6.709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6843,7 +7263,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6882,7 +7302,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6921,7 +7341,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6960,7 +7380,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6999,7 +7419,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7038,7 +7458,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7077,7 +7497,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7116,7 +7536,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7155,7 +7575,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7194,7 +7614,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7233,7 +7653,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7272,7 +7692,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7311,7 +7731,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7350,7 +7770,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7389,7 +7809,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7428,7 +7848,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7467,7 +7887,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7506,7 +7926,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7545,7 +7965,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7584,7 +8004,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7623,7 +8043,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7662,7 +8082,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7701,7 +8121,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7740,7 +8160,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7779,7 +8199,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7818,7 +8238,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7857,7 +8277,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7896,7 +8316,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7935,7 +8355,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7974,7 +8394,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8013,7 +8433,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8052,7 +8472,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8091,7 +8511,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8130,7 +8550,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>6.748</v>
+        <v>6.53</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8143,6 +8563,6 @@
       <c r="M221" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest IOST.xlsx
+++ b/BackTest/2020-01-19 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>-257341.7566435701</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>-270420.8509435701</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,19 +616,11 @@
         <v>-261179.6115435701</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.641</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,19 +649,11 @@
         <v>-251167.3810435701</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -713,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -752,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,19 +748,11 @@
         <v>-255040.0257435701</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.666</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -829,19 +781,11 @@
         <v>-255040.0257435701</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.674</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -870,19 +814,11 @@
         <v>-255040.0257435701</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.674</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -911,19 +847,11 @@
         <v>-255040.0257435701</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.674</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,19 +880,11 @@
         <v>-135040.0257435701</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.674</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -993,19 +913,11 @@
         <v>-148037.2504435701</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1034,19 +946,11 @@
         <v>-133395.3268435701</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1075,19 +979,11 @@
         <v>-127829.2946435701</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1116,17 +1012,11 @@
         <v>-4638.199743570076</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1155,17 +1045,11 @@
         <v>-4638.199743570076</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1194,17 +1078,11 @@
         <v>59756.78565642992</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1233,17 +1111,11 @@
         <v>59756.78565642992</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1272,17 +1144,11 @@
         <v>156756.7856564299</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1311,17 +1177,11 @@
         <v>155535.7856564299</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1350,17 +1210,11 @@
         <v>159298.3241564299</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1392,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1431,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1470,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1509,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1548,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1584,17 +1408,11 @@
         <v>601394.7987564299</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1743,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1782,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1860,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1899,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1938,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1977,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2055,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2094,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2133,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2172,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2367,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2406,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2523,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2562,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2601,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2640,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2679,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2757,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2835,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2874,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2913,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2952,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2991,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3027,19 +2629,13 @@
         <v>837371.92725643</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>6.663</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>1.038073690529791</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -3066,7 +2662,7 @@
         <v>837371.92725643</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3099,7 +2695,7 @@
         <v>837371.92725643</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3132,7 +2728,7 @@
         <v>845197.16505643</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3165,7 +2761,7 @@
         <v>852629.66765643</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3198,7 +2794,7 @@
         <v>951629.66765643</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3231,7 +2827,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3264,7 +2860,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3330,7 +2926,7 @@
         <v>1106048.65015643</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3363,7 +2959,7 @@
         <v>1108543.47315643</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3396,7 +2992,7 @@
         <v>1100828.92445643</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3429,7 +3025,7 @@
         <v>1100928.92445643</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3462,7 +3058,7 @@
         <v>1100526.91365643</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3495,7 +3091,7 @@
         <v>944763.29595643</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3528,7 +3124,7 @@
         <v>958549.5382564301</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3561,7 +3157,7 @@
         <v>755905.1070564301</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3594,7 +3190,7 @@
         <v>578884.1696564301</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3627,7 +3223,7 @@
         <v>576214.1696564301</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3660,7 +3256,7 @@
         <v>943355.0242564301</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3693,7 +3289,7 @@
         <v>943711.76085643</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3726,7 +3322,7 @@
         <v>845711.76085643</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3759,7 +3355,7 @@
         <v>859352.15595643</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3792,7 +3388,7 @@
         <v>873978.05235643</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3825,7 +3421,7 @@
         <v>842513.52465643</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3858,7 +3454,7 @@
         <v>848664.16235643</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3891,7 +3487,7 @@
         <v>848664.16235643</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3924,7 +3520,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3957,7 +3553,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3990,7 +3586,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4023,7 +3619,7 @@
         <v>850230.0751564299</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4056,7 +3652,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4089,7 +3685,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4122,7 +3718,7 @@
         <v>773187.8897564298</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4155,7 +3751,7 @@
         <v>760140.1115564299</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4188,7 +3784,7 @@
         <v>759777.6115564299</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4221,7 +3817,7 @@
         <v>759327.6115564299</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4254,7 +3850,7 @@
         <v>691220.8791564299</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4287,7 +3883,7 @@
         <v>98383.05915642995</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4320,7 +3916,7 @@
         <v>38383.05915642995</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4353,7 +3949,7 @@
         <v>-79005.64344357005</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4386,7 +3982,7 @@
         <v>-119232.88864357</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4419,7 +4015,7 @@
         <v>-119132.88864357</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4452,7 +4048,7 @@
         <v>-117826.47624357</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4485,7 +4081,7 @@
         <v>-117826.47624357</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4518,7 +4114,7 @@
         <v>-677606.6006435701</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -5541,10 +5137,14 @@
         <v>-132404.7014435701</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="J144" t="n">
+        <v>6.53</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5574,11 +5174,19 @@
         <v>-132404.7014435701</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="J145" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5615,7 +5223,11 @@
       <c r="J146" t="n">
         <v>6.53</v>
       </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5652,11 +5264,7 @@
       <c r="J147" t="n">
         <v>6.53</v>
       </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5767,11 +5375,9 @@
         <v>179109.7027564299</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>6.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>6.53</v>
       </c>
@@ -5808,11 +5414,9 @@
         <v>179265.4973564299</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>6.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>6.53</v>
       </c>
@@ -5849,11 +5453,9 @@
         <v>200128.4237564299</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>6.614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>6.53</v>
       </c>
@@ -5890,11 +5492,9 @@
         <v>193320.1128564299</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>6.623</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>6.53</v>
       </c>
@@ -5931,11 +5531,9 @@
         <v>193570.1128564299</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>6.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>6.53</v>
       </c>
@@ -6557,7 +6155,7 @@
         <v>365671.1138764199</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
@@ -6565,11 +6163,11 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1</v>
+        <v>1.028078101071976</v>
       </c>
       <c r="M170" t="inlineStr"/>
     </row>
@@ -6599,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6635,17 +6227,11 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6674,17 +6260,11 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6713,17 +6293,11 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6752,17 +6326,11 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6791,17 +6359,11 @@
         <v>1236483.45967642</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6830,17 +6392,11 @@
         <v>1356483.45967642</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6869,17 +6425,11 @@
         <v>1348942.61067642</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6911,14 +6461,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6950,14 +6494,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6989,14 +6527,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7028,14 +6560,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7067,14 +6593,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7106,14 +6626,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7145,14 +6659,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7181,17 +6689,11 @@
         <v>1611127.31857642</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7220,17 +6722,11 @@
         <v>1623294.10427642</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7259,17 +6755,11 @@
         <v>1620328.64427642</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7298,17 +6788,11 @@
         <v>1620328.64427642</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7337,17 +6821,11 @@
         <v>1639376.55947642</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7376,17 +6854,11 @@
         <v>1490857.25577642</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7415,17 +6887,11 @@
         <v>1400735.42227642</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7454,17 +6920,11 @@
         <v>1419819.31227642</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7493,17 +6953,11 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7532,17 +6986,11 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7571,17 +7019,11 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7610,17 +7052,11 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7649,17 +7085,11 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7688,17 +7118,11 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7727,17 +7151,11 @@
         <v>1834871.65277642</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7766,17 +7184,11 @@
         <v>1835933.50797642</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7805,17 +7217,11 @@
         <v>1720772.98707642</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7844,17 +7250,11 @@
         <v>1795353.91197642</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7886,14 +7286,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7925,14 +7319,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7964,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8003,14 +7385,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8042,14 +7418,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8081,14 +7451,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8120,14 +7484,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8159,14 +7517,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8198,14 +7550,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8237,14 +7583,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8276,14 +7616,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8315,14 +7649,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8354,14 +7682,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8393,14 +7715,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8432,14 +7748,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8471,14 +7781,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8510,14 +7814,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8549,20 +7847,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
       <c r="M221" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest IOST.xlsx
+++ b/BackTest/2020-01-19 BackTest IOST.xlsx
@@ -979,7 +979,7 @@
         <v>-127829.2946435701</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4638.199743570076</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4638.199743570076</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>59756.78565642992</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>59756.78565642992</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>156756.7856564299</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>155535.7856564299</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>159298.3241564299</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>601394.7987564299</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1047255.94655643</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1074549.00445643</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1128842.82415643</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1128842.82415643</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>870673.51895643</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>837371.92725643</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>951629.66765643</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1191629.66765643</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1106048.65015643</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1106048.65015643</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1108543.47315643</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1100828.92445643</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1100928.92445643</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1100526.91365643</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>944763.29595643</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>958549.5382564301</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>755905.1070564301</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>578884.1696564301</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>576214.1696564301</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>943355.0242564301</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>943711.76085643</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>845711.76085643</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>859352.15595643</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>885480.7314564299</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>850230.0751564299</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>850323.0582564299</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>773187.8897564298</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>760140.1115564299</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>759777.6115564299</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -5137,14 +5137,10 @@
         <v>-132404.7014435701</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="J144" t="n">
-        <v>6.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5182,11 +5178,7 @@
       <c r="J145" t="n">
         <v>6.53</v>
       </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5264,7 +5256,11 @@
       <c r="J147" t="n">
         <v>6.53</v>
       </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5375,9 +5371,11 @@
         <v>179109.7027564299</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>6.57</v>
+      </c>
       <c r="J150" t="n">
         <v>6.53</v>
       </c>
@@ -5414,9 +5412,11 @@
         <v>179265.4973564299</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6.58</v>
+      </c>
       <c r="J151" t="n">
         <v>6.53</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>365671.1138764199</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
@@ -6163,11 +6163,11 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.028078101071976</v>
+        <v>1</v>
       </c>
       <c r="M170" t="inlineStr"/>
     </row>
@@ -6197,8 +6197,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6227,11 +6233,17 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6260,11 +6272,17 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6293,11 +6311,17 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6326,11 +6350,17 @@
         <v>1237667.71117642</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6359,11 +6389,17 @@
         <v>1236483.45967642</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6392,11 +6428,17 @@
         <v>1356483.45967642</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6425,11 +6467,17 @@
         <v>1348942.61067642</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6461,8 +6509,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6494,8 +6548,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6527,8 +6587,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6560,8 +6626,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6593,8 +6665,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6626,8 +6704,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6659,8 +6743,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +6779,17 @@
         <v>1611127.31857642</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6722,11 +6818,17 @@
         <v>1623294.10427642</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6755,11 +6857,17 @@
         <v>1620328.64427642</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6788,11 +6896,17 @@
         <v>1620328.64427642</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6821,11 +6935,17 @@
         <v>1639376.55947642</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6854,11 +6974,17 @@
         <v>1490857.25577642</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6887,11 +7013,17 @@
         <v>1400735.42227642</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +7052,17 @@
         <v>1419819.31227642</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6953,11 +7091,17 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6986,11 +7130,17 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7019,11 +7169,17 @@
         <v>1718053.95967642</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7052,11 +7208,17 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7085,11 +7247,17 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7118,11 +7286,17 @@
         <v>1809658.72427642</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7151,11 +7325,17 @@
         <v>1834871.65277642</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7184,11 +7364,17 @@
         <v>1835933.50797642</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7217,11 +7403,17 @@
         <v>1720772.98707642</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7250,11 +7442,17 @@
         <v>1795353.91197642</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7286,8 +7484,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7319,8 +7523,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +7562,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7385,8 +7601,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7418,8 +7640,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7451,8 +7679,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7484,8 +7718,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7517,8 +7757,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7550,8 +7796,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7583,8 +7835,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7616,8 +7874,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7649,8 +7913,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7682,8 +7952,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7715,8 +7991,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7748,8 +8030,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7781,8 +8069,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7814,8 +8108,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7847,8 +8147,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-19 BackTest IOST.xlsx
+++ b/BackTest/2020-01-19 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>711.0413</v>
       </c>
       <c r="G2" t="n">
-        <v>-1504.726743570099</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>247222.0471</v>
       </c>
       <c r="G3" t="n">
-        <v>-248726.7738435701</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>8614.9828</v>
       </c>
       <c r="G4" t="n">
-        <v>-257341.7566435701</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3297.9828</v>
       </c>
       <c r="G5" t="n">
-        <v>-257341.7566435701</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>13079.0943</v>
       </c>
       <c r="G6" t="n">
-        <v>-270420.8509435701</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>9241.2394</v>
       </c>
       <c r="G7" t="n">
-        <v>-261179.6115435701</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10012.2305</v>
       </c>
       <c r="G8" t="n">
-        <v>-251167.3810435701</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>13009.4626</v>
       </c>
       <c r="G9" t="n">
-        <v>-264176.8436435701</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>8621.893599999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-272798.7372435701</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>17758.7115</v>
       </c>
       <c r="G11" t="n">
-        <v>-255040.0257435701</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>53690.107</v>
       </c>
       <c r="G12" t="n">
-        <v>-255040.0257435701</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>206309.7308</v>
       </c>
       <c r="G13" t="n">
-        <v>-255040.0257435701</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>122241.4507</v>
       </c>
       <c r="G14" t="n">
-        <v>-255040.0257435701</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>120000</v>
       </c>
       <c r="G15" t="n">
-        <v>-135040.0257435701</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>12997.2247</v>
       </c>
       <c r="G16" t="n">
-        <v>-148037.2504435701</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>14641.9236</v>
       </c>
       <c r="G17" t="n">
-        <v>-133395.3268435701</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>5566.0322</v>
       </c>
       <c r="G18" t="n">
-        <v>-127829.2946435701</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>123191.0949</v>
       </c>
       <c r="G19" t="n">
-        <v>-4638.199743570076</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>89012.86079999999</v>
       </c>
       <c r="G20" t="n">
-        <v>-4638.199743570076</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>64394.9854</v>
       </c>
       <c r="G21" t="n">
-        <v>59756.78565642992</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3460.7989</v>
       </c>
       <c r="G22" t="n">
-        <v>59756.78565642992</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>97000</v>
       </c>
       <c r="G23" t="n">
-        <v>156756.7856564299</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1221</v>
       </c>
       <c r="G24" t="n">
-        <v>155535.7856564299</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3762.5385</v>
       </c>
       <c r="G25" t="n">
-        <v>159298.3241564299</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>8863.2346</v>
       </c>
       <c r="G26" t="n">
-        <v>150435.0895564299</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>18505.7311</v>
       </c>
       <c r="G27" t="n">
-        <v>150435.0895564299</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>13335</v>
       </c>
       <c r="G28" t="n">
-        <v>137100.0895564299</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>5000</v>
       </c>
       <c r="G29" t="n">
-        <v>142100.0895564299</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>544294.7092</v>
       </c>
       <c r="G30" t="n">
-        <v>686394.7987564299</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>85000</v>
       </c>
       <c r="G31" t="n">
-        <v>601394.7987564299</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>20000</v>
       </c>
       <c r="G32" t="n">
-        <v>581394.7987564299</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>76000</v>
       </c>
       <c r="G33" t="n">
-        <v>657394.7987564299</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>92000</v>
       </c>
       <c r="G34" t="n">
-        <v>657394.7987564299</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>7423.8785</v>
       </c>
       <c r="G35" t="n">
-        <v>649970.9202564299</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>162564.154</v>
       </c>
       <c r="G36" t="n">
-        <v>812535.0742564299</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>167826.5816</v>
       </c>
       <c r="G37" t="n">
-        <v>644708.4926564299</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>517538.0622</v>
       </c>
       <c r="G38" t="n">
-        <v>644708.4926564299</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>171840.4403</v>
       </c>
       <c r="G39" t="n">
-        <v>472868.0523564299</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>11394.0328</v>
       </c>
       <c r="G40" t="n">
-        <v>472868.0523564299</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>127907.6713</v>
       </c>
       <c r="G41" t="n">
-        <v>600775.7236564299</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>6029.7904</v>
       </c>
       <c r="G42" t="n">
-        <v>594745.9332564299</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>39588.8766</v>
       </c>
       <c r="G43" t="n">
-        <v>634334.8098564298</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>827720.9135</v>
       </c>
       <c r="G44" t="n">
-        <v>634334.8098564298</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>478398.1656</v>
       </c>
       <c r="G45" t="n">
-        <v>634334.8098564298</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>15038.3157</v>
       </c>
       <c r="G46" t="n">
-        <v>619296.4941564298</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>5048.5145</v>
       </c>
       <c r="G47" t="n">
-        <v>624345.0086564298</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>42753.3525</v>
       </c>
       <c r="G48" t="n">
-        <v>624345.0086564298</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>306160.5771</v>
       </c>
       <c r="G49" t="n">
-        <v>624345.0086564298</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>245602.4374</v>
       </c>
       <c r="G50" t="n">
-        <v>624345.0086564298</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>12385.2451</v>
       </c>
       <c r="G51" t="n">
-        <v>636730.2537564298</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>131402.9462</v>
       </c>
       <c r="G52" t="n">
-        <v>768133.1999564298</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>26335.3961</v>
       </c>
       <c r="G53" t="n">
-        <v>768133.1999564298</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>107041.0688</v>
       </c>
       <c r="G54" t="n">
-        <v>875174.2687564298</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>53726.6674</v>
       </c>
       <c r="G55" t="n">
-        <v>875174.2687564298</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>90121.83349999999</v>
       </c>
       <c r="G56" t="n">
-        <v>785052.4352564298</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>253000</v>
       </c>
       <c r="G57" t="n">
-        <v>1038052.43525643</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>60000</v>
       </c>
       <c r="G58" t="n">
-        <v>1098052.43525643</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>50796.4887</v>
       </c>
       <c r="G59" t="n">
-        <v>1047255.94655643</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>10935.0706</v>
       </c>
       <c r="G60" t="n">
-        <v>1058191.01715643</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1564.7129</v>
       </c>
       <c r="G61" t="n">
-        <v>1058191.01715643</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>10935.0706</v>
       </c>
       <c r="G62" t="n">
-        <v>1047255.94655643</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>27293.0579</v>
       </c>
       <c r="G63" t="n">
-        <v>1074549.00445643</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>54293.8197</v>
       </c>
       <c r="G64" t="n">
-        <v>1128842.82415643</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>232660.6934</v>
       </c>
       <c r="G65" t="n">
-        <v>1128842.82415643</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>258169.3052</v>
       </c>
       <c r="G66" t="n">
-        <v>870673.51895643</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>33301.5917</v>
       </c>
       <c r="G67" t="n">
-        <v>837371.92725643</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>116296.6642</v>
       </c>
       <c r="G68" t="n">
-        <v>837371.92725643</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>160625.1226</v>
       </c>
       <c r="G69" t="n">
-        <v>837371.92725643</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>9297.266100000001</v>
       </c>
       <c r="G70" t="n">
-        <v>837371.92725643</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>7825.2378</v>
       </c>
       <c r="G71" t="n">
-        <v>845197.16505643</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>7432.5026</v>
       </c>
       <c r="G72" t="n">
-        <v>852629.66765643</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>99000</v>
       </c>
       <c r="G73" t="n">
-        <v>951629.66765643</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>240000</v>
       </c>
       <c r="G74" t="n">
-        <v>1191629.66765643</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>385330.6953</v>
       </c>
       <c r="G75" t="n">
-        <v>1191629.66765643</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>85581.0175</v>
       </c>
       <c r="G76" t="n">
-        <v>1106048.65015643</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>100521.3735</v>
       </c>
       <c r="G77" t="n">
-        <v>1106048.65015643</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2494.823</v>
       </c>
       <c r="G78" t="n">
-        <v>1108543.47315643</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>7714.5487</v>
       </c>
       <c r="G79" t="n">
-        <v>1100828.92445643</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>1100928.92445643</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>402.0108</v>
       </c>
       <c r="G81" t="n">
-        <v>1100526.91365643</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>155763.6177</v>
       </c>
       <c r="G82" t="n">
-        <v>944763.29595643</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>13786.2423</v>
       </c>
       <c r="G83" t="n">
-        <v>958549.5382564301</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>202644.4312</v>
       </c>
       <c r="G84" t="n">
-        <v>755905.1070564301</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>177020.9374</v>
       </c>
       <c r="G85" t="n">
-        <v>578884.1696564301</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2670</v>
       </c>
       <c r="G86" t="n">
-        <v>576214.1696564301</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>367140.8546</v>
       </c>
       <c r="G87" t="n">
-        <v>943355.0242564301</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>356.7366</v>
       </c>
       <c r="G88" t="n">
-        <v>943711.76085643</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>98000</v>
       </c>
       <c r="G89" t="n">
-        <v>845711.76085643</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>13640.3951</v>
       </c>
       <c r="G90" t="n">
-        <v>859352.15595643</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>14625.8964</v>
       </c>
       <c r="G91" t="n">
-        <v>873978.05235643</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>31464.5277</v>
       </c>
       <c r="G92" t="n">
-        <v>842513.52465643</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>6150.6377</v>
       </c>
       <c r="G93" t="n">
-        <v>848664.16235643</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>3266.3171</v>
       </c>
       <c r="G94" t="n">
-        <v>848664.16235643</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>36816.5691</v>
       </c>
       <c r="G95" t="n">
-        <v>885480.7314564299</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>3300.516</v>
       </c>
       <c r="G96" t="n">
-        <v>885480.7314564299</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>11659.7394</v>
       </c>
       <c r="G97" t="n">
-        <v>885480.7314564299</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>35250.6563</v>
       </c>
       <c r="G98" t="n">
-        <v>850230.0751564299</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>92.98309999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>850323.0582564299</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>94246.3502</v>
       </c>
       <c r="G100" t="n">
-        <v>850323.0582564299</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>77135.1685</v>
       </c>
       <c r="G101" t="n">
-        <v>773187.8897564298</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>13047.7782</v>
       </c>
       <c r="G102" t="n">
-        <v>760140.1115564299</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>362.5</v>
       </c>
       <c r="G103" t="n">
-        <v>759777.6115564299</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>450</v>
       </c>
       <c r="G104" t="n">
-        <v>759327.6115564299</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>68106.73239999999</v>
       </c>
       <c r="G105" t="n">
-        <v>691220.8791564299</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>592837.8199999999</v>
       </c>
       <c r="G106" t="n">
-        <v>98383.05915642995</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>60000</v>
       </c>
       <c r="G107" t="n">
-        <v>38383.05915642995</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>117388.7026</v>
       </c>
       <c r="G108" t="n">
-        <v>-79005.64344357005</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>40227.2452</v>
       </c>
       <c r="G109" t="n">
-        <v>-119232.88864357</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>-119132.88864357</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1306.4124</v>
       </c>
       <c r="G111" t="n">
-        <v>-117826.47624357</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>66396.8426</v>
       </c>
       <c r="G112" t="n">
-        <v>-117826.47624357</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>559780.1244</v>
       </c>
       <c r="G113" t="n">
-        <v>-677606.6006435701</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>212000</v>
       </c>
       <c r="G114" t="n">
-        <v>-465606.6006435701</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>7986.4404</v>
       </c>
       <c r="G115" t="n">
-        <v>-473593.0410435701</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>44084.2953</v>
       </c>
       <c r="G116" t="n">
-        <v>-473593.0410435701</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>1024.8579</v>
       </c>
       <c r="G117" t="n">
-        <v>-473593.0410435701</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>15507.4166</v>
       </c>
       <c r="G118" t="n">
-        <v>-489100.4576435701</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>11008.49</v>
       </c>
       <c r="G119" t="n">
-        <v>-478091.9676435701</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>2700</v>
       </c>
       <c r="G120" t="n">
-        <v>-480791.9676435701</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>3183.8315</v>
       </c>
       <c r="G121" t="n">
-        <v>-483975.7991435701</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>27293.0579</v>
       </c>
       <c r="G122" t="n">
-        <v>-483975.7991435701</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>21490</v>
       </c>
       <c r="G123" t="n">
-        <v>-462485.7991435701</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>5800</v>
       </c>
       <c r="G124" t="n">
-        <v>-468285.7991435701</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>449811.8922</v>
       </c>
       <c r="G125" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>7476.4111</v>
       </c>
       <c r="G126" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>763855.7712</v>
       </c>
       <c r="G127" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>164621.8313</v>
       </c>
       <c r="G128" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>46504.4765</v>
       </c>
       <c r="G129" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>199864.3642</v>
       </c>
       <c r="G130" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>229015.9878</v>
       </c>
       <c r="G131" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>35810.7432</v>
       </c>
       <c r="G132" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>147350.5938</v>
       </c>
       <c r="G133" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>494102.877</v>
       </c>
       <c r="G134" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>542140.2277</v>
       </c>
       <c r="G135" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>10000</v>
       </c>
       <c r="G136" t="n">
-        <v>-18473.90694357007</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>14541.5592</v>
       </c>
       <c r="G137" t="n">
-        <v>-33015.46614357007</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>155.5241</v>
       </c>
       <c r="G138" t="n">
-        <v>-32859.94204357007</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>12808.2815</v>
       </c>
       <c r="G139" t="n">
-        <v>-45668.22354357006</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>14603.8343</v>
       </c>
       <c r="G140" t="n">
-        <v>-45668.22354357006</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>86736.4779</v>
       </c>
       <c r="G141" t="n">
-        <v>-132404.7014435701</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>1227293.1032</v>
       </c>
       <c r="G142" t="n">
-        <v>-132404.7014435701</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>274411.9141</v>
       </c>
       <c r="G143" t="n">
-        <v>-132404.7014435701</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>296103.9752</v>
       </c>
       <c r="G144" t="n">
-        <v>-132404.7014435701</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,22 +4733,15 @@
         <v>258622.7932</v>
       </c>
       <c r="G145" t="n">
-        <v>-132404.7014435701</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="J145" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5204,26 +4763,15 @@
         <v>500799.6933</v>
       </c>
       <c r="G146" t="n">
-        <v>-132404.7014435701</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="J146" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5245,26 +4793,15 @@
         <v>305701.7363</v>
       </c>
       <c r="G147" t="n">
-        <v>-132404.7014435701</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="J147" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5286,26 +4823,21 @@
         <v>487616.1396</v>
       </c>
       <c r="G148" t="n">
-        <v>-620020.8410435701</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
         <v>6.53</v>
       </c>
-      <c r="J148" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K148" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5327,26 +4859,21 @@
         <v>3259.7426</v>
       </c>
       <c r="G149" t="n">
-        <v>-616761.0984435701</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
         <v>6.522</v>
       </c>
-      <c r="J149" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5368,26 +4895,21 @@
         <v>795870.8012</v>
       </c>
       <c r="G150" t="n">
-        <v>179109.7027564299</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
         <v>6.57</v>
       </c>
-      <c r="J150" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K150" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5409,26 +4931,21 @@
         <v>155.7946</v>
       </c>
       <c r="G151" t="n">
-        <v>179265.4973564299</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
         <v>6.58</v>
       </c>
-      <c r="J151" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K151" t="inlineStr">
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5450,24 +4967,21 @@
         <v>20862.9264</v>
       </c>
       <c r="G152" t="n">
-        <v>200128.4237564299</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>6.614</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K152" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5489,24 +5003,19 @@
         <v>6808.3109</v>
       </c>
       <c r="G153" t="n">
-        <v>193320.1128564299</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5528,24 +5037,19 @@
         <v>250</v>
       </c>
       <c r="G154" t="n">
-        <v>193570.1128564299</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5567,24 +5071,19 @@
         <v>6809.2226</v>
       </c>
       <c r="G155" t="n">
-        <v>186760.8902564299</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5606,24 +5105,19 @@
         <v>4364.2994</v>
       </c>
       <c r="G156" t="n">
-        <v>191125.1896564299</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5645,24 +5139,19 @@
         <v>61355.3124</v>
       </c>
       <c r="G157" t="n">
-        <v>252480.5020564299</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5684,24 +5173,19 @@
         <v>123597.1157</v>
       </c>
       <c r="G158" t="n">
-        <v>252480.5020564299</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K158" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5723,24 +5207,19 @@
         <v>1007.65</v>
       </c>
       <c r="G159" t="n">
-        <v>251472.8520564299</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5762,24 +5241,19 @@
         <v>1800</v>
       </c>
       <c r="G160" t="n">
-        <v>253272.8520564299</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5801,24 +5275,19 @@
         <v>74955.97139999999</v>
       </c>
       <c r="G161" t="n">
-        <v>328228.8234564299</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5840,24 +5309,19 @@
         <v>9115.217699999999</v>
       </c>
       <c r="G162" t="n">
-        <v>337344.0411564299</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5879,24 +5343,19 @@
         <v>102500</v>
       </c>
       <c r="G163" t="n">
-        <v>439844.0411564299</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5918,24 +5377,19 @@
         <v>155.3265</v>
       </c>
       <c r="G164" t="n">
-        <v>439999.3676564299</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5957,24 +5411,19 @@
         <v>734475.9292</v>
       </c>
       <c r="G165" t="n">
-        <v>439999.3676564299</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5996,24 +5445,19 @@
         <v>826025.3173</v>
       </c>
       <c r="G166" t="n">
-        <v>439999.3676564299</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6035,24 +5479,19 @@
         <v>117127.3178</v>
       </c>
       <c r="G167" t="n">
-        <v>439999.3676564299</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6074,24 +5513,19 @@
         <v>2739506.6445</v>
       </c>
       <c r="G168" t="n">
-        <v>439999.3676564299</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6113,24 +5547,19 @@
         <v>100</v>
       </c>
       <c r="G169" t="n">
-        <v>440099.3676564299</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K169" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6152,24 +5581,19 @@
         <v>74428.25378001</v>
       </c>
       <c r="G170" t="n">
-        <v>365671.1138764199</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K170" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6191,24 +5615,19 @@
         <v>1067650.7652</v>
       </c>
       <c r="G171" t="n">
-        <v>1433321.87907642</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6230,24 +5649,19 @@
         <v>195654.1679</v>
       </c>
       <c r="G172" t="n">
-        <v>1237667.71117642</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K172" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6269,24 +5683,19 @@
         <v>123757.5905</v>
       </c>
       <c r="G173" t="n">
-        <v>1237667.71117642</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K173" t="inlineStr">
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6308,24 +5717,19 @@
         <v>65542.3797</v>
       </c>
       <c r="G174" t="n">
-        <v>1237667.71117642</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K174" t="inlineStr">
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6347,24 +5751,19 @@
         <v>169562.9781</v>
       </c>
       <c r="G175" t="n">
-        <v>1237667.71117642</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K175" t="inlineStr">
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6386,24 +5785,19 @@
         <v>1184.2515</v>
       </c>
       <c r="G176" t="n">
-        <v>1236483.45967642</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K176" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6425,24 +5819,19 @@
         <v>120000</v>
       </c>
       <c r="G177" t="n">
-        <v>1356483.45967642</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K177" t="inlineStr">
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6464,24 +5853,19 @@
         <v>7540.849</v>
       </c>
       <c r="G178" t="n">
-        <v>1348942.61067642</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K178" t="inlineStr">
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6503,24 +5887,19 @@
         <v>18534.5241</v>
       </c>
       <c r="G179" t="n">
-        <v>1367477.13477642</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6542,24 +5921,19 @@
         <v>21465</v>
       </c>
       <c r="G180" t="n">
-        <v>1346012.13477642</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K180" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6581,24 +5955,19 @@
         <v>6335.326</v>
       </c>
       <c r="G181" t="n">
-        <v>1352347.46077642</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K181" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6620,24 +5989,19 @@
         <v>3130.42</v>
       </c>
       <c r="G182" t="n">
-        <v>1349217.04077642</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K182" t="inlineStr">
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6659,24 +6023,19 @@
         <v>20862.93</v>
       </c>
       <c r="G183" t="n">
-        <v>1370079.97077642</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K183" t="inlineStr">
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6698,24 +6057,19 @@
         <v>48069.8722</v>
       </c>
       <c r="G184" t="n">
-        <v>1418149.84297642</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6737,24 +6091,19 @@
         <v>192977.4756</v>
       </c>
       <c r="G185" t="n">
-        <v>1611127.31857642</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6776,24 +6125,19 @@
         <v>59037.6235</v>
       </c>
       <c r="G186" t="n">
-        <v>1611127.31857642</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K186" t="inlineStr">
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6815,24 +6159,19 @@
         <v>12166.7857</v>
       </c>
       <c r="G187" t="n">
-        <v>1623294.10427642</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K187" t="inlineStr">
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6854,24 +6193,19 @@
         <v>2965.46</v>
       </c>
       <c r="G188" t="n">
-        <v>1620328.64427642</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K188" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6893,24 +6227,19 @@
         <v>157.313</v>
       </c>
       <c r="G189" t="n">
-        <v>1620328.64427642</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K189" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6932,24 +6261,19 @@
         <v>19047.9152</v>
       </c>
       <c r="G190" t="n">
-        <v>1639376.55947642</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K190" t="inlineStr">
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6971,24 +6295,19 @@
         <v>148519.3037</v>
       </c>
       <c r="G191" t="n">
-        <v>1490857.25577642</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K191" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7010,24 +6329,19 @@
         <v>90121.83349999999</v>
       </c>
       <c r="G192" t="n">
-        <v>1400735.42227642</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7049,24 +6363,19 @@
         <v>19083.89</v>
       </c>
       <c r="G193" t="n">
-        <v>1419819.31227642</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K193" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7088,24 +6397,19 @@
         <v>298234.6474</v>
       </c>
       <c r="G194" t="n">
-        <v>1718053.95967642</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K194" t="inlineStr">
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7127,24 +6431,19 @@
         <v>453615.4908</v>
       </c>
       <c r="G195" t="n">
-        <v>1718053.95967642</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K195" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7166,24 +6465,19 @@
         <v>381394.8479</v>
       </c>
       <c r="G196" t="n">
-        <v>1718053.95967642</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K196" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7205,24 +6499,19 @@
         <v>91604.76459999999</v>
       </c>
       <c r="G197" t="n">
-        <v>1809658.72427642</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K197" t="inlineStr">
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7244,24 +6533,19 @@
         <v>803966.9287</v>
       </c>
       <c r="G198" t="n">
-        <v>1809658.72427642</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K198" t="inlineStr">
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7283,24 +6567,19 @@
         <v>74229.4339</v>
       </c>
       <c r="G199" t="n">
-        <v>1809658.72427642</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K199" t="inlineStr">
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7322,24 +6601,19 @@
         <v>25212.9285</v>
       </c>
       <c r="G200" t="n">
-        <v>1834871.65277642</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K200" t="inlineStr">
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7361,24 +6635,19 @@
         <v>1061.8552</v>
       </c>
       <c r="G201" t="n">
-        <v>1835933.50797642</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K201" t="inlineStr">
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7400,24 +6669,19 @@
         <v>115160.5209</v>
       </c>
       <c r="G202" t="n">
-        <v>1720772.98707642</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K202" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7439,24 +6703,19 @@
         <v>74580.9249</v>
       </c>
       <c r="G203" t="n">
-        <v>1795353.91197642</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K203" t="inlineStr">
+      <c r="J203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7478,24 +6737,19 @@
         <v>2715.229</v>
       </c>
       <c r="G204" t="n">
-        <v>1792638.68297642</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K204" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7517,24 +6771,19 @@
         <v>29670.4936</v>
       </c>
       <c r="G205" t="n">
-        <v>1822309.17657642</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K205" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7556,24 +6805,19 @@
         <v>35979.9832</v>
       </c>
       <c r="G206" t="n">
-        <v>1858289.15977642</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K206" t="inlineStr">
+      <c r="J206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7595,24 +6839,19 @@
         <v>1217.847</v>
       </c>
       <c r="G207" t="n">
-        <v>1857071.31277642</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K207" t="inlineStr">
+      <c r="J207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7634,24 +6873,19 @@
         <v>15000</v>
       </c>
       <c r="G208" t="n">
-        <v>1872071.31277642</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K208" t="inlineStr">
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7673,24 +6907,19 @@
         <v>6072.2466</v>
       </c>
       <c r="G209" t="n">
-        <v>1865999.06617642</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K209" t="inlineStr">
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7712,24 +6941,19 @@
         <v>8797</v>
       </c>
       <c r="G210" t="n">
-        <v>1874796.06617642</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K210" t="inlineStr">
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7751,24 +6975,19 @@
         <v>8727</v>
       </c>
       <c r="G211" t="n">
-        <v>1883523.06617642</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K211" t="inlineStr">
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7790,24 +7009,19 @@
         <v>51014.7916</v>
       </c>
       <c r="G212" t="n">
-        <v>1934537.85777642</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K212" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7829,24 +7043,19 @@
         <v>45892.6989</v>
       </c>
       <c r="G213" t="n">
-        <v>1980430.55667642</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K213" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7868,24 +7077,19 @@
         <v>39161.5198</v>
       </c>
       <c r="G214" t="n">
-        <v>2019592.07647642</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K214" t="inlineStr">
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7907,24 +7111,19 @@
         <v>7398.0401</v>
       </c>
       <c r="G215" t="n">
-        <v>2012194.036376419</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K215" t="inlineStr">
+      <c r="J215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7946,24 +7145,19 @@
         <v>100</v>
       </c>
       <c r="G216" t="n">
-        <v>2012294.036376419</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K216" t="inlineStr">
+      <c r="J216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7985,24 +7179,19 @@
         <v>59897.4003</v>
       </c>
       <c r="G217" t="n">
-        <v>1952396.636076419</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K217" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8024,24 +7213,19 @@
         <v>152832.9029</v>
       </c>
       <c r="G218" t="n">
-        <v>1799563.73317642</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K218" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8063,24 +7247,19 @@
         <v>43644.0115</v>
       </c>
       <c r="G219" t="n">
-        <v>1755919.721676419</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K219" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8102,24 +7281,19 @@
         <v>76</v>
       </c>
       <c r="G220" t="n">
-        <v>1755995.721676419</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K220" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8141,24 +7315,19 @@
         <v>44934</v>
       </c>
       <c r="G221" t="n">
-        <v>1755995.721676419</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="K221" t="inlineStr">
+      <c r="J221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
